--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F18EF5-A875-514F-B7EA-D102A7C87ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1C7A8-7914-4E9E-A99C-8236425F7AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="460" windowWidth="12460" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,25 @@
     <sheet name="Chấm công" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -226,9 +236,6 @@
     <t>TIỀN MẶT</t>
   </si>
   <si>
-    <t>TỒN THUỐC T6</t>
-  </si>
-  <si>
     <t>TỔNG TÀI SẢN</t>
   </si>
   <si>
@@ -256,12 +263,6 @@
     <t>24 lon</t>
   </si>
   <si>
-    <t>BÁO CÁO TÀI CHÍNH T7/2020</t>
-  </si>
-  <si>
-    <t>TỒN THUỐC T7</t>
-  </si>
-  <si>
     <t>Khác</t>
   </si>
   <si>
@@ -280,54 +281,9 @@
     <t>BN CK</t>
   </si>
   <si>
-    <t>Báo cáo doanh thu tháng 8/2020</t>
-  </si>
-  <si>
-    <t>Báo cáo bán thuốc, vật tư tháng 8/2020</t>
-  </si>
-  <si>
-    <t>Báo cáo phiếu nhập thuốc + vật tư tháng 8/2020</t>
-  </si>
-  <si>
-    <t>Báo cáo chi khác tháng 8/2020</t>
-  </si>
-  <si>
-    <t>Báo cáo công nợ tháng 8/2020</t>
-  </si>
-  <si>
-    <t>Zin kid</t>
-  </si>
-  <si>
-    <t>Augmentin 500</t>
-  </si>
-  <si>
-    <t>Ventolin 5mg</t>
-  </si>
-  <si>
-    <t>Daleston 30</t>
-  </si>
-  <si>
-    <t>Daleston 75</t>
-  </si>
-  <si>
-    <t>Montiget</t>
-  </si>
-  <si>
-    <t>Sterimar baby</t>
-  </si>
-  <si>
-    <t>Klavunamox</t>
-  </si>
-  <si>
     <t>Thanh toán mã ngày 21/05/2020</t>
   </si>
   <si>
-    <t>cốc giấy</t>
-  </si>
-  <si>
-    <t>Giấy A5</t>
-  </si>
-  <si>
     <t>Quy ra công</t>
   </si>
   <si>
@@ -407,6 +363,30 @@
   </si>
   <si>
     <t>kem đa năng</t>
+  </si>
+  <si>
+    <t>Báo cáo doanh thu tháng 9/2020</t>
+  </si>
+  <si>
+    <t>Báo cáo bán thuốc, vật tư tháng 9/2020</t>
+  </si>
+  <si>
+    <t>Báo cáo phiếu nhập thuốc + vật tư tháng 9/2020</t>
+  </si>
+  <si>
+    <t>Báo cáo chi khác tháng 9/2020</t>
+  </si>
+  <si>
+    <t>Báo cáo công nợ tháng 9/2020</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TÀI CHÍNH 9/2020</t>
+  </si>
+  <si>
+    <t>TỒN THUỐC 9</t>
+  </si>
+  <si>
+    <t>TỒN THUỐC 8</t>
   </si>
 </sst>
 </file>
@@ -989,12 +969,6 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,7 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,17 +1094,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1111,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,6 +1125,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,6 +1136,15 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1627,172 +1609,172 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AT42"/>
+  <dimension ref="A2:AT41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="51" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="51" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="8" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" style="3" customWidth="1"/>
-    <col min="32" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="34" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1640625" style="1"/>
-    <col min="36" max="36" width="4.6640625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1640625" style="1"/>
+    <col min="21" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="3" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="1"/>
+    <col min="36" max="36" width="4.7109375" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="37">
-      <c r="B2" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
+    <row r="2" spans="1:46" ht="36">
+      <c r="B2" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="154" t="s">
+      <c r="A4" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="154"/>
+      <c r="I4" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="159"/>
+      <c r="K4" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="159" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="159"/>
+      <c r="O4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="150" t="s">
+      <c r="P4" s="155"/>
+      <c r="Q4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150" t="s">
+      <c r="R4" s="154"/>
+      <c r="S4" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150" t="s">
+      <c r="T4" s="154"/>
+      <c r="U4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150" t="s">
+      <c r="V4" s="154"/>
+      <c r="W4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="160" t="s">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="164" t="s">
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="161" t="s">
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="158" t="s">
+      <c r="AD4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="154" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="150"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -1801,22 +1783,22 @@
       <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="N5" s="126" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="54" t="s">
@@ -1861,9 +1843,9 @@
       <c r="AB5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="150"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1885,47 +1867,47 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="17">
         <f>PRODUCT(C6,200000)</f>
-        <v>800000</v>
-      </c>
-      <c r="E6" s="130">
-        <v>0</v>
-      </c>
-      <c r="F6" s="130">
+        <v>0</v>
+      </c>
+      <c r="E6" s="127">
+        <v>0</v>
+      </c>
+      <c r="F6" s="127">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="40">
         <f>PRODUCT(G6,300000)</f>
-        <v>1200000</v>
-      </c>
-      <c r="I6" s="132">
-        <v>0</v>
-      </c>
-      <c r="J6" s="132">
+        <v>0</v>
+      </c>
+      <c r="I6" s="129">
+        <v>0</v>
+      </c>
+      <c r="J6" s="129">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="120">
+      <c r="K6" s="117">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="132">
-        <v>0</v>
-      </c>
-      <c r="N6" s="132">
+      <c r="M6" s="129">
+        <v>0</v>
+      </c>
+      <c r="N6" s="129">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -1937,18 +1919,18 @@
         <v>0</v>
       </c>
       <c r="Q6" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="16">
         <f>PRODUCT(Q6,300000)</f>
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="S6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="19">
         <f>PRODUCT(S6,600000)</f>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
@@ -1980,11 +1962,11 @@
       </c>
       <c r="AC6" s="18">
         <f>SUM(P6,R6,T6,V6,X6,Z6,AB6)</f>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="17">
         <f>SUM(D6,H6,AC6,F6,J6,L6,N6)</f>
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="64"/>
     </row>
@@ -1993,106 +1975,106 @@
         <v>2</v>
       </c>
       <c r="B7" s="57">
-        <v>44045</v>
-      </c>
-      <c r="C7" s="120">
-        <v>5</v>
+        <v>44076</v>
+      </c>
+      <c r="C7" s="147">
+        <v>0</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" ref="D7:D36" si="0">PRODUCT(C7,200000)</f>
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="130">
-        <v>0</v>
-      </c>
-      <c r="F7" s="130">
-        <f t="shared" ref="F7:F36" si="1">PRODUCT(E7,100000)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="120">
-        <v>4</v>
+        <f t="shared" ref="D7:D35" si="0">PRODUCT(C7,200000)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="127">
+        <v>0</v>
+      </c>
+      <c r="F7" s="127">
+        <f t="shared" ref="F7:F35" si="1">PRODUCT(E7,100000)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="147">
+        <v>0</v>
       </c>
       <c r="H7" s="40">
-        <f t="shared" ref="H7:H36" si="2">PRODUCT(G7,300000)</f>
-        <v>1200000</v>
-      </c>
-      <c r="I7" s="132">
-        <v>0</v>
-      </c>
-      <c r="J7" s="132">
-        <f t="shared" ref="J7:J36" si="3">PRODUCT(I7,150000)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="120">
+        <f t="shared" ref="H7:H35" si="2">PRODUCT(G7,300000)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="129">
+        <v>0</v>
+      </c>
+      <c r="J7" s="129">
+        <f t="shared" ref="J7:J35" si="3">PRODUCT(I7,150000)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="147">
         <v>0</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:L36" si="4">PRODUCT(K7,300000)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="132">
-        <v>0</v>
-      </c>
-      <c r="N7" s="132">
-        <f t="shared" ref="N7:N36" si="5">PRODUCT(M8,150000)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="121">
+        <f t="shared" ref="L7:L35" si="4">PRODUCT(K7,300000)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="129">
+        <v>0</v>
+      </c>
+      <c r="N7" s="129">
+        <f t="shared" ref="N7:N35" si="5">PRODUCT(M8,150000)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="148">
         <v>0</v>
       </c>
       <c r="P7" s="41">
-        <f t="shared" ref="P7:P36" si="6">PRODUCT(O7,30000)</f>
+        <f t="shared" ref="P7:P35" si="6">PRODUCT(O7,30000)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="16">
-        <f t="shared" ref="R7:R36" si="7">PRODUCT(Q7,300000)</f>
-        <v>900000</v>
+        <f t="shared" ref="R7:R35" si="7">PRODUCT(Q7,300000)</f>
+        <v>0</v>
       </c>
       <c r="S7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="19">
-        <f t="shared" ref="T7:T36" si="8">PRODUCT(S7,600000)</f>
-        <v>600000</v>
+        <f t="shared" ref="T7:T35" si="8">PRODUCT(S7,600000)</f>
+        <v>0</v>
       </c>
       <c r="U7" s="14">
         <v>0</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" ref="V7:V36" si="9">PRODUCT(U7,30000)</f>
+        <f t="shared" ref="V7:V35" si="9">PRODUCT(U7,30000)</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
         <v>0</v>
       </c>
       <c r="X7" s="12">
-        <f t="shared" ref="X7:X36" si="10">PRODUCT(W7,50000)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="101">
-        <f t="shared" ref="Z7:Z36" si="11">PRODUCT(Y7,700000)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="101">
+        <f t="shared" ref="X7:X35" si="10">PRODUCT(W7,50000)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="99">
+        <f t="shared" ref="Z7:Z35" si="11">PRODUCT(Y7,700000)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="99">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
-        <f t="shared" ref="AB7:AB36" si="12">PRODUCT(AA7,1300000)</f>
+        <f t="shared" ref="AB7:AB35" si="12">PRODUCT(AA7,1300000)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="18">
-        <f t="shared" ref="AC7:AC36" si="13">SUM(P7,R7,T7,V7,X7,Z7,AB7)</f>
-        <v>1500000</v>
+        <f t="shared" ref="AC7:AC35" si="13">SUM(P7,R7,T7,V7,X7,Z7,AB7)</f>
+        <v>0</v>
       </c>
       <c r="AD7" s="17">
-        <f t="shared" ref="AD7:AD36" si="14">SUM(D7,H7,AC7,F7,J7,L7,N7)</f>
-        <v>3700000</v>
+        <f t="shared" ref="AD7:AD35" si="14">SUM(D7,H7,AC7,F7,J7,L7,N7)</f>
+        <v>0</v>
       </c>
       <c r="AE7" s="77"/>
     </row>
@@ -2101,51 +2083,51 @@
         <v>3</v>
       </c>
       <c r="B8" s="57">
-        <v>44046</v>
-      </c>
-      <c r="C8" s="120">
-        <v>7</v>
+        <v>44077</v>
+      </c>
+      <c r="C8" s="147">
+        <v>0</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>1400000</v>
-      </c>
-      <c r="E8" s="130">
-        <v>0</v>
-      </c>
-      <c r="F8" s="130">
+        <v>0</v>
+      </c>
+      <c r="E8" s="127">
+        <v>0</v>
+      </c>
+      <c r="F8" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="120">
-        <v>2</v>
+      <c r="G8" s="147">
+        <v>0</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="I8" s="132">
-        <v>0</v>
-      </c>
-      <c r="J8" s="132">
+        <v>0</v>
+      </c>
+      <c r="I8" s="129">
+        <v>0</v>
+      </c>
+      <c r="J8" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="120">
+      <c r="K8" s="147">
         <v>0</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="132">
-        <v>0</v>
-      </c>
-      <c r="N8" s="132">
+      <c r="M8" s="129">
+        <v>0</v>
+      </c>
+      <c r="N8" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="121">
+      <c r="O8" s="148">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2160,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="14">
         <v>0</v>
@@ -2180,14 +2162,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="101">
+      <c r="Y8" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="101">
+      <c r="AA8" s="99">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2196,11 +2178,11 @@
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="13"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="17">
         <f t="shared" si="14"/>
-        <v>2600000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="77"/>
       <c r="AF8" s="11"/>
@@ -2222,51 +2204,51 @@
         <v>4</v>
       </c>
       <c r="B9" s="57">
-        <v>44047</v>
-      </c>
-      <c r="C9" s="120">
-        <v>4</v>
+        <v>44078</v>
+      </c>
+      <c r="C9" s="147">
+        <v>0</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="E9" s="130">
-        <v>0</v>
-      </c>
-      <c r="F9" s="130">
+        <v>0</v>
+      </c>
+      <c r="E9" s="127">
+        <v>0</v>
+      </c>
+      <c r="F9" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="147">
         <v>0</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="132">
-        <v>0</v>
-      </c>
-      <c r="J9" s="132">
+      <c r="I9" s="129">
+        <v>0</v>
+      </c>
+      <c r="J9" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="147">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="132">
-        <v>0</v>
-      </c>
-      <c r="N9" s="132">
+      <c r="M9" s="129">
+        <v>0</v>
+      </c>
+      <c r="N9" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="121">
+      <c r="O9" s="148">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2301,14 +2283,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="101">
+      <c r="Y9" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="101">
+      <c r="AA9" s="99">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2321,7 +2303,7 @@
       </c>
       <c r="AD9" s="17">
         <f t="shared" si="14"/>
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="77"/>
     </row>
@@ -2330,51 +2312,51 @@
         <v>5</v>
       </c>
       <c r="B10" s="57">
-        <v>44048</v>
-      </c>
-      <c r="C10" s="120">
-        <v>1</v>
+        <v>44079</v>
+      </c>
+      <c r="C10" s="147">
+        <v>0</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="E10" s="130">
-        <v>0</v>
-      </c>
-      <c r="F10" s="130">
+        <v>0</v>
+      </c>
+      <c r="E10" s="127">
+        <v>0</v>
+      </c>
+      <c r="F10" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="120">
-        <v>1</v>
+      <c r="G10" s="147">
+        <v>0</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I10" s="132">
-        <v>0</v>
-      </c>
-      <c r="J10" s="132">
+        <v>0</v>
+      </c>
+      <c r="I10" s="129">
+        <v>0</v>
+      </c>
+      <c r="J10" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="120">
+      <c r="K10" s="147">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="132">
-        <v>0</v>
-      </c>
-      <c r="N10" s="132">
+      <c r="M10" s="129">
+        <v>0</v>
+      </c>
+      <c r="N10" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="121">
+      <c r="O10" s="148">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2409,14 +2391,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="101">
+      <c r="Y10" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="101">
+      <c r="AA10" s="99">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2429,7 +2411,7 @@
       </c>
       <c r="AD10" s="17">
         <f t="shared" si="14"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="77"/>
     </row>
@@ -2438,56 +2420,56 @@
         <v>7</v>
       </c>
       <c r="B11" s="57">
-        <v>44049</v>
-      </c>
-      <c r="C11" s="120">
-        <v>5</v>
+        <v>44080</v>
+      </c>
+      <c r="C11" s="147">
+        <v>0</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E11" s="130">
-        <v>0</v>
-      </c>
-      <c r="F11" s="130">
+        <v>0</v>
+      </c>
+      <c r="E11" s="127">
+        <v>0</v>
+      </c>
+      <c r="F11" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="120">
-        <v>3</v>
+      <c r="G11" s="147">
+        <v>0</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="I11" s="132">
-        <v>0</v>
-      </c>
-      <c r="J11" s="132">
+        <v>0</v>
+      </c>
+      <c r="I11" s="129">
+        <v>0</v>
+      </c>
+      <c r="J11" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="120">
-        <v>1</v>
+      <c r="K11" s="147">
+        <v>0</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M11" s="132">
-        <v>0</v>
-      </c>
-      <c r="N11" s="132">
+        <v>0</v>
+      </c>
+      <c r="M11" s="129">
+        <v>0</v>
+      </c>
+      <c r="N11" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="121">
-        <v>1</v>
+      <c r="O11" s="148">
+        <v>0</v>
       </c>
       <c r="P11" s="41">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -2517,14 +2499,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="101">
+      <c r="Y11" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="101">
+      <c r="AA11" s="99">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2533,11 +2515,11 @@
       </c>
       <c r="AC11" s="18">
         <f t="shared" si="13"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="17">
         <f t="shared" si="14"/>
-        <v>2230000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="77"/>
     </row>
@@ -2546,51 +2528,51 @@
         <v>7</v>
       </c>
       <c r="B12" s="57">
-        <v>44050</v>
-      </c>
-      <c r="C12" s="120">
-        <v>3</v>
+        <v>44081</v>
+      </c>
+      <c r="C12" s="147">
+        <v>0</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-      <c r="E12" s="130">
-        <v>0</v>
-      </c>
-      <c r="F12" s="130">
+        <v>0</v>
+      </c>
+      <c r="E12" s="127">
+        <v>0</v>
+      </c>
+      <c r="F12" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="147">
         <v>0</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="132">
-        <v>0</v>
-      </c>
-      <c r="J12" s="132">
+      <c r="I12" s="129">
+        <v>0</v>
+      </c>
+      <c r="J12" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="147">
         <v>0</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M12" s="132">
-        <v>0</v>
-      </c>
-      <c r="N12" s="132">
+      <c r="M12" s="129">
+        <v>0</v>
+      </c>
+      <c r="N12" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="121">
+      <c r="O12" s="148">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2612,11 +2594,11 @@
         <v>0</v>
       </c>
       <c r="U12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="9"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="W12" s="13">
         <v>0</v>
@@ -2625,14 +2607,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="101">
+      <c r="Y12" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="101">
+      <c r="AA12" s="99">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2641,11 +2623,11 @@
       </c>
       <c r="AC12" s="18">
         <f t="shared" si="13"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="17">
         <f t="shared" si="14"/>
-        <v>630000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="77"/>
     </row>
@@ -2654,51 +2636,51 @@
         <v>8</v>
       </c>
       <c r="B13" s="57">
-        <v>44051</v>
-      </c>
-      <c r="C13" s="120">
-        <v>2</v>
+        <v>44082</v>
+      </c>
+      <c r="C13" s="147">
+        <v>0</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="E13" s="130">
-        <v>0</v>
-      </c>
-      <c r="F13" s="130">
+        <v>0</v>
+      </c>
+      <c r="E13" s="127">
+        <v>0</v>
+      </c>
+      <c r="F13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="120">
-        <v>3</v>
+      <c r="G13" s="147">
+        <v>0</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="I13" s="132">
-        <v>0</v>
-      </c>
-      <c r="J13" s="132">
+        <v>0</v>
+      </c>
+      <c r="I13" s="129">
+        <v>0</v>
+      </c>
+      <c r="J13" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="147">
         <v>0</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M13" s="132">
-        <v>0</v>
-      </c>
-      <c r="N13" s="132">
+      <c r="M13" s="129">
+        <v>0</v>
+      </c>
+      <c r="N13" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="121">
+      <c r="O13" s="148">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2706,18 +2688,18 @@
         <v>0</v>
       </c>
       <c r="Q13" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="7"/>
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="S13" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="8"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="14">
         <v>0</v>
@@ -2733,14 +2715,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="122">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="101">
+      <c r="Y13" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="99">
         <f t="shared" si="11"/>
-        <v>700000</v>
-      </c>
-      <c r="AA13" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="99">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2749,11 +2731,11 @@
       </c>
       <c r="AC13" s="18">
         <f t="shared" si="13"/>
-        <v>2800000</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="17">
         <f t="shared" si="14"/>
-        <v>4100000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="77"/>
     </row>
@@ -2762,51 +2744,51 @@
         <v>9</v>
       </c>
       <c r="B14" s="57">
-        <v>44052</v>
-      </c>
-      <c r="C14" s="120">
-        <v>2</v>
+        <v>44083</v>
+      </c>
+      <c r="C14" s="147">
+        <v>0</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="E14" s="130">
-        <v>0</v>
-      </c>
-      <c r="F14" s="130">
+        <v>0</v>
+      </c>
+      <c r="E14" s="127">
+        <v>0</v>
+      </c>
+      <c r="F14" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="120">
-        <v>3</v>
+      <c r="G14" s="147">
+        <v>0</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="I14" s="132">
-        <v>0</v>
-      </c>
-      <c r="J14" s="132">
+        <v>0</v>
+      </c>
+      <c r="I14" s="129">
+        <v>0</v>
+      </c>
+      <c r="J14" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="120">
-        <v>1</v>
+      <c r="K14" s="147">
+        <v>0</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M14" s="132">
-        <v>0</v>
-      </c>
-      <c r="N14" s="132">
+        <v>0</v>
+      </c>
+      <c r="M14" s="129">
+        <v>0</v>
+      </c>
+      <c r="N14" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="121">
+      <c r="O14" s="148">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2841,14 +2823,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="101">
+      <c r="Y14" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="101">
+      <c r="AA14" s="99">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -2861,7 +2843,7 @@
       </c>
       <c r="AD14" s="17">
         <f t="shared" si="14"/>
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="77"/>
       <c r="AF14" s="11"/>
@@ -2872,51 +2854,51 @@
     <row r="15" spans="1:46">
       <c r="A15" s="81"/>
       <c r="B15" s="57">
-        <v>44053</v>
-      </c>
-      <c r="C15" s="120">
-        <v>5</v>
+        <v>44084</v>
+      </c>
+      <c r="C15" s="147">
+        <v>0</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E15" s="130">
-        <v>0</v>
-      </c>
-      <c r="F15" s="130">
+        <v>0</v>
+      </c>
+      <c r="E15" s="127">
+        <v>0</v>
+      </c>
+      <c r="F15" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="120">
-        <v>1</v>
+      <c r="G15" s="147">
+        <v>0</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I15" s="132">
-        <v>0</v>
-      </c>
-      <c r="J15" s="132">
+        <v>0</v>
+      </c>
+      <c r="I15" s="129">
+        <v>0</v>
+      </c>
+      <c r="J15" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="120">
+      <c r="K15" s="147">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="132">
-        <v>0</v>
-      </c>
-      <c r="N15" s="132">
+      <c r="M15" s="129">
+        <v>0</v>
+      </c>
+      <c r="N15" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="121">
+      <c r="O15" s="148">
         <v>0</v>
       </c>
       <c r="P15" s="41">
@@ -2931,11 +2913,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="8"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="14">
         <v>0</v>
@@ -2951,14 +2933,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="101">
+      <c r="Y15" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="101">
+      <c r="AA15" s="99">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -2967,11 +2949,11 @@
       </c>
       <c r="AC15" s="18">
         <f t="shared" si="13"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="17">
         <f t="shared" si="14"/>
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="81"/>
       <c r="AF15" s="11"/>
@@ -2982,51 +2964,51 @@
     <row r="16" spans="1:46">
       <c r="A16" s="81"/>
       <c r="B16" s="57">
-        <v>44054</v>
-      </c>
-      <c r="C16" s="120">
-        <v>5</v>
+        <v>44085</v>
+      </c>
+      <c r="C16" s="147">
+        <v>0</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E16" s="130">
-        <v>0</v>
-      </c>
-      <c r="F16" s="130">
+        <v>0</v>
+      </c>
+      <c r="E16" s="127">
+        <v>0</v>
+      </c>
+      <c r="F16" s="127">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="147">
         <v>0</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="132">
-        <v>0</v>
-      </c>
-      <c r="J16" s="132">
+      <c r="I16" s="129">
+        <v>0</v>
+      </c>
+      <c r="J16" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="147">
         <v>0</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="132">
-        <v>0</v>
-      </c>
-      <c r="N16" s="132">
+      <c r="M16" s="129">
+        <v>0</v>
+      </c>
+      <c r="N16" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="121">
+      <c r="O16" s="148">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3061,14 +3043,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="101">
+      <c r="Y16" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="101">
+      <c r="AA16" s="99">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3081,7 +3063,7 @@
       </c>
       <c r="AD16" s="17">
         <f t="shared" si="14"/>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="81"/>
       <c r="AF16" s="11"/>
@@ -3092,51 +3074,51 @@
     <row r="17" spans="1:35">
       <c r="A17" s="81"/>
       <c r="B17" s="57">
-        <v>44055</v>
-      </c>
-      <c r="C17" s="120">
-        <v>5</v>
+        <v>44086</v>
+      </c>
+      <c r="C17" s="147">
+        <v>0</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E17" s="130">
-        <v>0</v>
-      </c>
-      <c r="F17" s="130">
+        <v>0</v>
+      </c>
+      <c r="E17" s="127">
+        <v>0</v>
+      </c>
+      <c r="F17" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="120">
-        <v>1</v>
+      <c r="G17" s="147">
+        <v>0</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I17" s="132">
-        <v>0</v>
-      </c>
-      <c r="J17" s="132">
+        <v>0</v>
+      </c>
+      <c r="I17" s="129">
+        <v>0</v>
+      </c>
+      <c r="J17" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="120">
-        <v>1</v>
+      <c r="K17" s="147">
+        <v>0</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M17" s="132">
-        <v>0</v>
-      </c>
-      <c r="N17" s="132">
+        <v>0</v>
+      </c>
+      <c r="M17" s="129">
+        <v>0</v>
+      </c>
+      <c r="N17" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="121">
+      <c r="O17" s="148">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3151,11 +3133,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="19">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="14">
         <v>0</v>
@@ -3171,14 +3153,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="101">
+      <c r="Y17" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="101">
+      <c r="AA17" s="99">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3187,11 +3169,11 @@
       </c>
       <c r="AC17" s="18">
         <f t="shared" si="13"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="17">
         <f t="shared" si="14"/>
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="81"/>
       <c r="AF17" s="11"/>
@@ -3202,51 +3184,51 @@
     <row r="18" spans="1:35">
       <c r="A18" s="81"/>
       <c r="B18" s="57">
-        <v>44056</v>
-      </c>
-      <c r="C18" s="120">
-        <v>5</v>
+        <v>44087</v>
+      </c>
+      <c r="C18" s="147">
+        <v>0</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E18" s="130">
-        <v>0</v>
-      </c>
-      <c r="F18" s="130">
+        <v>0</v>
+      </c>
+      <c r="E18" s="127">
+        <v>0</v>
+      </c>
+      <c r="F18" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="120">
-        <v>1</v>
+      <c r="G18" s="147">
+        <v>0</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I18" s="132">
-        <v>0</v>
-      </c>
-      <c r="J18" s="132">
+        <v>0</v>
+      </c>
+      <c r="I18" s="129">
+        <v>0</v>
+      </c>
+      <c r="J18" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="120">
-        <v>1</v>
+      <c r="K18" s="147">
+        <v>0</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M18" s="132">
-        <v>0</v>
-      </c>
-      <c r="N18" s="132">
+        <v>0</v>
+      </c>
+      <c r="M18" s="129">
+        <v>0</v>
+      </c>
+      <c r="N18" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="121">
+      <c r="O18" s="148">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3281,14 +3263,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="101">
+      <c r="Y18" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="101">
+      <c r="AA18" s="99">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3301,7 +3283,7 @@
       </c>
       <c r="AD18" s="17">
         <f t="shared" si="14"/>
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="81"/>
       <c r="AF18" s="11"/>
@@ -3312,51 +3294,51 @@
     <row r="19" spans="1:35">
       <c r="A19" s="81"/>
       <c r="B19" s="57">
-        <v>44057</v>
-      </c>
-      <c r="C19" s="120">
-        <v>9</v>
+        <v>44088</v>
+      </c>
+      <c r="C19" s="147">
+        <v>0</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
-        <v>1800000</v>
-      </c>
-      <c r="E19" s="130">
-        <v>0</v>
-      </c>
-      <c r="F19" s="130">
+        <v>0</v>
+      </c>
+      <c r="E19" s="127">
+        <v>0</v>
+      </c>
+      <c r="F19" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="147">
         <v>0</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="132">
-        <v>0</v>
-      </c>
-      <c r="J19" s="132">
+      <c r="I19" s="129">
+        <v>0</v>
+      </c>
+      <c r="J19" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="120">
-        <v>2</v>
+      <c r="K19" s="147">
+        <v>0</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
-        <v>600000</v>
-      </c>
-      <c r="M19" s="132">
-        <v>0</v>
-      </c>
-      <c r="N19" s="132">
+        <v>0</v>
+      </c>
+      <c r="M19" s="129">
+        <v>0</v>
+      </c>
+      <c r="N19" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="121">
+      <c r="O19" s="148">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3391,14 +3373,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="101">
+      <c r="Y19" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="101">
+      <c r="AA19" s="99">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3411,9 +3393,9 @@
       </c>
       <c r="AD19" s="17">
         <f t="shared" si="14"/>
-        <v>2400000</v>
-      </c>
-      <c r="AE19" s="104"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="102"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
@@ -3422,51 +3404,51 @@
     <row r="20" spans="1:35">
       <c r="A20" s="81"/>
       <c r="B20" s="57">
-        <v>44058</v>
-      </c>
-      <c r="C20" s="120">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="C20" s="147">
+        <v>0</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="E20" s="130">
-        <v>0</v>
-      </c>
-      <c r="F20" s="130">
+        <v>0</v>
+      </c>
+      <c r="E20" s="127">
+        <v>0</v>
+      </c>
+      <c r="F20" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="120">
-        <v>4</v>
+      <c r="G20" s="147">
+        <v>0</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="I20" s="132">
-        <v>0</v>
-      </c>
-      <c r="J20" s="132">
+        <v>0</v>
+      </c>
+      <c r="I20" s="129">
+        <v>0</v>
+      </c>
+      <c r="J20" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="120">
+      <c r="K20" s="147">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="132">
-        <v>0</v>
-      </c>
-      <c r="N20" s="132">
+      <c r="M20" s="129">
+        <v>0</v>
+      </c>
+      <c r="N20" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="121">
+      <c r="O20" s="148">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3474,18 +3456,18 @@
         <v>0</v>
       </c>
       <c r="Q20" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="7"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="19">
         <f t="shared" si="8"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="14">
         <v>0</v>
@@ -3501,14 +3483,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="101">
+      <c r="Y20" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="101">
+      <c r="AA20" s="99">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3517,11 +3499,11 @@
       </c>
       <c r="AC20" s="18">
         <f t="shared" si="13"/>
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="17">
         <f t="shared" si="14"/>
-        <v>3800000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="81"/>
       <c r="AF20" s="11"/>
@@ -3532,51 +3514,51 @@
     <row r="21" spans="1:35">
       <c r="A21" s="81"/>
       <c r="B21" s="57">
-        <v>44059</v>
-      </c>
-      <c r="C21" s="120">
-        <v>7</v>
+        <v>44090</v>
+      </c>
+      <c r="C21" s="147">
+        <v>0</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
-        <v>1400000</v>
-      </c>
-      <c r="E21" s="130">
-        <v>0</v>
-      </c>
-      <c r="F21" s="130">
+        <v>0</v>
+      </c>
+      <c r="E21" s="127">
+        <v>0</v>
+      </c>
+      <c r="F21" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="120">
-        <v>1</v>
+      <c r="G21" s="147">
+        <v>0</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I21" s="132">
-        <v>0</v>
-      </c>
-      <c r="J21" s="132">
+        <v>0</v>
+      </c>
+      <c r="I21" s="129">
+        <v>0</v>
+      </c>
+      <c r="J21" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="120">
-        <v>2</v>
+      <c r="K21" s="147">
+        <v>0</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
-        <v>600000</v>
-      </c>
-      <c r="M21" s="132">
-        <v>0</v>
-      </c>
-      <c r="N21" s="132">
+        <v>0</v>
+      </c>
+      <c r="M21" s="129">
+        <v>0</v>
+      </c>
+      <c r="N21" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="121">
+      <c r="O21" s="148">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3584,18 +3566,18 @@
         <v>0</v>
       </c>
       <c r="Q21" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="16">
         <f t="shared" si="7"/>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="S21" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="19">
         <f t="shared" si="8"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="14">
         <v>0</v>
@@ -3611,14 +3593,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="122">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="101">
+      <c r="Y21" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="99">
         <f t="shared" si="11"/>
-        <v>700000</v>
-      </c>
-      <c r="AA21" s="101">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="99">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3627,11 +3609,11 @@
       </c>
       <c r="AC21" s="18">
         <f t="shared" si="13"/>
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="17">
         <f t="shared" si="14"/>
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="81"/>
       <c r="AF21" s="11"/>
@@ -3642,56 +3624,56 @@
     <row r="22" spans="1:35">
       <c r="A22" s="81"/>
       <c r="B22" s="57">
-        <v>44060</v>
-      </c>
-      <c r="C22" s="120">
-        <v>3</v>
+        <v>44091</v>
+      </c>
+      <c r="C22" s="147">
+        <v>0</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
-      <c r="E22" s="130">
-        <v>0</v>
-      </c>
-      <c r="F22" s="130">
+        <v>0</v>
+      </c>
+      <c r="E22" s="127">
+        <v>0</v>
+      </c>
+      <c r="F22" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="120">
-        <v>2</v>
+      <c r="G22" s="147">
+        <v>0</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="I22" s="132">
-        <v>0</v>
-      </c>
-      <c r="J22" s="132">
+        <v>0</v>
+      </c>
+      <c r="I22" s="129">
+        <v>0</v>
+      </c>
+      <c r="J22" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="120">
+      <c r="K22" s="147">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="132">
-        <v>0</v>
-      </c>
-      <c r="N22" s="132">
+      <c r="M22" s="129">
+        <v>0</v>
+      </c>
+      <c r="N22" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="121">
-        <v>1</v>
+      <c r="O22" s="148">
+        <v>0</v>
       </c>
       <c r="P22" s="41">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="14">
         <v>0</v>
@@ -3721,14 +3703,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="122">
+      <c r="Y22" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="119">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="101">
+      <c r="AA22" s="99">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3737,11 +3719,11 @@
       </c>
       <c r="AC22" s="18">
         <f t="shared" si="13"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="17">
         <f t="shared" si="14"/>
-        <v>1230000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="81"/>
       <c r="AF22" s="11"/>
@@ -3752,51 +3734,51 @@
     <row r="23" spans="1:35">
       <c r="A23" s="81"/>
       <c r="B23" s="57">
-        <v>44061</v>
-      </c>
-      <c r="C23" s="120">
-        <v>1</v>
+        <v>44092</v>
+      </c>
+      <c r="C23" s="147">
+        <v>0</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="E23" s="130">
-        <v>0</v>
-      </c>
-      <c r="F23" s="130">
+        <v>0</v>
+      </c>
+      <c r="E23" s="127">
+        <v>0</v>
+      </c>
+      <c r="F23" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="147">
         <v>0</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="132">
-        <v>0</v>
-      </c>
-      <c r="J23" s="132">
+      <c r="I23" s="129">
+        <v>0</v>
+      </c>
+      <c r="J23" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="120">
+      <c r="K23" s="147">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="132">
-        <v>0</v>
-      </c>
-      <c r="N23" s="132">
+      <c r="M23" s="129">
+        <v>0</v>
+      </c>
+      <c r="N23" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="121">
+      <c r="O23" s="148">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3831,14 +3813,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="122">
+      <c r="Y23" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="119">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="101">
+      <c r="AA23" s="99">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3851,7 +3833,7 @@
       </c>
       <c r="AD23" s="17">
         <f t="shared" si="14"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="81"/>
       <c r="AF23" s="11"/>
@@ -3862,51 +3844,51 @@
     <row r="24" spans="1:35">
       <c r="A24" s="81"/>
       <c r="B24" s="57">
-        <v>44062</v>
-      </c>
-      <c r="C24" s="120">
-        <v>5</v>
+        <v>44093</v>
+      </c>
+      <c r="C24" s="147">
+        <v>0</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E24" s="130">
-        <v>0</v>
-      </c>
-      <c r="F24" s="130">
+        <v>0</v>
+      </c>
+      <c r="E24" s="127">
+        <v>0</v>
+      </c>
+      <c r="F24" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="120">
-        <v>1</v>
+      <c r="G24" s="147">
+        <v>0</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I24" s="132">
-        <v>0</v>
-      </c>
-      <c r="J24" s="132">
+        <v>0</v>
+      </c>
+      <c r="I24" s="129">
+        <v>0</v>
+      </c>
+      <c r="J24" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="120">
-        <v>1</v>
+      <c r="K24" s="147">
+        <v>0</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M24" s="132">
-        <v>0</v>
-      </c>
-      <c r="N24" s="132">
+        <v>0</v>
+      </c>
+      <c r="M24" s="129">
+        <v>0</v>
+      </c>
+      <c r="N24" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="121">
+      <c r="O24" s="148">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -3914,11 +3896,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="16">
         <f t="shared" si="7"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
@@ -3941,14 +3923,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="101">
+      <c r="Y24" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="101">
+      <c r="AA24" s="99">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -3957,11 +3939,11 @@
       </c>
       <c r="AC24" s="18">
         <f t="shared" si="13"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="17">
         <f t="shared" si="14"/>
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="81"/>
       <c r="AF24" s="11"/>
@@ -3972,51 +3954,51 @@
     <row r="25" spans="1:35">
       <c r="A25" s="81"/>
       <c r="B25" s="57">
-        <v>44063</v>
-      </c>
-      <c r="C25" s="120">
-        <v>5</v>
+        <v>44094</v>
+      </c>
+      <c r="C25" s="147">
+        <v>0</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E25" s="130">
-        <v>0</v>
-      </c>
-      <c r="F25" s="130">
+        <v>0</v>
+      </c>
+      <c r="E25" s="127">
+        <v>0</v>
+      </c>
+      <c r="F25" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="120">
-        <v>1</v>
+      <c r="G25" s="147">
+        <v>0</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I25" s="132">
-        <v>0</v>
-      </c>
-      <c r="J25" s="132">
+        <v>0</v>
+      </c>
+      <c r="I25" s="129">
+        <v>0</v>
+      </c>
+      <c r="J25" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="120">
-        <v>1</v>
+      <c r="K25" s="147">
+        <v>0</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M25" s="132">
-        <v>0</v>
-      </c>
-      <c r="N25" s="132">
+        <v>0</v>
+      </c>
+      <c r="M25" s="129">
+        <v>0</v>
+      </c>
+      <c r="N25" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="121">
+      <c r="O25" s="148">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4051,14 +4033,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="101">
+      <c r="Y25" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="101">
+      <c r="AA25" s="99">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4071,7 +4053,7 @@
       </c>
       <c r="AD25" s="17">
         <f t="shared" si="14"/>
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="81"/>
       <c r="AF25" s="11"/>
@@ -4082,51 +4064,51 @@
     <row r="26" spans="1:35">
       <c r="A26" s="81"/>
       <c r="B26" s="57">
-        <v>44064</v>
-      </c>
-      <c r="C26" s="120">
+        <v>44095</v>
+      </c>
+      <c r="C26" s="147">
         <v>0</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="130">
-        <v>0</v>
-      </c>
-      <c r="F26" s="130">
+      <c r="E26" s="127">
+        <v>0</v>
+      </c>
+      <c r="F26" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="120">
-        <v>1</v>
+      <c r="G26" s="147">
+        <v>0</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I26" s="132">
-        <v>0</v>
-      </c>
-      <c r="J26" s="132">
+        <v>0</v>
+      </c>
+      <c r="I26" s="129">
+        <v>0</v>
+      </c>
+      <c r="J26" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="120">
-        <v>1</v>
+      <c r="K26" s="147">
+        <v>0</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M26" s="132">
-        <v>0</v>
-      </c>
-      <c r="N26" s="132">
+        <v>0</v>
+      </c>
+      <c r="M26" s="129">
+        <v>0</v>
+      </c>
+      <c r="N26" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="121">
+      <c r="O26" s="148">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4141,11 +4123,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="14">
         <v>0</v>
@@ -4161,14 +4143,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="101">
+      <c r="Y26" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="101">
+      <c r="AA26" s="99">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4177,11 +4159,11 @@
       </c>
       <c r="AC26" s="18">
         <f t="shared" si="13"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="17">
         <f t="shared" si="14"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="81"/>
       <c r="AF26" s="11"/>
@@ -4192,51 +4174,51 @@
     <row r="27" spans="1:35">
       <c r="A27" s="81"/>
       <c r="B27" s="57">
-        <v>44065</v>
-      </c>
-      <c r="C27" s="120">
-        <v>1</v>
+        <v>44096</v>
+      </c>
+      <c r="C27" s="147">
+        <v>0</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="E27" s="130">
-        <v>0</v>
-      </c>
-      <c r="F27" s="130">
+        <v>0</v>
+      </c>
+      <c r="E27" s="127">
+        <v>0</v>
+      </c>
+      <c r="F27" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="120">
-        <v>3</v>
+      <c r="G27" s="147">
+        <v>0</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="I27" s="132">
-        <v>0</v>
-      </c>
-      <c r="J27" s="132">
+        <v>0</v>
+      </c>
+      <c r="I27" s="129">
+        <v>0</v>
+      </c>
+      <c r="J27" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="120">
-        <v>1</v>
+      <c r="K27" s="147">
+        <v>0</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="M27" s="132">
-        <v>0</v>
-      </c>
-      <c r="N27" s="132">
+        <v>0</v>
+      </c>
+      <c r="M27" s="129">
+        <v>0</v>
+      </c>
+      <c r="N27" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="121">
+      <c r="O27" s="148">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4244,18 +4226,18 @@
         <v>0</v>
       </c>
       <c r="Q27" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="7"/>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="S27" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="19">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U27" s="14">
         <v>0</v>
@@ -4271,14 +4253,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="101">
+      <c r="Y27" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="101">
+      <c r="AA27" s="99">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4287,13 +4269,13 @@
       </c>
       <c r="AC27" s="18">
         <f t="shared" si="13"/>
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="17">
         <f t="shared" si="14"/>
-        <v>2300000</v>
-      </c>
-      <c r="AE27" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="113"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
@@ -4302,51 +4284,51 @@
     <row r="28" spans="1:35">
       <c r="A28" s="81"/>
       <c r="B28" s="57">
-        <v>44066</v>
-      </c>
-      <c r="C28" s="120">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="C28" s="147">
+        <v>0</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
-      <c r="E28" s="130">
-        <v>0</v>
-      </c>
-      <c r="F28" s="130">
+        <v>0</v>
+      </c>
+      <c r="E28" s="127">
+        <v>0</v>
+      </c>
+      <c r="F28" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="120">
-        <v>4</v>
+      <c r="G28" s="147">
+        <v>0</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="I28" s="132">
-        <v>0</v>
-      </c>
-      <c r="J28" s="132">
+        <v>0</v>
+      </c>
+      <c r="I28" s="129">
+        <v>0</v>
+      </c>
+      <c r="J28" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="120">
+      <c r="K28" s="147">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="132">
-        <v>0</v>
-      </c>
-      <c r="N28" s="132">
+      <c r="M28" s="129">
+        <v>0</v>
+      </c>
+      <c r="N28" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="121">
+      <c r="O28" s="148">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4354,18 +4336,18 @@
         <v>0</v>
       </c>
       <c r="Q28" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R28" s="16">
         <f t="shared" si="7"/>
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="S28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="19">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="U28" s="14">
         <v>0</v>
@@ -4381,14 +4363,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="101">
+      <c r="Y28" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="101">
+      <c r="AA28" s="99">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4397,11 +4379,11 @@
       </c>
       <c r="AC28" s="18">
         <f t="shared" si="13"/>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="17">
         <f t="shared" si="14"/>
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="81"/>
       <c r="AF28" s="11"/>
@@ -4412,51 +4394,51 @@
     <row r="29" spans="1:35">
       <c r="A29" s="81"/>
       <c r="B29" s="57">
-        <v>44067</v>
-      </c>
-      <c r="C29" s="120">
+        <v>44098</v>
+      </c>
+      <c r="C29" s="147">
         <v>0</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="130">
-        <v>0</v>
-      </c>
-      <c r="F29" s="130">
+      <c r="E29" s="127">
+        <v>0</v>
+      </c>
+      <c r="F29" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G29" s="147">
         <v>0</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="132">
-        <v>0</v>
-      </c>
-      <c r="J29" s="132">
+      <c r="I29" s="129">
+        <v>0</v>
+      </c>
+      <c r="J29" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="120">
+      <c r="K29" s="147">
         <v>0</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="132">
-        <v>0</v>
-      </c>
-      <c r="N29" s="132">
+      <c r="M29" s="129">
+        <v>0</v>
+      </c>
+      <c r="N29" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="121">
+      <c r="O29" s="148">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4491,14 +4473,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="101">
+      <c r="Y29" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="101">
+      <c r="AA29" s="99">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4522,51 +4504,51 @@
     <row r="30" spans="1:35">
       <c r="A30" s="81"/>
       <c r="B30" s="57">
-        <v>44068</v>
-      </c>
-      <c r="C30" s="120">
+        <v>44099</v>
+      </c>
+      <c r="C30" s="147">
         <v>0</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="130">
-        <v>0</v>
-      </c>
-      <c r="F30" s="130">
+      <c r="E30" s="127">
+        <v>0</v>
+      </c>
+      <c r="F30" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="147">
         <v>0</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="132">
-        <v>0</v>
-      </c>
-      <c r="J30" s="132">
+      <c r="I30" s="129">
+        <v>0</v>
+      </c>
+      <c r="J30" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="120">
+      <c r="K30" s="147">
         <v>0</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="132">
-        <v>0</v>
-      </c>
-      <c r="N30" s="132">
+      <c r="M30" s="129">
+        <v>0</v>
+      </c>
+      <c r="N30" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="121">
+      <c r="O30" s="148">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4601,14 +4583,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="101">
+      <c r="Y30" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="101">
+      <c r="AA30" s="99">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4632,51 +4614,51 @@
     <row r="31" spans="1:35">
       <c r="A31" s="81"/>
       <c r="B31" s="57">
-        <v>44069</v>
-      </c>
-      <c r="C31" s="120">
+        <v>44100</v>
+      </c>
+      <c r="C31" s="147">
         <v>0</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="130">
-        <v>0</v>
-      </c>
-      <c r="F31" s="130">
+      <c r="E31" s="127">
+        <v>0</v>
+      </c>
+      <c r="F31" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="147">
         <v>0</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="132">
-        <v>0</v>
-      </c>
-      <c r="J31" s="132">
+      <c r="I31" s="129">
+        <v>0</v>
+      </c>
+      <c r="J31" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="120">
+      <c r="K31" s="147">
         <v>0</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="132">
-        <v>0</v>
-      </c>
-      <c r="N31" s="132">
+      <c r="M31" s="129">
+        <v>0</v>
+      </c>
+      <c r="N31" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="121">
+      <c r="O31" s="148">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4711,14 +4693,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="101">
+      <c r="Y31" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="101">
+      <c r="AA31" s="99">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4742,51 +4724,51 @@
     <row r="32" spans="1:35">
       <c r="A32" s="81"/>
       <c r="B32" s="57">
-        <v>44070</v>
-      </c>
-      <c r="C32" s="120">
+        <v>44101</v>
+      </c>
+      <c r="C32" s="147">
         <v>0</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="130">
-        <v>0</v>
-      </c>
-      <c r="F32" s="130">
+      <c r="E32" s="127">
+        <v>0</v>
+      </c>
+      <c r="F32" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G32" s="147">
         <v>0</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="132">
-        <v>0</v>
-      </c>
-      <c r="J32" s="132">
+      <c r="I32" s="129">
+        <v>0</v>
+      </c>
+      <c r="J32" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="120">
+      <c r="K32" s="147">
         <v>0</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="132">
-        <v>0</v>
-      </c>
-      <c r="N32" s="132">
+      <c r="M32" s="129">
+        <v>0</v>
+      </c>
+      <c r="N32" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="121">
+      <c r="O32" s="148">
         <v>0</v>
       </c>
       <c r="P32" s="41">
@@ -4821,14 +4803,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="101">
+      <c r="Y32" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="101">
+      <c r="AA32" s="99">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4852,51 +4834,51 @@
     <row r="33" spans="1:35">
       <c r="A33" s="81"/>
       <c r="B33" s="57">
-        <v>44071</v>
-      </c>
-      <c r="C33" s="120">
+        <v>44102</v>
+      </c>
+      <c r="C33" s="147">
         <v>0</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="130">
-        <v>0</v>
-      </c>
-      <c r="F33" s="130">
+      <c r="E33" s="127">
+        <v>0</v>
+      </c>
+      <c r="F33" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="120">
+      <c r="G33" s="147">
         <v>0</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="132">
-        <v>0</v>
-      </c>
-      <c r="J33" s="132">
+      <c r="I33" s="129">
+        <v>0</v>
+      </c>
+      <c r="J33" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="120">
+      <c r="K33" s="147">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="132">
-        <v>0</v>
-      </c>
-      <c r="N33" s="132">
+      <c r="M33" s="129">
+        <v>0</v>
+      </c>
+      <c r="N33" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="121">
+      <c r="O33" s="148">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -4931,14 +4913,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="101">
+      <c r="Y33" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="101">
+      <c r="AA33" s="99">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -4962,51 +4944,51 @@
     <row r="34" spans="1:35">
       <c r="A34" s="83"/>
       <c r="B34" s="57">
-        <v>44072</v>
-      </c>
-      <c r="C34" s="120">
+        <v>44103</v>
+      </c>
+      <c r="C34" s="147">
         <v>0</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="130">
-        <v>0</v>
-      </c>
-      <c r="F34" s="130">
+      <c r="E34" s="127">
+        <v>0</v>
+      </c>
+      <c r="F34" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="120">
+      <c r="G34" s="147">
         <v>0</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="132">
-        <v>0</v>
-      </c>
-      <c r="J34" s="132">
+      <c r="I34" s="129">
+        <v>0</v>
+      </c>
+      <c r="J34" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="120">
+      <c r="K34" s="147">
         <v>0</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="132">
-        <v>0</v>
-      </c>
-      <c r="N34" s="132">
+      <c r="M34" s="129">
+        <v>0</v>
+      </c>
+      <c r="N34" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="121">
+      <c r="O34" s="118">
         <v>0</v>
       </c>
       <c r="P34" s="41">
@@ -5041,14 +5023,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="101">
+      <c r="Y34" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="101">
+      <c r="AA34" s="99">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5072,51 +5054,51 @@
     <row r="35" spans="1:35">
       <c r="A35" s="83"/>
       <c r="B35" s="57">
-        <v>44073</v>
-      </c>
-      <c r="C35" s="120">
+        <v>44104</v>
+      </c>
+      <c r="C35" s="147">
         <v>0</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="130">
-        <v>0</v>
-      </c>
-      <c r="F35" s="130">
+      <c r="E35" s="127">
+        <v>0</v>
+      </c>
+      <c r="F35" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="120">
+      <c r="G35" s="147">
         <v>0</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="132">
-        <v>0</v>
-      </c>
-      <c r="J35" s="132">
+      <c r="I35" s="129">
+        <v>0</v>
+      </c>
+      <c r="J35" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="120">
+      <c r="K35" s="117">
         <v>0</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="132">
-        <v>0</v>
-      </c>
-      <c r="N35" s="132">
+      <c r="M35" s="129">
+        <v>0</v>
+      </c>
+      <c r="N35" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="121">
+      <c r="O35" s="118">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5151,14 +5133,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="101">
+      <c r="Y35" s="149">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="101">
+      <c r="AA35" s="99">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5180,326 +5162,223 @@
       <c r="AI35" s="11"/>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="99"/>
-      <c r="B36" s="57">
-        <v>44074</v>
-      </c>
-      <c r="C36" s="120">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="130">
-        <v>0</v>
-      </c>
-      <c r="F36" s="130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="120">
-        <v>0</v>
-      </c>
-      <c r="H36" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="132">
-        <v>0</v>
-      </c>
-      <c r="J36" s="132">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="120">
-        <v>0</v>
-      </c>
-      <c r="L36" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="132">
-        <v>0</v>
-      </c>
-      <c r="N36" s="132">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="100">
-        <v>0</v>
-      </c>
-      <c r="P36" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="14">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="14">
-        <v>0</v>
-      </c>
-      <c r="V36" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13">
-        <v>0</v>
-      </c>
-      <c r="X36" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="101">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
+        <f>SUM(C6:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="39">
+        <f>SUM(D7:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="128">
+        <f>SUM(E7:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="128">
+        <f>SUM(F7:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="39">
+        <f>SUM(G7:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="39">
+        <f>SUM(H7:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="128">
+        <f>SUM(I7:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="128">
+        <f>SUM(J7:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="39">
+        <f>SUM(K7:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
+        <f>SUM(L7:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="128">
+        <f>SUM(M7:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="128">
+        <f>SUM(N7:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="39">
+        <f>SUM(O7:O35)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="39">
+        <f>SUM(P7:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="39">
+        <f>SUM(Q7:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="39">
+        <f>SUM(R7:R35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="39">
+        <f>SUM(S7:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="39">
+        <f>SUM(T7:T35)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="39">
+        <f>SUM(U7:U35)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="39">
+        <f>SUM(V7:V35)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="39">
+        <f>SUM(W7:W35)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="39">
+        <f>SUM(X7:X35)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="39">
+        <f>SUM(Y7:Y35)</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="39">
+        <f>SUM(Z7:Z35)</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="39">
+        <f>SUM(AA7:AA35)</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="39">
+        <f>SUM(AB7:AB35)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="39">
+        <f>SUM(AC7:AC35)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="39">
+        <f>SUM(AD7:AD35)</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="64"/>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7">
-        <f>SUM(C6:C36)</f>
-        <v>92</v>
-      </c>
-      <c r="D37" s="39">
-        <f>SUM(D7:D36)</f>
-        <v>17600000</v>
-      </c>
-      <c r="E37" s="131">
-        <f>SUM(E7:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="131">
-        <f t="shared" ref="F37:Y37" si="15">SUM(F7:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="39">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="H37" s="39">
-        <f t="shared" si="15"/>
-        <v>10800000</v>
-      </c>
-      <c r="I37" s="131">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="131">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="39">
-        <f t="shared" ref="K37:N37" si="16">SUM(K7:K36)</f>
-        <v>12</v>
-      </c>
-      <c r="L37" s="39">
-        <f t="shared" si="16"/>
-        <v>3600000</v>
-      </c>
-      <c r="M37" s="131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="39">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="P37" s="39">
-        <f t="shared" si="15"/>
-        <v>60000</v>
-      </c>
-      <c r="Q37" s="39">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="R37" s="39">
-        <f t="shared" si="15"/>
-        <v>4500000</v>
-      </c>
-      <c r="S37" s="39">
-        <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="T37" s="39">
-        <f t="shared" si="15"/>
-        <v>8400000</v>
-      </c>
-      <c r="U37" s="39">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V37" s="39">
-        <f t="shared" si="15"/>
-        <v>30000</v>
-      </c>
-      <c r="W37" s="39">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="39">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="39">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="Z37" s="39">
-        <f>SUM(Z7:Z36)</f>
-        <v>1400000</v>
-      </c>
-      <c r="AA37" s="39">
-        <f>SUM(AA7:AA36)</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="39">
-        <f t="shared" ref="AB37:AC37" si="17">SUM(AB7:AB36)</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="39">
-        <f t="shared" si="17"/>
-        <v>14390000</v>
-      </c>
-      <c r="AD37" s="39">
-        <f>SUM(AD7:AD36)</f>
-        <v>46390000</v>
-      </c>
-      <c r="AE37" s="64"/>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="53"/>
-      <c r="B38" s="59" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="163">
-        <v>0</v>
-      </c>
-      <c r="D38" s="163"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-      <c r="P38" s="155"/>
-      <c r="Q38" s="155"/>
-      <c r="R38" s="155"/>
-      <c r="S38" s="155"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="155"/>
-      <c r="Y38" s="155"/>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="155"/>
-      <c r="AC38" s="155"/>
-      <c r="AD38" s="155"/>
-      <c r="AE38" s="155"/>
-    </row>
-    <row r="39" spans="1:35" s="11" customFormat="1">
-      <c r="B39" s="58" t="s">
+      <c r="C37" s="160">
+        <v>0</v>
+      </c>
+      <c r="D37" s="160"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="150"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="150"/>
+      <c r="U37" s="150"/>
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
+      <c r="X37" s="150"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="150"/>
+      <c r="AA37" s="150"/>
+      <c r="AB37" s="150"/>
+      <c r="AC37" s="150"/>
+      <c r="AD37" s="150"/>
+      <c r="AE37" s="150"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1">
+      <c r="B38" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="156">
-        <v>0</v>
-      </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="155"/>
-      <c r="AH39" s="11" t="s">
+      <c r="C38" s="151">
+        <v>0</v>
+      </c>
+      <c r="D38" s="151"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="150"/>
+      <c r="S38" s="150"/>
+      <c r="T38" s="150"/>
+      <c r="U38" s="150"/>
+      <c r="V38" s="150"/>
+      <c r="W38" s="150"/>
+      <c r="X38" s="150"/>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150"/>
+      <c r="AC38" s="150"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
+      <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="52"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="52"/>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="AE42" s="1"/>
+    <row r="39" spans="1:35">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="52"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="52"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="AE41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AE4:AE39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="G39:AE39"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G38:AE38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AE4:AE5"/>
@@ -5510,17 +5389,10 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="G38:AE38"/>
+    <mergeCell ref="G37:AE37"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5536,22 +5408,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
-    <col min="3" max="5" width="15.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31">
+    <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="166" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -5584,93 +5456,93 @@
         <v>1</v>
       </c>
       <c r="B4" s="21">
-        <v>44044</v>
-      </c>
-      <c r="C4" s="108">
-        <v>1453398</v>
-      </c>
-      <c r="D4" s="108">
-        <v>2610000</v>
-      </c>
-      <c r="E4" s="105">
+        <v>44075</v>
+      </c>
+      <c r="C4" s="106">
+        <v>0</v>
+      </c>
+      <c r="D4" s="106">
+        <v>0</v>
+      </c>
+      <c r="E4" s="103">
         <f>SUM(D4,-C4)</f>
-        <v>1156602</v>
-      </c>
-      <c r="F4" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="21">
-        <v>44045</v>
-      </c>
-      <c r="C5" s="108">
-        <v>2006181</v>
-      </c>
-      <c r="D5" s="108">
-        <v>3120000</v>
-      </c>
-      <c r="E5" s="105">
-        <f t="shared" ref="E5:E34" si="0">SUM(D5,-C5)</f>
-        <v>1113819</v>
-      </c>
-      <c r="F5" s="107"/>
+        <v>44076</v>
+      </c>
+      <c r="C5" s="106">
+        <v>0</v>
+      </c>
+      <c r="D5" s="106">
+        <v>0</v>
+      </c>
+      <c r="E5" s="103">
+        <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="105"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" s="21">
-        <v>44046</v>
-      </c>
-      <c r="C6" s="108">
-        <v>1734537</v>
-      </c>
-      <c r="D6" s="108">
-        <v>2365000</v>
-      </c>
-      <c r="E6" s="105">
+        <v>44077</v>
+      </c>
+      <c r="C6" s="106">
+        <v>0</v>
+      </c>
+      <c r="D6" s="106">
+        <v>0</v>
+      </c>
+      <c r="E6" s="103">
         <f t="shared" si="0"/>
-        <v>630463</v>
-      </c>
-      <c r="F6" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>4</v>
       </c>
       <c r="B7" s="21">
-        <v>44047</v>
-      </c>
-      <c r="C7" s="105">
-        <v>966524</v>
-      </c>
-      <c r="D7" s="105">
-        <v>2649000</v>
-      </c>
-      <c r="E7" s="105">
+        <v>44078</v>
+      </c>
+      <c r="C7" s="106">
+        <v>0</v>
+      </c>
+      <c r="D7" s="106">
+        <v>0</v>
+      </c>
+      <c r="E7" s="103">
         <f t="shared" si="0"/>
-        <v>1682476</v>
-      </c>
-      <c r="F7" s="107"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="105"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34">
         <v>5</v>
       </c>
       <c r="B8" s="21">
-        <v>44048</v>
-      </c>
-      <c r="C8" s="105">
-        <v>612091</v>
-      </c>
-      <c r="D8" s="105">
-        <v>1475000</v>
-      </c>
-      <c r="E8" s="105">
+        <v>44079</v>
+      </c>
+      <c r="C8" s="106">
+        <v>0</v>
+      </c>
+      <c r="D8" s="106">
+        <v>0</v>
+      </c>
+      <c r="E8" s="103">
         <f t="shared" si="0"/>
-        <v>862909</v>
+        <v>0</v>
       </c>
       <c r="F8" s="61"/>
     </row>
@@ -5679,17 +5551,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="21">
-        <v>44049</v>
-      </c>
-      <c r="C9" s="105">
-        <v>2180782</v>
-      </c>
-      <c r="D9" s="105">
-        <v>5365000</v>
-      </c>
-      <c r="E9" s="105">
+        <v>44080</v>
+      </c>
+      <c r="C9" s="106">
+        <v>0</v>
+      </c>
+      <c r="D9" s="106">
+        <v>0</v>
+      </c>
+      <c r="E9" s="103">
         <f t="shared" si="0"/>
-        <v>3184218</v>
+        <v>0</v>
       </c>
       <c r="F9" s="61"/>
     </row>
@@ -5698,17 +5570,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="21">
-        <v>44050</v>
-      </c>
-      <c r="C10" s="105">
-        <v>552234</v>
-      </c>
-      <c r="D10" s="105">
-        <v>1175000</v>
-      </c>
-      <c r="E10" s="105">
+        <v>44081</v>
+      </c>
+      <c r="C10" s="106">
+        <v>0</v>
+      </c>
+      <c r="D10" s="106">
+        <v>0</v>
+      </c>
+      <c r="E10" s="103">
         <f t="shared" si="0"/>
-        <v>622766</v>
+        <v>0</v>
       </c>
       <c r="F10" s="61"/>
     </row>
@@ -5717,17 +5589,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="21">
-        <v>44051</v>
-      </c>
-      <c r="C11" s="105">
-        <v>789153</v>
-      </c>
-      <c r="D11" s="105">
-        <v>2120000</v>
-      </c>
-      <c r="E11" s="105">
+        <v>44082</v>
+      </c>
+      <c r="C11" s="106">
+        <v>0</v>
+      </c>
+      <c r="D11" s="106">
+        <v>0</v>
+      </c>
+      <c r="E11" s="103">
         <f t="shared" si="0"/>
-        <v>1330847</v>
+        <v>0</v>
       </c>
       <c r="F11" s="61"/>
     </row>
@@ -5736,17 +5608,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="21">
-        <v>44052</v>
-      </c>
-      <c r="C12" s="105">
-        <v>2398171</v>
-      </c>
-      <c r="D12" s="105">
-        <v>8070000</v>
-      </c>
-      <c r="E12" s="105">
+        <v>44083</v>
+      </c>
+      <c r="C12" s="106">
+        <v>0</v>
+      </c>
+      <c r="D12" s="106">
+        <v>0</v>
+      </c>
+      <c r="E12" s="103">
         <f t="shared" si="0"/>
-        <v>5671829</v>
+        <v>0</v>
       </c>
       <c r="F12" s="61"/>
     </row>
@@ -5755,17 +5627,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="21">
-        <v>44053</v>
-      </c>
-      <c r="C13" s="105">
-        <v>1545392</v>
-      </c>
-      <c r="D13" s="105">
-        <v>4805000</v>
-      </c>
-      <c r="E13" s="105">
+        <v>44084</v>
+      </c>
+      <c r="C13" s="106">
+        <v>0</v>
+      </c>
+      <c r="D13" s="106">
+        <v>0</v>
+      </c>
+      <c r="E13" s="103">
         <f t="shared" si="0"/>
-        <v>3259608</v>
+        <v>0</v>
       </c>
       <c r="F13" s="61"/>
     </row>
@@ -5774,17 +5646,17 @@
         <v>11</v>
       </c>
       <c r="B14" s="21">
-        <v>44054</v>
-      </c>
-      <c r="C14" s="105">
-        <v>1018647</v>
-      </c>
-      <c r="D14" s="105">
-        <v>2500000</v>
-      </c>
-      <c r="E14" s="105">
+        <v>44085</v>
+      </c>
+      <c r="C14" s="106">
+        <v>0</v>
+      </c>
+      <c r="D14" s="106">
+        <v>0</v>
+      </c>
+      <c r="E14" s="103">
         <f t="shared" si="0"/>
-        <v>1481353</v>
+        <v>0</v>
       </c>
       <c r="F14" s="61"/>
     </row>
@@ -5793,17 +5665,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="21">
-        <v>44055</v>
-      </c>
-      <c r="C15" s="105">
-        <v>1786042</v>
-      </c>
-      <c r="D15" s="105">
-        <v>4685000</v>
-      </c>
-      <c r="E15" s="105">
+        <v>44086</v>
+      </c>
+      <c r="C15" s="106">
+        <v>0</v>
+      </c>
+      <c r="D15" s="106">
+        <v>0</v>
+      </c>
+      <c r="E15" s="103">
         <f t="shared" si="0"/>
-        <v>2898958</v>
+        <v>0</v>
       </c>
       <c r="F15" s="61"/>
     </row>
@@ -5812,17 +5684,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="21">
-        <v>44056</v>
-      </c>
-      <c r="C16" s="105">
-        <v>2663893</v>
-      </c>
-      <c r="D16" s="105">
-        <v>5685000</v>
-      </c>
-      <c r="E16" s="105">
+        <v>44087</v>
+      </c>
+      <c r="C16" s="106">
+        <v>0</v>
+      </c>
+      <c r="D16" s="106">
+        <v>0</v>
+      </c>
+      <c r="E16" s="103">
         <f t="shared" si="0"/>
-        <v>3021107</v>
+        <v>0</v>
       </c>
       <c r="F16" s="61"/>
     </row>
@@ -5831,17 +5703,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="21">
-        <v>44057</v>
-      </c>
-      <c r="C17" s="105">
-        <v>1638483</v>
-      </c>
-      <c r="D17" s="105">
-        <v>5415000</v>
-      </c>
-      <c r="E17" s="105">
+        <v>44088</v>
+      </c>
+      <c r="C17" s="106">
+        <v>0</v>
+      </c>
+      <c r="D17" s="106">
+        <v>0</v>
+      </c>
+      <c r="E17" s="103">
         <f t="shared" si="0"/>
-        <v>3776517</v>
+        <v>0</v>
       </c>
       <c r="F17" s="61"/>
     </row>
@@ -5850,17 +5722,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="21">
-        <v>44058</v>
-      </c>
-      <c r="C18" s="105">
-        <v>1695949</v>
-      </c>
-      <c r="D18" s="105">
-        <v>7645000</v>
-      </c>
-      <c r="E18" s="105">
+        <v>44089</v>
+      </c>
+      <c r="C18" s="106">
+        <v>0</v>
+      </c>
+      <c r="D18" s="106">
+        <v>0</v>
+      </c>
+      <c r="E18" s="103">
         <f t="shared" si="0"/>
-        <v>5949051</v>
+        <v>0</v>
       </c>
       <c r="F18" s="61"/>
     </row>
@@ -5869,17 +5741,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="21">
-        <v>44059</v>
-      </c>
-      <c r="C19" s="105">
-        <v>2303202</v>
-      </c>
-      <c r="D19" s="105">
-        <v>9370000</v>
-      </c>
-      <c r="E19" s="105">
+        <v>44090</v>
+      </c>
+      <c r="C19" s="106">
+        <v>0</v>
+      </c>
+      <c r="D19" s="106">
+        <v>0</v>
+      </c>
+      <c r="E19" s="103">
         <f t="shared" si="0"/>
-        <v>7066798</v>
+        <v>0</v>
       </c>
       <c r="F19" s="61"/>
     </row>
@@ -5888,17 +5760,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="21">
-        <v>44060</v>
-      </c>
-      <c r="C20" s="105">
-        <v>821729</v>
-      </c>
-      <c r="D20" s="105">
-        <v>3450000</v>
-      </c>
-      <c r="E20" s="105">
+        <v>44091</v>
+      </c>
+      <c r="C20" s="106">
+        <v>0</v>
+      </c>
+      <c r="D20" s="106">
+        <v>0</v>
+      </c>
+      <c r="E20" s="103">
         <f t="shared" si="0"/>
-        <v>2628271</v>
+        <v>0</v>
       </c>
       <c r="F20" s="61"/>
     </row>
@@ -5907,17 +5779,17 @@
         <v>18</v>
       </c>
       <c r="B21" s="21">
-        <v>44061</v>
-      </c>
-      <c r="C21" s="105">
-        <v>388915</v>
-      </c>
-      <c r="D21" s="105">
-        <v>665000</v>
-      </c>
-      <c r="E21" s="105">
+        <v>44092</v>
+      </c>
+      <c r="C21" s="106">
+        <v>0</v>
+      </c>
+      <c r="D21" s="106">
+        <v>0</v>
+      </c>
+      <c r="E21" s="103">
         <f t="shared" si="0"/>
-        <v>276085</v>
+        <v>0</v>
       </c>
       <c r="F21" s="61"/>
     </row>
@@ -5926,17 +5798,17 @@
         <v>19</v>
       </c>
       <c r="B22" s="21">
-        <v>44062</v>
-      </c>
-      <c r="C22" s="105">
-        <v>1925399</v>
-      </c>
-      <c r="D22" s="105">
-        <v>5797000</v>
-      </c>
-      <c r="E22" s="105">
+        <v>44093</v>
+      </c>
+      <c r="C22" s="106">
+        <v>0</v>
+      </c>
+      <c r="D22" s="106">
+        <v>0</v>
+      </c>
+      <c r="E22" s="103">
         <f t="shared" si="0"/>
-        <v>3871601</v>
+        <v>0</v>
       </c>
       <c r="F22" s="61"/>
     </row>
@@ -5945,17 +5817,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="21">
-        <v>44063</v>
-      </c>
-      <c r="C23" s="105">
-        <v>654558</v>
-      </c>
-      <c r="D23" s="105">
-        <v>2714000</v>
-      </c>
-      <c r="E23" s="105">
+        <v>44094</v>
+      </c>
+      <c r="C23" s="106">
+        <v>0</v>
+      </c>
+      <c r="D23" s="106">
+        <v>0</v>
+      </c>
+      <c r="E23" s="103">
         <f t="shared" si="0"/>
-        <v>2059442</v>
+        <v>0</v>
       </c>
       <c r="F23" s="61"/>
     </row>
@@ -5964,17 +5836,17 @@
         <v>21</v>
       </c>
       <c r="B24" s="21">
-        <v>44064</v>
-      </c>
-      <c r="C24" s="105">
-        <v>268800</v>
-      </c>
-      <c r="D24" s="105">
-        <v>1580000</v>
-      </c>
-      <c r="E24" s="105">
+        <v>44095</v>
+      </c>
+      <c r="C24" s="106">
+        <v>0</v>
+      </c>
+      <c r="D24" s="106">
+        <v>0</v>
+      </c>
+      <c r="E24" s="103">
         <f t="shared" si="0"/>
-        <v>1311200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="61"/>
     </row>
@@ -5983,17 +5855,17 @@
         <v>22</v>
       </c>
       <c r="B25" s="21">
-        <v>44065</v>
-      </c>
-      <c r="C25" s="105">
-        <v>1744555</v>
-      </c>
-      <c r="D25" s="105">
-        <v>3240000</v>
-      </c>
-      <c r="E25" s="105">
+        <v>44096</v>
+      </c>
+      <c r="C25" s="106">
+        <v>0</v>
+      </c>
+      <c r="D25" s="106">
+        <v>0</v>
+      </c>
+      <c r="E25" s="103">
         <f t="shared" si="0"/>
-        <v>1495445</v>
+        <v>0</v>
       </c>
       <c r="F25" s="61"/>
     </row>
@@ -6002,74 +5874,74 @@
         <v>23</v>
       </c>
       <c r="B26" s="21">
-        <v>44066</v>
-      </c>
-      <c r="C26" s="105">
-        <v>1551863</v>
-      </c>
-      <c r="D26" s="105">
-        <v>5570000</v>
-      </c>
-      <c r="E26" s="105">
+        <v>44097</v>
+      </c>
+      <c r="C26" s="106">
+        <v>0</v>
+      </c>
+      <c r="D26" s="106">
+        <v>0</v>
+      </c>
+      <c r="E26" s="103">
         <f t="shared" si="0"/>
-        <v>4018137</v>
-      </c>
-      <c r="F26" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>24</v>
       </c>
       <c r="B27" s="21">
-        <v>44067</v>
-      </c>
-      <c r="C27" s="105">
-        <v>1524979</v>
-      </c>
-      <c r="D27" s="105">
-        <v>4415000</v>
-      </c>
-      <c r="E27" s="105">
+        <v>44098</v>
+      </c>
+      <c r="C27" s="106">
+        <v>0</v>
+      </c>
+      <c r="D27" s="106">
+        <v>0</v>
+      </c>
+      <c r="E27" s="103">
         <f t="shared" si="0"/>
-        <v>2890021</v>
-      </c>
-      <c r="F27" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>25</v>
       </c>
       <c r="B28" s="21">
-        <v>44068</v>
-      </c>
-      <c r="C28" s="105">
-        <v>1343806</v>
-      </c>
-      <c r="D28" s="105">
-        <v>4704000</v>
-      </c>
-      <c r="E28" s="105">
+        <v>44099</v>
+      </c>
+      <c r="C28" s="106">
+        <v>0</v>
+      </c>
+      <c r="D28" s="106">
+        <v>0</v>
+      </c>
+      <c r="E28" s="103">
         <f t="shared" si="0"/>
-        <v>3360194</v>
-      </c>
-      <c r="F28" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="104"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>27</v>
       </c>
       <c r="B29" s="21">
-        <v>44069</v>
-      </c>
-      <c r="C29" s="105">
-        <v>947764</v>
-      </c>
-      <c r="D29" s="105">
-        <v>3135000</v>
-      </c>
-      <c r="E29" s="105">
+        <v>44100</v>
+      </c>
+      <c r="C29" s="106">
+        <v>0</v>
+      </c>
+      <c r="D29" s="106">
+        <v>0</v>
+      </c>
+      <c r="E29" s="103">
         <f t="shared" si="0"/>
-        <v>2187236</v>
+        <v>0</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -6078,17 +5950,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="21">
-        <v>44070</v>
-      </c>
-      <c r="C30" s="105">
-        <v>404524</v>
-      </c>
-      <c r="D30" s="105">
-        <v>3065000</v>
-      </c>
-      <c r="E30" s="105">
+        <v>44101</v>
+      </c>
+      <c r="C30" s="106">
+        <v>0</v>
+      </c>
+      <c r="D30" s="106">
+        <v>0</v>
+      </c>
+      <c r="E30" s="103">
         <f t="shared" si="0"/>
-        <v>2660476</v>
+        <v>0</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -6097,17 +5969,17 @@
         <v>28</v>
       </c>
       <c r="B31" s="21">
-        <v>44071</v>
-      </c>
-      <c r="C31" s="105">
-        <v>1176061</v>
-      </c>
-      <c r="D31" s="105">
-        <v>3590000</v>
-      </c>
-      <c r="E31" s="105">
+        <v>44102</v>
+      </c>
+      <c r="C31" s="106">
+        <v>0</v>
+      </c>
+      <c r="D31" s="106">
+        <v>0</v>
+      </c>
+      <c r="E31" s="103">
         <f t="shared" si="0"/>
-        <v>2413939</v>
+        <v>0</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -6116,17 +5988,17 @@
         <v>29</v>
       </c>
       <c r="B32" s="21">
-        <v>44072</v>
-      </c>
-      <c r="C32" s="105">
-        <v>1399667</v>
-      </c>
-      <c r="D32" s="105">
-        <v>6345000</v>
-      </c>
-      <c r="E32" s="105">
+        <v>44103</v>
+      </c>
+      <c r="C32" s="106">
+        <v>0</v>
+      </c>
+      <c r="D32" s="106">
+        <v>0</v>
+      </c>
+      <c r="E32" s="103">
         <f t="shared" si="0"/>
-        <v>4945333</v>
+        <v>0</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -6135,57 +6007,40 @@
         <v>30</v>
       </c>
       <c r="B33" s="21">
-        <v>44073</v>
-      </c>
-      <c r="C33" s="105">
-        <v>2701903</v>
-      </c>
-      <c r="D33" s="105">
-        <v>11690000</v>
-      </c>
-      <c r="E33" s="105">
+        <v>44104</v>
+      </c>
+      <c r="C33" s="106">
+        <v>0</v>
+      </c>
+      <c r="D33" s="106">
+        <v>0</v>
+      </c>
+      <c r="E33" s="103">
         <f t="shared" si="0"/>
-        <v>8988097</v>
+        <v>0</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="115" customFormat="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="21">
-        <v>44074</v>
-      </c>
-      <c r="C34" s="105">
-        <v>1427680</v>
-      </c>
-      <c r="D34" s="105">
-        <v>6755000</v>
-      </c>
-      <c r="E34" s="105">
-        <f t="shared" si="0"/>
-        <v>5327320</v>
-      </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="34">
+    <row r="34" spans="1:6">
+      <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="43">
-        <f>SUM(C4:C34)</f>
-        <v>43626882</v>
-      </c>
-      <c r="D35" s="43">
-        <f>SUM(D4:D34)</f>
-        <v>135769000</v>
-      </c>
-      <c r="E35" s="43">
-        <f>SUM(E4:E34)</f>
-        <v>92142118</v>
-      </c>
-      <c r="F35" s="23"/>
+      <c r="C34" s="43">
+        <f>SUM(C4:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="43">
+        <f>SUM(D4:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43">
+        <f>SUM(E4:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6205,26 +6060,26 @@
   <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="112" customWidth="1"/>
-    <col min="4" max="4" width="18" style="113" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="18" style="111" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="74" customWidth="1"/>
     <col min="7" max="7" width="30" style="70" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31">
+    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
       <c r="A2" s="167" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -6233,9 +6088,9 @@
       <c r="F2" s="167"/>
       <c r="G2" s="167"/>
     </row>
-    <row r="3" spans="1:7" ht="31">
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="111"/>
+      <c r="C3" s="109"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="63" t="s">
@@ -6244,470 +6099,434 @@
       <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="114" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="66" customFormat="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="124">
+      <c r="A5" s="122"/>
+      <c r="B5" s="121">
         <v>44044</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="125"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" s="98" customFormat="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="124">
+      <c r="A6" s="122"/>
+      <c r="B6" s="121">
         <v>44045</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="125"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="122"/>
     </row>
     <row r="7" spans="1:7" s="98" customFormat="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="168">
         <v>44046</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="122">
         <v>1</v>
       </c>
-      <c r="D7" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="109">
-        <v>700000</v>
-      </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="125"/>
-    </row>
-    <row r="8" spans="1:7" s="123" customFormat="1">
-      <c r="A8" s="125"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="122"/>
+    </row>
+    <row r="8" spans="1:7" s="120" customFormat="1">
+      <c r="A8" s="122"/>
       <c r="B8" s="169"/>
-      <c r="C8" s="125">
+      <c r="C8" s="122">
         <v>2</v>
       </c>
-      <c r="D8" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="109">
-        <v>1820000</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="125"/>
-    </row>
-    <row r="9" spans="1:7" s="123" customFormat="1">
-      <c r="A9" s="125"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="122"/>
+    </row>
+    <row r="9" spans="1:7" s="120" customFormat="1">
+      <c r="A9" s="122"/>
       <c r="B9" s="169"/>
-      <c r="C9" s="125">
+      <c r="C9" s="122">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="109">
-        <v>870000</v>
-      </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="125"/>
-    </row>
-    <row r="10" spans="1:7" s="123" customFormat="1">
-      <c r="A10" s="125"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="122"/>
+    </row>
+    <row r="10" spans="1:7" s="120" customFormat="1">
+      <c r="A10" s="122"/>
       <c r="B10" s="169"/>
-      <c r="C10" s="125">
+      <c r="C10" s="122">
         <v>4</v>
       </c>
-      <c r="D10" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="109">
-        <v>310000</v>
-      </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="125"/>
-    </row>
-    <row r="11" spans="1:7" s="123" customFormat="1">
-      <c r="A11" s="125"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="122"/>
+    </row>
+    <row r="11" spans="1:7" s="120" customFormat="1">
+      <c r="A11" s="122"/>
       <c r="B11" s="169"/>
-      <c r="C11" s="125">
+      <c r="C11" s="122">
         <v>5</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="109">
-        <v>190000</v>
-      </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="125"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="124">
+      <c r="A12" s="122"/>
+      <c r="B12" s="121">
         <v>44047</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="125"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="124">
+      <c r="A13" s="122"/>
+      <c r="B13" s="121">
         <v>44048</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="125"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="124">
+      <c r="A14" s="122"/>
+      <c r="B14" s="121">
         <v>44049</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="125"/>
-    </row>
-    <row r="15" spans="1:7" s="127" customFormat="1">
-      <c r="A15" s="125"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="122"/>
+    </row>
+    <row r="15" spans="1:7" s="124" customFormat="1">
+      <c r="A15" s="122"/>
       <c r="B15" s="168">
         <v>44050</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="122">
         <v>1</v>
       </c>
-      <c r="D15" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="109">
-        <v>530000</v>
-      </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="125"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="122"/>
     </row>
     <row r="16" spans="1:7" s="66" customFormat="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="170"/>
-      <c r="C16" s="125">
+      <c r="C16" s="122">
         <v>2</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="109">
-        <v>772000</v>
-      </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="125"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="124">
+      <c r="A17" s="122"/>
+      <c r="B17" s="121">
         <v>44051</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="125"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="122"/>
     </row>
     <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="124">
+      <c r="A18" s="122"/>
+      <c r="B18" s="121">
         <v>44052</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="125"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="124">
+      <c r="A19" s="122"/>
+      <c r="B19" s="121">
         <v>44053</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="125"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="124">
+      <c r="A20" s="122"/>
+      <c r="B20" s="121">
         <v>44054</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="125"/>
-    </row>
-    <row r="21" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="124">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="1:7" s="101" customFormat="1" hidden="1">
+      <c r="A21" s="122"/>
+      <c r="B21" s="121">
         <v>44055</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="125"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="122"/>
     </row>
     <row r="22" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="124">
+      <c r="A22" s="122"/>
+      <c r="B22" s="121">
         <v>44056</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="125"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="122"/>
     </row>
     <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="124">
+      <c r="A23" s="122"/>
+      <c r="B23" s="121">
         <v>44057</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="125"/>
-    </row>
-    <row r="24" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="124">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="122"/>
+    </row>
+    <row r="24" spans="1:7" s="101" customFormat="1" hidden="1">
+      <c r="A24" s="122"/>
+      <c r="B24" s="121">
         <v>44058</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="125"/>
-    </row>
-    <row r="25" spans="1:7" s="103" customFormat="1" hidden="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="124">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="122"/>
+    </row>
+    <row r="25" spans="1:7" s="101" customFormat="1" hidden="1">
+      <c r="A25" s="122"/>
+      <c r="B25" s="121">
         <v>44059</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="125"/>
-    </row>
-    <row r="26" spans="1:7" s="103" customFormat="1">
-      <c r="A26" s="125"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="122"/>
+    </row>
+    <row r="26" spans="1:7" s="101" customFormat="1">
+      <c r="A26" s="122"/>
       <c r="B26" s="168">
         <v>44060</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="122">
         <v>1</v>
       </c>
-      <c r="D26" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="109">
-        <v>5825000</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="125" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="127" customFormat="1">
-      <c r="A27" s="125"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="124" customFormat="1">
+      <c r="A27" s="122"/>
       <c r="B27" s="170"/>
-      <c r="C27" s="125">
+      <c r="C27" s="122">
         <v>2</v>
       </c>
-      <c r="D27" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="109">
-        <v>5825000</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" s="103" customFormat="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="124">
+      <c r="D27" s="122"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="122"/>
+    </row>
+    <row r="28" spans="1:7" s="101" customFormat="1">
+      <c r="A28" s="122"/>
+      <c r="B28" s="121">
         <v>44061</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="125"/>
-    </row>
-    <row r="29" spans="1:7" s="103" customFormat="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="124">
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="122"/>
+    </row>
+    <row r="29" spans="1:7" s="101" customFormat="1">
+      <c r="A29" s="122"/>
+      <c r="B29" s="121">
         <v>44062</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="125"/>
-    </row>
-    <row r="30" spans="1:7" s="103" customFormat="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="124">
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="122"/>
+    </row>
+    <row r="30" spans="1:7" s="101" customFormat="1">
+      <c r="A30" s="122"/>
+      <c r="B30" s="121">
         <v>44063</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="125"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="1:7" s="73" customFormat="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="124">
+      <c r="A31" s="122"/>
+      <c r="B31" s="121">
         <v>44064</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="125"/>
-    </row>
-    <row r="32" spans="1:7" s="103" customFormat="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="124">
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="122"/>
+    </row>
+    <row r="32" spans="1:7" s="101" customFormat="1">
+      <c r="A32" s="122"/>
+      <c r="B32" s="121">
         <v>44065</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="125"/>
-    </row>
-    <row r="33" spans="1:7" s="103" customFormat="1">
-      <c r="A33" s="125"/>
-      <c r="B33" s="124">
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="122"/>
+    </row>
+    <row r="33" spans="1:7" s="101" customFormat="1">
+      <c r="A33" s="122"/>
+      <c r="B33" s="121">
         <v>44066</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="125"/>
-    </row>
-    <row r="34" spans="1:7" s="103" customFormat="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="124">
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="122"/>
+    </row>
+    <row r="34" spans="1:7" s="101" customFormat="1">
+      <c r="A34" s="122"/>
+      <c r="B34" s="121">
         <v>44067</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="125"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="122"/>
     </row>
     <row r="35" spans="1:7" s="73" customFormat="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="124">
+      <c r="A35" s="122"/>
+      <c r="B35" s="121">
         <v>44068</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="125"/>
-    </row>
-    <row r="36" spans="1:7" s="103" customFormat="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="124">
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="122"/>
+    </row>
+    <row r="36" spans="1:7" s="101" customFormat="1">
+      <c r="A36" s="122"/>
+      <c r="B36" s="121">
         <v>44069</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="125"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
-      <c r="B37" s="124">
+      <c r="A37" s="122"/>
+      <c r="B37" s="121">
         <v>44070</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="125"/>
-    </row>
-    <row r="38" spans="1:7" s="103" customFormat="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="124">
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="122"/>
+    </row>
+    <row r="38" spans="1:7" s="101" customFormat="1">
+      <c r="A38" s="122"/>
+      <c r="B38" s="121">
         <v>44071</v>
       </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="125"/>
-    </row>
-    <row r="39" spans="1:7" s="103" customFormat="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="124">
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="122"/>
+    </row>
+    <row r="39" spans="1:7" s="101" customFormat="1">
+      <c r="A39" s="122"/>
+      <c r="B39" s="121">
         <v>44072</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="125"/>
-    </row>
-    <row r="40" spans="1:7" s="103" customFormat="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="124">
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="122"/>
+    </row>
+    <row r="40" spans="1:7" s="101" customFormat="1">
+      <c r="A40" s="122"/>
+      <c r="B40" s="121">
         <v>44073</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="125"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="122"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="125"/>
-      <c r="B41" s="124">
+      <c r="A41" s="122"/>
+      <c r="B41" s="121">
         <v>44074</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="125"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="122"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="34">
@@ -6716,11 +6535,11 @@
       <c r="B42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="126"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="123"/>
       <c r="E42" s="86">
         <f>SUM(E5:E41)</f>
-        <v>16842000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="86">
         <f>SUM(F5:F41)</f>
@@ -6731,8 +6550,8 @@
     <row r="43" spans="1:7" s="82" customFormat="1">
       <c r="A43" s="76"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
       <c r="E43" s="68"/>
       <c r="F43" s="74"/>
       <c r="G43" s="70"/>
@@ -6757,23 +6576,23 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="96"/>
+    <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="96"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="29">
+    <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="171" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B2" s="171"/>
       <c r="C2" s="171"/>
@@ -6832,15 +6651,9 @@
       <c r="B7" s="95">
         <v>44046</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="34">
-        <v>10</v>
-      </c>
-      <c r="E7" s="42">
-        <v>20000</v>
-      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" s="75" customFormat="1">
@@ -7006,13 +6819,9 @@
       <c r="B21" s="95">
         <v>44060</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>99</v>
-      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="42">
-        <v>130000</v>
-      </c>
+      <c r="E21" s="42"/>
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6">
@@ -7087,7 +6896,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="118" customFormat="1">
+    <row r="28" spans="1:6" s="115" customFormat="1">
       <c r="A28" s="34"/>
       <c r="B28" s="95">
         <v>44067</v>
@@ -7097,7 +6906,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="118" customFormat="1">
+    <row r="29" spans="1:6" s="115" customFormat="1">
       <c r="A29" s="34"/>
       <c r="B29" s="95">
         <v>44068</v>
@@ -7107,7 +6916,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="118" customFormat="1">
+    <row r="30" spans="1:6" s="115" customFormat="1">
       <c r="A30" s="34"/>
       <c r="B30" s="95">
         <v>44069</v>
@@ -7117,7 +6926,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="118" customFormat="1">
+    <row r="31" spans="1:6" s="115" customFormat="1">
       <c r="A31" s="34"/>
       <c r="B31" s="95">
         <v>44070</v>
@@ -7127,7 +6936,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="118" customFormat="1">
+    <row r="32" spans="1:6" s="115" customFormat="1">
       <c r="A32" s="34"/>
       <c r="B32" s="95">
         <v>44071</v>
@@ -7137,7 +6946,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="118" customFormat="1">
+    <row r="33" spans="1:6" s="115" customFormat="1">
       <c r="A33" s="34"/>
       <c r="B33" s="95">
         <v>44072</v>
@@ -7147,7 +6956,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="118" customFormat="1">
+    <row r="34" spans="1:6" s="115" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="95">
         <v>44073</v>
@@ -7157,7 +6966,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="118" customFormat="1">
+    <row r="35" spans="1:6" s="115" customFormat="1">
       <c r="A35" s="34"/>
       <c r="B35" s="95">
         <v>44074</v>
@@ -7178,7 +6987,7 @@
       <c r="D36" s="26"/>
       <c r="E36" s="43">
         <f>SUM(E5:E35)</f>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="26"/>
     </row>
@@ -7199,23 +7008,23 @@
   </sheetPr>
   <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20">
+    <row r="2" spans="1:6" ht="20.25">
       <c r="B2" s="172" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C2" s="173"/>
       <c r="D2" s="173"/>
@@ -7238,13 +7047,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="92" customFormat="1" ht="16">
+    <row r="4" spans="1:6" s="92" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="94">
         <v>44018</v>
       </c>
-      <c r="C4" s="102" t="s">
-        <v>73</v>
+      <c r="C4" s="100" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>54</v>
@@ -7253,67 +7062,67 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="5" spans="1:6" s="146" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="78">
         <v>780000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="6" spans="1:6" s="146" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="94">
         <v>43897</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>121</v>
+      <c r="C6" s="100" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="78">
         <v>16950000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="7" spans="1:6" s="146" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="94">
         <v>43928</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>122</v>
+      <c r="C7" s="100" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="78">
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="8" spans="1:6" s="146" customFormat="1">
       <c r="A8" s="23"/>
       <c r="B8" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="78">
         <v>774000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="149" customFormat="1" ht="16">
+    <row r="9" spans="1:6" s="146" customFormat="1">
       <c r="A9" s="23"/>
       <c r="B9" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="78">
@@ -7524,24 +7333,24 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="29">
+    <row r="2" spans="2:8" ht="28.5">
       <c r="B2" s="171" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C2" s="171"/>
       <c r="D2" s="171"/>
@@ -7580,15 +7389,15 @@
         <v>26</v>
       </c>
       <c r="D8" s="42">
-        <f>'khám bệnh'!D37+'khám bệnh'!F37+'khám bệnh'!H37</f>
-        <v>28400000</v>
+        <f>'khám bệnh'!D36+'khám bệnh'!F36+'khám bệnh'!H36</f>
+        <v>0</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="47">
         <f>SUM(D8,D9)</f>
-        <v>42790000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -7599,8 +7408,8 @@
         <v>29</v>
       </c>
       <c r="D9" s="42">
-        <f>'khám bệnh'!AC37</f>
-        <v>14390000</v>
+        <f>'khám bệnh'!AC36</f>
+        <v>0</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7608,7 +7417,7 @@
       </c>
       <c r="H9" s="47">
         <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>118777000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -7619,8 +7428,8 @@
         <v>27</v>
       </c>
       <c r="D10" s="42">
-        <f>thuốc!D35</f>
-        <v>135769000</v>
+        <f>thuốc!D34</f>
+        <v>0</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -7639,7 +7448,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>178559000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="47"/>
@@ -7703,7 +7512,7 @@
       </c>
       <c r="C19" s="180"/>
       <c r="D19" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
@@ -7734,7 +7543,7 @@
       </c>
       <c r="E21" s="49">
         <f>nhập!E42</f>
-        <v>16842000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1">
@@ -7749,7 +7558,7 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E36</f>
-        <v>150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="18.75" customHeight="1">
@@ -7762,10 +7571,10 @@
       <c r="D23" s="182"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>16992000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
       <c r="B26" s="175" t="s">
         <v>42</v>
       </c>
@@ -7776,7 +7585,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="177">
         <f>SUM(D11,-E23)</f>
-        <v>161567000</v>
+        <v>0</v>
       </c>
       <c r="C27" s="178"/>
       <c r="D27" s="178"/>
@@ -7831,21 +7640,21 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="185" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B1" s="185"/>
       <c r="C1" s="185"/>
@@ -7871,14 +7680,14 @@
       </c>
       <c r="B4" s="47">
         <f>E4</f>
-        <v>135769000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="47">
-        <f>thuốc!D35</f>
-        <v>135769000</v>
+        <f>thuốc!D34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7887,14 +7696,14 @@
       </c>
       <c r="B5" s="47">
         <f>chi!E36+nhập!E42</f>
-        <v>16992000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="47">
-        <f>thuốc!C35</f>
-        <v>43626882</v>
+        <f>thuốc!C34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7903,14 +7712,14 @@
       </c>
       <c r="B6" s="47">
         <f>B4-B5</f>
-        <v>118777000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="47">
         <f>E4-E5</f>
-        <v>92142118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7927,7 +7736,7 @@
       </c>
       <c r="B9" s="184"/>
       <c r="C9" s="183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="184"/>
     </row>
@@ -7939,7 +7748,7 @@
         <v>22423000</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="47">
         <v>0</v>
@@ -7947,13 +7756,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B11" s="97">
         <v>94952702</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="47">
         <v>30687006</v>
@@ -7963,7 +7772,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D12" s="47">
         <v>89187956</v>
@@ -7971,14 +7780,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="47">
         <f>B10+B11</f>
         <v>117375702</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="47">
         <f>D12+D11</f>
@@ -8015,39 +7824,39 @@
   <dimension ref="B1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.1640625" style="135" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="34" width="3.83203125" customWidth="1"/>
-    <col min="35" max="35" width="7.1640625" customWidth="1"/>
-    <col min="36" max="37" width="7.1640625" style="127" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" customWidth="1"/>
-    <col min="39" max="39" width="7.1640625" style="127" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="132" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="34" width="3.85546875" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="124" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="124" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="127" customFormat="1">
-      <c r="B1" s="135"/>
+    <row r="1" spans="2:43" s="124" customFormat="1">
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="2:43">
-      <c r="B2" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="136">
+      <c r="B2" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="133">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="127" customFormat="1">
-      <c r="B3" s="135"/>
-    </row>
-    <row r="4" spans="2:43" ht="47">
+    <row r="3" spans="2:43" s="124" customFormat="1">
+      <c r="B3" s="132"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5">
       <c r="B4" s="192" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C4" s="192"/>
       <c r="D4" s="192"/>
@@ -8072,24 +7881,24 @@
       <c r="W4" s="192"/>
       <c r="X4" s="192"/>
     </row>
-    <row r="5" spans="2:43" s="127" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="147"/>
-      <c r="C5" s="146"/>
-    </row>
-    <row r="6" spans="2:43" ht="19">
-      <c r="B6" s="137"/>
-      <c r="C6" s="148">
-        <f>DATE($C$2,8,1)</f>
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="7" spans="2:43" s="127" customFormat="1">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-    </row>
-    <row r="8" spans="2:43" s="127" customFormat="1">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
+    <row r="5" spans="2:43" s="124" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="144"/>
+      <c r="C5" s="143"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75">
+      <c r="B6" s="134"/>
+      <c r="C6" s="145">
+        <f>DATE($C$2,9,1)</f>
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" s="124" customFormat="1">
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+    </row>
+    <row r="8" spans="2:43" s="124" customFormat="1">
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
     </row>
     <row r="10" spans="2:43">
       <c r="B10" s="193" t="s">
@@ -8132,292 +7941,292 @@
       <c r="AG10" s="194"/>
       <c r="AH10" s="194"/>
       <c r="AI10" s="194" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AJ10" s="194"/>
       <c r="AK10" s="194"/>
       <c r="AL10" s="194"/>
       <c r="AM10" s="194"/>
       <c r="AN10" s="194"/>
-      <c r="AO10" s="134" t="s">
+      <c r="AO10" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="133"/>
-      <c r="AQ10" s="133"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
     </row>
     <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="193"/>
       <c r="C11" s="193"/>
-      <c r="D11" s="139">
+      <c r="D11" s="136">
         <f>C6</f>
-        <v>44044</v>
-      </c>
-      <c r="E11" s="139">
+        <v>44075</v>
+      </c>
+      <c r="E11" s="136">
         <f>D11+1</f>
-        <v>44045</v>
-      </c>
-      <c r="F11" s="139">
+        <v>44076</v>
+      </c>
+      <c r="F11" s="136">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
-        <v>44046</v>
-      </c>
-      <c r="G11" s="139">
+        <v>44077</v>
+      </c>
+      <c r="G11" s="136">
         <f t="shared" si="0"/>
-        <v>44047</v>
-      </c>
-      <c r="H11" s="139">
+        <v>44078</v>
+      </c>
+      <c r="H11" s="136">
         <f t="shared" si="0"/>
-        <v>44048</v>
-      </c>
-      <c r="I11" s="139">
+        <v>44079</v>
+      </c>
+      <c r="I11" s="136">
         <f t="shared" si="0"/>
-        <v>44049</v>
-      </c>
-      <c r="J11" s="139">
+        <v>44080</v>
+      </c>
+      <c r="J11" s="136">
         <f t="shared" si="0"/>
-        <v>44050</v>
-      </c>
-      <c r="K11" s="139">
+        <v>44081</v>
+      </c>
+      <c r="K11" s="136">
         <f t="shared" si="0"/>
-        <v>44051</v>
-      </c>
-      <c r="L11" s="139">
+        <v>44082</v>
+      </c>
+      <c r="L11" s="136">
         <f t="shared" si="0"/>
-        <v>44052</v>
-      </c>
-      <c r="M11" s="139">
+        <v>44083</v>
+      </c>
+      <c r="M11" s="136">
         <f t="shared" si="0"/>
-        <v>44053</v>
-      </c>
-      <c r="N11" s="139">
+        <v>44084</v>
+      </c>
+      <c r="N11" s="136">
         <f t="shared" si="0"/>
-        <v>44054</v>
-      </c>
-      <c r="O11" s="139">
+        <v>44085</v>
+      </c>
+      <c r="O11" s="136">
         <f t="shared" si="0"/>
-        <v>44055</v>
-      </c>
-      <c r="P11" s="139">
+        <v>44086</v>
+      </c>
+      <c r="P11" s="136">
         <f t="shared" si="0"/>
-        <v>44056</v>
-      </c>
-      <c r="Q11" s="139">
+        <v>44087</v>
+      </c>
+      <c r="Q11" s="136">
         <f t="shared" si="0"/>
-        <v>44057</v>
-      </c>
-      <c r="R11" s="139">
+        <v>44088</v>
+      </c>
+      <c r="R11" s="136">
         <f t="shared" si="0"/>
-        <v>44058</v>
-      </c>
-      <c r="S11" s="139">
+        <v>44089</v>
+      </c>
+      <c r="S11" s="136">
         <f t="shared" si="0"/>
-        <v>44059</v>
-      </c>
-      <c r="T11" s="139">
+        <v>44090</v>
+      </c>
+      <c r="T11" s="136">
         <f t="shared" si="0"/>
-        <v>44060</v>
-      </c>
-      <c r="U11" s="139">
+        <v>44091</v>
+      </c>
+      <c r="U11" s="136">
         <f t="shared" si="0"/>
-        <v>44061</v>
-      </c>
-      <c r="V11" s="139">
+        <v>44092</v>
+      </c>
+      <c r="V11" s="136">
         <f t="shared" si="0"/>
-        <v>44062</v>
-      </c>
-      <c r="W11" s="139">
+        <v>44093</v>
+      </c>
+      <c r="W11" s="136">
         <f t="shared" si="0"/>
-        <v>44063</v>
-      </c>
-      <c r="X11" s="139">
+        <v>44094</v>
+      </c>
+      <c r="X11" s="136">
         <f t="shared" si="0"/>
-        <v>44064</v>
-      </c>
-      <c r="Y11" s="139">
+        <v>44095</v>
+      </c>
+      <c r="Y11" s="136">
         <f t="shared" si="0"/>
-        <v>44065</v>
-      </c>
-      <c r="Z11" s="139">
+        <v>44096</v>
+      </c>
+      <c r="Z11" s="136">
         <f t="shared" si="0"/>
-        <v>44066</v>
-      </c>
-      <c r="AA11" s="139">
+        <v>44097</v>
+      </c>
+      <c r="AA11" s="136">
         <f t="shared" si="0"/>
-        <v>44067</v>
-      </c>
-      <c r="AB11" s="139">
+        <v>44098</v>
+      </c>
+      <c r="AB11" s="136">
         <f t="shared" si="0"/>
-        <v>44068</v>
-      </c>
-      <c r="AC11" s="139">
+        <v>44099</v>
+      </c>
+      <c r="AC11" s="136">
         <f t="shared" si="0"/>
-        <v>44069</v>
-      </c>
-      <c r="AD11" s="139">
+        <v>44100</v>
+      </c>
+      <c r="AD11" s="136">
         <f t="shared" si="0"/>
-        <v>44070</v>
-      </c>
-      <c r="AE11" s="139">
+        <v>44101</v>
+      </c>
+      <c r="AE11" s="136">
         <f t="shared" si="0"/>
-        <v>44071</v>
-      </c>
-      <c r="AF11" s="139">
+        <v>44102</v>
+      </c>
+      <c r="AF11" s="136">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
-        <v>44072</v>
-      </c>
-      <c r="AG11" s="139">
+        <v>44103</v>
+      </c>
+      <c r="AG11" s="136">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
-        <v>44073</v>
-      </c>
-      <c r="AH11" s="139">
+        <v>44104</v>
+      </c>
+      <c r="AH11" s="136">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="AI11" s="186" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="AJ11" s="188" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="AK11" s="195" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AL11" s="195" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AM11" s="186" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AN11" s="188" t="s">
         <v>34</v>
       </c>
       <c r="AO11" s="190"/>
     </row>
-    <row r="12" spans="2:43" s="140" customFormat="1" ht="50.25" customHeight="1">
+    <row r="12" spans="2:43" s="137" customFormat="1" ht="50.25" customHeight="1">
       <c r="B12" s="193"/>
       <c r="C12" s="193"/>
-      <c r="D12" s="141" t="str">
+      <c r="D12" s="138" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>T. ba</v>
+      </c>
+      <c r="E12" s="138" t="str">
+        <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+        <v>T. tư</v>
+      </c>
+      <c r="F12" s="138" t="str">
+        <f t="shared" si="1"/>
+        <v>T. năm</v>
+      </c>
+      <c r="G12" s="138" t="str">
+        <f t="shared" si="1"/>
+        <v>T. sáu</v>
+      </c>
+      <c r="H12" s="138" t="str">
+        <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="E12" s="141" t="str">
-        <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
+      <c r="I12" s="138" t="str">
+        <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="F12" s="141" t="str">
+      <c r="J12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="G12" s="141" t="str">
+      <c r="K12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="H12" s="141" t="str">
+      <c r="L12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="I12" s="141" t="str">
+      <c r="M12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="J12" s="141" t="str">
+      <c r="N12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="K12" s="141" t="str">
+      <c r="O12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="L12" s="141" t="str">
+      <c r="P12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="M12" s="141" t="str">
+      <c r="Q12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="N12" s="141" t="str">
+      <c r="R12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="O12" s="141" t="str">
+      <c r="S12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="P12" s="141" t="str">
+      <c r="T12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="Q12" s="141" t="str">
+      <c r="U12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="R12" s="141" t="str">
+      <c r="V12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="S12" s="141" t="str">
+      <c r="W12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="T12" s="141" t="str">
+      <c r="X12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="U12" s="141" t="str">
+      <c r="Y12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="V12" s="141" t="str">
+      <c r="Z12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="W12" s="141" t="str">
+      <c r="AA12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="X12" s="141" t="str">
+      <c r="AB12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="Y12" s="141" t="str">
+      <c r="AC12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="Z12" s="141" t="str">
+      <c r="AD12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AA12" s="141" t="str">
+      <c r="AE12" s="138" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AB12" s="141" t="str">
-        <f t="shared" si="1"/>
+      <c r="AF12" s="138" t="str">
+        <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
       </c>
-      <c r="AC12" s="141" t="str">
-        <f t="shared" si="1"/>
+      <c r="AG12" s="138" t="str">
+        <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. tư</v>
       </c>
-      <c r="AD12" s="141" t="str">
-        <f t="shared" si="1"/>
+      <c r="AH12" s="138" t="str">
+        <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. năm</v>
-      </c>
-      <c r="AE12" s="141" t="str">
-        <f t="shared" si="1"/>
-        <v>T. sáu</v>
-      </c>
-      <c r="AF12" s="141" t="str">
-        <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
-        <v>T. bảy</v>
-      </c>
-      <c r="AG12" s="141" t="str">
-        <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
-        <v>Chủ nhật</v>
-      </c>
-      <c r="AH12" s="141" t="str">
-        <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
-        <v>T. hai</v>
       </c>
       <c r="AI12" s="187"/>
       <c r="AJ12" s="189"/>
@@ -8428,245 +8237,141 @@
       <c r="AO12" s="191"/>
     </row>
     <row r="13" spans="2:43">
-      <c r="B13" s="128">
+      <c r="B13" s="125">
         <v>1</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>102</v>
-      </c>
+      <c r="C13" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
-      <c r="T13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH13" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI13" s="144">
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="141">
         <f>COUNTIF(D13:AH13,D20)</f>
-        <v>22</v>
-      </c>
-      <c r="AJ13" s="144">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="141">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="144">
+      <c r="AK13" s="141">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="144">
+      <c r="AL13" s="141">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="144">
+      <c r="AM13" s="141">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="145">
+      <c r="AN13" s="142">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
     <row r="14" spans="2:43">
-      <c r="B14" s="128">
+      <c r="B14" s="125">
         <v>2</v>
       </c>
-      <c r="C14" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="W14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="X14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI14" s="144">
+      <c r="C14" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="141">
         <f>COUNTIF(D14:AH14,D20)</f>
-        <v>31</v>
-      </c>
-      <c r="AJ14" s="144">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="141">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="144">
+      <c r="AK14" s="141">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="144">
+      <c r="AL14" s="141">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="144">
+      <c r="AM14" s="141">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="145">
+      <c r="AN14" s="142">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
     <row r="15" spans="2:43">
-      <c r="B15" s="128">
+      <c r="B15" s="125">
         <v>3</v>
       </c>
-      <c r="C15" s="128" t="s">
-        <v>119</v>
+      <c r="C15" s="125" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -8699,38 +8404,38 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="144">
+      <c r="AI15" s="141">
         <f>COUNTIF(D15:AH15,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="144">
+      <c r="AJ15" s="141">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="144">
+      <c r="AK15" s="141">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="144">
+      <c r="AL15" s="141">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="144">
+      <c r="AM15" s="141">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="145">
+      <c r="AN15" s="142">
         <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="127" customFormat="1">
-      <c r="B16" s="128">
+    <row r="16" spans="2:43" s="124" customFormat="1">
+      <c r="B16" s="125">
         <v>4</v>
       </c>
-      <c r="C16" s="128" t="s">
-        <v>120</v>
+      <c r="C16" s="125" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -8763,34 +8468,34 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="144">
+      <c r="AI16" s="141">
         <f>COUNTIF(D16:AH16,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="144">
+      <c r="AJ16" s="141">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="144">
+      <c r="AK16" s="141">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="144">
+      <c r="AL16" s="141">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="144">
+      <c r="AM16" s="141">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="145">
+      <c r="AN16" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
     <row r="17" spans="2:41">
-      <c r="B17" s="128"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -8825,52 +8530,52 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="125"/>
+      <c r="AL17" s="125"/>
+      <c r="AM17" s="125"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41" ht="16">
-      <c r="C20" s="143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="142" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:41" ht="16">
-      <c r="C21" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="142" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:41" ht="16">
-      <c r="C22" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="142" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:41" ht="16">
-      <c r="C23" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="142" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:41" ht="16">
-      <c r="C24" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="142" t="s">
-        <v>106</v>
+    <row r="20" spans="2:41">
+      <c r="C20" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41">
+      <c r="C21" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41">
+      <c r="C22" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41">
+      <c r="C23" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:41">
+      <c r="C24" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="139" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1C7A8-7914-4E9E-A99C-8236425F7AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E41BF-B50A-446B-8F06-11D503BDFBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
   <si>
     <t>STT</t>
   </si>
@@ -200,9 +190,6 @@
     <t>TÊN THUỐC</t>
   </si>
   <si>
-    <t>10 lọ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Báo cáo lưu chuyển tiền tệ </t>
   </si>
   <si>
@@ -254,9 +241,6 @@
     <t>50% THƯỜNG</t>
   </si>
   <si>
-    <t>Tinh chất an bì khang</t>
-  </si>
-  <si>
     <t>Sữa nước</t>
   </si>
   <si>
@@ -281,9 +265,6 @@
     <t>BN CK</t>
   </si>
   <si>
-    <t>Thanh toán mã ngày 21/05/2020</t>
-  </si>
-  <si>
     <t>Quy ra công</t>
   </si>
   <si>
@@ -359,9 +340,6 @@
     <t>sữa bột</t>
   </si>
   <si>
-    <t>29/7/2020</t>
-  </si>
-  <si>
     <t>kem đa năng</t>
   </si>
   <si>
@@ -387,6 +365,99 @@
   </si>
   <si>
     <t>TỒN THUỐC 8</t>
+  </si>
+  <si>
+    <t>giấy in</t>
+  </si>
+  <si>
+    <t>giấy ăn</t>
+  </si>
+  <si>
+    <t>Biomucans</t>
+  </si>
+  <si>
+    <t>Amano enzym</t>
+  </si>
+  <si>
+    <t>Amano enzym gold</t>
+  </si>
+  <si>
+    <t>Duphalac</t>
+  </si>
+  <si>
+    <t>aquadetrim</t>
+  </si>
+  <si>
+    <t>clarytine viên</t>
+  </si>
+  <si>
+    <t>sing 4m</t>
+  </si>
+  <si>
+    <t>sing 5m</t>
+  </si>
+  <si>
+    <t>olesom S</t>
+  </si>
+  <si>
+    <t>babycanyl</t>
+  </si>
+  <si>
+    <t>anaferon</t>
+  </si>
+  <si>
+    <t>seretide 25/125</t>
+  </si>
+  <si>
+    <t>buồng đệm</t>
+  </si>
+  <si>
+    <t>tinh chất an bì khang</t>
+  </si>
+  <si>
+    <t>thanh toán mã 4/7/2020</t>
+  </si>
+  <si>
+    <t>thanh toán mã 6/7/2020</t>
+  </si>
+  <si>
+    <t>thanh toán mã 29/7/2020</t>
+  </si>
+  <si>
+    <t>thanh toán mã 17/8/2020</t>
+  </si>
+  <si>
+    <t>baby fresh 300ml</t>
+  </si>
+  <si>
+    <t>baby fresh 55ml</t>
+  </si>
+  <si>
+    <t>28/8/2020</t>
+  </si>
+  <si>
+    <t>falgankid 160mg</t>
+  </si>
+  <si>
+    <t>Cốm invilac IQ</t>
+  </si>
+  <si>
+    <t>alphachoay</t>
+  </si>
+  <si>
+    <t>falgankid 160</t>
+  </si>
+  <si>
+    <t>falgankid 250</t>
+  </si>
+  <si>
+    <t>ven 2.5</t>
+  </si>
+  <si>
+    <t>maxitrol</t>
+  </si>
+  <si>
+    <t>zinnat</t>
   </si>
 </sst>
 </file>
@@ -402,7 +473,7 @@
     <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -852,9 +923,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -939,9 +1007,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -995,12 +1060,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1014,9 +1073,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1104,6 +1160,31 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,9 +1192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1203,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,15 +1211,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1236,6 +1302,24 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,15 +1695,15 @@
   </sheetPr>
   <dimension ref="A2:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34:N35"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1630,11 +1714,11 @@
     <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="50" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="50" customWidth="1"/>
     <col min="15" max="15" width="4.7109375" style="9" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" style="1" customWidth="1"/>
@@ -1659,173 +1743,173 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="152" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="165" t="s">
+    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="163" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="154" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="152"/>
+      <c r="G4" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="149"/>
+      <c r="I4" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="150"/>
+      <c r="K4" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="159" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="159"/>
-      <c r="O4" s="155" t="s">
+      <c r="L4" s="149"/>
+      <c r="M4" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="150"/>
+      <c r="O4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="154" t="s">
+      <c r="P4" s="158"/>
+      <c r="Q4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154" t="s">
+      <c r="R4" s="149"/>
+      <c r="S4" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154" t="s">
+      <c r="T4" s="149"/>
+      <c r="U4" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154" t="s">
+      <c r="V4" s="149"/>
+      <c r="W4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="156" t="s">
+      <c r="X4" s="149"/>
+      <c r="Y4" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="161" t="s">
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="157" t="s">
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="153" t="s">
+      <c r="AD4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="154" t="s">
+      <c r="AE4" s="149" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="50" t="s">
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="149"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="117" t="s">
+      <c r="L5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="M5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="126" t="s">
+      <c r="N5" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="54" t="s">
+      <c r="Q5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="V5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="54" t="s">
+      <c r="W5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="X5" s="13" t="s">
@@ -1837,15 +1921,15 @@
       <c r="Z5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="79" t="s">
+      <c r="AA5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="79" t="s">
+      <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="154"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="149"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1862,7 +1946,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1870,44 +1954,44 @@
         <v>44075</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="17">
         <f>PRODUCT(C6,200000)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="127">
-        <v>0</v>
-      </c>
-      <c r="F6" s="127">
+        <v>600000</v>
+      </c>
+      <c r="E6" s="122">
+        <v>0</v>
+      </c>
+      <c r="F6" s="122">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="40">
         <f>PRODUCT(G6,300000)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="129">
-        <v>0</v>
-      </c>
-      <c r="J6" s="129">
+        <v>900000</v>
+      </c>
+      <c r="I6" s="124">
+        <v>0</v>
+      </c>
+      <c r="J6" s="124">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="112">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="129">
-        <v>0</v>
-      </c>
-      <c r="N6" s="129">
+      <c r="M6" s="124">
+        <v>0</v>
+      </c>
+      <c r="N6" s="124">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -1933,11 +2017,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="14">
         <f>PRODUCT(U6,30000)</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="W6" s="13">
         <v>0</v>
@@ -1953,7 +2037,7 @@
         <f>PRODUCT(Y6,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="79">
+      <c r="AA6" s="78">
         <v>0</v>
       </c>
       <c r="AB6" s="18">
@@ -1962,64 +2046,64 @@
       </c>
       <c r="AC6" s="18">
         <f>SUM(P6,R6,T6,V6,X6,Z6,AB6)</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AD6" s="17">
         <f>SUM(D6,H6,AC6,F6,J6,L6,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="64"/>
-    </row>
-    <row r="7" spans="1:46">
+        <v>1530000</v>
+      </c>
+      <c r="AE6" s="63"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>44076</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="142">
         <v>0</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D35" si="0">PRODUCT(C7,200000)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="127">
-        <v>0</v>
-      </c>
-      <c r="F7" s="127">
+      <c r="E7" s="122">
+        <v>0</v>
+      </c>
+      <c r="F7" s="122">
         <f t="shared" ref="F7:F35" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="142">
         <v>0</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7:H35" si="2">PRODUCT(G7,300000)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="129">
-        <v>0</v>
-      </c>
-      <c r="J7" s="129">
+      <c r="I7" s="124">
+        <v>0</v>
+      </c>
+      <c r="J7" s="124">
         <f t="shared" ref="J7:J35" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="147">
+      <c r="K7" s="142">
         <v>0</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L35" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="129">
-        <v>0</v>
-      </c>
-      <c r="N7" s="129">
+      <c r="M7" s="124">
+        <v>0</v>
+      </c>
+      <c r="N7" s="124">
         <f t="shared" ref="N7:N35" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="148">
+      <c r="O7" s="143">
         <v>0</v>
       </c>
       <c r="P7" s="41">
@@ -2054,14 +2138,14 @@
         <f t="shared" ref="X7:X35" si="10">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="99">
+      <c r="Y7" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="97">
         <f t="shared" ref="Z7:Z35" si="11">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="99">
+      <c r="AA7" s="97">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
@@ -2076,58 +2160,58 @@
         <f t="shared" ref="AD7:AD35" si="14">SUM(D7,H7,AC7,F7,J7,L7,N7)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="77"/>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AE7" s="76"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>44077</v>
       </c>
-      <c r="C8" s="147">
-        <v>0</v>
+      <c r="C8" s="142">
+        <v>8</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="127">
-        <v>0</v>
-      </c>
-      <c r="F8" s="127">
+        <v>1600000</v>
+      </c>
+      <c r="E8" s="122">
+        <v>0</v>
+      </c>
+      <c r="F8" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="147">
-        <v>0</v>
+      <c r="G8" s="142">
+        <v>6</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="129">
-        <v>0</v>
-      </c>
-      <c r="J8" s="129">
+        <v>1800000</v>
+      </c>
+      <c r="I8" s="124">
+        <v>0</v>
+      </c>
+      <c r="J8" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="147">
-        <v>0</v>
+      <c r="K8" s="142">
+        <v>2</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="129">
-        <v>0</v>
-      </c>
-      <c r="N8" s="129">
+        <v>600000</v>
+      </c>
+      <c r="M8" s="124">
+        <v>0</v>
+      </c>
+      <c r="N8" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="148">
+      <c r="O8" s="143">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2135,18 +2219,18 @@
         <v>0</v>
       </c>
       <c r="Q8" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="S8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U8" s="14">
         <v>0</v>
@@ -2162,14 +2246,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="99">
+      <c r="Y8" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="99">
+      <c r="AA8" s="97">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2178,13 +2262,13 @@
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AD8" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="77"/>
+        <v>5500000</v>
+      </c>
+      <c r="AE8" s="76"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
@@ -2199,56 +2283,56 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1">
+    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>44078</v>
       </c>
-      <c r="C9" s="147">
-        <v>0</v>
+      <c r="C9" s="142">
+        <v>4</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="127">
-        <v>0</v>
-      </c>
-      <c r="F9" s="127">
+        <v>800000</v>
+      </c>
+      <c r="E9" s="122">
+        <v>0</v>
+      </c>
+      <c r="F9" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="147">
-        <v>0</v>
+      <c r="G9" s="142">
+        <v>2</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="129">
-        <v>0</v>
-      </c>
-      <c r="J9" s="129">
+        <v>600000</v>
+      </c>
+      <c r="I9" s="124">
+        <v>0</v>
+      </c>
+      <c r="J9" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="147">
+      <c r="K9" s="142">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="129">
-        <v>0</v>
-      </c>
-      <c r="N9" s="129">
+      <c r="M9" s="124">
+        <v>0</v>
+      </c>
+      <c r="N9" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="148">
+      <c r="O9" s="143">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2256,11 +2340,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S9" s="14">
         <v>0</v>
@@ -2283,14 +2367,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="99">
+      <c r="Y9" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="99">
+      <c r="AA9" s="97">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2299,64 +2383,64 @@
       </c>
       <c r="AC9" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD9" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="77"/>
-    </row>
-    <row r="10" spans="1:46" customFormat="1">
+        <v>1700000</v>
+      </c>
+      <c r="AE9" s="76"/>
+    </row>
+    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>44079</v>
       </c>
-      <c r="C10" s="147">
-        <v>0</v>
+      <c r="C10" s="142">
+        <v>6</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="127">
-        <v>0</v>
-      </c>
-      <c r="F10" s="127">
+        <v>1200000</v>
+      </c>
+      <c r="E10" s="122">
+        <v>0</v>
+      </c>
+      <c r="F10" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="147">
-        <v>0</v>
+      <c r="G10" s="142">
+        <v>7</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="129">
-        <v>0</v>
-      </c>
-      <c r="J10" s="129">
+        <v>2100000</v>
+      </c>
+      <c r="I10" s="124">
+        <v>0</v>
+      </c>
+      <c r="J10" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="147">
+      <c r="K10" s="142">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="129">
-        <v>0</v>
-      </c>
-      <c r="N10" s="129">
+      <c r="M10" s="124">
+        <v>0</v>
+      </c>
+      <c r="N10" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="148">
+      <c r="O10" s="143">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2364,11 +2448,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
@@ -2391,14 +2475,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="99">
+      <c r="Y10" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="99">
+      <c r="AA10" s="97">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2407,83 +2491,83 @@
       </c>
       <c r="AC10" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AD10" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="77"/>
-    </row>
-    <row r="11" spans="1:46" customFormat="1">
+        <v>4800000</v>
+      </c>
+      <c r="AE10" s="76"/>
+    </row>
+    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>44080</v>
       </c>
-      <c r="C11" s="147">
-        <v>0</v>
+      <c r="C11" s="142">
+        <v>14</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="127">
-        <v>0</v>
-      </c>
-      <c r="F11" s="127">
+        <v>2800000</v>
+      </c>
+      <c r="E11" s="122">
+        <v>0</v>
+      </c>
+      <c r="F11" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="147">
-        <v>0</v>
+      <c r="G11" s="142">
+        <v>24</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="129">
-        <v>0</v>
-      </c>
-      <c r="J11" s="129">
+        <v>7200000</v>
+      </c>
+      <c r="I11" s="124">
+        <v>0</v>
+      </c>
+      <c r="J11" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="147">
-        <v>0</v>
+      <c r="K11" s="142">
+        <v>3</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="129">
-        <v>0</v>
-      </c>
-      <c r="N11" s="129">
+        <v>900000</v>
+      </c>
+      <c r="M11" s="124">
+        <v>0</v>
+      </c>
+      <c r="N11" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="148">
-        <v>0</v>
+      <c r="O11" s="143">
+        <v>1</v>
       </c>
       <c r="P11" s="41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q11" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="S11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U11" s="14">
         <v>0</v>
@@ -2499,14 +2583,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="99">
+      <c r="Y11" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="99">
+      <c r="AA11" s="97">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2515,64 +2599,64 @@
       </c>
       <c r="AC11" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6630000</v>
       </c>
       <c r="AD11" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="77"/>
-    </row>
-    <row r="12" spans="1:46" customFormat="1">
+        <v>17530000</v>
+      </c>
+      <c r="AE11" s="76"/>
+    </row>
+    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>44081</v>
       </c>
-      <c r="C12" s="147">
-        <v>0</v>
+      <c r="C12" s="142">
+        <v>3</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="127">
-        <v>0</v>
-      </c>
-      <c r="F12" s="127">
+        <v>600000</v>
+      </c>
+      <c r="E12" s="122">
+        <v>0</v>
+      </c>
+      <c r="F12" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="147">
-        <v>0</v>
+      <c r="G12" s="142">
+        <v>3</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="129">
-        <v>0</v>
-      </c>
-      <c r="J12" s="129">
+        <v>900000</v>
+      </c>
+      <c r="I12" s="124">
+        <v>0</v>
+      </c>
+      <c r="J12" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="147">
-        <v>0</v>
+      <c r="K12" s="142">
+        <v>2</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="129">
-        <v>0</v>
-      </c>
-      <c r="N12" s="129">
+        <v>600000</v>
+      </c>
+      <c r="M12" s="124">
+        <v>0</v>
+      </c>
+      <c r="N12" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="148">
+      <c r="O12" s="143">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2580,18 +2664,18 @@
         <v>0</v>
       </c>
       <c r="Q12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U12" s="14">
         <v>0</v>
@@ -2607,14 +2691,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="99">
+      <c r="Y12" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="99">
+      <c r="AA12" s="97">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2623,64 +2707,64 @@
       </c>
       <c r="AC12" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="AD12" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="77"/>
-    </row>
-    <row r="13" spans="1:46" customFormat="1">
+        <v>3000000</v>
+      </c>
+      <c r="AE12" s="76"/>
+    </row>
+    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>44082</v>
       </c>
-      <c r="C13" s="147">
-        <v>0</v>
+      <c r="C13" s="142">
+        <v>4</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="127">
-        <v>0</v>
-      </c>
-      <c r="F13" s="127">
+        <v>800000</v>
+      </c>
+      <c r="E13" s="122">
+        <v>0</v>
+      </c>
+      <c r="F13" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="147">
-        <v>0</v>
+      <c r="G13" s="142">
+        <v>1</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="129">
-        <v>0</v>
-      </c>
-      <c r="J13" s="129">
+        <v>300000</v>
+      </c>
+      <c r="I13" s="124">
+        <v>0</v>
+      </c>
+      <c r="J13" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="147">
-        <v>0</v>
+      <c r="K13" s="142">
+        <v>2</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="129">
-        <v>0</v>
-      </c>
-      <c r="N13" s="129">
+        <v>600000</v>
+      </c>
+      <c r="M13" s="124">
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="148">
+      <c r="O13" s="143">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2715,14 +2799,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="99">
+      <c r="Y13" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="99">
+      <c r="AA13" s="97">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2735,60 +2819,60 @@
       </c>
       <c r="AD13" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="77"/>
-    </row>
-    <row r="14" spans="1:46">
+        <v>1700000</v>
+      </c>
+      <c r="AE13" s="76"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>44083</v>
       </c>
-      <c r="C14" s="147">
-        <v>0</v>
+      <c r="C14" s="142">
+        <v>5</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="127">
-        <v>0</v>
-      </c>
-      <c r="F14" s="127">
+        <f>PRODUCT(C14,200000)</f>
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="122">
+        <v>0</v>
+      </c>
+      <c r="F14" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="147">
-        <v>0</v>
+      <c r="G14" s="142">
+        <v>4</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="129">
-        <v>0</v>
-      </c>
-      <c r="J14" s="129">
+        <v>1200000</v>
+      </c>
+      <c r="I14" s="124">
+        <v>0</v>
+      </c>
+      <c r="J14" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="147">
+      <c r="K14" s="142">
         <v>0</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="129">
-        <v>0</v>
-      </c>
-      <c r="N14" s="129">
+      <c r="M14" s="124">
+        <v>0</v>
+      </c>
+      <c r="N14" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="148">
+      <c r="O14" s="143">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2796,11 +2880,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S14" s="14">
         <v>0</v>
@@ -2817,20 +2901,20 @@
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="99">
+        <v>50000</v>
+      </c>
+      <c r="Y14" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="99">
+      <c r="AA14" s="97">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -2839,71 +2923,71 @@
       </c>
       <c r="AC14" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AD14" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="77"/>
+        <v>2850000</v>
+      </c>
+      <c r="AE14" s="76"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46">
-      <c r="A15" s="81"/>
-      <c r="B15" s="57">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="56">
         <v>44084</v>
       </c>
-      <c r="C15" s="147">
-        <v>0</v>
+      <c r="C15" s="142">
+        <v>6</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="127">
-        <v>0</v>
-      </c>
-      <c r="F15" s="127">
+        <v>1200000</v>
+      </c>
+      <c r="E15" s="122">
+        <v>0</v>
+      </c>
+      <c r="F15" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="147">
-        <v>0</v>
+      <c r="G15" s="142">
+        <v>3</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="129">
-        <v>0</v>
-      </c>
-      <c r="J15" s="129">
+        <v>900000</v>
+      </c>
+      <c r="I15" s="124">
+        <v>0</v>
+      </c>
+      <c r="J15" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="142">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="129">
-        <v>0</v>
-      </c>
-      <c r="N15" s="129">
+      <c r="M15" s="124">
+        <v>0</v>
+      </c>
+      <c r="N15" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="148">
-        <v>0</v>
+      <c r="O15" s="143">
+        <v>1</v>
       </c>
       <c r="P15" s="41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q15" s="14">
         <v>0</v>
@@ -2920,11 +3004,11 @@
         <v>0</v>
       </c>
       <c r="U15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="W15" s="13">
         <v>0</v>
@@ -2933,14 +3017,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="99">
+      <c r="Y15" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="99">
+      <c r="AA15" s="97">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -2949,66 +3033,66 @@
       </c>
       <c r="AC15" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="AD15" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="81"/>
+        <v>2160000</v>
+      </c>
+      <c r="AE15" s="80"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="81"/>
-      <c r="B16" s="57">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
+      <c r="B16" s="56">
         <v>44085</v>
       </c>
-      <c r="C16" s="147">
-        <v>0</v>
+      <c r="C16" s="142">
+        <v>2</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="127">
-        <v>0</v>
-      </c>
-      <c r="F16" s="127">
+        <v>400000</v>
+      </c>
+      <c r="E16" s="122">
+        <v>0</v>
+      </c>
+      <c r="F16" s="122">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="147">
-        <v>0</v>
+      <c r="G16" s="142">
+        <v>3</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="129">
-        <v>0</v>
-      </c>
-      <c r="J16" s="129">
+        <v>900000</v>
+      </c>
+      <c r="I16" s="124">
+        <v>0</v>
+      </c>
+      <c r="J16" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="147">
-        <v>0</v>
+      <c r="K16" s="142">
+        <v>1</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="129">
-        <v>0</v>
-      </c>
-      <c r="N16" s="129">
+        <v>300000</v>
+      </c>
+      <c r="M16" s="124">
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="148">
+      <c r="O16" s="143">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3016,11 +3100,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
@@ -3043,14 +3127,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="99">
+      <c r="Y16" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="99">
+      <c r="AA16" s="97">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3059,66 +3143,66 @@
       </c>
       <c r="AC16" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD16" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="81"/>
+        <v>1900000</v>
+      </c>
+      <c r="AE16" s="80"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="81"/>
-      <c r="B17" s="57">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="56">
         <v>44086</v>
       </c>
-      <c r="C17" s="147">
+      <c r="C17" s="142">
         <v>0</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="127">
-        <v>0</v>
-      </c>
-      <c r="F17" s="127">
+      <c r="E17" s="122">
+        <v>0</v>
+      </c>
+      <c r="F17" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="147">
+      <c r="G17" s="142">
         <v>0</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="129">
-        <v>0</v>
-      </c>
-      <c r="J17" s="129">
+      <c r="I17" s="124">
+        <v>0</v>
+      </c>
+      <c r="J17" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="142">
         <v>0</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="129">
-        <v>0</v>
-      </c>
-      <c r="N17" s="129">
+      <c r="M17" s="124">
+        <v>0</v>
+      </c>
+      <c r="N17" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="148">
+      <c r="O17" s="143">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3153,14 +3237,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="99">
+      <c r="Y17" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="99">
+      <c r="AA17" s="97">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3175,60 +3259,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="81"/>
+      <c r="AE17" s="80"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="81"/>
-      <c r="B18" s="57">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
+      <c r="B18" s="56">
         <v>44087</v>
       </c>
-      <c r="C18" s="147">
+      <c r="C18" s="142">
         <v>0</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="127">
-        <v>0</v>
-      </c>
-      <c r="F18" s="127">
+      <c r="E18" s="122">
+        <v>0</v>
+      </c>
+      <c r="F18" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="147">
+      <c r="G18" s="142">
         <v>0</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="129">
-        <v>0</v>
-      </c>
-      <c r="J18" s="129">
+      <c r="I18" s="124">
+        <v>0</v>
+      </c>
+      <c r="J18" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="147">
+      <c r="K18" s="142">
         <v>0</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="129">
-        <v>0</v>
-      </c>
-      <c r="N18" s="129">
+      <c r="M18" s="124">
+        <v>0</v>
+      </c>
+      <c r="N18" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="148">
+      <c r="O18" s="143">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3263,14 +3347,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="99">
+      <c r="Y18" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="99">
+      <c r="AA18" s="97">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3285,60 +3369,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="81"/>
+      <c r="AE18" s="80"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="57">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="56">
         <v>44088</v>
       </c>
-      <c r="C19" s="147">
+      <c r="C19" s="142">
         <v>0</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="127">
-        <v>0</v>
-      </c>
-      <c r="F19" s="127">
+      <c r="E19" s="122">
+        <v>0</v>
+      </c>
+      <c r="F19" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="147">
+      <c r="G19" s="142">
         <v>0</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="129">
-        <v>0</v>
-      </c>
-      <c r="J19" s="129">
+      <c r="I19" s="124">
+        <v>0</v>
+      </c>
+      <c r="J19" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="147">
+      <c r="K19" s="142">
         <v>0</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="129">
-        <v>0</v>
-      </c>
-      <c r="N19" s="129">
+      <c r="M19" s="124">
+        <v>0</v>
+      </c>
+      <c r="N19" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="148">
+      <c r="O19" s="143">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3373,14 +3457,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="99">
+      <c r="Y19" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="99">
+      <c r="AA19" s="97">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3395,60 +3479,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="102"/>
+      <c r="AE19" s="100"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="81"/>
-      <c r="B20" s="57">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="56">
         <v>44089</v>
       </c>
-      <c r="C20" s="147">
+      <c r="C20" s="142">
         <v>0</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="127">
-        <v>0</v>
-      </c>
-      <c r="F20" s="127">
+      <c r="E20" s="122">
+        <v>0</v>
+      </c>
+      <c r="F20" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="147">
+      <c r="G20" s="142">
         <v>0</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="129">
-        <v>0</v>
-      </c>
-      <c r="J20" s="129">
+      <c r="I20" s="124">
+        <v>0</v>
+      </c>
+      <c r="J20" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="147">
+      <c r="K20" s="142">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="129">
-        <v>0</v>
-      </c>
-      <c r="N20" s="129">
+      <c r="M20" s="124">
+        <v>0</v>
+      </c>
+      <c r="N20" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="148">
+      <c r="O20" s="143">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3483,14 +3567,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="99">
+      <c r="Y20" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="99">
+      <c r="AA20" s="97">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3505,60 +3589,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="81"/>
+      <c r="AE20" s="80"/>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="81"/>
-      <c r="B21" s="57">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="56">
         <v>44090</v>
       </c>
-      <c r="C21" s="147">
+      <c r="C21" s="142">
         <v>0</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="127">
-        <v>0</v>
-      </c>
-      <c r="F21" s="127">
+      <c r="E21" s="122">
+        <v>0</v>
+      </c>
+      <c r="F21" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="147">
+      <c r="G21" s="142">
         <v>0</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="129">
-        <v>0</v>
-      </c>
-      <c r="J21" s="129">
+      <c r="I21" s="124">
+        <v>0</v>
+      </c>
+      <c r="J21" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="147">
+      <c r="K21" s="142">
         <v>0</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="129">
-        <v>0</v>
-      </c>
-      <c r="N21" s="129">
+      <c r="M21" s="124">
+        <v>0</v>
+      </c>
+      <c r="N21" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="148">
+      <c r="O21" s="143">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3593,14 +3677,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="99">
+      <c r="Y21" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="99">
+      <c r="AA21" s="97">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3615,60 +3699,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="81"/>
+      <c r="AE21" s="80"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="57">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="56">
         <v>44091</v>
       </c>
-      <c r="C22" s="147">
+      <c r="C22" s="142">
         <v>0</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="127">
-        <v>0</v>
-      </c>
-      <c r="F22" s="127">
+      <c r="E22" s="122">
+        <v>0</v>
+      </c>
+      <c r="F22" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="147">
+      <c r="G22" s="142">
         <v>0</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="129">
-        <v>0</v>
-      </c>
-      <c r="J22" s="129">
+      <c r="I22" s="124">
+        <v>0</v>
+      </c>
+      <c r="J22" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="147">
+      <c r="K22" s="142">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="129">
-        <v>0</v>
-      </c>
-      <c r="N22" s="129">
+      <c r="M22" s="124">
+        <v>0</v>
+      </c>
+      <c r="N22" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="148">
+      <c r="O22" s="143">
         <v>0</v>
       </c>
       <c r="P22" s="41">
@@ -3703,14 +3787,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="119">
+      <c r="Y22" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="114">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="99">
+      <c r="AA22" s="97">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3725,60 +3809,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="81"/>
+      <c r="AE22" s="80"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="81"/>
-      <c r="B23" s="57">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="56">
         <v>44092</v>
       </c>
-      <c r="C23" s="147">
+      <c r="C23" s="142">
         <v>0</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="127">
-        <v>0</v>
-      </c>
-      <c r="F23" s="127">
+      <c r="E23" s="122">
+        <v>0</v>
+      </c>
+      <c r="F23" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="147">
+      <c r="G23" s="142">
         <v>0</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="129">
-        <v>0</v>
-      </c>
-      <c r="J23" s="129">
+      <c r="I23" s="124">
+        <v>0</v>
+      </c>
+      <c r="J23" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="147">
+      <c r="K23" s="142">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="129">
-        <v>0</v>
-      </c>
-      <c r="N23" s="129">
+      <c r="M23" s="124">
+        <v>0</v>
+      </c>
+      <c r="N23" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="148">
+      <c r="O23" s="143">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3813,14 +3897,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="119">
+      <c r="Y23" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="114">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="99">
+      <c r="AA23" s="97">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3835,60 +3919,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="81"/>
+      <c r="AE23" s="80"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="81"/>
-      <c r="B24" s="57">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="56">
         <v>44093</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="142">
         <v>0</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="127">
-        <v>0</v>
-      </c>
-      <c r="F24" s="127">
+      <c r="E24" s="122">
+        <v>0</v>
+      </c>
+      <c r="F24" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="142">
         <v>0</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="129">
-        <v>0</v>
-      </c>
-      <c r="J24" s="129">
+      <c r="I24" s="124">
+        <v>0</v>
+      </c>
+      <c r="J24" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="147">
+      <c r="K24" s="142">
         <v>0</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M24" s="129">
-        <v>0</v>
-      </c>
-      <c r="N24" s="129">
+      <c r="M24" s="124">
+        <v>0</v>
+      </c>
+      <c r="N24" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="148">
+      <c r="O24" s="143">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -3923,14 +4007,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="99">
+      <c r="Y24" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="99">
+      <c r="AA24" s="97">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -3945,60 +4029,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="81"/>
+      <c r="AE24" s="80"/>
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="81"/>
-      <c r="B25" s="57">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="56">
         <v>44094</v>
       </c>
-      <c r="C25" s="147">
+      <c r="C25" s="142">
         <v>0</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="127">
-        <v>0</v>
-      </c>
-      <c r="F25" s="127">
+      <c r="E25" s="122">
+        <v>0</v>
+      </c>
+      <c r="F25" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="147">
+      <c r="G25" s="142">
         <v>0</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="129">
-        <v>0</v>
-      </c>
-      <c r="J25" s="129">
+      <c r="I25" s="124">
+        <v>0</v>
+      </c>
+      <c r="J25" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="147">
+      <c r="K25" s="142">
         <v>0</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M25" s="129">
-        <v>0</v>
-      </c>
-      <c r="N25" s="129">
+      <c r="M25" s="124">
+        <v>0</v>
+      </c>
+      <c r="N25" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="148">
+      <c r="O25" s="143">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4033,14 +4117,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="99">
+      <c r="Y25" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="99">
+      <c r="AA25" s="97">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4055,60 +4139,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="81"/>
+      <c r="AE25" s="80"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="81"/>
-      <c r="B26" s="57">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="56">
         <v>44095</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="142">
         <v>0</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="127">
-        <v>0</v>
-      </c>
-      <c r="F26" s="127">
+      <c r="E26" s="122">
+        <v>0</v>
+      </c>
+      <c r="F26" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="147">
+      <c r="G26" s="142">
         <v>0</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I26" s="129">
-        <v>0</v>
-      </c>
-      <c r="J26" s="129">
+      <c r="I26" s="124">
+        <v>0</v>
+      </c>
+      <c r="J26" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="147">
+      <c r="K26" s="142">
         <v>0</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="129">
-        <v>0</v>
-      </c>
-      <c r="N26" s="129">
+      <c r="M26" s="124">
+        <v>0</v>
+      </c>
+      <c r="N26" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="148">
+      <c r="O26" s="143">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4143,14 +4227,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="99">
+      <c r="Y26" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="99">
+      <c r="AA26" s="97">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4165,60 +4249,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="81"/>
+      <c r="AE26" s="80"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="81"/>
-      <c r="B27" s="57">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="56">
         <v>44096</v>
       </c>
-      <c r="C27" s="147">
+      <c r="C27" s="142">
         <v>0</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="127">
-        <v>0</v>
-      </c>
-      <c r="F27" s="127">
+      <c r="E27" s="122">
+        <v>0</v>
+      </c>
+      <c r="F27" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="147">
+      <c r="G27" s="142">
         <v>0</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="129">
-        <v>0</v>
-      </c>
-      <c r="J27" s="129">
+      <c r="I27" s="124">
+        <v>0</v>
+      </c>
+      <c r="J27" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="147">
+      <c r="K27" s="142">
         <v>0</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="129">
-        <v>0</v>
-      </c>
-      <c r="N27" s="129">
+      <c r="M27" s="124">
+        <v>0</v>
+      </c>
+      <c r="N27" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="148">
+      <c r="O27" s="143">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4253,14 +4337,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="99">
+      <c r="Y27" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="99">
+      <c r="AA27" s="97">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4275,60 +4359,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="113"/>
+      <c r="AE27" s="109"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="81"/>
-      <c r="B28" s="57">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="56">
         <v>44097</v>
       </c>
-      <c r="C28" s="147">
+      <c r="C28" s="142">
         <v>0</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="127">
-        <v>0</v>
-      </c>
-      <c r="F28" s="127">
+      <c r="E28" s="122">
+        <v>0</v>
+      </c>
+      <c r="F28" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="142">
         <v>0</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="129">
-        <v>0</v>
-      </c>
-      <c r="J28" s="129">
+      <c r="I28" s="124">
+        <v>0</v>
+      </c>
+      <c r="J28" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="147">
+      <c r="K28" s="142">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="129">
-        <v>0</v>
-      </c>
-      <c r="N28" s="129">
+      <c r="M28" s="124">
+        <v>0</v>
+      </c>
+      <c r="N28" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="148">
+      <c r="O28" s="143">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4363,14 +4447,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="99">
+      <c r="Y28" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="99">
+      <c r="AA28" s="97">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4385,60 +4469,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="81"/>
+      <c r="AE28" s="80"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="81"/>
-      <c r="B29" s="57">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="56">
         <v>44098</v>
       </c>
-      <c r="C29" s="147">
+      <c r="C29" s="142">
         <v>0</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="127">
-        <v>0</v>
-      </c>
-      <c r="F29" s="127">
+      <c r="E29" s="122">
+        <v>0</v>
+      </c>
+      <c r="F29" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="147">
+      <c r="G29" s="142">
         <v>0</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="129">
-        <v>0</v>
-      </c>
-      <c r="J29" s="129">
+      <c r="I29" s="124">
+        <v>0</v>
+      </c>
+      <c r="J29" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="147">
+      <c r="K29" s="142">
         <v>0</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="129">
-        <v>0</v>
-      </c>
-      <c r="N29" s="129">
+      <c r="M29" s="124">
+        <v>0</v>
+      </c>
+      <c r="N29" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="148">
+      <c r="O29" s="143">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4473,14 +4557,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="99">
+      <c r="Y29" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="99">
+      <c r="AA29" s="97">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4495,60 +4579,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="81"/>
+      <c r="AE29" s="80"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="81"/>
-      <c r="B30" s="57">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="56">
         <v>44099</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="142">
         <v>0</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="127">
-        <v>0</v>
-      </c>
-      <c r="F30" s="127">
+      <c r="E30" s="122">
+        <v>0</v>
+      </c>
+      <c r="F30" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="142">
         <v>0</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="129">
-        <v>0</v>
-      </c>
-      <c r="J30" s="129">
+      <c r="I30" s="124">
+        <v>0</v>
+      </c>
+      <c r="J30" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="147">
+      <c r="K30" s="142">
         <v>0</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="129">
-        <v>0</v>
-      </c>
-      <c r="N30" s="129">
+      <c r="M30" s="124">
+        <v>0</v>
+      </c>
+      <c r="N30" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="148">
+      <c r="O30" s="143">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4583,14 +4667,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="99">
+      <c r="Y30" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="99">
+      <c r="AA30" s="97">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4605,60 +4689,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="81"/>
+      <c r="AE30" s="80"/>
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="81"/>
-      <c r="B31" s="57">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
+      <c r="B31" s="56">
         <v>44100</v>
       </c>
-      <c r="C31" s="147">
+      <c r="C31" s="142">
         <v>0</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="127">
-        <v>0</v>
-      </c>
-      <c r="F31" s="127">
+      <c r="E31" s="122">
+        <v>0</v>
+      </c>
+      <c r="F31" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="142">
         <v>0</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="129">
-        <v>0</v>
-      </c>
-      <c r="J31" s="129">
+      <c r="I31" s="124">
+        <v>0</v>
+      </c>
+      <c r="J31" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="147">
+      <c r="K31" s="142">
         <v>0</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="129">
-        <v>0</v>
-      </c>
-      <c r="N31" s="129">
+      <c r="M31" s="124">
+        <v>0</v>
+      </c>
+      <c r="N31" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="148">
+      <c r="O31" s="143">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4693,14 +4777,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="99">
+      <c r="Y31" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="99">
+      <c r="AA31" s="97">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4715,60 +4799,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="81"/>
+      <c r="AE31" s="80"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="81"/>
-      <c r="B32" s="57">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
+      <c r="B32" s="56">
         <v>44101</v>
       </c>
-      <c r="C32" s="147">
+      <c r="C32" s="142">
         <v>0</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="127">
-        <v>0</v>
-      </c>
-      <c r="F32" s="127">
+      <c r="E32" s="122">
+        <v>0</v>
+      </c>
+      <c r="F32" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="147">
+      <c r="G32" s="142">
         <v>0</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="129">
-        <v>0</v>
-      </c>
-      <c r="J32" s="129">
+      <c r="I32" s="124">
+        <v>0</v>
+      </c>
+      <c r="J32" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="147">
+      <c r="K32" s="142">
         <v>0</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="129">
-        <v>0</v>
-      </c>
-      <c r="N32" s="129">
+      <c r="M32" s="124">
+        <v>0</v>
+      </c>
+      <c r="N32" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="148">
+      <c r="O32" s="143">
         <v>0</v>
       </c>
       <c r="P32" s="41">
@@ -4803,14 +4887,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="99">
+      <c r="Y32" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="99">
+      <c r="AA32" s="97">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4825,60 +4909,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="81"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="81"/>
-      <c r="B33" s="57">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="56">
         <v>44102</v>
       </c>
-      <c r="C33" s="147">
+      <c r="C33" s="142">
         <v>0</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="127">
-        <v>0</v>
-      </c>
-      <c r="F33" s="127">
+      <c r="E33" s="122">
+        <v>0</v>
+      </c>
+      <c r="F33" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33" s="147">
+      <c r="G33" s="142">
         <v>0</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="129">
-        <v>0</v>
-      </c>
-      <c r="J33" s="129">
+      <c r="I33" s="124">
+        <v>0</v>
+      </c>
+      <c r="J33" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="147">
+      <c r="K33" s="142">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="129">
-        <v>0</v>
-      </c>
-      <c r="N33" s="129">
+      <c r="M33" s="124">
+        <v>0</v>
+      </c>
+      <c r="N33" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="148">
+      <c r="O33" s="143">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -4913,14 +4997,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="99">
+      <c r="Y33" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="99">
+      <c r="AA33" s="97">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -4935,60 +5019,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="81"/>
+      <c r="AE33" s="80"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="83"/>
-      <c r="B34" s="57">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
+      <c r="B34" s="56">
         <v>44103</v>
       </c>
-      <c r="C34" s="147">
+      <c r="C34" s="142">
         <v>0</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="127">
-        <v>0</v>
-      </c>
-      <c r="F34" s="127">
+      <c r="E34" s="122">
+        <v>0</v>
+      </c>
+      <c r="F34" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="147">
+      <c r="G34" s="142">
         <v>0</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="129">
-        <v>0</v>
-      </c>
-      <c r="J34" s="129">
+      <c r="I34" s="124">
+        <v>0</v>
+      </c>
+      <c r="J34" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="147">
+      <c r="K34" s="142">
         <v>0</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="129">
-        <v>0</v>
-      </c>
-      <c r="N34" s="129">
+      <c r="M34" s="124">
+        <v>0</v>
+      </c>
+      <c r="N34" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="118">
+      <c r="O34" s="113">
         <v>0</v>
       </c>
       <c r="P34" s="41">
@@ -5023,14 +5107,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="99">
+      <c r="Y34" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="99">
+      <c r="AA34" s="97">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5045,60 +5129,60 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="83"/>
+      <c r="AE34" s="82"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="83"/>
-      <c r="B35" s="57">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="82"/>
+      <c r="B35" s="56">
         <v>44104</v>
       </c>
-      <c r="C35" s="147">
+      <c r="C35" s="142">
         <v>0</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="127">
-        <v>0</v>
-      </c>
-      <c r="F35" s="127">
+      <c r="E35" s="122">
+        <v>0</v>
+      </c>
+      <c r="F35" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="147">
+      <c r="G35" s="142">
         <v>0</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="129">
-        <v>0</v>
-      </c>
-      <c r="J35" s="129">
+      <c r="I35" s="124">
+        <v>0</v>
+      </c>
+      <c r="J35" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="117">
+      <c r="K35" s="112">
         <v>0</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="129">
-        <v>0</v>
-      </c>
-      <c r="N35" s="129">
+      <c r="M35" s="124">
+        <v>0</v>
+      </c>
+      <c r="N35" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="118">
+      <c r="O35" s="113">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5133,14 +5217,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="149">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="99">
+      <c r="Y35" s="144">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="97">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="99">
+      <c r="AA35" s="97">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5155,228 +5239,221 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="83"/>
+      <c r="AE35" s="82"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="7">
         <f>SUM(C6:C35)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D36" s="39">
-        <f>SUM(D7:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="128">
-        <f>SUM(E7:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="128">
-        <f>SUM(F7:F35)</f>
+        <f t="shared" ref="D36:AD36" si="15">SUM(D7:D35)</f>
+        <v>10400000</v>
+      </c>
+      <c r="E36" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="123">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G36" s="39">
-        <f>SUM(G7:G35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="H36" s="39">
-        <f>SUM(H7:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="128">
-        <f>SUM(I7:I35)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="128">
-        <f>SUM(J7:J35)</f>
+        <f t="shared" si="15"/>
+        <v>15900000</v>
+      </c>
+      <c r="I36" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="123">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K36" s="39">
-        <f>SUM(K7:K35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="L36" s="39">
-        <f>SUM(L7:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="128">
-        <f>SUM(M7:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="128">
-        <f>SUM(N7:N35)</f>
+        <f t="shared" si="15"/>
+        <v>3000000</v>
+      </c>
+      <c r="M36" s="123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="123">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O36" s="39">
-        <f>SUM(O7:O35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="P36" s="39">
-        <f>SUM(P7:P35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>60000</v>
       </c>
       <c r="Q36" s="39">
-        <f>SUM(Q7:Q35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>33</v>
       </c>
       <c r="R36" s="39">
-        <f>SUM(R7:R35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9900000</v>
       </c>
       <c r="S36" s="39">
-        <f>SUM(S7:S35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="T36" s="39">
-        <f>SUM(T7:T35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1800000</v>
       </c>
       <c r="U36" s="39">
-        <f>SUM(U7:U35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="V36" s="39">
-        <f>SUM(V7:V35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="W36" s="39">
-        <f>SUM(W7:W35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="X36" s="39">
-        <f>SUM(X7:X35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>50000</v>
       </c>
       <c r="Y36" s="39">
-        <f>SUM(Y7:Y35)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z36" s="39">
-        <f>SUM(Z7:Z35)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA36" s="39">
-        <f>SUM(AA7:AA35)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB36" s="39">
-        <f>SUM(AB7:AB35)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC36" s="39">
-        <f>SUM(AC7:AC35)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>11840000</v>
       </c>
       <c r="AD36" s="39">
-        <f>SUM(AD7:AD35)</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="64"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="53"/>
-      <c r="B37" s="59" t="s">
+        <f t="shared" si="15"/>
+        <v>41140000</v>
+      </c>
+      <c r="AE36" s="63"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="160">
-        <v>0</v>
-      </c>
-      <c r="D37" s="160"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
-      <c r="P37" s="150"/>
-      <c r="Q37" s="150"/>
-      <c r="R37" s="150"/>
-      <c r="S37" s="150"/>
-      <c r="T37" s="150"/>
-      <c r="U37" s="150"/>
-      <c r="V37" s="150"/>
-      <c r="W37" s="150"/>
-      <c r="X37" s="150"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="150"/>
-      <c r="AA37" s="150"/>
-      <c r="AB37" s="150"/>
-      <c r="AC37" s="150"/>
-      <c r="AD37" s="150"/>
-      <c r="AE37" s="150"/>
-    </row>
-    <row r="38" spans="1:35" s="11" customFormat="1">
-      <c r="B38" s="58" t="s">
+      <c r="C37" s="162">
+        <v>0</v>
+      </c>
+      <c r="D37" s="162"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="154"/>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="154"/>
+      <c r="AE37" s="154"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="151">
-        <v>0</v>
-      </c>
-      <c r="D38" s="151"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="150"/>
-      <c r="P38" s="150"/>
-      <c r="Q38" s="150"/>
-      <c r="R38" s="150"/>
-      <c r="S38" s="150"/>
-      <c r="T38" s="150"/>
-      <c r="U38" s="150"/>
-      <c r="V38" s="150"/>
-      <c r="W38" s="150"/>
-      <c r="X38" s="150"/>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="150"/>
-      <c r="AA38" s="150"/>
-      <c r="AB38" s="150"/>
-      <c r="AC38" s="150"/>
-      <c r="AD38" s="150"/>
-      <c r="AE38" s="150"/>
+      <c r="C38" s="155">
+        <v>0</v>
+      </c>
+      <c r="D38" s="155"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="154"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="154"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="52"/>
+      <c r="J39" s="51"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="52"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="N39" s="51"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE41" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5393,6 +5470,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5410,28 +5494,28 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
-      <c r="A1" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5451,577 +5535,577 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
       <c r="B4" s="21">
         <v>44075</v>
       </c>
-      <c r="C4" s="106">
-        <v>0</v>
-      </c>
-      <c r="D4" s="106">
-        <v>0</v>
-      </c>
-      <c r="E4" s="103">
+      <c r="C4" s="104">
+        <v>0</v>
+      </c>
+      <c r="D4" s="104">
+        <v>0</v>
+      </c>
+      <c r="E4" s="101">
         <f>SUM(D4,-C4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="105"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="21">
         <v>44076</v>
       </c>
-      <c r="C5" s="106">
-        <v>0</v>
-      </c>
-      <c r="D5" s="106">
-        <v>0</v>
-      </c>
-      <c r="E5" s="103">
+      <c r="C5" s="104">
+        <v>0</v>
+      </c>
+      <c r="D5" s="104">
+        <v>0</v>
+      </c>
+      <c r="E5" s="101">
         <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="105"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="103"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" s="21">
         <v>44077</v>
       </c>
-      <c r="C6" s="106">
-        <v>0</v>
-      </c>
-      <c r="D6" s="106">
-        <v>0</v>
-      </c>
-      <c r="E6" s="103">
+      <c r="C6" s="104">
+        <v>0</v>
+      </c>
+      <c r="D6" s="104">
+        <v>0</v>
+      </c>
+      <c r="E6" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="105"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="103"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
       <c r="B7" s="21">
         <v>44078</v>
       </c>
-      <c r="C7" s="106">
-        <v>0</v>
-      </c>
-      <c r="D7" s="106">
-        <v>0</v>
-      </c>
-      <c r="E7" s="103">
+      <c r="C7" s="104">
+        <v>0</v>
+      </c>
+      <c r="D7" s="104">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="105"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="103"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
       <c r="B8" s="21">
         <v>44079</v>
       </c>
-      <c r="C8" s="106">
-        <v>0</v>
-      </c>
-      <c r="D8" s="106">
-        <v>0</v>
-      </c>
-      <c r="E8" s="103">
+      <c r="C8" s="104">
+        <v>0</v>
+      </c>
+      <c r="D8" s="104">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>7</v>
       </c>
       <c r="B9" s="21">
         <v>44080</v>
       </c>
-      <c r="C9" s="106">
-        <v>0</v>
-      </c>
-      <c r="D9" s="106">
-        <v>0</v>
-      </c>
-      <c r="E9" s="103">
+      <c r="C9" s="104">
+        <v>0</v>
+      </c>
+      <c r="D9" s="104">
+        <v>0</v>
+      </c>
+      <c r="E9" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
       <c r="B10" s="21">
         <v>44081</v>
       </c>
-      <c r="C10" s="106">
-        <v>0</v>
-      </c>
-      <c r="D10" s="106">
-        <v>0</v>
-      </c>
-      <c r="E10" s="103">
+      <c r="C10" s="104">
+        <v>0</v>
+      </c>
+      <c r="D10" s="104">
+        <v>0</v>
+      </c>
+      <c r="E10" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="61"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
       <c r="B11" s="21">
         <v>44082</v>
       </c>
-      <c r="C11" s="106">
-        <v>0</v>
-      </c>
-      <c r="D11" s="106">
-        <v>0</v>
-      </c>
-      <c r="E11" s="103">
+      <c r="C11" s="104">
+        <v>0</v>
+      </c>
+      <c r="D11" s="104">
+        <v>0</v>
+      </c>
+      <c r="E11" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="61"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
       <c r="B12" s="21">
         <v>44083</v>
       </c>
-      <c r="C12" s="106">
-        <v>0</v>
-      </c>
-      <c r="D12" s="106">
-        <v>0</v>
-      </c>
-      <c r="E12" s="103">
+      <c r="C12" s="104">
+        <v>0</v>
+      </c>
+      <c r="D12" s="104">
+        <v>0</v>
+      </c>
+      <c r="E12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
       <c r="B13" s="21">
         <v>44084</v>
       </c>
-      <c r="C13" s="106">
-        <v>0</v>
-      </c>
-      <c r="D13" s="106">
-        <v>0</v>
-      </c>
-      <c r="E13" s="103">
+      <c r="C13" s="104">
+        <v>0</v>
+      </c>
+      <c r="D13" s="104">
+        <v>0</v>
+      </c>
+      <c r="E13" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
       <c r="B14" s="21">
         <v>44085</v>
       </c>
-      <c r="C14" s="106">
-        <v>0</v>
-      </c>
-      <c r="D14" s="106">
-        <v>0</v>
-      </c>
-      <c r="E14" s="103">
+      <c r="C14" s="104">
+        <v>0</v>
+      </c>
+      <c r="D14" s="104">
+        <v>0</v>
+      </c>
+      <c r="E14" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
       <c r="B15" s="21">
         <v>44086</v>
       </c>
-      <c r="C15" s="106">
-        <v>0</v>
-      </c>
-      <c r="D15" s="106">
-        <v>0</v>
-      </c>
-      <c r="E15" s="103">
+      <c r="C15" s="104">
+        <v>0</v>
+      </c>
+      <c r="D15" s="104">
+        <v>0</v>
+      </c>
+      <c r="E15" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="61"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
       <c r="B16" s="21">
         <v>44087</v>
       </c>
-      <c r="C16" s="106">
-        <v>0</v>
-      </c>
-      <c r="D16" s="106">
-        <v>0</v>
-      </c>
-      <c r="E16" s="103">
+      <c r="C16" s="104">
+        <v>0</v>
+      </c>
+      <c r="D16" s="104">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>14</v>
       </c>
       <c r="B17" s="21">
         <v>44088</v>
       </c>
-      <c r="C17" s="106">
-        <v>0</v>
-      </c>
-      <c r="D17" s="106">
-        <v>0</v>
-      </c>
-      <c r="E17" s="103">
+      <c r="C17" s="104">
+        <v>0</v>
+      </c>
+      <c r="D17" s="104">
+        <v>0</v>
+      </c>
+      <c r="E17" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>15</v>
       </c>
       <c r="B18" s="21">
         <v>44089</v>
       </c>
-      <c r="C18" s="106">
-        <v>0</v>
-      </c>
-      <c r="D18" s="106">
-        <v>0</v>
-      </c>
-      <c r="E18" s="103">
+      <c r="C18" s="104">
+        <v>0</v>
+      </c>
+      <c r="D18" s="104">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
       <c r="B19" s="21">
         <v>44090</v>
       </c>
-      <c r="C19" s="106">
-        <v>0</v>
-      </c>
-      <c r="D19" s="106">
-        <v>0</v>
-      </c>
-      <c r="E19" s="103">
+      <c r="C19" s="104">
+        <v>0</v>
+      </c>
+      <c r="D19" s="104">
+        <v>0</v>
+      </c>
+      <c r="E19" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>17</v>
       </c>
       <c r="B20" s="21">
         <v>44091</v>
       </c>
-      <c r="C20" s="106">
-        <v>0</v>
-      </c>
-      <c r="D20" s="106">
-        <v>0</v>
-      </c>
-      <c r="E20" s="103">
+      <c r="C20" s="104">
+        <v>0</v>
+      </c>
+      <c r="D20" s="104">
+        <v>0</v>
+      </c>
+      <c r="E20" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>18</v>
       </c>
       <c r="B21" s="21">
         <v>44092</v>
       </c>
-      <c r="C21" s="106">
-        <v>0</v>
-      </c>
-      <c r="D21" s="106">
-        <v>0</v>
-      </c>
-      <c r="E21" s="103">
+      <c r="C21" s="104">
+        <v>0</v>
+      </c>
+      <c r="D21" s="104">
+        <v>0</v>
+      </c>
+      <c r="E21" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>19</v>
       </c>
       <c r="B22" s="21">
         <v>44093</v>
       </c>
-      <c r="C22" s="106">
-        <v>0</v>
-      </c>
-      <c r="D22" s="106">
-        <v>0</v>
-      </c>
-      <c r="E22" s="103">
+      <c r="C22" s="104">
+        <v>0</v>
+      </c>
+      <c r="D22" s="104">
+        <v>0</v>
+      </c>
+      <c r="E22" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>20</v>
       </c>
       <c r="B23" s="21">
         <v>44094</v>
       </c>
-      <c r="C23" s="106">
-        <v>0</v>
-      </c>
-      <c r="D23" s="106">
-        <v>0</v>
-      </c>
-      <c r="E23" s="103">
+      <c r="C23" s="104">
+        <v>0</v>
+      </c>
+      <c r="D23" s="104">
+        <v>0</v>
+      </c>
+      <c r="E23" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>21</v>
       </c>
       <c r="B24" s="21">
         <v>44095</v>
       </c>
-      <c r="C24" s="106">
-        <v>0</v>
-      </c>
-      <c r="D24" s="106">
-        <v>0</v>
-      </c>
-      <c r="E24" s="103">
+      <c r="C24" s="104">
+        <v>0</v>
+      </c>
+      <c r="D24" s="104">
+        <v>0</v>
+      </c>
+      <c r="E24" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="61"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>22</v>
       </c>
       <c r="B25" s="21">
         <v>44096</v>
       </c>
-      <c r="C25" s="106">
-        <v>0</v>
-      </c>
-      <c r="D25" s="106">
-        <v>0</v>
-      </c>
-      <c r="E25" s="103">
+      <c r="C25" s="104">
+        <v>0</v>
+      </c>
+      <c r="D25" s="104">
+        <v>0</v>
+      </c>
+      <c r="E25" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="61"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="60"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>23</v>
       </c>
       <c r="B26" s="21">
         <v>44097</v>
       </c>
-      <c r="C26" s="106">
-        <v>0</v>
-      </c>
-      <c r="D26" s="106">
-        <v>0</v>
-      </c>
-      <c r="E26" s="103">
+      <c r="C26" s="104">
+        <v>0</v>
+      </c>
+      <c r="D26" s="104">
+        <v>0</v>
+      </c>
+      <c r="E26" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="104"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="102"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>24</v>
       </c>
       <c r="B27" s="21">
         <v>44098</v>
       </c>
-      <c r="C27" s="106">
-        <v>0</v>
-      </c>
-      <c r="D27" s="106">
-        <v>0</v>
-      </c>
-      <c r="E27" s="103">
+      <c r="C27" s="104">
+        <v>0</v>
+      </c>
+      <c r="D27" s="104">
+        <v>0</v>
+      </c>
+      <c r="E27" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="104"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="102"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>44099</v>
       </c>
-      <c r="C28" s="106">
-        <v>0</v>
-      </c>
-      <c r="D28" s="106">
-        <v>0</v>
-      </c>
-      <c r="E28" s="103">
+      <c r="C28" s="104">
+        <v>0</v>
+      </c>
+      <c r="D28" s="104">
+        <v>0</v>
+      </c>
+      <c r="E28" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="104"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="102"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>27</v>
       </c>
       <c r="B29" s="21">
         <v>44100</v>
       </c>
-      <c r="C29" s="106">
-        <v>0</v>
-      </c>
-      <c r="D29" s="106">
-        <v>0</v>
-      </c>
-      <c r="E29" s="103">
+      <c r="C29" s="104">
+        <v>0</v>
+      </c>
+      <c r="D29" s="104">
+        <v>0</v>
+      </c>
+      <c r="E29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>27</v>
       </c>
       <c r="B30" s="21">
         <v>44101</v>
       </c>
-      <c r="C30" s="106">
-        <v>0</v>
-      </c>
-      <c r="D30" s="106">
-        <v>0</v>
-      </c>
-      <c r="E30" s="103">
+      <c r="C30" s="104">
+        <v>0</v>
+      </c>
+      <c r="D30" s="104">
+        <v>0</v>
+      </c>
+      <c r="E30" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>28</v>
       </c>
       <c r="B31" s="21">
         <v>44102</v>
       </c>
-      <c r="C31" s="106">
-        <v>0</v>
-      </c>
-      <c r="D31" s="106">
-        <v>0</v>
-      </c>
-      <c r="E31" s="103">
+      <c r="C31" s="104">
+        <v>0</v>
+      </c>
+      <c r="D31" s="104">
+        <v>0</v>
+      </c>
+      <c r="E31" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="84" customFormat="1">
+    <row r="32" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>29</v>
       </c>
       <c r="B32" s="21">
         <v>44103</v>
       </c>
-      <c r="C32" s="106">
-        <v>0</v>
-      </c>
-      <c r="D32" s="106">
-        <v>0</v>
-      </c>
-      <c r="E32" s="103">
+      <c r="C32" s="104">
+        <v>0</v>
+      </c>
+      <c r="D32" s="104">
+        <v>0</v>
+      </c>
+      <c r="E32" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="84" customFormat="1">
+    <row r="33" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>30</v>
       </c>
       <c r="B33" s="21">
         <v>44104</v>
       </c>
-      <c r="C33" s="106">
-        <v>0</v>
-      </c>
-      <c r="D33" s="106">
-        <v>0</v>
-      </c>
-      <c r="E33" s="103">
+      <c r="C33" s="104">
+        <v>0</v>
+      </c>
+      <c r="D33" s="104">
+        <v>0</v>
+      </c>
+      <c r="E33" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -6057,515 +6141,834 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="110" customWidth="1"/>
-    <col min="4" max="4" width="18" style="111" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="74" customWidth="1"/>
-    <col min="7" max="7" width="30" style="70" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="197" customWidth="1"/>
+    <col min="4" max="4" width="18" style="107" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="73" customWidth="1"/>
+    <col min="7" max="7" width="30" style="69" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="80" customFormat="1" ht="31.5">
-      <c r="A2" s="167" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5">
+    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="109"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="C3" s="196"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="112" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="110" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="66" customFormat="1">
-      <c r="A5" s="122"/>
-      <c r="B5" s="121">
-        <v>44044</v>
-      </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="122"/>
-    </row>
-    <row r="6" spans="1:7" s="98" customFormat="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="121">
-        <v>44045</v>
-      </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="122"/>
-    </row>
-    <row r="7" spans="1:7" s="98" customFormat="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="168">
-        <v>44046</v>
-      </c>
-      <c r="C7" s="122">
+    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116">
+        <v>44075</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="117"/>
+    </row>
+    <row r="6" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117"/>
+      <c r="B6" s="116">
+        <v>44076</v>
+      </c>
+      <c r="C6" s="148"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="117"/>
+    </row>
+    <row r="7" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="167">
+        <v>44077</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="105">
+        <v>4050000</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="117"/>
+    </row>
+    <row r="8" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="117"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="105">
+        <v>4860000</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="117"/>
+    </row>
+    <row r="9" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="117"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="105">
+        <v>4246000</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="117"/>
+    </row>
+    <row r="10" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="116">
+        <v>44078</v>
+      </c>
+      <c r="C10" s="148">
         <v>1</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="122"/>
-    </row>
-    <row r="8" spans="1:7" s="120" customFormat="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="122">
+      <c r="D10" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="105">
+        <v>192000</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="117"/>
+    </row>
+    <row r="11" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="117"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="148">
         <v>2</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="122"/>
-    </row>
-    <row r="9" spans="1:7" s="120" customFormat="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="122">
+      <c r="D11" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="105">
+        <v>1280000</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="117"/>
+    </row>
+    <row r="12" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="117"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="148">
         <v>3</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="122"/>
-    </row>
-    <row r="10" spans="1:7" s="120" customFormat="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="122">
+      <c r="D12" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="105">
+        <v>130000</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="117"/>
+    </row>
+    <row r="13" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="117"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="148">
         <v>4</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="122"/>
-    </row>
-    <row r="11" spans="1:7" s="120" customFormat="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="122">
+      <c r="D13" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="105">
+        <v>700000</v>
+      </c>
+      <c r="F13" s="105"/>
+      <c r="G13" s="117"/>
+    </row>
+    <row r="14" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="117"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="148">
         <v>5</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="122"/>
-    </row>
-    <row r="12" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="121">
-        <v>44047</v>
-      </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="122"/>
-    </row>
-    <row r="13" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="121">
-        <v>44048</v>
-      </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="122"/>
-    </row>
-    <row r="14" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="121">
-        <v>44049</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="122"/>
-    </row>
-    <row r="15" spans="1:7" s="124" customFormat="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="168">
-        <v>44050</v>
-      </c>
-      <c r="C15" s="122">
+      <c r="D14" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="105">
+        <v>350000</v>
+      </c>
+      <c r="F14" s="105"/>
+      <c r="G14" s="117"/>
+    </row>
+    <row r="15" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="148">
+        <v>6</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="105">
+        <v>1800000</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="117"/>
+    </row>
+    <row r="16" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="148">
+        <v>7</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="105">
+        <v>460000</v>
+      </c>
+      <c r="F16" s="105"/>
+      <c r="G16" s="117"/>
+    </row>
+    <row r="17" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="117"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="148">
+        <v>8</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="105">
+        <v>1780000</v>
+      </c>
+      <c r="F17" s="105"/>
+      <c r="G17" s="117"/>
+    </row>
+    <row r="18" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="117"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="148">
+        <v>9</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="105">
+        <v>430000</v>
+      </c>
+      <c r="F18" s="105"/>
+      <c r="G18" s="117"/>
+    </row>
+    <row r="19" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="117"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="105">
+        <v>2300000</v>
+      </c>
+      <c r="F19" s="105"/>
+      <c r="G19" s="117"/>
+    </row>
+    <row r="20" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="117"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="105">
+        <v>6000000</v>
+      </c>
+      <c r="F20" s="105"/>
+      <c r="G20" s="117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="105">
+        <v>6000000</v>
+      </c>
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="117"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="105">
+        <v>1500000</v>
+      </c>
+      <c r="F22" s="105"/>
+      <c r="G22" s="117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="117"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="105">
+        <v>1500000</v>
+      </c>
+      <c r="F23" s="105"/>
+      <c r="G23" s="117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="117"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="105">
+        <v>1500000</v>
+      </c>
+      <c r="F24" s="105"/>
+      <c r="G24" s="117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="117"/>
+      <c r="B25" s="116">
+        <v>44079</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="117"/>
+    </row>
+    <row r="26" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="117"/>
+      <c r="B26" s="116">
+        <v>44080</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="117"/>
+    </row>
+    <row r="27" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="117"/>
+      <c r="B27" s="116">
+        <v>44081</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="117"/>
+    </row>
+    <row r="28" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="117"/>
+      <c r="B28" s="116">
+        <v>44082</v>
+      </c>
+      <c r="C28" s="148">
         <v>1</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="122"/>
-    </row>
-    <row r="16" spans="1:7" s="66" customFormat="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="122">
+      <c r="D28" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="105">
+        <v>1080000</v>
+      </c>
+      <c r="G28" s="117"/>
+    </row>
+    <row r="29" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="117"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="148">
         <v>2</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="122"/>
-    </row>
-    <row r="17" spans="1:7" s="89" customFormat="1" hidden="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="121">
-        <v>44051</v>
-      </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="122"/>
-    </row>
-    <row r="18" spans="1:7" s="69" customFormat="1" hidden="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="121">
-        <v>44052</v>
-      </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="122"/>
-    </row>
-    <row r="19" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="121">
-        <v>44053</v>
-      </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="122"/>
-    </row>
-    <row r="20" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="121">
-        <v>44054</v>
-      </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="122"/>
-    </row>
-    <row r="21" spans="1:7" s="101" customFormat="1" hidden="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="121">
-        <v>44055</v>
-      </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="122"/>
-    </row>
-    <row r="22" spans="1:7" s="98" customFormat="1" hidden="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="121">
-        <v>44056</v>
-      </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="122"/>
-    </row>
-    <row r="23" spans="1:7" s="87" customFormat="1" hidden="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="121">
-        <v>44057</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="122"/>
-    </row>
-    <row r="24" spans="1:7" s="101" customFormat="1" hidden="1">
-      <c r="A24" s="122"/>
-      <c r="B24" s="121">
-        <v>44058</v>
-      </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="122"/>
-    </row>
-    <row r="25" spans="1:7" s="101" customFormat="1" hidden="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="121">
-        <v>44059</v>
-      </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="122"/>
-    </row>
-    <row r="26" spans="1:7" s="101" customFormat="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="168">
-        <v>44060</v>
-      </c>
-      <c r="C26" s="122">
-        <v>1</v>
-      </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="122" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="124" customFormat="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="122">
-        <v>2</v>
-      </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="122"/>
-    </row>
-    <row r="28" spans="1:7" s="101" customFormat="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="121">
-        <v>44061</v>
-      </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="122"/>
-    </row>
-    <row r="29" spans="1:7" s="101" customFormat="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="121">
-        <v>44062</v>
-      </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="122"/>
-    </row>
-    <row r="30" spans="1:7" s="101" customFormat="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="121">
-        <v>44063</v>
-      </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="122"/>
-    </row>
-    <row r="31" spans="1:7" s="73" customFormat="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="121">
-        <v>44064</v>
-      </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="122"/>
-    </row>
-    <row r="32" spans="1:7" s="101" customFormat="1">
-      <c r="A32" s="122"/>
-      <c r="B32" s="121">
-        <v>44065</v>
-      </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="122"/>
-    </row>
-    <row r="33" spans="1:7" s="101" customFormat="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="121">
-        <v>44066</v>
-      </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="122"/>
-    </row>
-    <row r="34" spans="1:7" s="101" customFormat="1">
-      <c r="A34" s="122"/>
-      <c r="B34" s="121">
-        <v>44067</v>
-      </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="122"/>
-    </row>
-    <row r="35" spans="1:7" s="73" customFormat="1">
-      <c r="A35" s="122"/>
-      <c r="B35" s="121">
-        <v>44068</v>
-      </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="122"/>
-    </row>
-    <row r="36" spans="1:7" s="101" customFormat="1">
-      <c r="A36" s="122"/>
-      <c r="B36" s="121">
-        <v>44069</v>
-      </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="122"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="122"/>
-      <c r="B37" s="121">
-        <v>44070</v>
-      </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="122"/>
-    </row>
-    <row r="38" spans="1:7" s="101" customFormat="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="121">
-        <v>44071</v>
-      </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="122"/>
-    </row>
-    <row r="39" spans="1:7" s="101" customFormat="1">
-      <c r="A39" s="122"/>
-      <c r="B39" s="121">
-        <v>44072</v>
-      </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="122"/>
-    </row>
-    <row r="40" spans="1:7" s="101" customFormat="1">
-      <c r="A40" s="122"/>
-      <c r="B40" s="121">
-        <v>44073</v>
-      </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="122"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="122"/>
-      <c r="B41" s="121">
-        <v>44074</v>
-      </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="122"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34">
+      <c r="D29" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="200">
+        <v>1512000</v>
+      </c>
+      <c r="F29" s="105"/>
+      <c r="G29" s="117"/>
+    </row>
+    <row r="30" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="117"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="148">
+        <v>3</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="201"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="117"/>
+    </row>
+    <row r="31" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="117"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="148">
+        <v>4</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="105">
+        <v>1920000</v>
+      </c>
+      <c r="F31" s="105"/>
+      <c r="G31" s="117"/>
+    </row>
+    <row r="32" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="117"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="148">
+        <v>5</v>
+      </c>
+      <c r="D32" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="105">
+        <v>1600000</v>
+      </c>
+      <c r="F32" s="105"/>
+      <c r="G32" s="117"/>
+    </row>
+    <row r="33" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="117"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="148">
+        <v>6</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="105">
+        <v>1150000</v>
+      </c>
+      <c r="F33" s="105"/>
+      <c r="G33" s="117"/>
+    </row>
+    <row r="34" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="117"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="148">
+        <v>7</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="105">
+        <v>430000</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="117"/>
+    </row>
+    <row r="35" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="117"/>
+      <c r="B35" s="116">
+        <v>44083</v>
+      </c>
+      <c r="C35" s="148"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="117"/>
+    </row>
+    <row r="36" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
+      <c r="B36" s="116">
+        <v>44084</v>
+      </c>
+      <c r="C36" s="148"/>
+      <c r="D36" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105">
+        <v>1500000</v>
+      </c>
+      <c r="G36" s="117"/>
+    </row>
+    <row r="37" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="117"/>
+      <c r="B37" s="116">
+        <v>44085</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="117"/>
+    </row>
+    <row r="38" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="117"/>
+      <c r="B38" s="116">
+        <v>44086</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="117"/>
+    </row>
+    <row r="39" spans="1:7" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="117"/>
+      <c r="B39" s="116">
+        <v>44087</v>
+      </c>
+      <c r="C39" s="148"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="117"/>
+    </row>
+    <row r="40" spans="1:7" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="117"/>
+      <c r="B40" s="116">
+        <v>44088</v>
+      </c>
+      <c r="C40" s="148"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="117"/>
+    </row>
+    <row r="41" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
+      <c r="B41" s="116">
+        <v>44089</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="117"/>
+    </row>
+    <row r="42" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="117"/>
+      <c r="B42" s="116">
+        <v>44090</v>
+      </c>
+      <c r="C42" s="148"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="117"/>
+    </row>
+    <row r="43" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="117"/>
+      <c r="B43" s="116">
+        <v>44091</v>
+      </c>
+      <c r="C43" s="148"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="117"/>
+    </row>
+    <row r="44" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="117"/>
+      <c r="B44" s="116">
+        <v>44092</v>
+      </c>
+      <c r="C44" s="148"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="117"/>
+    </row>
+    <row r="45" spans="1:7" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="117"/>
+      <c r="B45" s="116">
+        <v>44093</v>
+      </c>
+      <c r="C45" s="148"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="117"/>
+    </row>
+    <row r="46" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="117"/>
+      <c r="B46" s="116">
+        <v>44094</v>
+      </c>
+      <c r="C46" s="148"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="117"/>
+    </row>
+    <row r="47" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="116">
+        <v>44095</v>
+      </c>
+      <c r="C47" s="148"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="117"/>
+    </row>
+    <row r="48" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="117"/>
+      <c r="B48" s="116">
+        <v>44096</v>
+      </c>
+      <c r="C48" s="148"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="117"/>
+    </row>
+    <row r="49" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="116">
+        <v>44097</v>
+      </c>
+      <c r="C49" s="148"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="117"/>
+    </row>
+    <row r="50" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="117"/>
+      <c r="B50" s="116">
+        <v>44098</v>
+      </c>
+      <c r="C50" s="148"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="117"/>
+    </row>
+    <row r="51" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="117"/>
+      <c r="B51" s="116">
+        <v>44099</v>
+      </c>
+      <c r="C51" s="148"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="117"/>
+    </row>
+    <row r="52" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="117"/>
+      <c r="B52" s="116">
+        <v>44100</v>
+      </c>
+      <c r="C52" s="148"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="117"/>
+    </row>
+    <row r="53" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="117"/>
+      <c r="B53" s="116">
+        <v>44101</v>
+      </c>
+      <c r="C53" s="148"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="117"/>
+    </row>
+    <row r="54" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="117"/>
+      <c r="B54" s="116">
+        <v>44102</v>
+      </c>
+      <c r="C54" s="148"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="117"/>
+    </row>
+    <row r="55" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="117"/>
+      <c r="B55" s="116">
+        <v>44103</v>
+      </c>
+      <c r="C55" s="148"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="117"/>
+    </row>
+    <row r="56" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="117"/>
+      <c r="B56" s="116">
+        <v>44104</v>
+      </c>
+      <c r="C56" s="148"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="117"/>
+    </row>
+    <row r="57" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="117"/>
+      <c r="B57" s="116">
+        <v>44105</v>
+      </c>
+      <c r="C57" s="148"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="117"/>
+    </row>
+    <row r="58" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="117"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="117"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="117"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="117"/>
+    </row>
+    <row r="60" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="117"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="117"/>
+    </row>
+    <row r="61" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="117"/>
+    </row>
+    <row r="62" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="117"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="117"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="117"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="117"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
         <v>35</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B64" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="86">
-        <f>SUM(E5:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="86">
-        <f>SUM(F5:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="71"/>
-    </row>
-    <row r="43" spans="1:7" s="82" customFormat="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="70"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="84">
+        <f>SUM(E5:E63)</f>
+        <v>45690000</v>
+      </c>
+      <c r="F64" s="84">
+        <f>SUM(F5:F63)</f>
+        <v>2580000</v>
+      </c>
+      <c r="G64" s="70"/>
+    </row>
+    <row r="65" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="75"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6574,37 +6977,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E34"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="96"/>
+    <col min="2" max="2" width="9.140625" style="94"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="171" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -6620,376 +7023,374 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="95">
-        <v>44044</v>
+      <c r="B5" s="93">
+        <v>44075</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>8</v>
       </c>
-      <c r="B6" s="95">
-        <v>44045</v>
+      <c r="B6" s="93">
+        <v>44076</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>9</v>
       </c>
-      <c r="B7" s="95">
-        <v>44046</v>
+      <c r="B7" s="93">
+        <v>44077</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="75" customFormat="1">
+    <row r="8" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>10</v>
       </c>
-      <c r="B8" s="95">
-        <v>44047</v>
-      </c>
-      <c r="C8" s="34"/>
+      <c r="B8" s="93">
+        <v>44078</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>113</v>
+      </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="42"/>
+      <c r="E8" s="42">
+        <v>260000</v>
+      </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>11</v>
       </c>
-      <c r="B9" s="95">
-        <v>44048</v>
-      </c>
-      <c r="C9" s="34"/>
+      <c r="B9" s="93">
+        <v>44079</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="42"/>
+      <c r="E9" s="42">
+        <v>70000</v>
+      </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>12</v>
       </c>
-      <c r="B10" s="95">
-        <v>44049</v>
+      <c r="B10" s="93">
+        <v>44080</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>13</v>
       </c>
-      <c r="B11" s="95">
-        <v>44050</v>
+      <c r="B11" s="93">
+        <v>44081</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>14</v>
       </c>
-      <c r="B12" s="95">
-        <v>44051</v>
+      <c r="B12" s="93">
+        <v>44082</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>15</v>
       </c>
-      <c r="B13" s="95">
-        <v>44052</v>
+      <c r="B13" s="93">
+        <v>44083</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="67" customFormat="1">
+    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>17</v>
       </c>
-      <c r="B14" s="95">
-        <v>44053</v>
+      <c r="B14" s="93">
+        <v>44084</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>17</v>
       </c>
-      <c r="B15" s="95">
-        <v>44054</v>
+      <c r="B15" s="93">
+        <v>44085</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>18</v>
       </c>
-      <c r="B16" s="95">
-        <v>44055</v>
+      <c r="B16" s="93">
+        <v>44086</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>19</v>
       </c>
-      <c r="B17" s="95">
-        <v>44056</v>
+      <c r="B17" s="93">
+        <v>44087</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>20</v>
       </c>
-      <c r="B18" s="95">
-        <v>44057</v>
+      <c r="B18" s="93">
+        <v>44088</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>21</v>
       </c>
-      <c r="B19" s="95">
-        <v>44058</v>
+      <c r="B19" s="93">
+        <v>44089</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>22</v>
       </c>
-      <c r="B20" s="95">
-        <v>44059</v>
+      <c r="B20" s="93">
+        <v>44090</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>23</v>
       </c>
-      <c r="B21" s="95">
-        <v>44060</v>
+      <c r="B21" s="93">
+        <v>44091</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="42"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>24</v>
       </c>
-      <c r="B22" s="95">
-        <v>44061</v>
+      <c r="B22" s="93">
+        <v>44092</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="82" customFormat="1">
+    <row r="23" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>25</v>
       </c>
-      <c r="B23" s="95">
-        <v>44062</v>
+      <c r="B23" s="93">
+        <v>44093</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="82" customFormat="1">
+    <row r="24" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>27</v>
       </c>
-      <c r="B24" s="95">
-        <v>44063</v>
+      <c r="B24" s="93">
+        <v>44094</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>27</v>
       </c>
-      <c r="B25" s="95">
-        <v>44064</v>
+      <c r="B25" s="93">
+        <v>44095</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="65" customFormat="1">
+    <row r="26" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>28</v>
       </c>
-      <c r="B26" s="95">
-        <v>44065</v>
+      <c r="B26" s="93">
+        <v>44096</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="65" customFormat="1">
+    <row r="27" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>29</v>
       </c>
-      <c r="B27" s="95">
-        <v>44066</v>
+      <c r="B27" s="93">
+        <v>44097</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="115" customFormat="1">
+    <row r="28" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
-      <c r="B28" s="95">
-        <v>44067</v>
+      <c r="B28" s="93">
+        <v>44098</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="115" customFormat="1">
+    <row r="29" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="95">
-        <v>44068</v>
+      <c r="B29" s="93">
+        <v>44099</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="115" customFormat="1">
+    <row r="30" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
-      <c r="B30" s="95">
-        <v>44069</v>
+      <c r="B30" s="93">
+        <v>44100</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="115" customFormat="1">
+    <row r="31" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
-      <c r="B31" s="95">
-        <v>44070</v>
+      <c r="B31" s="93">
+        <v>44101</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="115" customFormat="1">
+    <row r="32" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="95">
-        <v>44071</v>
+      <c r="B32" s="93">
+        <v>44102</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="115" customFormat="1">
+    <row r="33" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
-      <c r="B33" s="95">
-        <v>44072</v>
+      <c r="B33" s="93">
+        <v>44103</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="115" customFormat="1">
+    <row r="34" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
-      <c r="B34" s="95">
-        <v>44073</v>
+      <c r="B34" s="93">
+        <v>44104</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" s="115" customFormat="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="95">
-        <v>44074</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="26">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>32</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="26" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="43">
-        <f>SUM(E5:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="43">
+        <f>SUM(E5:E34)</f>
+        <v>330000</v>
+      </c>
+      <c r="F35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7006,13 +7407,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7022,19 +7423,19 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="B2" s="172" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="171" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="147" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -7043,280 +7444,261 @@
       <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="146" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="92" customFormat="1">
+    <row r="4" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="94">
-        <v>44018</v>
-      </c>
-      <c r="C4" s="100" t="s">
+      <c r="B4" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="78">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="146" customFormat="1">
+      <c r="E4" s="77">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="78">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="146" customFormat="1">
+      <c r="B5" s="92">
+        <v>43897</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="77">
+        <v>16950000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="94">
-        <v>43897</v>
-      </c>
-      <c r="C6" s="100" t="s">
+      <c r="B6" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="98" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="34"/>
-      <c r="E6" s="78">
-        <v>16950000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="146" customFormat="1">
+      <c r="E6" s="77">
+        <v>774000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="94">
-        <v>43928</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>104</v>
+      <c r="B7" s="92">
+        <v>43838</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="78">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="146" customFormat="1">
+      <c r="E7" s="77">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>106</v>
+      <c r="B8" s="199" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="34"/>
-      <c r="E8" s="78">
-        <v>774000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="146" customFormat="1">
+      <c r="E8" s="77">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>108</v>
+      <c r="B9" s="198"/>
+      <c r="C9" s="98" t="s">
+        <v>133</v>
       </c>
       <c r="D9" s="34"/>
-      <c r="E9" s="78">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="69" customFormat="1">
+      <c r="E9" s="77">
+        <v>1375000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="48">
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="47">
         <f>SUM(E4:E9)</f>
-        <v>27504000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>21059000</v>
+      </c>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-    </row>
-    <row r="19" spans="2:22">
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-    </row>
-    <row r="20" spans="2:22">
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="61"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-    </row>
-    <row r="22" spans="2:22">
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="2:22">
+      <c r="F22" s="8"/>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="62"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-    </row>
-    <row r="24" spans="2:22">
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="2:22">
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="2:22">
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="8"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-    </row>
-    <row r="33" spans="15:19">
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-    </row>
-    <row r="34" spans="15:19">
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7336,7 +7718,7 @@
       <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -7348,29 +7730,29 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5">
-      <c r="B2" s="171" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="175" t="s">
+    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="170" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7381,7 +7763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7390,17 +7772,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D36+'khám bệnh'!F36+'khám bệnh'!H36</f>
-        <v>0</v>
+        <v>26300000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <f>SUM(D8,D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>38140000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7409,18 +7791,18 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!AC36</f>
-        <v>0</v>
+        <v>11840000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="47">
-        <f>SUM(D10,-E21,-chi!E36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="H9" s="46">
+        <f>SUM(D10,-E21,-chi!E35)</f>
+        <v>-46020000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7434,12 +7816,12 @@
       <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="47">
-        <f>nợ!E10+nhập!F42</f>
-        <v>27504000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="46">
+        <f>nợ!E7+nhập!F64</f>
+        <v>3210000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7448,25 +7830,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>0</v>
+        <v>38140000</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="176" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
-    <row r="16" spans="2:8">
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7480,11 +7862,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="179" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7494,11 +7876,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="180"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7506,23 +7888,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="180"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="180"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7531,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7541,12 +7923,12 @@
       <c r="D21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="49">
-        <f>nhập!E42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1">
+      <c r="E21" s="48">
+        <f>nhập!E64</f>
+        <v>45690000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7557,66 +7939,66 @@
         <v>34</v>
       </c>
       <c r="E22" s="43">
-        <f>chi!E36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1">
+        <f>chi!E35</f>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C23" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B26" s="175" t="s">
+        <v>46020000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="177">
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="176">
         <f>SUM(D11,-E23)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
+        <v>-7880000</v>
+      </c>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="178"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -7643,7 +8025,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -7652,158 +8034,158 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="185" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="176" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="184" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="D2" t="s">
+      <c r="B4" s="46">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="92" customFormat="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="23" t="s">
+      <c r="E4" s="46">
+        <f>thuốc!D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="47">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B5" s="46">
+        <f>chi!E35+nhập!E64</f>
+        <v>46020000</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="47">
-        <f>thuốc!D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="E5" s="46">
+        <f>thuốc!C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="47">
-        <f>chi!E36+nhập!E42</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="B6" s="46">
+        <f>B4-B5</f>
+        <v>-46020000</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="47">
-        <f>thuốc!C34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="47">
-        <f>B4-B5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="46">
+        <f>E4-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="47">
-        <f>E4-E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="176" t="s">
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="183" t="s">
+      <c r="B9" s="183"/>
+      <c r="C9" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="183"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="183" t="s">
+      <c r="B10" s="46">
+        <v>22423000</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="184"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="95">
+        <v>94952702</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="46">
+        <v>30687006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="46">
+        <v>89187956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="47">
-        <v>22423000</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="97">
-        <v>94952702</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="47">
-        <v>30687006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="47">
-        <v>89187956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <f>B10+B11</f>
         <v>117375702</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="47">
+        <v>69</v>
+      </c>
+      <c r="D13" s="46">
         <f>D12+D11</f>
         <v>119874962</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
   </sheetData>
@@ -7827,421 +8209,421 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" style="132" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="127" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="34" width="3.85546875" customWidth="1"/>
     <col min="35" max="35" width="7.140625" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" style="124" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="119" customWidth="1"/>
     <col min="38" max="38" width="7.140625" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" style="124" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="119" customWidth="1"/>
     <col min="40" max="40" width="7.140625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="124" customFormat="1">
-      <c r="B1" s="132"/>
-    </row>
-    <row r="2" spans="2:43">
-      <c r="B2" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="133">
+    <row r="1" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="127"/>
+    </row>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B2" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="128">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="124" customFormat="1">
-      <c r="B3" s="132"/>
-    </row>
-    <row r="4" spans="2:43" ht="46.5">
-      <c r="B4" s="192" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
-      <c r="P4" s="192"/>
-      <c r="Q4" s="192"/>
-      <c r="R4" s="192"/>
-      <c r="S4" s="192"/>
-      <c r="T4" s="192"/>
-      <c r="U4" s="192"/>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192"/>
-      <c r="X4" s="192"/>
-    </row>
-    <row r="5" spans="2:43" s="124" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="144"/>
-      <c r="C5" s="143"/>
-    </row>
-    <row r="6" spans="2:43" ht="18.75">
-      <c r="B6" s="134"/>
-      <c r="C6" s="145">
+    <row r="3" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="127"/>
+    </row>
+    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="191" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="191"/>
+      <c r="W4" s="191"/>
+      <c r="X4" s="191"/>
+    </row>
+    <row r="5" spans="2:43" s="119" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="139"/>
+      <c r="C5" s="138"/>
+    </row>
+    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="129"/>
+      <c r="C6" s="140">
         <f>DATE($C$2,9,1)</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="124" customFormat="1">
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-    </row>
-    <row r="8" spans="2:43" s="124" customFormat="1">
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
-    </row>
-    <row r="10" spans="2:43">
-      <c r="B10" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="193" t="s">
+    <row r="7" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+    </row>
+    <row r="8" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B10" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="194" t="s">
+      <c r="D10" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
-      <c r="T10" s="194"/>
-      <c r="U10" s="194"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="194"/>
-      <c r="AF10" s="194"/>
-      <c r="AG10" s="194"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="194" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="194"/>
-      <c r="AO10" s="131" t="s">
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="193"/>
+      <c r="AH10" s="193"/>
+      <c r="AI10" s="193" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ10" s="193"/>
+      <c r="AK10" s="193"/>
+      <c r="AL10" s="193"/>
+      <c r="AM10" s="193"/>
+      <c r="AN10" s="193"/>
+      <c r="AO10" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-    </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="136">
+      <c r="AP10" s="125"/>
+      <c r="AQ10" s="125"/>
+    </row>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="131">
         <f>C6</f>
         <v>44075</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="131">
         <f>D11+1</f>
         <v>44076</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F11" s="131">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44077</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="131">
         <f t="shared" si="0"/>
         <v>44078</v>
       </c>
-      <c r="H11" s="136">
+      <c r="H11" s="131">
         <f t="shared" si="0"/>
         <v>44079</v>
       </c>
-      <c r="I11" s="136">
+      <c r="I11" s="131">
         <f t="shared" si="0"/>
         <v>44080</v>
       </c>
-      <c r="J11" s="136">
+      <c r="J11" s="131">
         <f t="shared" si="0"/>
         <v>44081</v>
       </c>
-      <c r="K11" s="136">
+      <c r="K11" s="131">
         <f t="shared" si="0"/>
         <v>44082</v>
       </c>
-      <c r="L11" s="136">
+      <c r="L11" s="131">
         <f t="shared" si="0"/>
         <v>44083</v>
       </c>
-      <c r="M11" s="136">
+      <c r="M11" s="131">
         <f t="shared" si="0"/>
         <v>44084</v>
       </c>
-      <c r="N11" s="136">
+      <c r="N11" s="131">
         <f t="shared" si="0"/>
         <v>44085</v>
       </c>
-      <c r="O11" s="136">
+      <c r="O11" s="131">
         <f t="shared" si="0"/>
         <v>44086</v>
       </c>
-      <c r="P11" s="136">
+      <c r="P11" s="131">
         <f t="shared" si="0"/>
         <v>44087</v>
       </c>
-      <c r="Q11" s="136">
+      <c r="Q11" s="131">
         <f t="shared" si="0"/>
         <v>44088</v>
       </c>
-      <c r="R11" s="136">
+      <c r="R11" s="131">
         <f t="shared" si="0"/>
         <v>44089</v>
       </c>
-      <c r="S11" s="136">
+      <c r="S11" s="131">
         <f t="shared" si="0"/>
         <v>44090</v>
       </c>
-      <c r="T11" s="136">
+      <c r="T11" s="131">
         <f t="shared" si="0"/>
         <v>44091</v>
       </c>
-      <c r="U11" s="136">
+      <c r="U11" s="131">
         <f t="shared" si="0"/>
         <v>44092</v>
       </c>
-      <c r="V11" s="136">
+      <c r="V11" s="131">
         <f t="shared" si="0"/>
         <v>44093</v>
       </c>
-      <c r="W11" s="136">
+      <c r="W11" s="131">
         <f t="shared" si="0"/>
         <v>44094</v>
       </c>
-      <c r="X11" s="136">
+      <c r="X11" s="131">
         <f t="shared" si="0"/>
         <v>44095</v>
       </c>
-      <c r="Y11" s="136">
+      <c r="Y11" s="131">
         <f t="shared" si="0"/>
         <v>44096</v>
       </c>
-      <c r="Z11" s="136">
+      <c r="Z11" s="131">
         <f t="shared" si="0"/>
         <v>44097</v>
       </c>
-      <c r="AA11" s="136">
+      <c r="AA11" s="131">
         <f t="shared" si="0"/>
         <v>44098</v>
       </c>
-      <c r="AB11" s="136">
+      <c r="AB11" s="131">
         <f t="shared" si="0"/>
         <v>44099</v>
       </c>
-      <c r="AC11" s="136">
+      <c r="AC11" s="131">
         <f t="shared" si="0"/>
         <v>44100</v>
       </c>
-      <c r="AD11" s="136">
+      <c r="AD11" s="131">
         <f t="shared" si="0"/>
         <v>44101</v>
       </c>
-      <c r="AE11" s="136">
+      <c r="AE11" s="131">
         <f t="shared" si="0"/>
         <v>44102</v>
       </c>
-      <c r="AF11" s="136">
+      <c r="AF11" s="131">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44103</v>
       </c>
-      <c r="AG11" s="136">
+      <c r="AG11" s="131">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44104</v>
       </c>
-      <c r="AH11" s="136">
+      <c r="AH11" s="131">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44105</v>
       </c>
-      <c r="AI11" s="186" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ11" s="188" t="s">
+      <c r="AI11" s="185" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ11" s="187" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="194" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM11" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="AK11" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL11" s="195" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM11" s="186" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN11" s="188" t="s">
+      <c r="AN11" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="190"/>
-    </row>
-    <row r="12" spans="2:43" s="137" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="138" t="str">
+      <c r="AO11" s="189"/>
+    </row>
+    <row r="12" spans="2:43" s="132" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="133" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
       </c>
-      <c r="E12" s="138" t="str">
+      <c r="E12" s="133" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. tư</v>
       </c>
-      <c r="F12" s="138" t="str">
+      <c r="F12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="G12" s="138" t="str">
+      <c r="G12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="H12" s="138" t="str">
+      <c r="H12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="I12" s="138" t="str">
+      <c r="I12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="J12" s="138" t="str">
+      <c r="J12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="K12" s="138" t="str">
+      <c r="K12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="L12" s="138" t="str">
+      <c r="L12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="M12" s="138" t="str">
+      <c r="M12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="N12" s="138" t="str">
+      <c r="N12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="O12" s="138" t="str">
+      <c r="O12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="P12" s="138" t="str">
+      <c r="P12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="Q12" s="138" t="str">
+      <c r="Q12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="R12" s="138" t="str">
+      <c r="R12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="S12" s="138" t="str">
+      <c r="S12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="T12" s="138" t="str">
+      <c r="T12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="U12" s="138" t="str">
+      <c r="U12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="V12" s="138" t="str">
+      <c r="V12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="W12" s="138" t="str">
+      <c r="W12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="X12" s="138" t="str">
+      <c r="X12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="Y12" s="138" t="str">
+      <c r="Y12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="Z12" s="138" t="str">
+      <c r="Z12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AA12" s="138" t="str">
+      <c r="AA12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AB12" s="138" t="str">
+      <c r="AB12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AC12" s="138" t="str">
+      <c r="AC12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="AD12" s="138" t="str">
+      <c r="AD12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AE12" s="138" t="str">
+      <c r="AE12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AF12" s="138" t="str">
+      <c r="AF12" s="133" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
       </c>
-      <c r="AG12" s="138" t="str">
+      <c r="AG12" s="133" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. tư</v>
       </c>
-      <c r="AH12" s="138" t="str">
+      <c r="AH12" s="133" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. năm</v>
       </c>
-      <c r="AI12" s="187"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="196"/>
-      <c r="AL12" s="196"/>
-      <c r="AM12" s="187"/>
-      <c r="AN12" s="189"/>
-      <c r="AO12" s="191"/>
-    </row>
-    <row r="13" spans="2:43">
-      <c r="B13" s="125">
+      <c r="AI12" s="186"/>
+      <c r="AJ12" s="188"/>
+      <c r="AK12" s="195"/>
+      <c r="AL12" s="195"/>
+      <c r="AM12" s="186"/>
+      <c r="AN12" s="188"/>
+      <c r="AO12" s="190"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B13" s="120">
         <v>1</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>98</v>
+      <c r="C13" s="120" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -8255,7 +8637,7 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -8276,38 +8658,38 @@
       <c r="AF13" s="34"/>
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
-      <c r="AI13" s="141">
+      <c r="AI13" s="136">
         <f>COUNTIF(D13:AH13,D20)</f>
         <v>1</v>
       </c>
-      <c r="AJ13" s="141">
+      <c r="AJ13" s="136">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="141">
+      <c r="AK13" s="136">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="141">
+      <c r="AL13" s="136">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="141">
+      <c r="AM13" s="136">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="142">
+      <c r="AN13" s="137">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
         <v>1</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43">
-      <c r="B14" s="125">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B14" s="120">
         <v>2</v>
       </c>
-      <c r="C14" s="125" t="s">
-        <v>100</v>
+      <c r="C14" s="120" t="s">
+        <v>97</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -8340,38 +8722,38 @@
       <c r="AF14" s="34"/>
       <c r="AG14" s="34"/>
       <c r="AH14" s="34"/>
-      <c r="AI14" s="141">
+      <c r="AI14" s="136">
         <f>COUNTIF(D14:AH14,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="141">
+      <c r="AJ14" s="136">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="141">
+      <c r="AK14" s="136">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="141">
+      <c r="AL14" s="136">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="141">
+      <c r="AM14" s="136">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="142">
+      <c r="AN14" s="137">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
         <v>0</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43">
-      <c r="B15" s="125">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B15" s="120">
         <v>3</v>
       </c>
-      <c r="C15" s="125" t="s">
-        <v>101</v>
+      <c r="C15" s="120" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -8404,38 +8786,38 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="141">
+      <c r="AI15" s="136">
         <f>COUNTIF(D15:AH15,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="141">
+      <c r="AJ15" s="136">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="141">
+      <c r="AK15" s="136">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="141">
+      <c r="AL15" s="136">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="141">
+      <c r="AM15" s="136">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="142">
+      <c r="AN15" s="137">
         <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="124" customFormat="1">
-      <c r="B16" s="125">
+    <row r="16" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="120">
         <v>4</v>
       </c>
-      <c r="C16" s="125" t="s">
-        <v>102</v>
+      <c r="C16" s="120" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -8468,34 +8850,34 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="141">
+      <c r="AI16" s="136">
         <f>COUNTIF(D16:AH16,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="141">
+      <c r="AJ16" s="136">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="141">
+      <c r="AK16" s="136">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="141">
+      <c r="AL16" s="136">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="141">
+      <c r="AM16" s="136">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="142">
+      <c r="AN16" s="137">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41">
-      <c r="B17" s="125"/>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B17" s="120"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -8530,52 +8912,52 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
-      <c r="AM17" s="125"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41">
-      <c r="C20" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="139" t="s">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C20" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C21" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="134" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C22" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C23" s="135" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="134" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:41">
-      <c r="C21" s="140" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="139" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C24" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="134" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:41">
-      <c r="C22" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:41">
-      <c r="C23" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="139" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:41">
-      <c r="C24" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="139" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E41BF-B50A-446B-8F06-11D503BDFBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236A64C-7DE8-4008-924C-CCA9FD798A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t>STT</t>
   </si>
@@ -458,6 +468,87 @@
   </si>
   <si>
     <t>zinnat</t>
+  </si>
+  <si>
+    <t>novafex</t>
+  </si>
+  <si>
+    <t>pivalon</t>
+  </si>
+  <si>
+    <t>pulmicort</t>
+  </si>
+  <si>
+    <t>fucidin H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fucidin </t>
+  </si>
+  <si>
+    <t>coje ho</t>
+  </si>
+  <si>
+    <t>zinkid</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>betadin xịt họng</t>
+  </si>
+  <si>
+    <t>ceradan advance</t>
+  </si>
+  <si>
+    <t>zithromax</t>
+  </si>
+  <si>
+    <t>insotac fast</t>
+  </si>
+  <si>
+    <t>monitazone</t>
+  </si>
+  <si>
+    <t>máy KD</t>
+  </si>
+  <si>
+    <t>otrivin</t>
+  </si>
+  <si>
+    <t>aerius</t>
+  </si>
+  <si>
+    <t>zinnat 125</t>
+  </si>
+  <si>
+    <t>flixotide</t>
+  </si>
+  <si>
+    <t>ngũ cốc</t>
+  </si>
+  <si>
+    <t>kẹo</t>
+  </si>
+  <si>
+    <t>vesim</t>
+  </si>
+  <si>
+    <t>nemydexa</t>
+  </si>
+  <si>
+    <t>buồng hen</t>
+  </si>
+  <si>
+    <t>sing 4mg gói</t>
+  </si>
+  <si>
+    <t>pumicort</t>
+  </si>
+  <si>
+    <t>ven</t>
+  </si>
+  <si>
+    <t>sedno</t>
   </si>
 </sst>
 </file>
@@ -473,7 +564,7 @@
     <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1166,19 +1257,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1192,6 +1278,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1292,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,8 +1304,23 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1237,6 +1344,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,24 +1415,6 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,14 +1791,14 @@
   <dimension ref="A2:AT41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1743,112 +1838,112 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="156" t="s">
+    <row r="2" spans="1:46" ht="36">
+      <c r="B2" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="153" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="151" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="152"/>
-      <c r="G4" s="149" t="s">
+      <c r="F4" s="167"/>
+      <c r="G4" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="150" t="s">
+      <c r="H4" s="157"/>
+      <c r="I4" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="149" t="s">
+      <c r="J4" s="162"/>
+      <c r="K4" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="150" t="s">
+      <c r="L4" s="157"/>
+      <c r="M4" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="150"/>
+      <c r="N4" s="162"/>
       <c r="O4" s="158" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="158"/>
-      <c r="Q4" s="149" t="s">
+      <c r="Q4" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149" t="s">
+      <c r="R4" s="157"/>
+      <c r="S4" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149" t="s">
+      <c r="V4" s="157"/>
+      <c r="W4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="149"/>
+      <c r="X4" s="157"/>
       <c r="Y4" s="159" t="s">
         <v>51</v>
       </c>
       <c r="Z4" s="159"/>
-      <c r="AA4" s="163" t="s">
+      <c r="AA4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="164"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="157" t="s">
+      <c r="AD4" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="149" t="s">
+      <c r="AE4" s="157" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="153"/>
+    <row r="5" spans="1:46" ht="15" customHeight="1">
+      <c r="A5" s="157"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1928,8 +2023,8 @@
         <v>16</v>
       </c>
       <c r="AC5" s="161"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="149"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="157"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -1946,7 +2041,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2054,7 +2149,7 @@
       </c>
       <c r="AE6" s="63"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2162,7 +2257,7 @@
       </c>
       <c r="AE7" s="76"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2283,7 +2378,7 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" customFormat="1">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2391,7 +2486,7 @@
       </c>
       <c r="AE9" s="76"/>
     </row>
-    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" customFormat="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2499,7 +2594,7 @@
       </c>
       <c r="AE10" s="76"/>
     </row>
-    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" customFormat="1">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2607,7 +2702,7 @@
       </c>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" customFormat="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2715,7 +2810,7 @@
       </c>
       <c r="AE12" s="76"/>
     </row>
-    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" customFormat="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2823,7 +2918,7 @@
       </c>
       <c r="AE13" s="76"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2935,7 +3030,7 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="A15" s="80"/>
       <c r="B15" s="56">
         <v>44084</v>
@@ -3045,7 +3140,7 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="A16" s="80"/>
       <c r="B16" s="56">
         <v>44085</v>
@@ -3155,7 +3250,7 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="80"/>
       <c r="B17" s="56">
         <v>44086</v>
@@ -3265,17 +3360,17 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="80"/>
       <c r="B18" s="56">
         <v>44087</v>
       </c>
       <c r="C18" s="142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E18" s="122">
         <v>0</v>
@@ -3285,11 +3380,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I18" s="124">
         <v>0</v>
@@ -3299,11 +3394,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="M18" s="124">
         <v>0</v>
@@ -3334,11 +3429,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="W18" s="13">
         <v>0</v>
@@ -3363,11 +3458,11 @@
       </c>
       <c r="AC18" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AD18" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2230000</v>
       </c>
       <c r="AE18" s="80"/>
       <c r="AF18" s="11"/>
@@ -3375,17 +3470,17 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="80"/>
       <c r="B19" s="56">
         <v>44088</v>
       </c>
       <c r="C19" s="142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="E19" s="122">
         <v>0</v>
@@ -3395,11 +3490,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="I19" s="124">
         <v>0</v>
@@ -3409,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="K19" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="M19" s="124">
         <v>0</v>
@@ -3430,25 +3525,25 @@
         <v>0</v>
       </c>
       <c r="Q19" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U19" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="W19" s="13">
         <v>0</v>
@@ -3473,11 +3568,11 @@
       </c>
       <c r="AC19" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1260000</v>
       </c>
       <c r="AD19" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5560000</v>
       </c>
       <c r="AE19" s="100"/>
       <c r="AF19" s="11"/>
@@ -3485,17 +3580,17 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="80"/>
       <c r="B20" s="56">
         <v>44089</v>
       </c>
       <c r="C20" s="142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E20" s="122">
         <v>0</v>
@@ -3505,11 +3600,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I20" s="124">
         <v>0</v>
@@ -3540,11 +3635,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S20" s="14">
         <v>0</v>
@@ -3583,11 +3678,11 @@
       </c>
       <c r="AC20" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD20" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="AE20" s="80"/>
       <c r="AF20" s="11"/>
@@ -3595,17 +3690,17 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="80"/>
       <c r="B21" s="56">
         <v>44090</v>
       </c>
       <c r="C21" s="142">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E21" s="122">
         <v>0</v>
@@ -3615,11 +3710,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="I21" s="124">
         <v>0</v>
@@ -3629,11 +3724,11 @@
         <v>0</v>
       </c>
       <c r="K21" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M21" s="124">
         <v>0</v>
@@ -3650,11 +3745,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S21" s="14">
         <v>0</v>
@@ -3693,11 +3788,11 @@
       </c>
       <c r="AC21" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD21" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4100000</v>
       </c>
       <c r="AE21" s="80"/>
       <c r="AF21" s="11"/>
@@ -3705,17 +3800,17 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="80"/>
       <c r="B22" s="56">
         <v>44091</v>
       </c>
       <c r="C22" s="142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E22" s="122">
         <v>0</v>
@@ -3725,11 +3820,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="I22" s="124">
         <v>0</v>
@@ -3760,11 +3855,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
@@ -3803,11 +3898,11 @@
       </c>
       <c r="AC22" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AD22" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2900000</v>
       </c>
       <c r="AE22" s="80"/>
       <c r="AF22" s="11"/>
@@ -3815,17 +3910,17 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="80"/>
       <c r="B23" s="56">
         <v>44092</v>
       </c>
       <c r="C23" s="142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="E23" s="122">
         <v>0</v>
@@ -3835,11 +3930,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I23" s="124">
         <v>0</v>
@@ -3891,11 +3986,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y23" s="144">
         <v>0</v>
@@ -3913,11 +4008,11 @@
       </c>
       <c r="AC23" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AD23" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2250000</v>
       </c>
       <c r="AE23" s="80"/>
       <c r="AF23" s="11"/>
@@ -3925,17 +4020,17 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="80"/>
       <c r="B24" s="56">
         <v>44093</v>
       </c>
       <c r="C24" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="E24" s="122">
         <v>0</v>
@@ -3945,11 +4040,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="142">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4200000</v>
       </c>
       <c r="I24" s="124">
         <v>0</v>
@@ -3959,11 +4054,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M24" s="124">
         <v>0</v>
@@ -3980,25 +4075,25 @@
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R24" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="S24" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="U24" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V24" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="W24" s="13">
         <v>0</v>
@@ -4023,11 +4118,11 @@
       </c>
       <c r="AC24" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4650000</v>
       </c>
       <c r="AD24" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9550000</v>
       </c>
       <c r="AE24" s="80"/>
       <c r="AF24" s="11"/>
@@ -4035,17 +4130,17 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="80"/>
       <c r="B25" s="56">
         <v>44094</v>
       </c>
       <c r="C25" s="142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E25" s="122">
         <v>0</v>
@@ -4055,11 +4150,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="142">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3900000</v>
       </c>
       <c r="I25" s="124">
         <v>0</v>
@@ -4069,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M25" s="124">
         <v>0</v>
@@ -4090,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="Q25" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R25" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="S25" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="U25" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V25" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="W25" s="13">
         <v>0</v>
@@ -4133,11 +4228,11 @@
       </c>
       <c r="AC25" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3510000</v>
       </c>
       <c r="AD25" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9110000</v>
       </c>
       <c r="AE25" s="80"/>
       <c r="AF25" s="11"/>
@@ -4145,17 +4240,17 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="80"/>
       <c r="B26" s="56">
         <v>44095</v>
       </c>
       <c r="C26" s="142">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="E26" s="122">
         <v>0</v>
@@ -4165,11 +4260,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="I26" s="124">
         <v>0</v>
@@ -4179,11 +4274,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M26" s="124">
         <v>0</v>
@@ -4200,18 +4295,18 @@
         <v>0</v>
       </c>
       <c r="Q26" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="S26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="U26" s="14">
         <v>0</v>
@@ -4243,11 +4338,11 @@
       </c>
       <c r="AC26" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="AD26" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5400000</v>
       </c>
       <c r="AE26" s="80"/>
       <c r="AF26" s="11"/>
@@ -4255,17 +4350,17 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="80"/>
       <c r="B27" s="56">
         <v>44096</v>
       </c>
       <c r="C27" s="142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="E27" s="122">
         <v>0</v>
@@ -4275,11 +4370,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I27" s="124">
         <v>0</v>
@@ -4289,11 +4384,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M27" s="124">
         <v>0</v>
@@ -4357,7 +4452,7 @@
       </c>
       <c r="AD27" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="AE27" s="109"/>
       <c r="AF27" s="11"/>
@@ -4365,17 +4460,17 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="80"/>
       <c r="B28" s="56">
         <v>44097</v>
       </c>
       <c r="C28" s="142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E28" s="122">
         <v>0</v>
@@ -4385,11 +4480,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I28" s="124">
         <v>0</v>
@@ -4420,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S28" s="14">
         <v>0</v>
@@ -4463,11 +4558,11 @@
       </c>
       <c r="AC28" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD28" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AE28" s="80"/>
       <c r="AF28" s="11"/>
@@ -4475,17 +4570,17 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="80"/>
       <c r="B29" s="56">
         <v>44098</v>
       </c>
       <c r="C29" s="142">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="E29" s="122">
         <v>0</v>
@@ -4495,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I29" s="124">
         <v>0</v>
@@ -4509,11 +4604,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M29" s="124">
         <v>0</v>
@@ -4530,11 +4625,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S29" s="14">
         <v>0</v>
@@ -4573,11 +4668,11 @@
       </c>
       <c r="AC29" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="AD29" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="AE29" s="80"/>
       <c r="AF29" s="11"/>
@@ -4585,17 +4680,17 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="80"/>
       <c r="B30" s="56">
         <v>44099</v>
       </c>
       <c r="C30" s="142">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="E30" s="122">
         <v>0</v>
@@ -4605,11 +4700,11 @@
         <v>0</v>
       </c>
       <c r="G30" s="142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I30" s="124">
         <v>0</v>
@@ -4687,7 +4782,7 @@
       </c>
       <c r="AD30" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2600000</v>
       </c>
       <c r="AE30" s="80"/>
       <c r="AF30" s="11"/>
@@ -4695,7 +4790,7 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="80"/>
       <c r="B31" s="56">
         <v>44100</v>
@@ -4805,7 +4900,7 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="80"/>
       <c r="B32" s="56">
         <v>44101</v>
@@ -4915,7 +5010,7 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="80"/>
       <c r="B33" s="56">
         <v>44102</v>
@@ -5025,7 +5120,7 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="82"/>
       <c r="B34" s="56">
         <v>44103</v>
@@ -5135,7 +5230,7 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="82"/>
       <c r="B35" s="56">
         <v>44104</v>
@@ -5245,18 +5340,18 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="4"/>
       <c r="B36" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="7">
         <f>SUM(C6:C35)</f>
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D36" s="39">
         <f t="shared" ref="D36:AD36" si="15">SUM(D7:D35)</f>
-        <v>10400000</v>
+        <v>26800000</v>
       </c>
       <c r="E36" s="123">
         <f t="shared" si="15"/>
@@ -5268,11 +5363,11 @@
       </c>
       <c r="G36" s="39">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="15"/>
-        <v>15900000</v>
+        <v>35400000</v>
       </c>
       <c r="I36" s="123">
         <f t="shared" si="15"/>
@@ -5284,11 +5379,11 @@
       </c>
       <c r="K36" s="39">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L36" s="39">
         <f t="shared" si="15"/>
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M36" s="123">
         <f t="shared" si="15"/>
@@ -5308,35 +5403,35 @@
       </c>
       <c r="Q36" s="39">
         <f t="shared" si="15"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R36" s="39">
         <f t="shared" si="15"/>
-        <v>9900000</v>
+        <v>17700000</v>
       </c>
       <c r="S36" s="39">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T36" s="39">
         <f t="shared" si="15"/>
-        <v>1800000</v>
+        <v>6000000</v>
       </c>
       <c r="U36" s="39">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V36" s="39">
         <f t="shared" si="15"/>
-        <v>30000</v>
+        <v>480000</v>
       </c>
       <c r="W36" s="39">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" s="39">
         <f t="shared" si="15"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Y36" s="39">
         <f t="shared" si="15"/>
@@ -5356,91 +5451,91 @@
       </c>
       <c r="AC36" s="39">
         <f t="shared" si="15"/>
-        <v>11840000</v>
+        <v>24340000</v>
       </c>
       <c r="AD36" s="39">
         <f t="shared" si="15"/>
-        <v>41140000</v>
+        <v>92540000</v>
       </c>
       <c r="AE36" s="63"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="52"/>
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="162">
-        <v>0</v>
-      </c>
-      <c r="D37" s="162"/>
+      <c r="C37" s="163">
+        <v>0</v>
+      </c>
+      <c r="D37" s="163"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="154"/>
-      <c r="Q37" s="154"/>
-      <c r="R37" s="154"/>
-      <c r="S37" s="154"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="154"/>
-      <c r="V37" s="154"/>
-      <c r="W37" s="154"/>
-      <c r="X37" s="154"/>
-      <c r="Y37" s="154"/>
-      <c r="Z37" s="154"/>
-      <c r="AA37" s="154"/>
-      <c r="AB37" s="154"/>
-      <c r="AC37" s="154"/>
-      <c r="AD37" s="154"/>
-      <c r="AE37" s="154"/>
-    </row>
-    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="153"/>
+      <c r="AC37" s="153"/>
+      <c r="AD37" s="153"/>
+      <c r="AE37" s="153"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="155">
-        <v>0</v>
-      </c>
-      <c r="D38" s="155"/>
+      <c r="C38" s="154">
+        <v>0</v>
+      </c>
+      <c r="D38" s="154"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="154"/>
-      <c r="S38" s="154"/>
-      <c r="T38" s="154"/>
-      <c r="U38" s="154"/>
-      <c r="V38" s="154"/>
-      <c r="W38" s="154"/>
-      <c r="X38" s="154"/>
-      <c r="Y38" s="154"/>
-      <c r="Z38" s="154"/>
-      <c r="AA38" s="154"/>
-      <c r="AB38" s="154"/>
-      <c r="AC38" s="154"/>
-      <c r="AD38" s="154"/>
-      <c r="AE38" s="154"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="153"/>
+      <c r="Z38" s="153"/>
+      <c r="AA38" s="153"/>
+      <c r="AB38" s="153"/>
+      <c r="AC38" s="153"/>
+      <c r="AD38" s="153"/>
+      <c r="AE38" s="153"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="51"/>
@@ -5448,12 +5543,19 @@
       <c r="M39" s="2"/>
       <c r="N39" s="51"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="AE41" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5470,13 +5572,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5494,28 +5589,28 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5535,7 +5630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -5543,18 +5638,18 @@
         <v>44075</v>
       </c>
       <c r="C4" s="104">
-        <v>0</v>
+        <v>1942426</v>
       </c>
       <c r="D4" s="104">
-        <v>0</v>
+        <v>2655000</v>
       </c>
       <c r="E4" s="101">
         <f>SUM(D4,-C4)</f>
-        <v>0</v>
+        <v>712574</v>
       </c>
       <c r="F4" s="103"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -5564,7 +5659,7 @@
       <c r="C5" s="104">
         <v>0</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="101">
@@ -5573,7 +5668,7 @@
       </c>
       <c r="F5" s="103"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -5581,18 +5676,18 @@
         <v>44077</v>
       </c>
       <c r="C6" s="104">
-        <v>0</v>
+        <v>2258133</v>
       </c>
       <c r="D6" s="104">
-        <v>0</v>
+        <v>3775000</v>
       </c>
       <c r="E6" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1516867</v>
       </c>
       <c r="F6" s="103"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -5600,18 +5695,18 @@
         <v>44078</v>
       </c>
       <c r="C7" s="104">
-        <v>0</v>
+        <v>847298</v>
       </c>
       <c r="D7" s="104">
-        <v>0</v>
+        <v>1240000</v>
       </c>
       <c r="E7" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>392702</v>
       </c>
       <c r="F7" s="103"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -5619,18 +5714,18 @@
         <v>44079</v>
       </c>
       <c r="C8" s="104">
-        <v>0</v>
+        <v>1472562</v>
       </c>
       <c r="D8" s="104">
-        <v>0</v>
+        <v>2445000</v>
       </c>
       <c r="E8" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>972438</v>
       </c>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -5638,18 +5733,18 @@
         <v>44080</v>
       </c>
       <c r="C9" s="104">
-        <v>0</v>
+        <v>6024098</v>
       </c>
       <c r="D9" s="104">
-        <v>0</v>
+        <v>9315000</v>
       </c>
       <c r="E9" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3290902</v>
       </c>
       <c r="F9" s="60"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5657,18 +5752,18 @@
         <v>44081</v>
       </c>
       <c r="C10" s="104">
-        <v>0</v>
+        <v>1791953</v>
       </c>
       <c r="D10" s="104">
-        <v>0</v>
+        <v>2505000</v>
       </c>
       <c r="E10" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>713047</v>
       </c>
       <c r="F10" s="60"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5676,18 +5771,18 @@
         <v>44082</v>
       </c>
       <c r="C11" s="104">
-        <v>0</v>
+        <v>1054557</v>
       </c>
       <c r="D11" s="104">
-        <v>0</v>
+        <v>2396000</v>
       </c>
       <c r="E11" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1341443</v>
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5695,18 +5790,18 @@
         <v>44083</v>
       </c>
       <c r="C12" s="104">
-        <v>0</v>
+        <v>1314364</v>
       </c>
       <c r="D12" s="104">
-        <v>0</v>
+        <v>2403000</v>
       </c>
       <c r="E12" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1088636</v>
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5714,18 +5809,18 @@
         <v>44084</v>
       </c>
       <c r="C13" s="104">
-        <v>0</v>
+        <v>1891167</v>
       </c>
       <c r="D13" s="104">
-        <v>0</v>
+        <v>2662000</v>
       </c>
       <c r="E13" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>770833</v>
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5733,18 +5828,18 @@
         <v>44085</v>
       </c>
       <c r="C14" s="104">
-        <v>0</v>
+        <v>750672</v>
       </c>
       <c r="D14" s="104">
-        <v>0</v>
+        <v>1020000</v>
       </c>
       <c r="E14" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>269328</v>
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5754,7 +5849,7 @@
       <c r="C15" s="104">
         <v>0</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="101">
@@ -5763,7 +5858,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5771,18 +5866,18 @@
         <v>44087</v>
       </c>
       <c r="C16" s="104">
-        <v>0</v>
+        <v>2179537</v>
       </c>
       <c r="D16" s="104">
-        <v>0</v>
+        <v>3585000</v>
       </c>
       <c r="E16" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1405463</v>
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5790,18 +5885,18 @@
         <v>44088</v>
       </c>
       <c r="C17" s="104">
-        <v>0</v>
+        <v>3742600</v>
       </c>
       <c r="D17" s="104">
-        <v>0</v>
+        <v>5543000</v>
       </c>
       <c r="E17" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1800400</v>
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5809,18 +5904,18 @@
         <v>44089</v>
       </c>
       <c r="C18" s="104">
-        <v>0</v>
+        <v>999365</v>
       </c>
       <c r="D18" s="104">
-        <v>0</v>
+        <v>1453000</v>
       </c>
       <c r="E18" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453635</v>
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5828,18 +5923,18 @@
         <v>44090</v>
       </c>
       <c r="C19" s="104">
-        <v>0</v>
+        <v>2558173</v>
       </c>
       <c r="D19" s="104">
-        <v>0</v>
+        <v>3945000</v>
       </c>
       <c r="E19" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1386827</v>
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5847,18 +5942,18 @@
         <v>44091</v>
       </c>
       <c r="C20" s="104">
-        <v>0</v>
+        <v>1807256</v>
       </c>
       <c r="D20" s="104">
-        <v>0</v>
+        <v>2765000</v>
       </c>
       <c r="E20" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>957744</v>
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5866,18 +5961,18 @@
         <v>44092</v>
       </c>
       <c r="C21" s="104">
-        <v>0</v>
+        <v>2365952</v>
       </c>
       <c r="D21" s="104">
-        <v>0</v>
+        <v>3845000</v>
       </c>
       <c r="E21" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1479048</v>
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5885,18 +5980,18 @@
         <v>44093</v>
       </c>
       <c r="C22" s="104">
-        <v>0</v>
+        <v>5411293</v>
       </c>
       <c r="D22" s="104">
-        <v>0</v>
+        <v>8395000</v>
       </c>
       <c r="E22" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2983707</v>
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5904,18 +5999,18 @@
         <v>44094</v>
       </c>
       <c r="C23" s="104">
-        <v>0</v>
+        <v>3945202</v>
       </c>
       <c r="D23" s="104">
-        <v>0</v>
+        <v>6100000</v>
       </c>
       <c r="E23" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2154798</v>
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -5923,18 +6018,18 @@
         <v>44095</v>
       </c>
       <c r="C24" s="104">
-        <v>0</v>
+        <v>5807639</v>
       </c>
       <c r="D24" s="104">
-        <v>0</v>
+        <v>8770000</v>
       </c>
       <c r="E24" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2962361</v>
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -5942,18 +6037,18 @@
         <v>44096</v>
       </c>
       <c r="C25" s="104">
-        <v>0</v>
+        <v>5466702</v>
       </c>
       <c r="D25" s="104">
-        <v>0</v>
+        <v>5670000</v>
       </c>
       <c r="E25" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203298</v>
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -5961,18 +6056,18 @@
         <v>44097</v>
       </c>
       <c r="C26" s="104">
-        <v>0</v>
+        <v>3291683</v>
       </c>
       <c r="D26" s="104">
-        <v>0</v>
+        <v>4797000</v>
       </c>
       <c r="E26" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1505317</v>
       </c>
       <c r="F26" s="102"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -5980,18 +6075,18 @@
         <v>44098</v>
       </c>
       <c r="C27" s="104">
-        <v>0</v>
+        <v>3334021</v>
       </c>
       <c r="D27" s="104">
-        <v>0</v>
+        <v>5430000</v>
       </c>
       <c r="E27" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2095979</v>
       </c>
       <c r="F27" s="102"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -5999,18 +6094,18 @@
         <v>44099</v>
       </c>
       <c r="C28" s="104">
-        <v>0</v>
+        <v>2587430</v>
       </c>
       <c r="D28" s="104">
-        <v>0</v>
+        <v>3870000</v>
       </c>
       <c r="E28" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1282570</v>
       </c>
       <c r="F28" s="102"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -6029,7 +6124,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -6048,7 +6143,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -6067,7 +6162,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="83" customFormat="1">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -6086,7 +6181,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="83" customFormat="1">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -6105,7 +6200,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -6114,15 +6209,15 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>0</v>
+        <v>62844083</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>0</v>
+        <v>94584000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>0</v>
+        <v>31739917</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -6141,17 +6236,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G65"/>
+  <dimension ref="A2:G84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="197" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="152" customWidth="1"/>
     <col min="4" max="4" width="18" style="107" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="67" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="73" customWidth="1"/>
@@ -6161,22 +6256,22 @@
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5">
+      <c r="A2" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="196"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="151"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
@@ -6197,7 +6292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="65" customFormat="1">
       <c r="A5" s="117"/>
       <c r="B5" s="116">
         <v>44075</v>
@@ -6208,7 +6303,7 @@
       <c r="F5" s="105"/>
       <c r="G5" s="117"/>
     </row>
-    <row r="6" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="96" customFormat="1">
       <c r="A6" s="117"/>
       <c r="B6" s="116">
         <v>44076</v>
@@ -6219,9 +6314,9 @@
       <c r="F6" s="105"/>
       <c r="G6" s="117"/>
     </row>
-    <row r="7" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="96" customFormat="1">
       <c r="A7" s="117"/>
-      <c r="B7" s="167">
+      <c r="B7" s="173">
         <v>44077</v>
       </c>
       <c r="C7" s="148"/>
@@ -6234,9 +6329,9 @@
       <c r="F7" s="105"/>
       <c r="G7" s="117"/>
     </row>
-    <row r="8" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="145" customFormat="1">
       <c r="A8" s="117"/>
-      <c r="B8" s="168"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="148"/>
       <c r="D8" s="117" t="s">
         <v>116</v>
@@ -6247,9 +6342,9 @@
       <c r="F8" s="105"/>
       <c r="G8" s="117"/>
     </row>
-    <row r="9" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="145" customFormat="1">
       <c r="A9" s="117"/>
-      <c r="B9" s="169"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="148"/>
       <c r="D9" s="117" t="s">
         <v>117</v>
@@ -6260,9 +6355,9 @@
       <c r="F9" s="105"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="115" customFormat="1">
       <c r="A10" s="117"/>
-      <c r="B10" s="116">
+      <c r="B10" s="173">
         <v>44078</v>
       </c>
       <c r="C10" s="148">
@@ -6277,9 +6372,9 @@
       <c r="F10" s="105"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="145" customFormat="1">
       <c r="A11" s="117"/>
-      <c r="B11" s="116"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="148">
         <v>2</v>
       </c>
@@ -6292,9 +6387,9 @@
       <c r="F11" s="105"/>
       <c r="G11" s="117"/>
     </row>
-    <row r="12" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="145" customFormat="1">
       <c r="A12" s="117"/>
-      <c r="B12" s="116"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="148">
         <v>3</v>
       </c>
@@ -6307,9 +6402,9 @@
       <c r="F12" s="105"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="145" customFormat="1">
       <c r="A13" s="117"/>
-      <c r="B13" s="116"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="148">
         <v>4</v>
       </c>
@@ -6322,9 +6417,9 @@
       <c r="F13" s="105"/>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="145" customFormat="1">
       <c r="A14" s="117"/>
-      <c r="B14" s="116"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="148">
         <v>5</v>
       </c>
@@ -6337,9 +6432,9 @@
       <c r="F14" s="105"/>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="145" customFormat="1">
       <c r="A15" s="117"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="148">
         <v>6</v>
       </c>
@@ -6352,9 +6447,9 @@
       <c r="F15" s="105"/>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="145" customFormat="1">
       <c r="A16" s="117"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="148">
         <v>7</v>
       </c>
@@ -6367,9 +6462,9 @@
       <c r="F16" s="105"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="145" customFormat="1">
       <c r="A17" s="117"/>
-      <c r="B17" s="116"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="148">
         <v>8</v>
       </c>
@@ -6382,9 +6477,9 @@
       <c r="F17" s="105"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="145" customFormat="1">
       <c r="A18" s="117"/>
-      <c r="B18" s="116"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="148">
         <v>9</v>
       </c>
@@ -6397,9 +6492,9 @@
       <c r="F18" s="105"/>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="145" customFormat="1">
       <c r="A19" s="117"/>
-      <c r="B19" s="116"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="148"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
@@ -6410,9 +6505,9 @@
       <c r="F19" s="105"/>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="145" customFormat="1">
       <c r="A20" s="117"/>
-      <c r="B20" s="116"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="148"/>
       <c r="D20" s="117" t="s">
         <v>101</v>
@@ -6425,9 +6520,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="145" customFormat="1">
       <c r="A21" s="117"/>
-      <c r="B21" s="116"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="148"/>
       <c r="D21" s="117" t="s">
         <v>101</v>
@@ -6437,9 +6532,9 @@
       </c>
       <c r="F21" s="105"/>
     </row>
-    <row r="22" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="145" customFormat="1">
       <c r="A22" s="117"/>
-      <c r="B22" s="116"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="148"/>
       <c r="D22" s="117" t="s">
         <v>128</v>
@@ -6452,9 +6547,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="145" customFormat="1">
       <c r="A23" s="117"/>
-      <c r="B23" s="116"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="148"/>
       <c r="D23" s="117" t="s">
         <v>104</v>
@@ -6467,9 +6562,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="145" customFormat="1">
       <c r="A24" s="117"/>
-      <c r="B24" s="116"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="148"/>
       <c r="D24" s="117" t="s">
         <v>104</v>
@@ -6482,7 +6577,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="115" customFormat="1">
       <c r="A25" s="117"/>
       <c r="B25" s="116">
         <v>44079</v>
@@ -6493,7 +6588,7 @@
       <c r="F25" s="105"/>
       <c r="G25" s="117"/>
     </row>
-    <row r="26" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="115" customFormat="1">
       <c r="A26" s="117"/>
       <c r="B26" s="116">
         <v>44080</v>
@@ -6504,7 +6599,7 @@
       <c r="F26" s="105"/>
       <c r="G26" s="117"/>
     </row>
-    <row r="27" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="115" customFormat="1">
       <c r="A27" s="117"/>
       <c r="B27" s="116">
         <v>44081</v>
@@ -6517,9 +6612,9 @@
       <c r="F27" s="105"/>
       <c r="G27" s="117"/>
     </row>
-    <row r="28" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="96" customFormat="1">
       <c r="A28" s="117"/>
-      <c r="B28" s="116">
+      <c r="B28" s="173">
         <v>44082</v>
       </c>
       <c r="C28" s="148">
@@ -6533,37 +6628,37 @@
       </c>
       <c r="G28" s="117"/>
     </row>
-    <row r="29" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="145" customFormat="1">
       <c r="A29" s="117"/>
-      <c r="B29" s="116"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="148">
         <v>2</v>
       </c>
       <c r="D29" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="200">
+      <c r="E29" s="170">
         <v>1512000</v>
       </c>
       <c r="F29" s="105"/>
       <c r="G29" s="117"/>
     </row>
-    <row r="30" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="145" customFormat="1">
       <c r="A30" s="117"/>
-      <c r="B30" s="116"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="148">
         <v>3</v>
       </c>
       <c r="D30" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="201"/>
+      <c r="E30" s="171"/>
       <c r="F30" s="105"/>
       <c r="G30" s="117"/>
     </row>
-    <row r="31" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="145" customFormat="1">
       <c r="A31" s="117"/>
-      <c r="B31" s="116"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="148">
         <v>4</v>
       </c>
@@ -6576,9 +6671,9 @@
       <c r="F31" s="105"/>
       <c r="G31" s="117"/>
     </row>
-    <row r="32" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="145" customFormat="1">
       <c r="A32" s="117"/>
-      <c r="B32" s="116"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="148">
         <v>5</v>
       </c>
@@ -6591,9 +6686,9 @@
       <c r="F32" s="105"/>
       <c r="G32" s="117"/>
     </row>
-    <row r="33" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="145" customFormat="1">
       <c r="A33" s="117"/>
-      <c r="B33" s="116"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="148">
         <v>6</v>
       </c>
@@ -6606,9 +6701,9 @@
       <c r="F33" s="105"/>
       <c r="G33" s="117"/>
     </row>
-    <row r="34" spans="1:7" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="145" customFormat="1">
       <c r="A34" s="117"/>
-      <c r="B34" s="116"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="148">
         <v>7</v>
       </c>
@@ -6621,7 +6716,7 @@
       <c r="F34" s="105"/>
       <c r="G34" s="117"/>
     </row>
-    <row r="35" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="96" customFormat="1">
       <c r="A35" s="117"/>
       <c r="B35" s="116">
         <v>44083</v>
@@ -6632,7 +6727,7 @@
       <c r="F35" s="105"/>
       <c r="G35" s="117"/>
     </row>
-    <row r="36" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="96" customFormat="1">
       <c r="A36" s="117"/>
       <c r="B36" s="116">
         <v>44084</v>
@@ -6647,7 +6742,7 @@
       </c>
       <c r="G36" s="117"/>
     </row>
-    <row r="37" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="119" customFormat="1">
       <c r="A37" s="117"/>
       <c r="B37" s="116">
         <v>44085</v>
@@ -6658,109 +6753,129 @@
       <c r="F37" s="105"/>
       <c r="G37" s="117"/>
     </row>
-    <row r="38" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="65" customFormat="1">
       <c r="A38" s="117"/>
-      <c r="B38" s="116">
+      <c r="B38" s="173">
         <v>44086</v>
       </c>
       <c r="C38" s="148"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="105"/>
+      <c r="D38" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="105">
+        <v>620000</v>
+      </c>
       <c r="F38" s="105"/>
       <c r="G38" s="117"/>
     </row>
-    <row r="39" spans="1:7" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="149" customFormat="1">
       <c r="A39" s="117"/>
-      <c r="B39" s="116">
-        <v>44087</v>
-      </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="105"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="105">
+        <v>2700000</v>
+      </c>
       <c r="F39" s="105"/>
       <c r="G39" s="117"/>
     </row>
-    <row r="40" spans="1:7" s="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="149" customFormat="1">
       <c r="A40" s="117"/>
-      <c r="B40" s="116">
-        <v>44088</v>
-      </c>
-      <c r="C40" s="148"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="105"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="105">
+        <v>2630000</v>
+      </c>
       <c r="F40" s="105"/>
       <c r="G40" s="117"/>
     </row>
-    <row r="41" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="149" customFormat="1">
       <c r="A41" s="117"/>
-      <c r="B41" s="116">
-        <v>44089</v>
-      </c>
-      <c r="C41" s="148"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="105"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="105">
+        <v>980000</v>
+      </c>
       <c r="F41" s="105"/>
       <c r="G41" s="117"/>
     </row>
-    <row r="42" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="149" customFormat="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="116">
-        <v>44090</v>
-      </c>
-      <c r="C42" s="148"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="105"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="105">
+        <v>760000</v>
+      </c>
       <c r="F42" s="105"/>
       <c r="G42" s="117"/>
     </row>
-    <row r="43" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="149" customFormat="1">
       <c r="A43" s="117"/>
-      <c r="B43" s="116">
-        <v>44091</v>
-      </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="105"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="105">
+        <v>645000</v>
+      </c>
       <c r="F43" s="105"/>
       <c r="G43" s="117"/>
     </row>
-    <row r="44" spans="1:7" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="149" customFormat="1">
       <c r="A44" s="117"/>
-      <c r="B44" s="116">
-        <v>44092</v>
-      </c>
-      <c r="C44" s="148"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="105">
+        <v>300000</v>
+      </c>
       <c r="F44" s="105"/>
       <c r="G44" s="117"/>
     </row>
-    <row r="45" spans="1:7" s="85" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="149" customFormat="1">
       <c r="A45" s="117"/>
-      <c r="B45" s="116">
-        <v>44093</v>
-      </c>
-      <c r="C45" s="148"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="105">
+        <v>700000</v>
+      </c>
       <c r="F45" s="105"/>
       <c r="G45" s="117"/>
     </row>
-    <row r="46" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="149" customFormat="1">
       <c r="A46" s="117"/>
-      <c r="B46" s="116">
-        <v>44094</v>
-      </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="105">
+        <v>1050000</v>
+      </c>
       <c r="F46" s="105"/>
       <c r="G46" s="117"/>
     </row>
-    <row r="47" spans="1:7" s="99" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="87" customFormat="1">
       <c r="A47" s="117"/>
       <c r="B47" s="116">
-        <v>44095</v>
+        <v>44087</v>
       </c>
       <c r="C47" s="148"/>
       <c r="D47" s="117"/>
@@ -6768,21 +6883,25 @@
       <c r="F47" s="105"/>
       <c r="G47" s="117"/>
     </row>
-    <row r="48" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="68" customFormat="1">
       <c r="A48" s="117"/>
       <c r="B48" s="116">
-        <v>44096</v>
+        <v>44088</v>
       </c>
       <c r="C48" s="148"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="105"/>
+      <c r="D48" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="105">
+        <v>1620000</v>
+      </c>
       <c r="F48" s="105"/>
       <c r="G48" s="117"/>
     </row>
-    <row r="49" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="96" customFormat="1">
       <c r="A49" s="117"/>
       <c r="B49" s="116">
-        <v>44097</v>
+        <v>44089</v>
       </c>
       <c r="C49" s="148"/>
       <c r="D49" s="117"/>
@@ -6790,10 +6909,10 @@
       <c r="F49" s="105"/>
       <c r="G49" s="117"/>
     </row>
-    <row r="50" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="96" customFormat="1">
       <c r="A50" s="117"/>
       <c r="B50" s="116">
-        <v>44098</v>
+        <v>44090</v>
       </c>
       <c r="C50" s="148"/>
       <c r="D50" s="117"/>
@@ -6801,21 +6920,25 @@
       <c r="F50" s="105"/>
       <c r="G50" s="117"/>
     </row>
-    <row r="51" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="99" customFormat="1">
       <c r="A51" s="117"/>
       <c r="B51" s="116">
-        <v>44099</v>
+        <v>44091</v>
       </c>
       <c r="C51" s="148"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="105"/>
+      <c r="D51" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="105">
+        <v>2668000</v>
+      </c>
       <c r="F51" s="105"/>
       <c r="G51" s="117"/>
     </row>
-    <row r="52" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="96" customFormat="1">
       <c r="A52" s="117"/>
       <c r="B52" s="116">
-        <v>44100</v>
+        <v>44092</v>
       </c>
       <c r="C52" s="148"/>
       <c r="D52" s="117"/>
@@ -6823,32 +6946,38 @@
       <c r="F52" s="105"/>
       <c r="G52" s="117"/>
     </row>
-    <row r="53" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="85" customFormat="1">
       <c r="A53" s="117"/>
-      <c r="B53" s="116">
-        <v>44101</v>
+      <c r="B53" s="173">
+        <v>44093</v>
       </c>
       <c r="C53" s="148"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="105"/>
+      <c r="D53" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="105">
+        <v>2240000</v>
+      </c>
       <c r="F53" s="105"/>
       <c r="G53" s="117"/>
     </row>
-    <row r="54" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="149" customFormat="1">
       <c r="A54" s="117"/>
-      <c r="B54" s="116">
-        <v>44102</v>
-      </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="105"/>
+      <c r="B54" s="175"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="105">
+        <v>4950000</v>
+      </c>
       <c r="F54" s="105"/>
       <c r="G54" s="117"/>
     </row>
-    <row r="55" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="99" customFormat="1">
       <c r="A55" s="117"/>
       <c r="B55" s="116">
-        <v>44103</v>
+        <v>44094</v>
       </c>
       <c r="C55" s="148"/>
       <c r="D55" s="117"/>
@@ -6856,119 +6985,371 @@
       <c r="F55" s="105"/>
       <c r="G55" s="117"/>
     </row>
-    <row r="56" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="99" customFormat="1">
       <c r="A56" s="117"/>
       <c r="B56" s="116">
-        <v>44104</v>
+        <v>44095</v>
       </c>
       <c r="C56" s="148"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
+      <c r="D56" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="105">
+        <v>2800000</v>
+      </c>
       <c r="G56" s="117"/>
     </row>
-    <row r="57" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="99" customFormat="1">
       <c r="A57" s="117"/>
-      <c r="B57" s="116">
-        <v>44105</v>
+      <c r="B57" s="173">
+        <v>44096</v>
       </c>
       <c r="C57" s="148"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="105"/>
+      <c r="D57" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="105">
+        <v>1670000</v>
+      </c>
       <c r="F57" s="105"/>
       <c r="G57" s="117"/>
     </row>
-    <row r="58" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="149" customFormat="1">
       <c r="A58" s="117"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="105"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="105">
+        <v>370000</v>
+      </c>
       <c r="F58" s="105"/>
       <c r="G58" s="117"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="149" customFormat="1">
       <c r="A59" s="117"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="105"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="105">
+        <v>770000</v>
+      </c>
       <c r="F59" s="105"/>
       <c r="G59" s="117"/>
     </row>
-    <row r="60" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="149" customFormat="1">
       <c r="A60" s="117"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="105"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="105">
+        <v>500000</v>
+      </c>
       <c r="F60" s="105"/>
       <c r="G60" s="117"/>
     </row>
-    <row r="61" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="149" customFormat="1">
       <c r="A61" s="117"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="105"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="105">
+        <v>204000</v>
+      </c>
       <c r="F61" s="105"/>
       <c r="G61" s="117"/>
     </row>
-    <row r="62" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="149" customFormat="1">
       <c r="A62" s="117"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="105"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="105">
+        <v>27000000</v>
+      </c>
       <c r="F62" s="105"/>
       <c r="G62" s="117"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="149" customFormat="1">
       <c r="A63" s="117"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="175"/>
+      <c r="C63" s="150"/>
       <c r="D63" s="117"/>
       <c r="E63" s="105"/>
       <c r="F63" s="105"/>
       <c r="G63" s="117"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+    <row r="64" spans="1:7" s="119" customFormat="1">
+      <c r="A64" s="117"/>
+      <c r="B64" s="173">
+        <v>44097</v>
+      </c>
+      <c r="C64" s="148"/>
+      <c r="D64" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="105">
+        <v>540000</v>
+      </c>
+      <c r="F64" s="105"/>
+      <c r="G64" s="117"/>
+    </row>
+    <row r="65" spans="1:7" s="149" customFormat="1">
+      <c r="A65" s="117"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="105">
+        <v>903000</v>
+      </c>
+      <c r="F65" s="105"/>
+      <c r="G65" s="117"/>
+    </row>
+    <row r="66" spans="1:7" s="99" customFormat="1">
+      <c r="A66" s="117"/>
+      <c r="B66" s="173">
+        <v>44098</v>
+      </c>
+      <c r="C66" s="148"/>
+      <c r="D66" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="105">
+        <v>2300000</v>
+      </c>
+      <c r="F66" s="105"/>
+      <c r="G66" s="117"/>
+    </row>
+    <row r="67" spans="1:7" s="149" customFormat="1">
+      <c r="A67" s="117"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="105">
+        <v>700000</v>
+      </c>
+      <c r="F67" s="105"/>
+      <c r="G67" s="117"/>
+    </row>
+    <row r="68" spans="1:7" s="99" customFormat="1">
+      <c r="A68" s="117"/>
+      <c r="B68" s="173">
+        <v>44099</v>
+      </c>
+      <c r="C68" s="148"/>
+      <c r="D68" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="105">
+        <v>2630000</v>
+      </c>
+      <c r="F68" s="105"/>
+      <c r="G68" s="117"/>
+    </row>
+    <row r="69" spans="1:7" s="149" customFormat="1">
+      <c r="A69" s="117"/>
+      <c r="B69" s="174"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="105">
+        <v>1600000</v>
+      </c>
+      <c r="F69" s="105"/>
+      <c r="G69" s="117"/>
+    </row>
+    <row r="70" spans="1:7" s="149" customFormat="1">
+      <c r="A70" s="117"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="150"/>
+      <c r="D70" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="105">
+        <v>2100000</v>
+      </c>
+      <c r="F70" s="105"/>
+      <c r="G70" s="117"/>
+    </row>
+    <row r="71" spans="1:7" s="99" customFormat="1">
+      <c r="A71" s="117"/>
+      <c r="B71" s="116">
+        <v>44100</v>
+      </c>
+      <c r="C71" s="148"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="117"/>
+    </row>
+    <row r="72" spans="1:7" s="72" customFormat="1">
+      <c r="A72" s="117"/>
+      <c r="B72" s="116">
+        <v>44101</v>
+      </c>
+      <c r="C72" s="148"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="117"/>
+    </row>
+    <row r="73" spans="1:7" s="99" customFormat="1">
+      <c r="A73" s="117"/>
+      <c r="B73" s="116">
+        <v>44102</v>
+      </c>
+      <c r="C73" s="148"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="117"/>
+    </row>
+    <row r="74" spans="1:7" s="99" customFormat="1">
+      <c r="A74" s="117"/>
+      <c r="B74" s="116">
+        <v>44103</v>
+      </c>
+      <c r="C74" s="148"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="117"/>
+    </row>
+    <row r="75" spans="1:7" s="99" customFormat="1">
+      <c r="A75" s="117"/>
+      <c r="B75" s="116">
+        <v>44104</v>
+      </c>
+      <c r="C75" s="148"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="117"/>
+    </row>
+    <row r="76" spans="1:7" s="72" customFormat="1">
+      <c r="A76" s="117"/>
+      <c r="B76" s="116">
+        <v>44105</v>
+      </c>
+      <c r="C76" s="148"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="117"/>
+    </row>
+    <row r="77" spans="1:7" s="99" customFormat="1">
+      <c r="A77" s="117"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="117"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="117"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="117"/>
+    </row>
+    <row r="79" spans="1:7" s="99" customFormat="1">
+      <c r="A79" s="117"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="117"/>
+    </row>
+    <row r="80" spans="1:7" s="99" customFormat="1">
+      <c r="A80" s="117"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="117"/>
+    </row>
+    <row r="81" spans="1:7" s="99" customFormat="1">
+      <c r="A81" s="117"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="117"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="117"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="117"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="34">
         <v>35</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B83" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="106"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="84">
-        <f>SUM(E5:E63)</f>
-        <v>45690000</v>
-      </c>
-      <c r="F64" s="84">
-        <f>SUM(F5:F63)</f>
-        <v>2580000</v>
-      </c>
-      <c r="G64" s="70"/>
-    </row>
-    <row r="65" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="197"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="69"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="84">
+        <f>SUM(E5:E82)</f>
+        <v>108840000</v>
+      </c>
+      <c r="F83" s="84">
+        <f>SUM(F5:F82)</f>
+        <v>5380000</v>
+      </c>
+      <c r="G83" s="70"/>
+    </row>
+    <row r="84" spans="1:7" s="81" customFormat="1">
+      <c r="A84" s="75"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="152"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B10:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6980,10 +7361,10 @@
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="94"/>
@@ -6993,17 +7374,17 @@
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="170" t="s">
+    <row r="2" spans="1:6" ht="28.5">
+      <c r="A2" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -7023,7 +7404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -7035,7 +7416,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>8</v>
       </c>
@@ -7047,7 +7428,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>9</v>
       </c>
@@ -7059,7 +7440,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="74" customFormat="1">
       <c r="A8" s="34">
         <v>10</v>
       </c>
@@ -7075,7 +7456,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>11</v>
       </c>
@@ -7091,7 +7472,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>12</v>
       </c>
@@ -7103,7 +7484,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>13</v>
       </c>
@@ -7115,7 +7496,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>14</v>
       </c>
@@ -7127,7 +7508,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>15</v>
       </c>
@@ -7139,7 +7520,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="66" customFormat="1">
       <c r="A14" s="34">
         <v>17</v>
       </c>
@@ -7151,7 +7532,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>17</v>
       </c>
@@ -7163,7 +7544,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>18</v>
       </c>
@@ -7175,7 +7556,7 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>19</v>
       </c>
@@ -7187,7 +7568,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>20</v>
       </c>
@@ -7199,7 +7580,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>21</v>
       </c>
@@ -7211,7 +7592,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>22</v>
       </c>
@@ -7223,19 +7604,23 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>23</v>
       </c>
       <c r="B21" s="93">
         <v>44091</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="D21" s="34"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="42">
+        <v>30000</v>
+      </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>24</v>
       </c>
@@ -7247,7 +7632,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="81" customFormat="1">
       <c r="A23" s="34">
         <v>25</v>
       </c>
@@ -7259,7 +7644,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="81" customFormat="1">
       <c r="A24" s="34">
         <v>27</v>
       </c>
@@ -7271,7 +7656,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>27</v>
       </c>
@@ -7283,7 +7668,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="64" customFormat="1">
       <c r="A26" s="34">
         <v>28</v>
       </c>
@@ -7295,7 +7680,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="64" customFormat="1">
       <c r="A27" s="34">
         <v>29</v>
       </c>
@@ -7307,7 +7692,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="111" customFormat="1">
       <c r="A28" s="34"/>
       <c r="B28" s="93">
         <v>44098</v>
@@ -7317,7 +7702,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="111" customFormat="1">
       <c r="A29" s="34"/>
       <c r="B29" s="93">
         <v>44099</v>
@@ -7327,7 +7712,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="111" customFormat="1">
       <c r="A30" s="34"/>
       <c r="B30" s="93">
         <v>44100</v>
@@ -7337,7 +7722,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="111" customFormat="1">
       <c r="A31" s="34"/>
       <c r="B31" s="93">
         <v>44101</v>
@@ -7347,7 +7732,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="111" customFormat="1">
       <c r="A32" s="34"/>
       <c r="B32" s="93">
         <v>44102</v>
@@ -7357,7 +7742,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="111" customFormat="1">
       <c r="A33" s="34"/>
       <c r="B33" s="93">
         <v>44103</v>
@@ -7367,7 +7752,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="111" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="93">
         <v>44104</v>
@@ -7377,7 +7762,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="26">
         <v>32</v>
       </c>
@@ -7388,7 +7773,7 @@
       <c r="D35" s="26"/>
       <c r="E35" s="43">
         <f>SUM(E5:E34)</f>
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="F35" s="26"/>
     </row>
@@ -7413,7 +7798,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7423,15 +7808,15 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+    <row r="2" spans="1:6" ht="20.25">
+      <c r="B2" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +7833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="141" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="92" t="s">
         <v>74</v>
@@ -7463,7 +7848,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="141" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="92">
         <v>43897</v>
@@ -7476,7 +7861,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="141" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="92" t="s">
         <v>102</v>
@@ -7489,7 +7874,7 @@
         <v>774000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="68" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="92">
         <v>43838</v>
@@ -7502,9 +7887,9 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="23"/>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="180" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="98" t="s">
@@ -7515,9 +7900,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="23"/>
-      <c r="B9" s="198"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="98" t="s">
         <v>133</v>
       </c>
@@ -7526,70 +7911,70 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="23"/>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="47">
         <f>SUM(E4:E9)</f>
         <v>21059000</v>
       </c>
       <c r="F10" s="61"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" s="61"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -7609,21 +7994,21 @@
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -7631,20 +8016,20 @@
       <c r="F22" s="8"/>
       <c r="K22" s="61"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="K23" s="61"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -7655,7 +8040,7 @@
       <c r="R25" s="61"/>
       <c r="S25" s="61"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -7666,28 +8051,28 @@
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="S27" s="61"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
       <c r="S28" s="61"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22">
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
       <c r="S29" s="61"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="O30" s="61"/>
       <c r="P30" s="61"/>
       <c r="Q30" s="61"/>
@@ -7715,10 +8100,10 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -7730,29 +8115,29 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="170" t="s">
+    <row r="2" spans="2:8" ht="28.5">
+      <c r="B2" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="174" t="s">
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -7763,7 +8148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -7772,17 +8157,17 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D36+'khám bệnh'!F36+'khám bệnh'!H36</f>
-        <v>26300000</v>
+        <v>62200000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="46">
         <f>SUM(D8,D9)</f>
-        <v>38140000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>86540000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -7791,7 +8176,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!AC36</f>
-        <v>11840000</v>
+        <v>24340000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -7799,10 +8184,10 @@
       </c>
       <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E35)</f>
-        <v>-46020000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-14616000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -7811,17 +8196,17 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>0</v>
+        <v>94584000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="46">
-        <f>nợ!E7+nhập!F64</f>
-        <v>3210000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <f>nợ!E7+nhập!F83</f>
+        <v>6010000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -7830,25 +8215,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>38140000</v>
+        <v>181124000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="175" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
+    <row r="16" spans="2:8">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -7862,11 +8247,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="187" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -7876,11 +8261,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="179"/>
+      <c r="C18" s="187"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -7888,11 +8273,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="179"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="34" t="s">
         <v>73</v>
       </c>
@@ -7900,11 +8285,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="179"/>
+      <c r="C20" s="187"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -7913,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -7924,11 +8309,11 @@
         <v>17</v>
       </c>
       <c r="E21" s="48">
-        <f>nhập!E64</f>
-        <v>45690000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>nhập!E83</f>
+        <v>108840000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="18.75" customHeight="1">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -7940,65 +8325,65 @@
       </c>
       <c r="E22" s="43">
         <f>chi!E35</f>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="189"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>46020000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174" t="s">
+        <v>109200000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="176">
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B27" s="184">
         <f>SUM(D11,-E23)</f>
-        <v>-7880000</v>
-      </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
+        <v>71924000</v>
+      </c>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="186"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -8025,7 +8410,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -8034,95 +8419,95 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="175"/>
+      <c r="B2" s="183"/>
       <c r="D2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="90" customFormat="1">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="46">
         <f>E4</f>
-        <v>0</v>
+        <v>94584000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="46">
         <f>thuốc!D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94584000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="46">
-        <f>chi!E35+nhập!E64</f>
-        <v>46020000</v>
+        <f>chi!E35+nhập!E83</f>
+        <v>109200000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="46">
         <f>thuốc!C34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62844083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="46">
         <f>B4-B5</f>
-        <v>-46020000</v>
+        <v>-14616000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="46">
         <f>E4-E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
+        <v>31739917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="182" t="s">
+      <c r="B9" s="191"/>
+      <c r="C9" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="183"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="191"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
@@ -8136,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -8150,7 +8535,7 @@
         <v>30687006</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="46"/>
       <c r="C12" s="23" t="s">
@@ -8160,7 +8545,7 @@
         <v>89187956</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
@@ -8176,16 +8561,16 @@
         <v>119874962</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="C22" s="8"/>
     </row>
   </sheetData>
@@ -8205,11 +8590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.140625" style="127" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -8222,10 +8607,10 @@
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:43" s="119" customFormat="1">
       <c r="B1" s="127"/>
     </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:43">
       <c r="B2" s="127" t="s">
         <v>80</v>
       </c>
@@ -8233,112 +8618,112 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:43" s="119" customFormat="1">
       <c r="B3" s="127"/>
     </row>
-    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="191" t="s">
+    <row r="4" spans="2:43" ht="46.5">
+      <c r="B4" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-    </row>
-    <row r="5" spans="2:43" s="119" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="X4" s="199"/>
+    </row>
+    <row r="5" spans="2:43" s="119" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="139"/>
       <c r="C5" s="138"/>
     </row>
-    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:43" ht="18.75">
       <c r="B6" s="129"/>
       <c r="C6" s="140">
         <f>DATE($C$2,9,1)</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:43" s="119" customFormat="1">
       <c r="B7" s="129"/>
       <c r="C7" s="130"/>
     </row>
-    <row r="8" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:43" s="119" customFormat="1">
       <c r="B8" s="129"/>
       <c r="C8" s="130"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B10" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="192" t="s">
+    <row r="10" spans="2:43">
+      <c r="B10" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="193" t="s">
+      <c r="D10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="193"/>
-      <c r="AE10" s="193"/>
-      <c r="AF10" s="193"/>
-      <c r="AG10" s="193"/>
-      <c r="AH10" s="193"/>
-      <c r="AI10" s="193" t="s">
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
+      <c r="U10" s="201"/>
+      <c r="V10" s="201"/>
+      <c r="W10" s="201"/>
+      <c r="X10" s="201"/>
+      <c r="Y10" s="201"/>
+      <c r="Z10" s="201"/>
+      <c r="AA10" s="201"/>
+      <c r="AB10" s="201"/>
+      <c r="AC10" s="201"/>
+      <c r="AD10" s="201"/>
+      <c r="AE10" s="201"/>
+      <c r="AF10" s="201"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="201"/>
+      <c r="AI10" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="AJ10" s="193"/>
-      <c r="AK10" s="193"/>
-      <c r="AL10" s="193"/>
-      <c r="AM10" s="193"/>
-      <c r="AN10" s="193"/>
+      <c r="AJ10" s="201"/>
+      <c r="AK10" s="201"/>
+      <c r="AL10" s="201"/>
+      <c r="AM10" s="201"/>
+      <c r="AN10" s="201"/>
       <c r="AO10" s="126" t="s">
         <v>38</v>
       </c>
       <c r="AP10" s="125"/>
       <c r="AQ10" s="125"/>
     </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="131">
         <f>C6</f>
         <v>44075</v>
@@ -8463,29 +8848,29 @@
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44105</v>
       </c>
-      <c r="AI11" s="185" t="s">
+      <c r="AI11" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="AJ11" s="187" t="s">
+      <c r="AJ11" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="194" t="s">
+      <c r="AK11" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="194" t="s">
+      <c r="AL11" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" s="185" t="s">
+      <c r="AM11" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="AN11" s="187" t="s">
+      <c r="AN11" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="189"/>
-    </row>
-    <row r="12" spans="2:43" s="132" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
+      <c r="AO11" s="197"/>
+    </row>
+    <row r="12" spans="2:43" s="132" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="133" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
@@ -8610,15 +8995,15 @@
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. năm</v>
       </c>
-      <c r="AI12" s="186"/>
-      <c r="AJ12" s="188"/>
-      <c r="AK12" s="195"/>
-      <c r="AL12" s="195"/>
-      <c r="AM12" s="186"/>
-      <c r="AN12" s="188"/>
-      <c r="AO12" s="190"/>
-    </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AI12" s="194"/>
+      <c r="AJ12" s="196"/>
+      <c r="AK12" s="203"/>
+      <c r="AL12" s="203"/>
+      <c r="AM12" s="194"/>
+      <c r="AN12" s="196"/>
+      <c r="AO12" s="198"/>
+    </row>
+    <row r="13" spans="2:43">
       <c r="B13" s="120">
         <v>1</v>
       </c>
@@ -8684,7 +9069,7 @@
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:43">
       <c r="B14" s="120">
         <v>2</v>
       </c>
@@ -8748,7 +9133,7 @@
       </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:43">
       <c r="B15" s="120">
         <v>3</v>
       </c>
@@ -8812,7 +9197,7 @@
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="119" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:43" s="119" customFormat="1">
       <c r="B16" s="120">
         <v>4</v>
       </c>
@@ -8876,7 +9261,7 @@
       </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41">
       <c r="B17" s="120"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
@@ -8920,7 +9305,7 @@
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41">
       <c r="C20" s="135" t="s">
         <v>89</v>
       </c>
@@ -8928,7 +9313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41">
       <c r="C21" s="135" t="s">
         <v>88</v>
       </c>
@@ -8936,7 +9321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41">
       <c r="C22" s="135" t="s">
         <v>90</v>
       </c>
@@ -8944,7 +9329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41">
       <c r="C23" s="135" t="s">
         <v>87</v>
       </c>
@@ -8952,7 +9337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41">
       <c r="C24" s="135" t="s">
         <v>86</v>
       </c>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236A64C-7DE8-4008-924C-CCA9FD798A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -554,7 +553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -1267,6 +1266,21 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1278,9 +1292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,9 +1303,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,18 +1312,18 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1323,15 +1331,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,23 +1539,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1592,23 +1574,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1784,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1839,111 +1804,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="168" t="s">
+      <c r="A4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="166" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="157" t="s">
+      <c r="F4" s="156"/>
+      <c r="G4" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="162" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="157" t="s">
+      <c r="J4" s="154"/>
+      <c r="K4" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="157"/>
-      <c r="M4" s="162" t="s">
+      <c r="L4" s="153"/>
+      <c r="M4" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="162"/>
-      <c r="O4" s="158" t="s">
+      <c r="N4" s="154"/>
+      <c r="O4" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="157" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157" t="s">
+      <c r="T4" s="153"/>
+      <c r="U4" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157" t="s">
+      <c r="V4" s="153"/>
+      <c r="W4" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="159" t="s">
+      <c r="X4" s="153"/>
+      <c r="Y4" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="164" t="s">
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="160" t="s">
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="156" t="s">
+      <c r="AD4" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="157" t="s">
+      <c r="AE4" s="153" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="168"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -2022,9 +1987,9 @@
       <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="156"/>
-      <c r="AE5" s="157"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="153"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -5464,73 +5429,73 @@
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="163">
-        <v>0</v>
-      </c>
-      <c r="D37" s="163"/>
+      <c r="C37" s="166">
+        <v>0</v>
+      </c>
+      <c r="D37" s="166"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
-      <c r="AC37" s="153"/>
-      <c r="AD37" s="153"/>
-      <c r="AE37" s="153"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="158"/>
+      <c r="S37" s="158"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="158"/>
+      <c r="V37" s="158"/>
+      <c r="W37" s="158"/>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="158"/>
+      <c r="AA37" s="158"/>
+      <c r="AB37" s="158"/>
+      <c r="AC37" s="158"/>
+      <c r="AD37" s="158"/>
+      <c r="AE37" s="158"/>
     </row>
     <row r="38" spans="1:35" s="11" customFormat="1">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="154">
-        <v>0</v>
-      </c>
-      <c r="D38" s="154"/>
+      <c r="C38" s="159">
+        <v>0</v>
+      </c>
+      <c r="D38" s="159"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
-      <c r="AC38" s="153"/>
-      <c r="AD38" s="153"/>
-      <c r="AE38" s="153"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="158"/>
+      <c r="R38" s="158"/>
+      <c r="S38" s="158"/>
+      <c r="T38" s="158"/>
+      <c r="U38" s="158"/>
+      <c r="V38" s="158"/>
+      <c r="W38" s="158"/>
+      <c r="X38" s="158"/>
+      <c r="Y38" s="158"/>
+      <c r="Z38" s="158"/>
+      <c r="AA38" s="158"/>
+      <c r="AB38" s="158"/>
+      <c r="AC38" s="158"/>
+      <c r="AD38" s="158"/>
+      <c r="AE38" s="158"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
@@ -5547,15 +5512,8 @@
       <c r="AE41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="AE4:AE38"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5572,6 +5530,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5583,7 +5548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6232,7 +6197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6257,15 +6222,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
     </row>
     <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
@@ -6316,7 +6281,7 @@
     </row>
     <row r="7" spans="1:7" s="96" customFormat="1">
       <c r="A7" s="117"/>
-      <c r="B7" s="173">
+      <c r="B7" s="170">
         <v>44077</v>
       </c>
       <c r="C7" s="148"/>
@@ -6331,7 +6296,7 @@
     </row>
     <row r="8" spans="1:7" s="145" customFormat="1">
       <c r="A8" s="117"/>
-      <c r="B8" s="174"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="148"/>
       <c r="D8" s="117" t="s">
         <v>116</v>
@@ -6344,7 +6309,7 @@
     </row>
     <row r="9" spans="1:7" s="145" customFormat="1">
       <c r="A9" s="117"/>
-      <c r="B9" s="175"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="148"/>
       <c r="D9" s="117" t="s">
         <v>117</v>
@@ -6357,7 +6322,7 @@
     </row>
     <row r="10" spans="1:7" s="115" customFormat="1">
       <c r="A10" s="117"/>
-      <c r="B10" s="173">
+      <c r="B10" s="170">
         <v>44078</v>
       </c>
       <c r="C10" s="148">
@@ -6374,7 +6339,7 @@
     </row>
     <row r="11" spans="1:7" s="145" customFormat="1">
       <c r="A11" s="117"/>
-      <c r="B11" s="174"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="148">
         <v>2</v>
       </c>
@@ -6389,7 +6354,7 @@
     </row>
     <row r="12" spans="1:7" s="145" customFormat="1">
       <c r="A12" s="117"/>
-      <c r="B12" s="174"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="148">
         <v>3</v>
       </c>
@@ -6404,7 +6369,7 @@
     </row>
     <row r="13" spans="1:7" s="145" customFormat="1">
       <c r="A13" s="117"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="148">
         <v>4</v>
       </c>
@@ -6419,7 +6384,7 @@
     </row>
     <row r="14" spans="1:7" s="145" customFormat="1">
       <c r="A14" s="117"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="148">
         <v>5</v>
       </c>
@@ -6434,7 +6399,7 @@
     </row>
     <row r="15" spans="1:7" s="145" customFormat="1">
       <c r="A15" s="117"/>
-      <c r="B15" s="174"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="148">
         <v>6</v>
       </c>
@@ -6449,7 +6414,7 @@
     </row>
     <row r="16" spans="1:7" s="145" customFormat="1">
       <c r="A16" s="117"/>
-      <c r="B16" s="174"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="148">
         <v>7</v>
       </c>
@@ -6464,7 +6429,7 @@
     </row>
     <row r="17" spans="1:7" s="145" customFormat="1">
       <c r="A17" s="117"/>
-      <c r="B17" s="174"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="148">
         <v>8</v>
       </c>
@@ -6479,7 +6444,7 @@
     </row>
     <row r="18" spans="1:7" s="145" customFormat="1">
       <c r="A18" s="117"/>
-      <c r="B18" s="174"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="148">
         <v>9</v>
       </c>
@@ -6494,7 +6459,7 @@
     </row>
     <row r="19" spans="1:7" s="145" customFormat="1">
       <c r="A19" s="117"/>
-      <c r="B19" s="174"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="148"/>
       <c r="D19" s="117" t="s">
         <v>127</v>
@@ -6507,7 +6472,7 @@
     </row>
     <row r="20" spans="1:7" s="145" customFormat="1">
       <c r="A20" s="117"/>
-      <c r="B20" s="174"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="148"/>
       <c r="D20" s="117" t="s">
         <v>101</v>
@@ -6522,7 +6487,7 @@
     </row>
     <row r="21" spans="1:7" s="145" customFormat="1">
       <c r="A21" s="117"/>
-      <c r="B21" s="174"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="148"/>
       <c r="D21" s="117" t="s">
         <v>101</v>
@@ -6534,7 +6499,7 @@
     </row>
     <row r="22" spans="1:7" s="145" customFormat="1">
       <c r="A22" s="117"/>
-      <c r="B22" s="174"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="148"/>
       <c r="D22" s="117" t="s">
         <v>128</v>
@@ -6549,7 +6514,7 @@
     </row>
     <row r="23" spans="1:7" s="145" customFormat="1">
       <c r="A23" s="117"/>
-      <c r="B23" s="174"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="148"/>
       <c r="D23" s="117" t="s">
         <v>104</v>
@@ -6564,7 +6529,7 @@
     </row>
     <row r="24" spans="1:7" s="145" customFormat="1">
       <c r="A24" s="117"/>
-      <c r="B24" s="175"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="148"/>
       <c r="D24" s="117" t="s">
         <v>104</v>
@@ -6614,7 +6579,7 @@
     </row>
     <row r="28" spans="1:7" s="96" customFormat="1">
       <c r="A28" s="117"/>
-      <c r="B28" s="173">
+      <c r="B28" s="170">
         <v>44082</v>
       </c>
       <c r="C28" s="148">
@@ -6630,14 +6595,14 @@
     </row>
     <row r="29" spans="1:7" s="145" customFormat="1">
       <c r="A29" s="117"/>
-      <c r="B29" s="174"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="148">
         <v>2</v>
       </c>
       <c r="D29" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="170">
+      <c r="E29" s="173">
         <v>1512000</v>
       </c>
       <c r="F29" s="105"/>
@@ -6645,20 +6610,20 @@
     </row>
     <row r="30" spans="1:7" s="145" customFormat="1">
       <c r="A30" s="117"/>
-      <c r="B30" s="174"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="148">
         <v>3</v>
       </c>
       <c r="D30" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="171"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="105"/>
       <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7" s="145" customFormat="1">
       <c r="A31" s="117"/>
-      <c r="B31" s="174"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="148">
         <v>4</v>
       </c>
@@ -6673,7 +6638,7 @@
     </row>
     <row r="32" spans="1:7" s="145" customFormat="1">
       <c r="A32" s="117"/>
-      <c r="B32" s="174"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="148">
         <v>5</v>
       </c>
@@ -6688,7 +6653,7 @@
     </row>
     <row r="33" spans="1:7" s="145" customFormat="1">
       <c r="A33" s="117"/>
-      <c r="B33" s="174"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="148">
         <v>6</v>
       </c>
@@ -6703,7 +6668,7 @@
     </row>
     <row r="34" spans="1:7" s="145" customFormat="1">
       <c r="A34" s="117"/>
-      <c r="B34" s="175"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="148">
         <v>7</v>
       </c>
@@ -6755,7 +6720,7 @@
     </row>
     <row r="38" spans="1:7" s="65" customFormat="1">
       <c r="A38" s="117"/>
-      <c r="B38" s="173">
+      <c r="B38" s="170">
         <v>44086</v>
       </c>
       <c r="C38" s="148"/>
@@ -6770,7 +6735,7 @@
     </row>
     <row r="39" spans="1:7" s="149" customFormat="1">
       <c r="A39" s="117"/>
-      <c r="B39" s="174"/>
+      <c r="B39" s="171"/>
       <c r="C39" s="150"/>
       <c r="D39" s="117" t="s">
         <v>145</v>
@@ -6783,7 +6748,7 @@
     </row>
     <row r="40" spans="1:7" s="149" customFormat="1">
       <c r="A40" s="117"/>
-      <c r="B40" s="174"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="150"/>
       <c r="D40" s="117" t="s">
         <v>146</v>
@@ -6796,7 +6761,7 @@
     </row>
     <row r="41" spans="1:7" s="149" customFormat="1">
       <c r="A41" s="117"/>
-      <c r="B41" s="174"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="150"/>
       <c r="D41" s="117" t="s">
         <v>147</v>
@@ -6809,7 +6774,7 @@
     </row>
     <row r="42" spans="1:7" s="149" customFormat="1">
       <c r="A42" s="117"/>
-      <c r="B42" s="174"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="150"/>
       <c r="D42" s="117" t="s">
         <v>148</v>
@@ -6822,7 +6787,7 @@
     </row>
     <row r="43" spans="1:7" s="149" customFormat="1">
       <c r="A43" s="117"/>
-      <c r="B43" s="174"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="150"/>
       <c r="D43" s="117" t="s">
         <v>126</v>
@@ -6835,7 +6800,7 @@
     </row>
     <row r="44" spans="1:7" s="149" customFormat="1">
       <c r="A44" s="117"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="150"/>
       <c r="D44" s="117" t="s">
         <v>149</v>
@@ -6848,7 +6813,7 @@
     </row>
     <row r="45" spans="1:7" s="149" customFormat="1">
       <c r="A45" s="117"/>
-      <c r="B45" s="174"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="150"/>
       <c r="D45" s="117" t="s">
         <v>150</v>
@@ -6861,7 +6826,7 @@
     </row>
     <row r="46" spans="1:7" s="149" customFormat="1">
       <c r="A46" s="117"/>
-      <c r="B46" s="175"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="150"/>
       <c r="D46" s="117" t="s">
         <v>151</v>
@@ -6948,7 +6913,7 @@
     </row>
     <row r="53" spans="1:7" s="85" customFormat="1">
       <c r="A53" s="117"/>
-      <c r="B53" s="173">
+      <c r="B53" s="170">
         <v>44093</v>
       </c>
       <c r="C53" s="148"/>
@@ -6963,7 +6928,7 @@
     </row>
     <row r="54" spans="1:7" s="149" customFormat="1">
       <c r="A54" s="117"/>
-      <c r="B54" s="175"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="150"/>
       <c r="D54" s="117" t="s">
         <v>155</v>
@@ -7001,7 +6966,7 @@
     </row>
     <row r="57" spans="1:7" s="99" customFormat="1">
       <c r="A57" s="117"/>
-      <c r="B57" s="173">
+      <c r="B57" s="170">
         <v>44096</v>
       </c>
       <c r="C57" s="148"/>
@@ -7016,7 +6981,7 @@
     </row>
     <row r="58" spans="1:7" s="149" customFormat="1">
       <c r="A58" s="117"/>
-      <c r="B58" s="174"/>
+      <c r="B58" s="171"/>
       <c r="C58" s="150"/>
       <c r="D58" s="117" t="s">
         <v>158</v>
@@ -7029,7 +6994,7 @@
     </row>
     <row r="59" spans="1:7" s="149" customFormat="1">
       <c r="A59" s="117"/>
-      <c r="B59" s="174"/>
+      <c r="B59" s="171"/>
       <c r="C59" s="150"/>
       <c r="D59" s="117" t="s">
         <v>159</v>
@@ -7042,7 +7007,7 @@
     </row>
     <row r="60" spans="1:7" s="149" customFormat="1">
       <c r="A60" s="117"/>
-      <c r="B60" s="174"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="150"/>
       <c r="D60" s="117" t="s">
         <v>160</v>
@@ -7055,7 +7020,7 @@
     </row>
     <row r="61" spans="1:7" s="149" customFormat="1">
       <c r="A61" s="117"/>
-      <c r="B61" s="174"/>
+      <c r="B61" s="171"/>
       <c r="C61" s="150"/>
       <c r="D61" s="117" t="s">
         <v>161</v>
@@ -7068,7 +7033,7 @@
     </row>
     <row r="62" spans="1:7" s="149" customFormat="1">
       <c r="A62" s="117"/>
-      <c r="B62" s="174"/>
+      <c r="B62" s="171"/>
       <c r="C62" s="150"/>
       <c r="D62" s="117" t="s">
         <v>162</v>
@@ -7081,7 +7046,7 @@
     </row>
     <row r="63" spans="1:7" s="149" customFormat="1">
       <c r="A63" s="117"/>
-      <c r="B63" s="175"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="150"/>
       <c r="D63" s="117"/>
       <c r="E63" s="105"/>
@@ -7090,7 +7055,7 @@
     </row>
     <row r="64" spans="1:7" s="119" customFormat="1">
       <c r="A64" s="117"/>
-      <c r="B64" s="173">
+      <c r="B64" s="170">
         <v>44097</v>
       </c>
       <c r="C64" s="148"/>
@@ -7105,7 +7070,7 @@
     </row>
     <row r="65" spans="1:7" s="149" customFormat="1">
       <c r="A65" s="117"/>
-      <c r="B65" s="175"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="150"/>
       <c r="D65" s="117" t="s">
         <v>165</v>
@@ -7118,7 +7083,7 @@
     </row>
     <row r="66" spans="1:7" s="99" customFormat="1">
       <c r="A66" s="117"/>
-      <c r="B66" s="173">
+      <c r="B66" s="170">
         <v>44098</v>
       </c>
       <c r="C66" s="148"/>
@@ -7133,7 +7098,7 @@
     </row>
     <row r="67" spans="1:7" s="149" customFormat="1">
       <c r="A67" s="117"/>
-      <c r="B67" s="175"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="150"/>
       <c r="D67" s="117" t="s">
         <v>167</v>
@@ -7146,7 +7111,7 @@
     </row>
     <row r="68" spans="1:7" s="99" customFormat="1">
       <c r="A68" s="117"/>
-      <c r="B68" s="173">
+      <c r="B68" s="170">
         <v>44099</v>
       </c>
       <c r="C68" s="148"/>
@@ -7161,7 +7126,7 @@
     </row>
     <row r="69" spans="1:7" s="149" customFormat="1">
       <c r="A69" s="117"/>
-      <c r="B69" s="174"/>
+      <c r="B69" s="171"/>
       <c r="C69" s="150"/>
       <c r="D69" s="117" t="s">
         <v>169</v>
@@ -7174,7 +7139,7 @@
     </row>
     <row r="70" spans="1:7" s="149" customFormat="1">
       <c r="A70" s="117"/>
-      <c r="B70" s="175"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="150"/>
       <c r="D70" s="117" t="s">
         <v>170</v>
@@ -7335,17 +7300,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B10:B24"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="B38:B46"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B67"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B10:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7354,7 +7319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7788,7 +7753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8093,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8403,11 +8368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805A625-BAF6-47D2-B82C-BA12E06CE220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8541,9 +8506,7 @@
       <c r="C12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="46">
-        <v>89187956</v>
-      </c>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
@@ -8558,7 +8521,7 @@
       </c>
       <c r="D13" s="46">
         <f>D12+D11</f>
-        <v>119874962</v>
+        <v>30687006</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8587,11 +8550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF09C95-D193-4A28-AF37-76A74DD505F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="172">
   <si>
     <t>STT</t>
   </si>
@@ -445,9 +445,6 @@
     <t>28/8/2020</t>
   </si>
   <si>
-    <t>falgankid 160mg</t>
-  </si>
-  <si>
     <t>Cốm invilac IQ</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>monitazone</t>
   </si>
   <si>
-    <t>máy KD</t>
-  </si>
-  <si>
     <t>otrivin</t>
   </si>
   <si>
@@ -548,6 +542,15 @@
   </si>
   <si>
     <t>sedno</t>
+  </si>
+  <si>
+    <t>falgankid</t>
+  </si>
+  <si>
+    <t>thanh toán mã 1/8/2020</t>
+  </si>
+  <si>
+    <t>máy KD+mask</t>
   </si>
 </sst>
 </file>
@@ -672,12 +675,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -725,6 +722,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF2173AD"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -902,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1122,7 +1126,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1222,18 +1225,18 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1266,19 +1269,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1292,6 +1284,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,6 +1298,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,9 +1310,25 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,13 +1338,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1400,7 +1407,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1415,6 +1422,8 @@
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,11 +1765,11 @@
   <dimension ref="A2:AT41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:AE2"/>
+      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1804,121 +1813,121 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="157" t="s">
+      <c r="A4" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="155" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="153" t="s">
+      <c r="F4" s="168"/>
+      <c r="G4" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="158"/>
+      <c r="I4" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="153" t="s">
+      <c r="J4" s="163"/>
+      <c r="K4" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="154" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="154"/>
-      <c r="O4" s="162" t="s">
+      <c r="N4" s="163"/>
+      <c r="O4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="153" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153" t="s">
+      <c r="R4" s="158"/>
+      <c r="S4" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153" t="s">
+      <c r="T4" s="158"/>
+      <c r="U4" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153" t="s">
+      <c r="V4" s="158"/>
+      <c r="W4" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="163" t="s">
+      <c r="X4" s="158"/>
+      <c r="Y4" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="167" t="s">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="164" t="s">
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="161" t="s">
+      <c r="AD4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="153" t="s">
+      <c r="AE4" s="158" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="153"/>
-      <c r="B5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="120" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="49" t="s">
@@ -1927,22 +1936,22 @@
       <c r="H5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="121" t="s">
+      <c r="M5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="120" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="53" t="s">
@@ -1987,9 +1996,9 @@
       <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="153"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="158"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -2020,10 +2029,10 @@
         <f>PRODUCT(C6,200000)</f>
         <v>600000</v>
       </c>
-      <c r="E6" s="122">
-        <v>0</v>
-      </c>
-      <c r="F6" s="122">
+      <c r="E6" s="121">
+        <v>0</v>
+      </c>
+      <c r="F6" s="121">
         <f>PRODUCT(E6,100000)</f>
         <v>0</v>
       </c>
@@ -2034,24 +2043,24 @@
         <f>PRODUCT(G6,300000)</f>
         <v>900000</v>
       </c>
-      <c r="I6" s="124">
-        <v>0</v>
-      </c>
-      <c r="J6" s="124">
+      <c r="I6" s="123">
+        <v>0</v>
+      </c>
+      <c r="J6" s="123">
         <f>PRODUCT(I6,150000)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="111">
         <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>PRODUCT(K6,300000)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="124">
-        <v>0</v>
-      </c>
-      <c r="N6" s="124">
+      <c r="M6" s="123">
+        <v>0</v>
+      </c>
+      <c r="N6" s="123">
         <f>PRODUCT(M7,150000)</f>
         <v>0</v>
       </c>
@@ -2121,49 +2130,49 @@
       <c r="B7" s="56">
         <v>44076</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="141">
         <v>0</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D35" si="0">PRODUCT(C7,200000)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="122">
-        <v>0</v>
-      </c>
-      <c r="F7" s="122">
+      <c r="E7" s="121">
+        <v>0</v>
+      </c>
+      <c r="F7" s="121">
         <f t="shared" ref="F7:F35" si="1">PRODUCT(E7,100000)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="142">
+      <c r="G7" s="141">
         <v>0</v>
       </c>
       <c r="H7" s="40">
         <f t="shared" ref="H7:H35" si="2">PRODUCT(G7,300000)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="124">
-        <v>0</v>
-      </c>
-      <c r="J7" s="124">
+      <c r="I7" s="123">
+        <v>0</v>
+      </c>
+      <c r="J7" s="123">
         <f t="shared" ref="J7:J35" si="3">PRODUCT(I7,150000)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="142">
+      <c r="K7" s="141">
         <v>0</v>
       </c>
       <c r="L7" s="40">
         <f t="shared" ref="L7:L35" si="4">PRODUCT(K7,300000)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="124">
-        <v>0</v>
-      </c>
-      <c r="N7" s="124">
+      <c r="M7" s="123">
+        <v>0</v>
+      </c>
+      <c r="N7" s="123">
         <f t="shared" ref="N7:N35" si="5">PRODUCT(M8,150000)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="143">
+      <c r="O7" s="142">
         <v>0</v>
       </c>
       <c r="P7" s="41">
@@ -2198,14 +2207,14 @@
         <f t="shared" ref="X7:X35" si="10">PRODUCT(W7,50000)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="97">
+      <c r="Y7" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="96">
         <f t="shared" ref="Z7:Z35" si="11">PRODUCT(Y7,700000)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="97">
+      <c r="AA7" s="96">
         <v>0</v>
       </c>
       <c r="AB7" s="18">
@@ -2229,49 +2238,49 @@
       <c r="B8" s="56">
         <v>44077</v>
       </c>
-      <c r="C8" s="142">
+      <c r="C8" s="141">
         <v>8</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="E8" s="122">
-        <v>0</v>
-      </c>
-      <c r="F8" s="122">
+      <c r="E8" s="121">
+        <v>0</v>
+      </c>
+      <c r="F8" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="141">
         <v>6</v>
       </c>
       <c r="H8" s="40">
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="I8" s="124">
-        <v>0</v>
-      </c>
-      <c r="J8" s="124">
+      <c r="I8" s="123">
+        <v>0</v>
+      </c>
+      <c r="J8" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="142">
+      <c r="K8" s="141">
         <v>2</v>
       </c>
       <c r="L8" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M8" s="124">
-        <v>0</v>
-      </c>
-      <c r="N8" s="124">
+      <c r="M8" s="123">
+        <v>0</v>
+      </c>
+      <c r="N8" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="143">
+      <c r="O8" s="142">
         <v>0</v>
       </c>
       <c r="P8" s="41">
@@ -2306,14 +2315,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="97">
+      <c r="Y8" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="97">
+      <c r="AA8" s="96">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -2350,49 +2359,49 @@
       <c r="B9" s="56">
         <v>44078</v>
       </c>
-      <c r="C9" s="142">
+      <c r="C9" s="141">
         <v>4</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E9" s="122">
-        <v>0</v>
-      </c>
-      <c r="F9" s="122">
+      <c r="E9" s="121">
+        <v>0</v>
+      </c>
+      <c r="F9" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="142">
+      <c r="G9" s="141">
         <v>2</v>
       </c>
       <c r="H9" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I9" s="124">
-        <v>0</v>
-      </c>
-      <c r="J9" s="124">
+      <c r="I9" s="123">
+        <v>0</v>
+      </c>
+      <c r="J9" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="142">
+      <c r="K9" s="141">
         <v>0</v>
       </c>
       <c r="L9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="124">
-        <v>0</v>
-      </c>
-      <c r="N9" s="124">
+      <c r="M9" s="123">
+        <v>0</v>
+      </c>
+      <c r="N9" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="143">
+      <c r="O9" s="142">
         <v>0</v>
       </c>
       <c r="P9" s="41">
@@ -2427,14 +2436,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="97">
+      <c r="Y9" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="97">
+      <c r="AA9" s="96">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -2458,49 +2467,49 @@
       <c r="B10" s="56">
         <v>44079</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="141">
         <v>6</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="E10" s="122">
-        <v>0</v>
-      </c>
-      <c r="F10" s="122">
+      <c r="E10" s="121">
+        <v>0</v>
+      </c>
+      <c r="F10" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="142">
+      <c r="G10" s="141">
         <v>7</v>
       </c>
       <c r="H10" s="40">
         <f t="shared" si="2"/>
         <v>2100000</v>
       </c>
-      <c r="I10" s="124">
-        <v>0</v>
-      </c>
-      <c r="J10" s="124">
+      <c r="I10" s="123">
+        <v>0</v>
+      </c>
+      <c r="J10" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="142">
+      <c r="K10" s="141">
         <v>0</v>
       </c>
       <c r="L10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="124">
-        <v>0</v>
-      </c>
-      <c r="N10" s="124">
+      <c r="M10" s="123">
+        <v>0</v>
+      </c>
+      <c r="N10" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="143">
+      <c r="O10" s="142">
         <v>0</v>
       </c>
       <c r="P10" s="41">
@@ -2535,14 +2544,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="97">
+      <c r="Y10" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="97">
+      <c r="AA10" s="96">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
@@ -2566,49 +2575,49 @@
       <c r="B11" s="56">
         <v>44080</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="141">
         <v>14</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="E11" s="122">
-        <v>0</v>
-      </c>
-      <c r="F11" s="122">
+      <c r="E11" s="121">
+        <v>0</v>
+      </c>
+      <c r="F11" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="142">
+      <c r="G11" s="141">
         <v>24</v>
       </c>
       <c r="H11" s="40">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
-      <c r="I11" s="124">
-        <v>0</v>
-      </c>
-      <c r="J11" s="124">
+      <c r="I11" s="123">
+        <v>0</v>
+      </c>
+      <c r="J11" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="142">
+      <c r="K11" s="141">
         <v>3</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" si="4"/>
         <v>900000</v>
       </c>
-      <c r="M11" s="124">
-        <v>0</v>
-      </c>
-      <c r="N11" s="124">
+      <c r="M11" s="123">
+        <v>0</v>
+      </c>
+      <c r="N11" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="143">
+      <c r="O11" s="142">
         <v>1</v>
       </c>
       <c r="P11" s="41">
@@ -2643,14 +2652,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="97">
+      <c r="Y11" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="97">
+      <c r="AA11" s="96">
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -2674,49 +2683,49 @@
       <c r="B12" s="56">
         <v>44081</v>
       </c>
-      <c r="C12" s="142">
+      <c r="C12" s="141">
         <v>3</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="E12" s="122">
-        <v>0</v>
-      </c>
-      <c r="F12" s="122">
+      <c r="E12" s="121">
+        <v>0</v>
+      </c>
+      <c r="F12" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="142">
+      <c r="G12" s="141">
         <v>3</v>
       </c>
       <c r="H12" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I12" s="124">
-        <v>0</v>
-      </c>
-      <c r="J12" s="124">
+      <c r="I12" s="123">
+        <v>0</v>
+      </c>
+      <c r="J12" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="142">
+      <c r="K12" s="141">
         <v>2</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M12" s="124">
-        <v>0</v>
-      </c>
-      <c r="N12" s="124">
+      <c r="M12" s="123">
+        <v>0</v>
+      </c>
+      <c r="N12" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="143">
+      <c r="O12" s="142">
         <v>0</v>
       </c>
       <c r="P12" s="41">
@@ -2751,14 +2760,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="97">
+      <c r="Y12" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="97">
+      <c r="AA12" s="96">
         <v>0</v>
       </c>
       <c r="AB12" s="18">
@@ -2782,49 +2791,49 @@
       <c r="B13" s="56">
         <v>44082</v>
       </c>
-      <c r="C13" s="142">
+      <c r="C13" s="141">
         <v>4</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E13" s="122">
-        <v>0</v>
-      </c>
-      <c r="F13" s="122">
+      <c r="E13" s="121">
+        <v>0</v>
+      </c>
+      <c r="F13" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="142">
+      <c r="G13" s="141">
         <v>1</v>
       </c>
       <c r="H13" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I13" s="124">
-        <v>0</v>
-      </c>
-      <c r="J13" s="124">
+      <c r="I13" s="123">
+        <v>0</v>
+      </c>
+      <c r="J13" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="142">
+      <c r="K13" s="141">
         <v>2</v>
       </c>
       <c r="L13" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M13" s="124">
-        <v>0</v>
-      </c>
-      <c r="N13" s="124">
+      <c r="M13" s="123">
+        <v>0</v>
+      </c>
+      <c r="N13" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="143">
+      <c r="O13" s="142">
         <v>0</v>
       </c>
       <c r="P13" s="41">
@@ -2859,14 +2868,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="97">
+      <c r="Y13" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="97">
+      <c r="AA13" s="96">
         <v>0</v>
       </c>
       <c r="AB13" s="18">
@@ -2890,49 +2899,49 @@
       <c r="B14" s="56">
         <v>44083</v>
       </c>
-      <c r="C14" s="142">
+      <c r="C14" s="141">
         <v>5</v>
       </c>
       <c r="D14" s="17">
         <f>PRODUCT(C14,200000)</f>
         <v>1000000</v>
       </c>
-      <c r="E14" s="122">
-        <v>0</v>
-      </c>
-      <c r="F14" s="122">
+      <c r="E14" s="121">
+        <v>0</v>
+      </c>
+      <c r="F14" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="142">
+      <c r="G14" s="141">
         <v>4</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I14" s="124">
-        <v>0</v>
-      </c>
-      <c r="J14" s="124">
+      <c r="I14" s="123">
+        <v>0</v>
+      </c>
+      <c r="J14" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="142">
+      <c r="K14" s="141">
         <v>0</v>
       </c>
       <c r="L14" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="124">
-        <v>0</v>
-      </c>
-      <c r="N14" s="124">
+      <c r="M14" s="123">
+        <v>0</v>
+      </c>
+      <c r="N14" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="143">
+      <c r="O14" s="142">
         <v>0</v>
       </c>
       <c r="P14" s="41">
@@ -2967,14 +2976,14 @@
         <f t="shared" si="10"/>
         <v>50000</v>
       </c>
-      <c r="Y14" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="97">
+      <c r="Y14" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="97">
+      <c r="AA14" s="96">
         <v>0</v>
       </c>
       <c r="AB14" s="18">
@@ -3000,49 +3009,49 @@
       <c r="B15" s="56">
         <v>44084</v>
       </c>
-      <c r="C15" s="142">
+      <c r="C15" s="141">
         <v>6</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="E15" s="122">
-        <v>0</v>
-      </c>
-      <c r="F15" s="122">
+      <c r="E15" s="121">
+        <v>0</v>
+      </c>
+      <c r="F15" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="142">
+      <c r="G15" s="141">
         <v>3</v>
       </c>
       <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I15" s="124">
-        <v>0</v>
-      </c>
-      <c r="J15" s="124">
+      <c r="I15" s="123">
+        <v>0</v>
+      </c>
+      <c r="J15" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="142">
+      <c r="K15" s="141">
         <v>0</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="124">
-        <v>0</v>
-      </c>
-      <c r="N15" s="124">
+      <c r="M15" s="123">
+        <v>0</v>
+      </c>
+      <c r="N15" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="143">
+      <c r="O15" s="142">
         <v>1</v>
       </c>
       <c r="P15" s="41">
@@ -3077,14 +3086,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="97">
+      <c r="Y15" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="97">
+      <c r="AA15" s="96">
         <v>0</v>
       </c>
       <c r="AB15" s="18">
@@ -3110,49 +3119,49 @@
       <c r="B16" s="56">
         <v>44085</v>
       </c>
-      <c r="C16" s="142">
+      <c r="C16" s="141">
         <v>2</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E16" s="122">
-        <v>0</v>
-      </c>
-      <c r="F16" s="122">
+      <c r="E16" s="121">
+        <v>0</v>
+      </c>
+      <c r="F16" s="121">
         <f>PRODUCT(E17,100000)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="142">
+      <c r="G16" s="141">
         <v>3</v>
       </c>
       <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I16" s="124">
-        <v>0</v>
-      </c>
-      <c r="J16" s="124">
+      <c r="I16" s="123">
+        <v>0</v>
+      </c>
+      <c r="J16" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="142">
+      <c r="K16" s="141">
         <v>1</v>
       </c>
       <c r="L16" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M16" s="124">
-        <v>0</v>
-      </c>
-      <c r="N16" s="124">
+      <c r="M16" s="123">
+        <v>0</v>
+      </c>
+      <c r="N16" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="143">
+      <c r="O16" s="142">
         <v>0</v>
       </c>
       <c r="P16" s="41">
@@ -3187,14 +3196,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="97">
+      <c r="Y16" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="97">
+      <c r="AA16" s="96">
         <v>0</v>
       </c>
       <c r="AB16" s="18">
@@ -3220,49 +3229,49 @@
       <c r="B17" s="56">
         <v>44086</v>
       </c>
-      <c r="C17" s="142">
+      <c r="C17" s="141">
         <v>0</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="122">
-        <v>0</v>
-      </c>
-      <c r="F17" s="122">
+      <c r="E17" s="121">
+        <v>0</v>
+      </c>
+      <c r="F17" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="142">
+      <c r="G17" s="141">
         <v>0</v>
       </c>
       <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="124">
-        <v>0</v>
-      </c>
-      <c r="J17" s="124">
+      <c r="I17" s="123">
+        <v>0</v>
+      </c>
+      <c r="J17" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="142">
+      <c r="K17" s="141">
         <v>0</v>
       </c>
       <c r="L17" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="124">
-        <v>0</v>
-      </c>
-      <c r="N17" s="124">
+      <c r="M17" s="123">
+        <v>0</v>
+      </c>
+      <c r="N17" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O17" s="143">
+      <c r="O17" s="142">
         <v>0</v>
       </c>
       <c r="P17" s="41">
@@ -3297,14 +3306,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="97">
+      <c r="Y17" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="97">
+      <c r="AA17" s="96">
         <v>0</v>
       </c>
       <c r="AB17" s="18">
@@ -3330,49 +3339,49 @@
       <c r="B18" s="56">
         <v>44087</v>
       </c>
-      <c r="C18" s="142">
+      <c r="C18" s="141">
         <v>5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E18" s="122">
-        <v>0</v>
-      </c>
-      <c r="F18" s="122">
+      <c r="E18" s="121">
+        <v>0</v>
+      </c>
+      <c r="F18" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="142">
+      <c r="G18" s="141">
         <v>2</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I18" s="124">
-        <v>0</v>
-      </c>
-      <c r="J18" s="124">
+      <c r="I18" s="123">
+        <v>0</v>
+      </c>
+      <c r="J18" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="142">
+      <c r="K18" s="141">
         <v>2</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M18" s="124">
-        <v>0</v>
-      </c>
-      <c r="N18" s="124">
+      <c r="M18" s="123">
+        <v>0</v>
+      </c>
+      <c r="N18" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="143">
+      <c r="O18" s="142">
         <v>0</v>
       </c>
       <c r="P18" s="41">
@@ -3407,14 +3416,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="97">
+      <c r="Y18" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="97">
+      <c r="AA18" s="96">
         <v>0</v>
       </c>
       <c r="AB18" s="18">
@@ -3440,49 +3449,49 @@
       <c r="B19" s="56">
         <v>44088</v>
       </c>
-      <c r="C19" s="142">
+      <c r="C19" s="141">
         <v>8</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="E19" s="122">
-        <v>0</v>
-      </c>
-      <c r="F19" s="122">
+      <c r="E19" s="121">
+        <v>0</v>
+      </c>
+      <c r="F19" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="141">
         <v>7</v>
       </c>
       <c r="H19" s="40">
         <f t="shared" si="2"/>
         <v>2100000</v>
       </c>
-      <c r="I19" s="124">
-        <v>0</v>
-      </c>
-      <c r="J19" s="124">
+      <c r="I19" s="123">
+        <v>0</v>
+      </c>
+      <c r="J19" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="142">
+      <c r="K19" s="141">
         <v>2</v>
       </c>
       <c r="L19" s="40">
         <f t="shared" si="4"/>
         <v>600000</v>
       </c>
-      <c r="M19" s="124">
-        <v>0</v>
-      </c>
-      <c r="N19" s="124">
+      <c r="M19" s="123">
+        <v>0</v>
+      </c>
+      <c r="N19" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O19" s="143">
+      <c r="O19" s="142">
         <v>0</v>
       </c>
       <c r="P19" s="41">
@@ -3517,14 +3526,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="97">
+      <c r="Y19" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="97">
+      <c r="AA19" s="96">
         <v>0</v>
       </c>
       <c r="AB19" s="18">
@@ -3539,7 +3548,7 @@
         <f t="shared" si="14"/>
         <v>5560000</v>
       </c>
-      <c r="AE19" s="100"/>
+      <c r="AE19" s="99"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
@@ -3550,49 +3559,49 @@
       <c r="B20" s="56">
         <v>44089</v>
       </c>
-      <c r="C20" s="142">
+      <c r="C20" s="141">
         <v>4</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E20" s="122">
-        <v>0</v>
-      </c>
-      <c r="F20" s="122">
+      <c r="E20" s="121">
+        <v>0</v>
+      </c>
+      <c r="F20" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="141">
         <v>1</v>
       </c>
       <c r="H20" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I20" s="124">
-        <v>0</v>
-      </c>
-      <c r="J20" s="124">
+      <c r="I20" s="123">
+        <v>0</v>
+      </c>
+      <c r="J20" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K20" s="142">
+      <c r="K20" s="141">
         <v>0</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="124">
-        <v>0</v>
-      </c>
-      <c r="N20" s="124">
+      <c r="M20" s="123">
+        <v>0</v>
+      </c>
+      <c r="N20" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O20" s="143">
+      <c r="O20" s="142">
         <v>0</v>
       </c>
       <c r="P20" s="41">
@@ -3627,14 +3636,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="97">
+      <c r="Y20" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="97">
+      <c r="AA20" s="96">
         <v>0</v>
       </c>
       <c r="AB20" s="18">
@@ -3660,49 +3669,49 @@
       <c r="B21" s="56">
         <v>44090</v>
       </c>
-      <c r="C21" s="142">
+      <c r="C21" s="141">
         <v>10</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="E21" s="122">
-        <v>0</v>
-      </c>
-      <c r="F21" s="122">
+      <c r="E21" s="121">
+        <v>0</v>
+      </c>
+      <c r="F21" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="142">
+      <c r="G21" s="141">
         <v>5</v>
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
-      <c r="I21" s="124">
-        <v>0</v>
-      </c>
-      <c r="J21" s="124">
+      <c r="I21" s="123">
+        <v>0</v>
+      </c>
+      <c r="J21" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K21" s="142">
+      <c r="K21" s="141">
         <v>1</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M21" s="124">
-        <v>0</v>
-      </c>
-      <c r="N21" s="124">
+      <c r="M21" s="123">
+        <v>0</v>
+      </c>
+      <c r="N21" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="143">
+      <c r="O21" s="142">
         <v>0</v>
       </c>
       <c r="P21" s="41">
@@ -3737,14 +3746,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="97">
+      <c r="Y21" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="97">
+      <c r="AA21" s="96">
         <v>0</v>
       </c>
       <c r="AB21" s="18">
@@ -3770,49 +3779,49 @@
       <c r="B22" s="56">
         <v>44091</v>
       </c>
-      <c r="C22" s="142">
+      <c r="C22" s="141">
         <v>7</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E22" s="122">
-        <v>0</v>
-      </c>
-      <c r="F22" s="122">
+      <c r="E22" s="121">
+        <v>0</v>
+      </c>
+      <c r="F22" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="142">
+      <c r="G22" s="141">
         <v>3</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="I22" s="124">
-        <v>0</v>
-      </c>
-      <c r="J22" s="124">
+      <c r="I22" s="123">
+        <v>0</v>
+      </c>
+      <c r="J22" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K22" s="142">
+      <c r="K22" s="141">
         <v>0</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M22" s="124">
-        <v>0</v>
-      </c>
-      <c r="N22" s="124">
+      <c r="M22" s="123">
+        <v>0</v>
+      </c>
+      <c r="N22" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O22" s="143">
+      <c r="O22" s="142">
         <v>0</v>
       </c>
       <c r="P22" s="41">
@@ -3847,14 +3856,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="114">
+      <c r="Y22" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="113">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="97">
+      <c r="AA22" s="96">
         <v>0</v>
       </c>
       <c r="AB22" s="18">
@@ -3880,49 +3889,49 @@
       <c r="B23" s="56">
         <v>44092</v>
       </c>
-      <c r="C23" s="142">
+      <c r="C23" s="141">
         <v>8</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="E23" s="122">
-        <v>0</v>
-      </c>
-      <c r="F23" s="122">
+      <c r="E23" s="121">
+        <v>0</v>
+      </c>
+      <c r="F23" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="142">
+      <c r="G23" s="141">
         <v>2</v>
       </c>
       <c r="H23" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I23" s="124">
-        <v>0</v>
-      </c>
-      <c r="J23" s="124">
+      <c r="I23" s="123">
+        <v>0</v>
+      </c>
+      <c r="J23" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="142">
+      <c r="K23" s="141">
         <v>0</v>
       </c>
       <c r="L23" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M23" s="124">
-        <v>0</v>
-      </c>
-      <c r="N23" s="124">
+      <c r="M23" s="123">
+        <v>0</v>
+      </c>
+      <c r="N23" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="143">
+      <c r="O23" s="142">
         <v>0</v>
       </c>
       <c r="P23" s="41">
@@ -3957,14 +3966,14 @@
         <f t="shared" si="10"/>
         <v>50000</v>
       </c>
-      <c r="Y23" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="114">
+      <c r="Y23" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="113">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="97">
+      <c r="AA23" s="96">
         <v>0</v>
       </c>
       <c r="AB23" s="18">
@@ -3990,49 +3999,49 @@
       <c r="B24" s="56">
         <v>44093</v>
       </c>
-      <c r="C24" s="142">
+      <c r="C24" s="141">
         <v>2</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="E24" s="122">
-        <v>0</v>
-      </c>
-      <c r="F24" s="122">
+      <c r="E24" s="121">
+        <v>0</v>
+      </c>
+      <c r="F24" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="142">
+      <c r="G24" s="141">
         <v>14</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="2"/>
         <v>4200000</v>
       </c>
-      <c r="I24" s="124">
-        <v>0</v>
-      </c>
-      <c r="J24" s="124">
+      <c r="I24" s="123">
+        <v>0</v>
+      </c>
+      <c r="J24" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K24" s="142">
+      <c r="K24" s="141">
         <v>1</v>
       </c>
       <c r="L24" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M24" s="124">
-        <v>0</v>
-      </c>
-      <c r="N24" s="124">
+      <c r="M24" s="123">
+        <v>0</v>
+      </c>
+      <c r="N24" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O24" s="143">
+      <c r="O24" s="142">
         <v>0</v>
       </c>
       <c r="P24" s="41">
@@ -4067,14 +4076,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="97">
+      <c r="Y24" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="97">
+      <c r="AA24" s="96">
         <v>0</v>
       </c>
       <c r="AB24" s="18">
@@ -4100,49 +4109,49 @@
       <c r="B25" s="56">
         <v>44094</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="141">
         <v>7</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E25" s="122">
-        <v>0</v>
-      </c>
-      <c r="F25" s="122">
+      <c r="E25" s="121">
+        <v>0</v>
+      </c>
+      <c r="F25" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="142">
+      <c r="G25" s="141">
         <v>13</v>
       </c>
       <c r="H25" s="40">
         <f t="shared" si="2"/>
         <v>3900000</v>
       </c>
-      <c r="I25" s="124">
-        <v>0</v>
-      </c>
-      <c r="J25" s="124">
+      <c r="I25" s="123">
+        <v>0</v>
+      </c>
+      <c r="J25" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="142">
+      <c r="K25" s="141">
         <v>1</v>
       </c>
       <c r="L25" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M25" s="124">
-        <v>0</v>
-      </c>
-      <c r="N25" s="124">
+      <c r="M25" s="123">
+        <v>0</v>
+      </c>
+      <c r="N25" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O25" s="143">
+      <c r="O25" s="142">
         <v>0</v>
       </c>
       <c r="P25" s="41">
@@ -4177,14 +4186,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="97">
+      <c r="Y25" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="97">
+      <c r="AA25" s="96">
         <v>0</v>
       </c>
       <c r="AB25" s="18">
@@ -4210,49 +4219,49 @@
       <c r="B26" s="56">
         <v>44095</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="141">
         <v>9</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="E26" s="122">
-        <v>0</v>
-      </c>
-      <c r="F26" s="122">
+      <c r="E26" s="121">
+        <v>0</v>
+      </c>
+      <c r="F26" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="142">
+      <c r="G26" s="141">
         <v>7</v>
       </c>
       <c r="H26" s="40">
         <f t="shared" si="2"/>
         <v>2100000</v>
       </c>
-      <c r="I26" s="124">
-        <v>0</v>
-      </c>
-      <c r="J26" s="124">
+      <c r="I26" s="123">
+        <v>0</v>
+      </c>
+      <c r="J26" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="142">
+      <c r="K26" s="141">
         <v>1</v>
       </c>
       <c r="L26" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M26" s="124">
-        <v>0</v>
-      </c>
-      <c r="N26" s="124">
+      <c r="M26" s="123">
+        <v>0</v>
+      </c>
+      <c r="N26" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="143">
+      <c r="O26" s="142">
         <v>0</v>
       </c>
       <c r="P26" s="41">
@@ -4287,14 +4296,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="97">
+      <c r="Y26" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="97">
+      <c r="AA26" s="96">
         <v>0</v>
       </c>
       <c r="AB26" s="18">
@@ -4320,49 +4329,49 @@
       <c r="B27" s="56">
         <v>44096</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="141">
         <v>4</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="E27" s="122">
-        <v>0</v>
-      </c>
-      <c r="F27" s="122">
+      <c r="E27" s="121">
+        <v>0</v>
+      </c>
+      <c r="F27" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="142">
+      <c r="G27" s="141">
         <v>1</v>
       </c>
       <c r="H27" s="40">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="I27" s="124">
-        <v>0</v>
-      </c>
-      <c r="J27" s="124">
+      <c r="I27" s="123">
+        <v>0</v>
+      </c>
+      <c r="J27" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="142">
+      <c r="K27" s="141">
         <v>1</v>
       </c>
       <c r="L27" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M27" s="124">
-        <v>0</v>
-      </c>
-      <c r="N27" s="124">
+      <c r="M27" s="123">
+        <v>0</v>
+      </c>
+      <c r="N27" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="143">
+      <c r="O27" s="142">
         <v>0</v>
       </c>
       <c r="P27" s="41">
@@ -4397,14 +4406,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="97">
+      <c r="Y27" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="97">
+      <c r="AA27" s="96">
         <v>0</v>
       </c>
       <c r="AB27" s="18">
@@ -4419,7 +4428,7 @@
         <f t="shared" si="14"/>
         <v>1400000</v>
       </c>
-      <c r="AE27" s="109"/>
+      <c r="AE27" s="108"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
@@ -4430,49 +4439,49 @@
       <c r="B28" s="56">
         <v>44097</v>
       </c>
-      <c r="C28" s="142">
+      <c r="C28" s="141">
         <v>5</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E28" s="122">
-        <v>0</v>
-      </c>
-      <c r="F28" s="122">
+      <c r="E28" s="121">
+        <v>0</v>
+      </c>
+      <c r="F28" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="142">
+      <c r="G28" s="141">
         <v>4</v>
       </c>
       <c r="H28" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I28" s="124">
-        <v>0</v>
-      </c>
-      <c r="J28" s="124">
+      <c r="I28" s="123">
+        <v>0</v>
+      </c>
+      <c r="J28" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K28" s="142">
+      <c r="K28" s="141">
         <v>0</v>
       </c>
       <c r="L28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="124">
-        <v>0</v>
-      </c>
-      <c r="N28" s="124">
+      <c r="M28" s="123">
+        <v>0</v>
+      </c>
+      <c r="N28" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O28" s="143">
+      <c r="O28" s="142">
         <v>0</v>
       </c>
       <c r="P28" s="41">
@@ -4507,14 +4516,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="97">
+      <c r="Y28" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="97">
+      <c r="AA28" s="96">
         <v>0</v>
       </c>
       <c r="AB28" s="18">
@@ -4540,49 +4549,49 @@
       <c r="B29" s="56">
         <v>44098</v>
       </c>
-      <c r="C29" s="142">
+      <c r="C29" s="141">
         <v>6</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="E29" s="122">
-        <v>0</v>
-      </c>
-      <c r="F29" s="122">
+      <c r="E29" s="121">
+        <v>0</v>
+      </c>
+      <c r="F29" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="142">
+      <c r="G29" s="141">
         <v>2</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="I29" s="124">
-        <v>0</v>
-      </c>
-      <c r="J29" s="124">
+      <c r="I29" s="123">
+        <v>0</v>
+      </c>
+      <c r="J29" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="142">
+      <c r="K29" s="141">
         <v>1</v>
       </c>
       <c r="L29" s="40">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="M29" s="124">
-        <v>0</v>
-      </c>
-      <c r="N29" s="124">
+      <c r="M29" s="123">
+        <v>0</v>
+      </c>
+      <c r="N29" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O29" s="143">
+      <c r="O29" s="142">
         <v>0</v>
       </c>
       <c r="P29" s="41">
@@ -4617,14 +4626,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="97">
+      <c r="Y29" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="97">
+      <c r="AA29" s="96">
         <v>0</v>
       </c>
       <c r="AB29" s="18">
@@ -4650,49 +4659,49 @@
       <c r="B30" s="56">
         <v>44099</v>
       </c>
-      <c r="C30" s="142">
+      <c r="C30" s="141">
         <v>7</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="E30" s="122">
-        <v>0</v>
-      </c>
-      <c r="F30" s="122">
+      <c r="E30" s="121">
+        <v>0</v>
+      </c>
+      <c r="F30" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="142">
+      <c r="G30" s="141">
         <v>4</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="I30" s="124">
-        <v>0</v>
-      </c>
-      <c r="J30" s="124">
+      <c r="I30" s="123">
+        <v>0</v>
+      </c>
+      <c r="J30" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="142">
+      <c r="K30" s="141">
         <v>0</v>
       </c>
       <c r="L30" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="124">
-        <v>0</v>
-      </c>
-      <c r="N30" s="124">
+      <c r="M30" s="123">
+        <v>0</v>
+      </c>
+      <c r="N30" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O30" s="143">
+      <c r="O30" s="142">
         <v>0</v>
       </c>
       <c r="P30" s="41">
@@ -4727,14 +4736,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="97">
+      <c r="Y30" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="97">
+      <c r="AA30" s="96">
         <v>0</v>
       </c>
       <c r="AB30" s="18">
@@ -4760,49 +4769,49 @@
       <c r="B31" s="56">
         <v>44100</v>
       </c>
-      <c r="C31" s="142">
-        <v>0</v>
+      <c r="C31" s="141">
+        <v>3</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="122">
-        <v>0</v>
-      </c>
-      <c r="F31" s="122">
+        <v>600000</v>
+      </c>
+      <c r="E31" s="121">
+        <v>0</v>
+      </c>
+      <c r="F31" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="142">
-        <v>0</v>
+      <c r="G31" s="141">
+        <v>12</v>
       </c>
       <c r="H31" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="124">
-        <v>0</v>
-      </c>
-      <c r="J31" s="124">
+        <v>3600000</v>
+      </c>
+      <c r="I31" s="123">
+        <v>0</v>
+      </c>
+      <c r="J31" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="142">
+      <c r="K31" s="141">
         <v>0</v>
       </c>
       <c r="L31" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="124">
-        <v>0</v>
-      </c>
-      <c r="N31" s="124">
+      <c r="M31" s="123">
+        <v>0</v>
+      </c>
+      <c r="N31" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O31" s="143">
+      <c r="O31" s="142">
         <v>0</v>
       </c>
       <c r="P31" s="41">
@@ -4810,11 +4819,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R31" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="S31" s="14">
         <v>0</v>
@@ -4837,14 +4846,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="97">
+      <c r="Y31" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="97">
+      <c r="AA31" s="96">
         <v>0</v>
       </c>
       <c r="AB31" s="18">
@@ -4853,11 +4862,11 @@
       </c>
       <c r="AC31" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="AD31" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6300000</v>
       </c>
       <c r="AE31" s="80"/>
       <c r="AF31" s="11"/>
@@ -4870,61 +4879,61 @@
       <c r="B32" s="56">
         <v>44101</v>
       </c>
-      <c r="C32" s="142">
-        <v>0</v>
+      <c r="C32" s="141">
+        <v>7</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="122">
-        <v>0</v>
-      </c>
-      <c r="F32" s="122">
+        <v>1400000</v>
+      </c>
+      <c r="E32" s="121">
+        <v>0</v>
+      </c>
+      <c r="F32" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="142">
-        <v>0</v>
+      <c r="G32" s="141">
+        <v>4</v>
       </c>
       <c r="H32" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="124">
-        <v>0</v>
-      </c>
-      <c r="J32" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="142">
-        <v>0</v>
+        <v>1200000</v>
+      </c>
+      <c r="I32" s="123">
+        <v>0</v>
+      </c>
+      <c r="J32" s="123">
+        <f>PRODUCT(I32,150000)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="141">
+        <v>2</v>
       </c>
       <c r="L32" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="124">
-        <v>0</v>
-      </c>
-      <c r="N32" s="124">
+        <v>600000</v>
+      </c>
+      <c r="M32" s="123">
+        <v>0</v>
+      </c>
+      <c r="N32" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O32" s="143">
-        <v>0</v>
+      <c r="O32" s="142">
+        <v>1</v>
       </c>
       <c r="P32" s="41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S32" s="14">
         <v>0</v>
@@ -4947,14 +4956,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="97">
+      <c r="Y32" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="97">
+      <c r="AA32" s="96">
         <v>0</v>
       </c>
       <c r="AB32" s="18">
@@ -4963,11 +4972,11 @@
       </c>
       <c r="AC32" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="AD32" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3530000</v>
       </c>
       <c r="AE32" s="80"/>
       <c r="AF32" s="11"/>
@@ -4980,49 +4989,49 @@
       <c r="B33" s="56">
         <v>44102</v>
       </c>
-      <c r="C33" s="142">
-        <v>0</v>
+      <c r="C33" s="141">
+        <v>8</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="122">
-        <v>0</v>
-      </c>
-      <c r="F33" s="122">
+        <v>1600000</v>
+      </c>
+      <c r="E33" s="121">
+        <v>1</v>
+      </c>
+      <c r="F33" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="142">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G33" s="141">
+        <v>3</v>
       </c>
       <c r="H33" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="124">
-        <v>0</v>
-      </c>
-      <c r="J33" s="124">
+        <v>900000</v>
+      </c>
+      <c r="I33" s="123">
+        <v>0</v>
+      </c>
+      <c r="J33" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="142">
+      <c r="K33" s="141">
         <v>0</v>
       </c>
       <c r="L33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="124">
-        <v>0</v>
-      </c>
-      <c r="N33" s="124">
+      <c r="M33" s="123">
+        <v>0</v>
+      </c>
+      <c r="N33" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O33" s="143">
+      <c r="O33" s="142">
         <v>0</v>
       </c>
       <c r="P33" s="41">
@@ -5057,14 +5066,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="97">
+      <c r="Y33" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="97">
+      <c r="AA33" s="96">
         <v>0</v>
       </c>
       <c r="AB33" s="18">
@@ -5077,7 +5086,7 @@
       </c>
       <c r="AD33" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2600000</v>
       </c>
       <c r="AE33" s="80"/>
       <c r="AF33" s="11"/>
@@ -5090,49 +5099,49 @@
       <c r="B34" s="56">
         <v>44103</v>
       </c>
-      <c r="C34" s="142">
-        <v>0</v>
+      <c r="C34" s="141">
+        <v>10</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="122">
-        <v>0</v>
-      </c>
-      <c r="F34" s="122">
+        <v>2000000</v>
+      </c>
+      <c r="E34" s="121">
+        <v>0</v>
+      </c>
+      <c r="F34" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="142">
-        <v>0</v>
+      <c r="G34" s="141">
+        <v>3</v>
       </c>
       <c r="H34" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="124">
-        <v>0</v>
-      </c>
-      <c r="J34" s="124">
+        <v>900000</v>
+      </c>
+      <c r="I34" s="123">
+        <v>0</v>
+      </c>
+      <c r="J34" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="142">
+      <c r="K34" s="141">
         <v>0</v>
       </c>
       <c r="L34" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="124">
-        <v>0</v>
-      </c>
-      <c r="N34" s="124">
+      <c r="M34" s="123">
+        <v>0</v>
+      </c>
+      <c r="N34" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="113">
+      <c r="O34" s="112">
         <v>0</v>
       </c>
       <c r="P34" s="41">
@@ -5167,14 +5176,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="97">
+      <c r="Y34" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="97">
+      <c r="AA34" s="96">
         <v>0</v>
       </c>
       <c r="AB34" s="18">
@@ -5187,7 +5196,7 @@
       </c>
       <c r="AD34" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2900000</v>
       </c>
       <c r="AE34" s="82"/>
       <c r="AF34" s="11"/>
@@ -5200,49 +5209,49 @@
       <c r="B35" s="56">
         <v>44104</v>
       </c>
-      <c r="C35" s="142">
-        <v>0</v>
+      <c r="C35" s="141">
+        <v>5</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="122">
-        <v>0</v>
-      </c>
-      <c r="F35" s="122">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="121">
+        <v>0</v>
+      </c>
+      <c r="F35" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="142">
-        <v>0</v>
+      <c r="G35" s="141">
+        <v>6</v>
       </c>
       <c r="H35" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="124">
-        <v>0</v>
-      </c>
-      <c r="J35" s="124">
+        <v>1800000</v>
+      </c>
+      <c r="I35" s="123">
+        <v>0</v>
+      </c>
+      <c r="J35" s="123">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="112">
-        <v>0</v>
+      <c r="K35" s="111">
+        <v>1</v>
       </c>
       <c r="L35" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="124">
-        <v>0</v>
-      </c>
-      <c r="N35" s="124">
+        <v>300000</v>
+      </c>
+      <c r="M35" s="123">
+        <v>0</v>
+      </c>
+      <c r="N35" s="123">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="113">
+      <c r="O35" s="112">
         <v>0</v>
       </c>
       <c r="P35" s="41">
@@ -5250,25 +5259,25 @@
         <v>0</v>
       </c>
       <c r="Q35" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="S35" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="U35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="W35" s="13">
         <v>0</v>
@@ -5277,14 +5286,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="144">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="97">
+      <c r="Y35" s="143">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="97">
+      <c r="AA35" s="96">
         <v>0</v>
       </c>
       <c r="AB35" s="18">
@@ -5293,11 +5302,11 @@
       </c>
       <c r="AC35" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3330000</v>
       </c>
       <c r="AD35" s="17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6430000</v>
       </c>
       <c r="AE35" s="82"/>
       <c r="AF35" s="11"/>
@@ -5312,83 +5321,83 @@
       </c>
       <c r="C36" s="7">
         <f>SUM(C6:C35)</f>
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="D36" s="39">
         <f t="shared" ref="D36:AD36" si="15">SUM(D7:D35)</f>
-        <v>26800000</v>
-      </c>
-      <c r="E36" s="123">
+        <v>33400000</v>
+      </c>
+      <c r="E36" s="122">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="123">
+        <v>1</v>
+      </c>
+      <c r="F36" s="122">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G36" s="39">
         <f t="shared" si="15"/>
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="15"/>
-        <v>35400000</v>
-      </c>
-      <c r="I36" s="123">
+        <v>43800000</v>
+      </c>
+      <c r="I36" s="122">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J36" s="123">
+      <c r="J36" s="122">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K36" s="39">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L36" s="39">
         <f t="shared" si="15"/>
-        <v>6000000</v>
-      </c>
-      <c r="M36" s="123">
+        <v>6900000</v>
+      </c>
+      <c r="M36" s="122">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N36" s="123">
+      <c r="N36" s="122">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O36" s="39">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36" s="39">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="Q36" s="39">
         <f t="shared" si="15"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="R36" s="39">
         <f t="shared" si="15"/>
-        <v>17700000</v>
+        <v>21000000</v>
       </c>
       <c r="S36" s="39">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T36" s="39">
         <f t="shared" si="15"/>
-        <v>6000000</v>
+        <v>8400000</v>
       </c>
       <c r="U36" s="39">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V36" s="39">
         <f t="shared" si="15"/>
-        <v>480000</v>
+        <v>510000</v>
       </c>
       <c r="W36" s="39">
         <f t="shared" si="15"/>
@@ -5416,11 +5425,11 @@
       </c>
       <c r="AC36" s="39">
         <f t="shared" si="15"/>
-        <v>24340000</v>
+        <v>30100000</v>
       </c>
       <c r="AD36" s="39">
         <f t="shared" si="15"/>
-        <v>92540000</v>
+        <v>114300000</v>
       </c>
       <c r="AE36" s="63"/>
     </row>
@@ -5429,73 +5438,73 @@
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="166">
-        <v>0</v>
-      </c>
-      <c r="D37" s="166"/>
+      <c r="C37" s="164">
+        <v>0</v>
+      </c>
+      <c r="D37" s="164"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="158"/>
-      <c r="S37" s="158"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="158"/>
-      <c r="W37" s="158"/>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="158"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="158"/>
-      <c r="AE37" s="158"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="154"/>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="154"/>
+      <c r="AE37" s="154"/>
     </row>
     <row r="38" spans="1:35" s="11" customFormat="1">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="159">
-        <v>0</v>
-      </c>
-      <c r="D38" s="159"/>
+      <c r="C38" s="155">
+        <v>0</v>
+      </c>
+      <c r="D38" s="155"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="158"/>
-      <c r="S38" s="158"/>
-      <c r="T38" s="158"/>
-      <c r="U38" s="158"/>
-      <c r="V38" s="158"/>
-      <c r="W38" s="158"/>
-      <c r="X38" s="158"/>
-      <c r="Y38" s="158"/>
-      <c r="Z38" s="158"/>
-      <c r="AA38" s="158"/>
-      <c r="AB38" s="158"/>
-      <c r="AC38" s="158"/>
-      <c r="AD38" s="158"/>
-      <c r="AE38" s="158"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="154"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="154"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
@@ -5514,6 +5523,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE38"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5530,13 +5546,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5555,7 +5564,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5566,14 +5575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
@@ -5602,17 +5611,17 @@
       <c r="B4" s="21">
         <v>44075</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="103">
         <v>1942426</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="103">
         <v>2655000</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="100">
         <f>SUM(D4,-C4)</f>
         <v>712574</v>
       </c>
-      <c r="F4" s="103"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="34">
@@ -5621,17 +5630,17 @@
       <c r="B5" s="21">
         <v>44076</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="103">
         <v>0</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="100">
         <f t="shared" ref="E5:E33" si="0">SUM(D5,-C5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="103"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="34">
@@ -5640,17 +5649,17 @@
       <c r="B6" s="21">
         <v>44077</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="103">
         <v>2258133</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="103">
         <v>3775000</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="100">
         <f t="shared" si="0"/>
         <v>1516867</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="34">
@@ -5659,17 +5668,17 @@
       <c r="B7" s="21">
         <v>44078</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="103">
         <v>847298</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="103">
         <v>1240000</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="100">
         <f t="shared" si="0"/>
         <v>392702</v>
       </c>
-      <c r="F7" s="103"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="34">
@@ -5678,13 +5687,13 @@
       <c r="B8" s="21">
         <v>44079</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="103">
         <v>1472562</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="103">
         <v>2445000</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="100">
         <f t="shared" si="0"/>
         <v>972438</v>
       </c>
@@ -5697,13 +5706,13 @@
       <c r="B9" s="21">
         <v>44080</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="103">
         <v>6024098</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="103">
         <v>9315000</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="100">
         <f t="shared" si="0"/>
         <v>3290902</v>
       </c>
@@ -5716,13 +5725,13 @@
       <c r="B10" s="21">
         <v>44081</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="103">
         <v>1791953</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="103">
         <v>2505000</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="100">
         <f t="shared" si="0"/>
         <v>713047</v>
       </c>
@@ -5735,13 +5744,13 @@
       <c r="B11" s="21">
         <v>44082</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="103">
         <v>1054557</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="103">
         <v>2396000</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="100">
         <f t="shared" si="0"/>
         <v>1341443</v>
       </c>
@@ -5754,13 +5763,13 @@
       <c r="B12" s="21">
         <v>44083</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="103">
         <v>1314364</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="103">
         <v>2403000</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="100">
         <f t="shared" si="0"/>
         <v>1088636</v>
       </c>
@@ -5773,13 +5782,13 @@
       <c r="B13" s="21">
         <v>44084</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="103">
         <v>1891167</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="103">
         <v>2662000</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="100">
         <f t="shared" si="0"/>
         <v>770833</v>
       </c>
@@ -5792,13 +5801,13 @@
       <c r="B14" s="21">
         <v>44085</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="103">
         <v>750672</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="103">
         <v>1020000</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="100">
         <f t="shared" si="0"/>
         <v>269328</v>
       </c>
@@ -5811,13 +5820,13 @@
       <c r="B15" s="21">
         <v>44086</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="103">
         <v>0</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5830,13 +5839,13 @@
       <c r="B16" s="21">
         <v>44087</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="103">
         <v>2179537</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="103">
         <v>3585000</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="100">
         <f t="shared" si="0"/>
         <v>1405463</v>
       </c>
@@ -5849,13 +5858,13 @@
       <c r="B17" s="21">
         <v>44088</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="103">
         <v>3742600</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="103">
         <v>5543000</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="100">
         <f t="shared" si="0"/>
         <v>1800400</v>
       </c>
@@ -5868,13 +5877,13 @@
       <c r="B18" s="21">
         <v>44089</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="103">
         <v>999365</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <v>1453000</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="100">
         <f t="shared" si="0"/>
         <v>453635</v>
       </c>
@@ -5887,13 +5896,13 @@
       <c r="B19" s="21">
         <v>44090</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="103">
         <v>2558173</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="103">
         <v>3945000</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="100">
         <f t="shared" si="0"/>
         <v>1386827</v>
       </c>
@@ -5906,13 +5915,13 @@
       <c r="B20" s="21">
         <v>44091</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="103">
         <v>1807256</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="103">
         <v>2765000</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="100">
         <f t="shared" si="0"/>
         <v>957744</v>
       </c>
@@ -5925,13 +5934,13 @@
       <c r="B21" s="21">
         <v>44092</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="103">
         <v>2365952</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="103">
         <v>3845000</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="100">
         <f t="shared" si="0"/>
         <v>1479048</v>
       </c>
@@ -5944,13 +5953,13 @@
       <c r="B22" s="21">
         <v>44093</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="103">
         <v>5411293</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="103">
         <v>8395000</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="100">
         <f t="shared" si="0"/>
         <v>2983707</v>
       </c>
@@ -5963,13 +5972,13 @@
       <c r="B23" s="21">
         <v>44094</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="103">
         <v>3945202</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="103">
         <v>6100000</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="100">
         <f t="shared" si="0"/>
         <v>2154798</v>
       </c>
@@ -5982,13 +5991,13 @@
       <c r="B24" s="21">
         <v>44095</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="103">
         <v>5807639</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="103">
         <v>8770000</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="100">
         <f t="shared" si="0"/>
         <v>2962361</v>
       </c>
@@ -6001,13 +6010,13 @@
       <c r="B25" s="21">
         <v>44096</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="103">
         <v>5466702</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="103">
         <v>5670000</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="100">
         <f t="shared" si="0"/>
         <v>203298</v>
       </c>
@@ -6020,17 +6029,17 @@
       <c r="B26" s="21">
         <v>44097</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="103">
         <v>3291683</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="103">
         <v>4797000</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="100">
         <f t="shared" si="0"/>
         <v>1505317</v>
       </c>
-      <c r="F26" s="102"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34">
@@ -6039,17 +6048,17 @@
       <c r="B27" s="21">
         <v>44098</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="103">
         <v>3334021</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="103">
         <v>5430000</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="100">
         <f t="shared" si="0"/>
         <v>2095979</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="101"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="34">
@@ -6058,17 +6067,17 @@
       <c r="B28" s="21">
         <v>44099</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="103">
         <v>2587430</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="103">
         <v>3870000</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="100">
         <f t="shared" si="0"/>
         <v>1282570</v>
       </c>
-      <c r="F28" s="102"/>
+      <c r="F28" s="101"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="34">
@@ -6077,15 +6086,15 @@
       <c r="B29" s="21">
         <v>44100</v>
       </c>
-      <c r="C29" s="104">
-        <v>0</v>
-      </c>
-      <c r="D29" s="104">
-        <v>0</v>
-      </c>
-      <c r="E29" s="101">
+      <c r="C29" s="103">
+        <v>5155000</v>
+      </c>
+      <c r="D29" s="103">
+        <v>3134628</v>
+      </c>
+      <c r="E29" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2020372</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -6096,15 +6105,15 @@
       <c r="B30" s="21">
         <v>44101</v>
       </c>
-      <c r="C30" s="104">
-        <v>0</v>
-      </c>
-      <c r="D30" s="104">
-        <v>0</v>
-      </c>
-      <c r="E30" s="101">
+      <c r="C30" s="103">
+        <v>5860000</v>
+      </c>
+      <c r="D30" s="103">
+        <v>3980852</v>
+      </c>
+      <c r="E30" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1879148</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -6115,15 +6124,15 @@
       <c r="B31" s="21">
         <v>44102</v>
       </c>
-      <c r="C31" s="104">
-        <v>0</v>
-      </c>
-      <c r="D31" s="104">
-        <v>0</v>
-      </c>
-      <c r="E31" s="101">
+      <c r="C31" s="103">
+        <v>3260000</v>
+      </c>
+      <c r="D31" s="103">
+        <v>2071049</v>
+      </c>
+      <c r="E31" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1188951</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -6134,15 +6143,15 @@
       <c r="B32" s="21">
         <v>44103</v>
       </c>
-      <c r="C32" s="104">
-        <v>0</v>
-      </c>
-      <c r="D32" s="104">
-        <v>0</v>
-      </c>
-      <c r="E32" s="101">
+      <c r="C32" s="103">
+        <v>2938000</v>
+      </c>
+      <c r="D32" s="103">
+        <v>2254848</v>
+      </c>
+      <c r="E32" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-683152</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -6153,15 +6162,15 @@
       <c r="B33" s="21">
         <v>44104</v>
       </c>
-      <c r="C33" s="104">
-        <v>0</v>
-      </c>
-      <c r="D33" s="104">
-        <v>0</v>
-      </c>
-      <c r="E33" s="101">
+      <c r="C33" s="103">
+        <v>3486040</v>
+      </c>
+      <c r="D33" s="103">
+        <v>5040000</v>
+      </c>
+      <c r="E33" s="100">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1553960</v>
       </c>
       <c r="F33" s="34"/>
     </row>
@@ -6174,15 +6183,15 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>62844083</v>
+        <v>83543123</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>94584000</v>
+        <v>111065377</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>31739917</v>
+        <v>27522254</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -6201,18 +6210,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G84"/>
+  <dimension ref="A2:G86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="152" customWidth="1"/>
-    <col min="4" max="4" width="18" style="107" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="151" customWidth="1"/>
+    <col min="4" max="4" width="18" style="106" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="67" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="73" customWidth="1"/>
     <col min="7" max="7" width="30" style="69" customWidth="1"/>
@@ -6222,19 +6231,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
-      <c r="C3" s="151"/>
+      <c r="C3" s="150"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="62" t="s">
@@ -6243,1078 +6252,1106 @@
       <c r="B4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="109" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="65" customFormat="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="116">
+      <c r="A5" s="116"/>
+      <c r="B5" s="115">
         <v>44075</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="117"/>
-    </row>
-    <row r="6" spans="1:7" s="96" customFormat="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="116">
+      <c r="C5" s="147"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="116"/>
+    </row>
+    <row r="6" spans="1:7" s="95" customFormat="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="115">
         <v>44076</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="117"/>
-    </row>
-    <row r="7" spans="1:7" s="96" customFormat="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="170">
+      <c r="C6" s="147"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
+    </row>
+    <row r="7" spans="1:7" s="95" customFormat="1">
+      <c r="A7" s="116"/>
+      <c r="B7" s="174">
         <v>44077</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="104">
         <v>4050000</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="117"/>
-    </row>
-    <row r="8" spans="1:7" s="145" customFormat="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="117" t="s">
+      <c r="F7" s="104"/>
+      <c r="G7" s="116"/>
+    </row>
+    <row r="8" spans="1:7" s="144" customFormat="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="104">
         <v>4860000</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="117"/>
-    </row>
-    <row r="9" spans="1:7" s="145" customFormat="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="117" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="116"/>
+    </row>
+    <row r="9" spans="1:7" s="144" customFormat="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="104">
         <v>4246000</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="117"/>
-    </row>
-    <row r="10" spans="1:7" s="115" customFormat="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="170">
+      <c r="F9" s="104"/>
+      <c r="G9" s="116"/>
+    </row>
+    <row r="10" spans="1:7" s="114" customFormat="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="174">
         <v>44078</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="147">
         <v>1</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="104">
         <v>192000</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="117"/>
-    </row>
-    <row r="11" spans="1:7" s="145" customFormat="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="148">
+      <c r="F10" s="104"/>
+      <c r="G10" s="116"/>
+    </row>
+    <row r="11" spans="1:7" s="144" customFormat="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="147">
         <v>2</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <v>1280000</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="117"/>
-    </row>
-    <row r="12" spans="1:7" s="145" customFormat="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="148">
+      <c r="F11" s="104"/>
+      <c r="G11" s="116"/>
+    </row>
+    <row r="12" spans="1:7" s="144" customFormat="1">
+      <c r="A12" s="116"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="147">
         <v>3</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="104">
         <v>130000</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="117"/>
-    </row>
-    <row r="13" spans="1:7" s="145" customFormat="1">
-      <c r="A13" s="117"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="148">
+      <c r="F12" s="104"/>
+      <c r="G12" s="116"/>
+    </row>
+    <row r="13" spans="1:7" s="144" customFormat="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="147">
         <v>4</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="104">
         <v>700000</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="117"/>
-    </row>
-    <row r="14" spans="1:7" s="145" customFormat="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="148">
+      <c r="F13" s="104"/>
+      <c r="G13" s="116"/>
+    </row>
+    <row r="14" spans="1:7" s="144" customFormat="1">
+      <c r="A14" s="116"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="147">
         <v>5</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="104">
         <v>350000</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="117"/>
-    </row>
-    <row r="15" spans="1:7" s="145" customFormat="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="148">
+      <c r="F14" s="104"/>
+      <c r="G14" s="116"/>
+    </row>
+    <row r="15" spans="1:7" s="144" customFormat="1">
+      <c r="A15" s="116"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="147">
         <v>6</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="104">
         <v>1800000</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="117"/>
-    </row>
-    <row r="16" spans="1:7" s="145" customFormat="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="148">
+      <c r="F15" s="104"/>
+      <c r="G15" s="116"/>
+    </row>
+    <row r="16" spans="1:7" s="144" customFormat="1">
+      <c r="A16" s="116"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="147">
         <v>7</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="104">
         <v>460000</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="117"/>
-    </row>
-    <row r="17" spans="1:7" s="145" customFormat="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="148">
+      <c r="F16" s="104"/>
+      <c r="G16" s="116"/>
+    </row>
+    <row r="17" spans="1:7" s="144" customFormat="1">
+      <c r="A17" s="116"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="147">
         <v>8</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="104">
         <v>1780000</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="117"/>
-    </row>
-    <row r="18" spans="1:7" s="145" customFormat="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="148">
+      <c r="F17" s="104"/>
+      <c r="G17" s="116"/>
+    </row>
+    <row r="18" spans="1:7" s="144" customFormat="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="147">
         <v>9</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="104">
         <v>430000</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="117"/>
-    </row>
-    <row r="19" spans="1:7" s="145" customFormat="1">
-      <c r="A19" s="117"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="117" t="s">
+      <c r="F18" s="104"/>
+      <c r="G18" s="116"/>
+    </row>
+    <row r="19" spans="1:7" s="144" customFormat="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="104">
         <v>2300000</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="117"/>
-    </row>
-    <row r="20" spans="1:7" s="145" customFormat="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="117" t="s">
+      <c r="F19" s="104"/>
+      <c r="G19" s="116"/>
+    </row>
+    <row r="20" spans="1:7" s="144" customFormat="1">
+      <c r="A20" s="116"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="104">
         <v>6000000</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="117" t="s">
+      <c r="F20" s="104"/>
+      <c r="G20" s="116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="145" customFormat="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="117" t="s">
+    <row r="21" spans="1:7" s="144" customFormat="1">
+      <c r="A21" s="116"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="104">
         <v>6000000</v>
       </c>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" spans="1:7" s="145" customFormat="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="117" t="s">
+      <c r="F21" s="104"/>
+    </row>
+    <row r="22" spans="1:7" s="144" customFormat="1">
+      <c r="A22" s="116"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="104">
         <v>1500000</v>
       </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="117" t="s">
+      <c r="F22" s="104"/>
+      <c r="G22" s="116" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="145" customFormat="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="117" t="s">
+    <row r="23" spans="1:7" s="144" customFormat="1">
+      <c r="A23" s="116"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="104">
         <v>1500000</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="117" t="s">
+      <c r="F23" s="104"/>
+      <c r="G23" s="116" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="145" customFormat="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="117" t="s">
+    <row r="24" spans="1:7" s="144" customFormat="1">
+      <c r="A24" s="116"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="104">
         <v>1500000</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="117" t="s">
+      <c r="F24" s="104"/>
+      <c r="G24" s="116" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="115" customFormat="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="116">
+    <row r="25" spans="1:7" s="114" customFormat="1">
+      <c r="A25" s="116"/>
+      <c r="B25" s="115">
         <v>44079</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="117"/>
-    </row>
-    <row r="26" spans="1:7" s="115" customFormat="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="116">
+      <c r="C25" s="147"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="116"/>
+    </row>
+    <row r="26" spans="1:7" s="114" customFormat="1">
+      <c r="A26" s="116"/>
+      <c r="B26" s="115">
         <v>44080</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="117"/>
-    </row>
-    <row r="27" spans="1:7" s="115" customFormat="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="116">
+      <c r="C26" s="147"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="116"/>
+    </row>
+    <row r="27" spans="1:7" s="114" customFormat="1">
+      <c r="A27" s="116"/>
+      <c r="B27" s="115">
         <v>44081</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="147"/>
+      <c r="D27" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="116"/>
+    </row>
+    <row r="28" spans="1:7" s="95" customFormat="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="174">
+        <v>44082</v>
+      </c>
+      <c r="C28" s="147">
+        <v>1</v>
+      </c>
+      <c r="D28" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="117"/>
-    </row>
-    <row r="28" spans="1:7" s="96" customFormat="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="170">
-        <v>44082</v>
-      </c>
-      <c r="C28" s="148">
-        <v>1</v>
-      </c>
-      <c r="D28" s="117" t="s">
+      <c r="E28" s="104">
+        <v>1080000</v>
+      </c>
+      <c r="G28" s="116"/>
+    </row>
+    <row r="29" spans="1:7" s="144" customFormat="1">
+      <c r="A29" s="116"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="147">
+        <v>2</v>
+      </c>
+      <c r="D29" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="105">
-        <v>1080000</v>
-      </c>
-      <c r="G28" s="117"/>
-    </row>
-    <row r="29" spans="1:7" s="145" customFormat="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="148">
-        <v>2</v>
-      </c>
-      <c r="D29" s="117" t="s">
+      <c r="E29" s="171">
+        <v>1512000</v>
+      </c>
+      <c r="F29" s="104"/>
+      <c r="G29" s="116"/>
+    </row>
+    <row r="30" spans="1:7" s="144" customFormat="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="147">
+        <v>3</v>
+      </c>
+      <c r="D30" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="173">
-        <v>1512000</v>
-      </c>
-      <c r="F29" s="105"/>
-      <c r="G29" s="117"/>
-    </row>
-    <row r="30" spans="1:7" s="145" customFormat="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="148">
-        <v>3</v>
-      </c>
-      <c r="D30" s="117" t="s">
+      <c r="E30" s="172"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="116"/>
+    </row>
+    <row r="31" spans="1:7" s="144" customFormat="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="147">
+        <v>4</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="104">
+        <v>1920000</v>
+      </c>
+      <c r="F31" s="104"/>
+      <c r="G31" s="116"/>
+    </row>
+    <row r="32" spans="1:7" s="144" customFormat="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="147">
+        <v>5</v>
+      </c>
+      <c r="D32" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="174"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="117"/>
-    </row>
-    <row r="31" spans="1:7" s="145" customFormat="1">
-      <c r="A31" s="117"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="148">
-        <v>4</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="105">
-        <v>1920000</v>
-      </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="117"/>
-    </row>
-    <row r="32" spans="1:7" s="145" customFormat="1">
-      <c r="A32" s="117"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="148">
-        <v>5</v>
-      </c>
-      <c r="D32" s="117" t="s">
+      <c r="E32" s="104">
+        <v>1600000</v>
+      </c>
+      <c r="F32" s="104"/>
+      <c r="G32" s="116"/>
+    </row>
+    <row r="33" spans="1:7" s="144" customFormat="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="147">
+        <v>6</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="104">
+        <v>1150000</v>
+      </c>
+      <c r="F33" s="104"/>
+      <c r="G33" s="116"/>
+    </row>
+    <row r="34" spans="1:7" s="152" customFormat="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="104">
+        <v>630000</v>
+      </c>
+      <c r="F34" s="104"/>
+      <c r="G34" s="116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="144" customFormat="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="147">
+        <v>7</v>
+      </c>
+      <c r="D35" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E35" s="104">
+        <v>430000</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="116"/>
+    </row>
+    <row r="36" spans="1:7" s="95" customFormat="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="115">
+        <v>44083</v>
+      </c>
+      <c r="C36" s="147"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="116"/>
+    </row>
+    <row r="37" spans="1:7" s="95" customFormat="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="115">
+        <v>44084</v>
+      </c>
+      <c r="C37" s="147"/>
+      <c r="D37" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104">
+        <v>1500000</v>
+      </c>
+      <c r="G37" s="116"/>
+    </row>
+    <row r="38" spans="1:7" s="118" customFormat="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="115">
+        <v>44085</v>
+      </c>
+      <c r="C38" s="147"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="116"/>
+    </row>
+    <row r="39" spans="1:7" s="65" customFormat="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="174">
+        <v>44086</v>
+      </c>
+      <c r="C39" s="147"/>
+      <c r="D39" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="104">
+        <v>620000</v>
+      </c>
+      <c r="F39" s="104"/>
+      <c r="G39" s="116"/>
+    </row>
+    <row r="40" spans="1:7" s="148" customFormat="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="104">
+        <v>2700000</v>
+      </c>
+      <c r="F40" s="104"/>
+      <c r="G40" s="116"/>
+    </row>
+    <row r="41" spans="1:7" s="148" customFormat="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="104">
+        <v>2630000</v>
+      </c>
+      <c r="F41" s="104"/>
+      <c r="G41" s="116"/>
+    </row>
+    <row r="42" spans="1:7" s="148" customFormat="1">
+      <c r="A42" s="116"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="104">
+        <v>980000</v>
+      </c>
+      <c r="F42" s="104"/>
+      <c r="G42" s="116"/>
+    </row>
+    <row r="43" spans="1:7" s="148" customFormat="1">
+      <c r="A43" s="116"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="104">
+        <v>760000</v>
+      </c>
+      <c r="F43" s="104"/>
+      <c r="G43" s="116"/>
+    </row>
+    <row r="44" spans="1:7" s="148" customFormat="1">
+      <c r="A44" s="116"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="104">
+        <v>645000</v>
+      </c>
+      <c r="F44" s="104"/>
+      <c r="G44" s="116"/>
+    </row>
+    <row r="45" spans="1:7" s="148" customFormat="1">
+      <c r="A45" s="116"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="104">
+        <v>300000</v>
+      </c>
+      <c r="F45" s="104"/>
+      <c r="G45" s="116"/>
+    </row>
+    <row r="46" spans="1:7" s="148" customFormat="1">
+      <c r="A46" s="116"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="104">
+        <v>700000</v>
+      </c>
+      <c r="F46" s="104"/>
+      <c r="G46" s="116"/>
+    </row>
+    <row r="47" spans="1:7" s="148" customFormat="1">
+      <c r="A47" s="116"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="104">
+        <v>1050000</v>
+      </c>
+      <c r="F47" s="104"/>
+      <c r="G47" s="116"/>
+    </row>
+    <row r="48" spans="1:7" s="87" customFormat="1">
+      <c r="A48" s="116"/>
+      <c r="B48" s="115">
+        <v>44087</v>
+      </c>
+      <c r="C48" s="147"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" s="68" customFormat="1">
+      <c r="A49" s="116"/>
+      <c r="B49" s="115">
+        <v>44088</v>
+      </c>
+      <c r="C49" s="147"/>
+      <c r="D49" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="104">
+        <v>1620000</v>
+      </c>
+      <c r="F49" s="104"/>
+      <c r="G49" s="116"/>
+    </row>
+    <row r="50" spans="1:7" s="95" customFormat="1">
+      <c r="A50" s="116"/>
+      <c r="B50" s="115">
+        <v>44089</v>
+      </c>
+      <c r="C50" s="147"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="116"/>
+    </row>
+    <row r="51" spans="1:7" s="95" customFormat="1">
+      <c r="A51" s="116"/>
+      <c r="B51" s="115">
+        <v>44090</v>
+      </c>
+      <c r="C51" s="147"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="116"/>
+    </row>
+    <row r="52" spans="1:7" s="98" customFormat="1">
+      <c r="A52" s="116"/>
+      <c r="B52" s="115">
+        <v>44091</v>
+      </c>
+      <c r="C52" s="147"/>
+      <c r="D52" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="104">
+        <v>2668000</v>
+      </c>
+      <c r="F52" s="104"/>
+      <c r="G52" s="116"/>
+    </row>
+    <row r="53" spans="1:7" s="95" customFormat="1">
+      <c r="A53" s="116"/>
+      <c r="B53" s="115">
+        <v>44092</v>
+      </c>
+      <c r="C53" s="147"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="116"/>
+    </row>
+    <row r="54" spans="1:7" s="85" customFormat="1">
+      <c r="A54" s="116"/>
+      <c r="B54" s="174">
+        <v>44093</v>
+      </c>
+      <c r="C54" s="147"/>
+      <c r="D54" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="104">
+        <v>2240000</v>
+      </c>
+      <c r="F54" s="104"/>
+      <c r="G54" s="116"/>
+    </row>
+    <row r="55" spans="1:7" s="148" customFormat="1">
+      <c r="A55" s="116"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="104">
+        <v>4950000</v>
+      </c>
+      <c r="F55" s="104"/>
+      <c r="G55" s="116"/>
+    </row>
+    <row r="56" spans="1:7" s="98" customFormat="1">
+      <c r="A56" s="116"/>
+      <c r="B56" s="115">
+        <v>44094</v>
+      </c>
+      <c r="C56" s="147"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="116"/>
+    </row>
+    <row r="57" spans="1:7" s="98" customFormat="1">
+      <c r="A57" s="116"/>
+      <c r="B57" s="115">
+        <v>44095</v>
+      </c>
+      <c r="C57" s="147"/>
+      <c r="D57" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="104">
+        <v>2800000</v>
+      </c>
+      <c r="G57" s="116"/>
+    </row>
+    <row r="58" spans="1:7" s="98" customFormat="1">
+      <c r="A58" s="116"/>
+      <c r="B58" s="174">
+        <v>44096</v>
+      </c>
+      <c r="C58" s="147"/>
+      <c r="D58" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="104">
+        <v>1670000</v>
+      </c>
+      <c r="F58" s="104"/>
+      <c r="G58" s="116"/>
+    </row>
+    <row r="59" spans="1:7" s="148" customFormat="1">
+      <c r="A59" s="116"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="104">
+        <v>370000</v>
+      </c>
+      <c r="F59" s="104"/>
+      <c r="G59" s="116"/>
+    </row>
+    <row r="60" spans="1:7" s="148" customFormat="1">
+      <c r="A60" s="116"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="104">
+        <v>770000</v>
+      </c>
+      <c r="F60" s="104"/>
+      <c r="G60" s="116"/>
+    </row>
+    <row r="61" spans="1:7" s="148" customFormat="1">
+      <c r="A61" s="116"/>
+      <c r="B61" s="175"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="104">
+        <v>500000</v>
+      </c>
+      <c r="F61" s="104"/>
+      <c r="G61" s="116"/>
+    </row>
+    <row r="62" spans="1:7" s="148" customFormat="1">
+      <c r="A62" s="116"/>
+      <c r="B62" s="175"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="104">
+        <v>204000</v>
+      </c>
+      <c r="F62" s="104"/>
+      <c r="G62" s="116"/>
+    </row>
+    <row r="63" spans="1:7" s="148" customFormat="1">
+      <c r="A63" s="116"/>
+      <c r="B63" s="175"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="104">
+        <v>27000000</v>
+      </c>
+      <c r="F63" s="104"/>
+      <c r="G63" s="116"/>
+    </row>
+    <row r="64" spans="1:7" s="148" customFormat="1">
+      <c r="A64" s="116"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="116"/>
+    </row>
+    <row r="65" spans="1:7" s="118" customFormat="1">
+      <c r="A65" s="116"/>
+      <c r="B65" s="174">
+        <v>44097</v>
+      </c>
+      <c r="C65" s="147"/>
+      <c r="D65" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="104">
+        <v>540000</v>
+      </c>
+      <c r="F65" s="104"/>
+      <c r="G65" s="116"/>
+    </row>
+    <row r="66" spans="1:7" s="148" customFormat="1">
+      <c r="A66" s="116"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="104">
+        <v>903000</v>
+      </c>
+      <c r="F66" s="104"/>
+      <c r="G66" s="116"/>
+    </row>
+    <row r="67" spans="1:7" s="98" customFormat="1">
+      <c r="A67" s="116"/>
+      <c r="B67" s="174">
+        <v>44098</v>
+      </c>
+      <c r="C67" s="147"/>
+      <c r="D67" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="104">
+        <v>2300000</v>
+      </c>
+      <c r="F67" s="104"/>
+      <c r="G67" s="116"/>
+    </row>
+    <row r="68" spans="1:7" s="148" customFormat="1">
+      <c r="A68" s="116"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="104">
+        <v>700000</v>
+      </c>
+      <c r="F68" s="104"/>
+      <c r="G68" s="116"/>
+    </row>
+    <row r="69" spans="1:7" s="98" customFormat="1">
+      <c r="A69" s="116"/>
+      <c r="B69" s="174">
+        <v>44099</v>
+      </c>
+      <c r="C69" s="147"/>
+      <c r="D69" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="104">
+        <v>2630000</v>
+      </c>
+      <c r="F69" s="104"/>
+      <c r="G69" s="116"/>
+    </row>
+    <row r="70" spans="1:7" s="148" customFormat="1">
+      <c r="A70" s="116"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="104">
         <v>1600000</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="117"/>
-    </row>
-    <row r="33" spans="1:7" s="145" customFormat="1">
-      <c r="A33" s="117"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="148">
-        <v>6</v>
-      </c>
-      <c r="D33" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="105">
-        <v>1150000</v>
-      </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="117"/>
-    </row>
-    <row r="34" spans="1:7" s="145" customFormat="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="148">
-        <v>7</v>
-      </c>
-      <c r="D34" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="105">
-        <v>430000</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="117"/>
-    </row>
-    <row r="35" spans="1:7" s="96" customFormat="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="116">
-        <v>44083</v>
-      </c>
-      <c r="C35" s="148"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="117"/>
-    </row>
-    <row r="36" spans="1:7" s="96" customFormat="1">
-      <c r="A36" s="117"/>
-      <c r="B36" s="116">
-        <v>44084</v>
-      </c>
-      <c r="C36" s="148"/>
-      <c r="D36" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105">
-        <v>1500000</v>
-      </c>
-      <c r="G36" s="117"/>
-    </row>
-    <row r="37" spans="1:7" s="119" customFormat="1">
-      <c r="A37" s="117"/>
-      <c r="B37" s="116">
-        <v>44085</v>
-      </c>
-      <c r="C37" s="148"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="117"/>
-    </row>
-    <row r="38" spans="1:7" s="65" customFormat="1">
-      <c r="A38" s="117"/>
-      <c r="B38" s="170">
-        <v>44086</v>
-      </c>
-      <c r="C38" s="148"/>
-      <c r="D38" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="105">
-        <v>620000</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="117"/>
-    </row>
-    <row r="39" spans="1:7" s="149" customFormat="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="105">
-        <v>2700000</v>
-      </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="117"/>
-    </row>
-    <row r="40" spans="1:7" s="149" customFormat="1">
-      <c r="A40" s="117"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="105">
-        <v>2630000</v>
-      </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="117"/>
-    </row>
-    <row r="41" spans="1:7" s="149" customFormat="1">
-      <c r="A41" s="117"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="105">
-        <v>980000</v>
-      </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="117"/>
-    </row>
-    <row r="42" spans="1:7" s="149" customFormat="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="105">
-        <v>760000</v>
-      </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="117"/>
-    </row>
-    <row r="43" spans="1:7" s="149" customFormat="1">
-      <c r="A43" s="117"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="105">
-        <v>645000</v>
-      </c>
-      <c r="F43" s="105"/>
-      <c r="G43" s="117"/>
-    </row>
-    <row r="44" spans="1:7" s="149" customFormat="1">
-      <c r="A44" s="117"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="105">
-        <v>300000</v>
-      </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="117"/>
-    </row>
-    <row r="45" spans="1:7" s="149" customFormat="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="105">
-        <v>700000</v>
-      </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="117"/>
-    </row>
-    <row r="46" spans="1:7" s="149" customFormat="1">
-      <c r="A46" s="117"/>
-      <c r="B46" s="172"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="105">
-        <v>1050000</v>
-      </c>
-      <c r="F46" s="105"/>
-      <c r="G46" s="117"/>
-    </row>
-    <row r="47" spans="1:7" s="87" customFormat="1">
-      <c r="A47" s="117"/>
-      <c r="B47" s="116">
-        <v>44087</v>
-      </c>
-      <c r="C47" s="148"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="117"/>
-    </row>
-    <row r="48" spans="1:7" s="68" customFormat="1">
-      <c r="A48" s="117"/>
-      <c r="B48" s="116">
-        <v>44088</v>
-      </c>
-      <c r="C48" s="148"/>
-      <c r="D48" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="105">
-        <v>1620000</v>
-      </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="117"/>
-    </row>
-    <row r="49" spans="1:7" s="96" customFormat="1">
-      <c r="A49" s="117"/>
-      <c r="B49" s="116">
-        <v>44089</v>
-      </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="117"/>
-    </row>
-    <row r="50" spans="1:7" s="96" customFormat="1">
-      <c r="A50" s="117"/>
-      <c r="B50" s="116">
-        <v>44090</v>
-      </c>
-      <c r="C50" s="148"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="117"/>
-    </row>
-    <row r="51" spans="1:7" s="99" customFormat="1">
-      <c r="A51" s="117"/>
-      <c r="B51" s="116">
-        <v>44091</v>
-      </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="105">
-        <v>2668000</v>
-      </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="117"/>
-    </row>
-    <row r="52" spans="1:7" s="96" customFormat="1">
-      <c r="A52" s="117"/>
-      <c r="B52" s="116">
-        <v>44092</v>
-      </c>
-      <c r="C52" s="148"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="117"/>
-    </row>
-    <row r="53" spans="1:7" s="85" customFormat="1">
-      <c r="A53" s="117"/>
-      <c r="B53" s="170">
-        <v>44093</v>
-      </c>
-      <c r="C53" s="148"/>
-      <c r="D53" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="105">
-        <v>2240000</v>
-      </c>
-      <c r="F53" s="105"/>
-      <c r="G53" s="117"/>
-    </row>
-    <row r="54" spans="1:7" s="149" customFormat="1">
-      <c r="A54" s="117"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="105">
-        <v>4950000</v>
-      </c>
-      <c r="F54" s="105"/>
-      <c r="G54" s="117"/>
-    </row>
-    <row r="55" spans="1:7" s="99" customFormat="1">
-      <c r="A55" s="117"/>
-      <c r="B55" s="116">
-        <v>44094</v>
-      </c>
-      <c r="C55" s="148"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="117"/>
-    </row>
-    <row r="56" spans="1:7" s="99" customFormat="1">
-      <c r="A56" s="117"/>
-      <c r="B56" s="116">
-        <v>44095</v>
-      </c>
-      <c r="C56" s="148"/>
-      <c r="D56" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="105">
-        <v>2800000</v>
-      </c>
-      <c r="G56" s="117"/>
-    </row>
-    <row r="57" spans="1:7" s="99" customFormat="1">
-      <c r="A57" s="117"/>
-      <c r="B57" s="170">
-        <v>44096</v>
-      </c>
-      <c r="C57" s="148"/>
-      <c r="D57" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="105">
-        <v>1670000</v>
-      </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="117"/>
-    </row>
-    <row r="58" spans="1:7" s="149" customFormat="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="171"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="105">
-        <v>370000</v>
-      </c>
-      <c r="F58" s="105"/>
-      <c r="G58" s="117"/>
-    </row>
-    <row r="59" spans="1:7" s="149" customFormat="1">
-      <c r="A59" s="117"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="105">
-        <v>770000</v>
-      </c>
-      <c r="F59" s="105"/>
-      <c r="G59" s="117"/>
-    </row>
-    <row r="60" spans="1:7" s="149" customFormat="1">
-      <c r="A60" s="117"/>
-      <c r="B60" s="171"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="105">
-        <v>500000</v>
-      </c>
-      <c r="F60" s="105"/>
-      <c r="G60" s="117"/>
-    </row>
-    <row r="61" spans="1:7" s="149" customFormat="1">
-      <c r="A61" s="117"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="105">
-        <v>204000</v>
-      </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="117"/>
-    </row>
-    <row r="62" spans="1:7" s="149" customFormat="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="171"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="105">
-        <v>27000000</v>
-      </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="117"/>
-    </row>
-    <row r="63" spans="1:7" s="149" customFormat="1">
-      <c r="A63" s="117"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="117"/>
-    </row>
-    <row r="64" spans="1:7" s="119" customFormat="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="170">
-        <v>44097</v>
-      </c>
-      <c r="C64" s="148"/>
-      <c r="D64" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="105">
-        <v>540000</v>
-      </c>
-      <c r="F64" s="105"/>
-      <c r="G64" s="117"/>
-    </row>
-    <row r="65" spans="1:7" s="149" customFormat="1">
-      <c r="A65" s="117"/>
-      <c r="B65" s="172"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="105">
-        <v>903000</v>
-      </c>
-      <c r="F65" s="105"/>
-      <c r="G65" s="117"/>
-    </row>
-    <row r="66" spans="1:7" s="99" customFormat="1">
-      <c r="A66" s="117"/>
-      <c r="B66" s="170">
-        <v>44098</v>
-      </c>
-      <c r="C66" s="148"/>
-      <c r="D66" s="117" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="105">
-        <v>2300000</v>
-      </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="117"/>
-    </row>
-    <row r="67" spans="1:7" s="149" customFormat="1">
-      <c r="A67" s="117"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="105">
-        <v>700000</v>
-      </c>
-      <c r="F67" s="105"/>
-      <c r="G67" s="117"/>
-    </row>
-    <row r="68" spans="1:7" s="99" customFormat="1">
-      <c r="A68" s="117"/>
-      <c r="B68" s="170">
-        <v>44099</v>
-      </c>
-      <c r="C68" s="148"/>
-      <c r="D68" s="117" t="s">
+      <c r="F70" s="104"/>
+      <c r="G70" s="116"/>
+    </row>
+    <row r="71" spans="1:7" s="152" customFormat="1">
+      <c r="A71" s="116"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104">
+        <v>4455000</v>
+      </c>
+      <c r="G71" s="116"/>
+    </row>
+    <row r="72" spans="1:7" s="148" customFormat="1">
+      <c r="A72" s="116"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="105">
-        <v>2630000</v>
-      </c>
-      <c r="F68" s="105"/>
-      <c r="G68" s="117"/>
-    </row>
-    <row r="69" spans="1:7" s="149" customFormat="1">
-      <c r="A69" s="117"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="105">
-        <v>1600000</v>
-      </c>
-      <c r="F69" s="105"/>
-      <c r="G69" s="117"/>
-    </row>
-    <row r="70" spans="1:7" s="149" customFormat="1">
-      <c r="A70" s="117"/>
-      <c r="B70" s="172"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="105">
+      <c r="E72" s="104">
         <v>2100000</v>
       </c>
-      <c r="F70" s="105"/>
-      <c r="G70" s="117"/>
-    </row>
-    <row r="71" spans="1:7" s="99" customFormat="1">
-      <c r="A71" s="117"/>
-      <c r="B71" s="116">
+      <c r="F72" s="104"/>
+      <c r="G72" s="116"/>
+    </row>
+    <row r="73" spans="1:7" s="98" customFormat="1">
+      <c r="A73" s="116"/>
+      <c r="B73" s="115">
         <v>44100</v>
       </c>
-      <c r="C71" s="148"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="117"/>
-    </row>
-    <row r="72" spans="1:7" s="72" customFormat="1">
-      <c r="A72" s="117"/>
-      <c r="B72" s="116">
+      <c r="C73" s="147"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="116"/>
+    </row>
+    <row r="74" spans="1:7" s="72" customFormat="1">
+      <c r="A74" s="116"/>
+      <c r="B74" s="115">
         <v>44101</v>
       </c>
-      <c r="C72" s="148"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="117"/>
-    </row>
-    <row r="73" spans="1:7" s="99" customFormat="1">
-      <c r="A73" s="117"/>
-      <c r="B73" s="116">
+      <c r="C74" s="147"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="116"/>
+    </row>
+    <row r="75" spans="1:7" s="98" customFormat="1">
+      <c r="A75" s="116"/>
+      <c r="B75" s="115">
         <v>44102</v>
       </c>
-      <c r="C73" s="148"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="117"/>
-    </row>
-    <row r="74" spans="1:7" s="99" customFormat="1">
-      <c r="A74" s="117"/>
-      <c r="B74" s="116">
+      <c r="C75" s="147"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="116"/>
+    </row>
+    <row r="76" spans="1:7" s="98" customFormat="1">
+      <c r="A76" s="116"/>
+      <c r="B76" s="115">
         <v>44103</v>
       </c>
-      <c r="C74" s="148"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="117"/>
-    </row>
-    <row r="75" spans="1:7" s="99" customFormat="1">
-      <c r="A75" s="117"/>
-      <c r="B75" s="116">
+      <c r="C76" s="147"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="116"/>
+    </row>
+    <row r="77" spans="1:7" s="98" customFormat="1">
+      <c r="A77" s="116"/>
+      <c r="B77" s="115">
         <v>44104</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="117"/>
-    </row>
-    <row r="76" spans="1:7" s="72" customFormat="1">
-      <c r="A76" s="117"/>
-      <c r="B76" s="116">
+      <c r="C77" s="147"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="116"/>
+    </row>
+    <row r="78" spans="1:7" s="72" customFormat="1">
+      <c r="A78" s="116"/>
+      <c r="B78" s="115">
         <v>44105</v>
       </c>
-      <c r="C76" s="148"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="117"/>
-    </row>
-    <row r="77" spans="1:7" s="99" customFormat="1">
-      <c r="A77" s="117"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="117"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="117"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="117"/>
-    </row>
-    <row r="79" spans="1:7" s="99" customFormat="1">
-      <c r="A79" s="117"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="117"/>
-    </row>
-    <row r="80" spans="1:7" s="99" customFormat="1">
-      <c r="A80" s="117"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="117"/>
-    </row>
-    <row r="81" spans="1:7" s="99" customFormat="1">
-      <c r="A81" s="117"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="117"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="117"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="117"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="34">
+      <c r="C78" s="147"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="116"/>
+    </row>
+    <row r="79" spans="1:7" s="98" customFormat="1">
+      <c r="A79" s="116"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="116"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="116"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="116"/>
+    </row>
+    <row r="81" spans="1:7" s="98" customFormat="1">
+      <c r="A81" s="116"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="116"/>
+    </row>
+    <row r="82" spans="1:7" s="98" customFormat="1">
+      <c r="A82" s="116"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="116"/>
+    </row>
+    <row r="83" spans="1:7" s="98" customFormat="1">
+      <c r="A83" s="116"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="116"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="116"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="116"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="34">
         <v>35</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="106"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="84">
-        <f>SUM(E5:E82)</f>
-        <v>108840000</v>
-      </c>
-      <c r="F83" s="84">
-        <f>SUM(F5:F82)</f>
-        <v>5380000</v>
-      </c>
-      <c r="G83" s="70"/>
-    </row>
-    <row r="84" spans="1:7" s="81" customFormat="1">
-      <c r="A84" s="75"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="152"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="69"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="84">
+        <f>SUM(E5:E84)</f>
+        <v>113350000</v>
+      </c>
+      <c r="F85" s="84">
+        <f>SUM(F5:F84)</f>
+        <v>5955000</v>
+      </c>
+      <c r="G85" s="70"/>
+    </row>
+    <row r="86" spans="1:7" s="81" customFormat="1">
+      <c r="A86" s="75"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="151"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="B10:B24"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7326,7 +7363,7 @@
   <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7340,14 +7377,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
@@ -7577,7 +7614,7 @@
         <v>44091</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="42">
@@ -7657,7 +7694,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="111" customFormat="1">
+    <row r="28" spans="1:6" s="110" customFormat="1">
       <c r="A28" s="34"/>
       <c r="B28" s="93">
         <v>44098</v>
@@ -7667,7 +7704,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="111" customFormat="1">
+    <row r="29" spans="1:6" s="110" customFormat="1">
       <c r="A29" s="34"/>
       <c r="B29" s="93">
         <v>44099</v>
@@ -7677,7 +7714,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="111" customFormat="1">
+    <row r="30" spans="1:6" s="110" customFormat="1">
       <c r="A30" s="34"/>
       <c r="B30" s="93">
         <v>44100</v>
@@ -7687,7 +7724,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="111" customFormat="1">
+    <row r="31" spans="1:6" s="110" customFormat="1">
       <c r="A31" s="34"/>
       <c r="B31" s="93">
         <v>44101</v>
@@ -7697,7 +7734,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="111" customFormat="1">
+    <row r="32" spans="1:6" s="110" customFormat="1">
       <c r="A32" s="34"/>
       <c r="B32" s="93">
         <v>44102</v>
@@ -7707,7 +7744,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="111" customFormat="1">
+    <row r="33" spans="1:6" s="110" customFormat="1">
       <c r="A33" s="34"/>
       <c r="B33" s="93">
         <v>44103</v>
@@ -7717,7 +7754,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="111" customFormat="1">
+    <row r="34" spans="1:6" s="110" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="93">
         <v>44104</v>
@@ -7757,10 +7794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V30"/>
+  <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7774,18 +7811,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -7794,11 +7831,11 @@
       <c r="D3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="141" customFormat="1">
+    <row r="4" spans="1:6" s="140" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="92" t="s">
         <v>74</v>
@@ -7813,12 +7850,12 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="141" customFormat="1">
+    <row r="5" spans="1:6" s="140" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="92">
         <v>43897</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="34"/>
@@ -7826,12 +7863,12 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="141" customFormat="1">
+    <row r="6" spans="1:6" s="140" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="34"/>
@@ -7839,54 +7876,48 @@
         <v>774000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="68" customFormat="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="23"/>
-      <c r="B7" s="92">
-        <v>43838</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>136</v>
+      <c r="B7" s="181" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>134</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="77">
-        <v>630000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23"/>
-      <c r="B8" s="180" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>134</v>
+      <c r="B8" s="182"/>
+      <c r="C8" s="97" t="s">
+        <v>133</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="77">
-        <v>550000</v>
+        <v>1375000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="23"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="77">
-        <v>1375000</v>
-      </c>
+      <c r="B9" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="47">
+        <f>SUM(E4:E8)</f>
+        <v>20429000</v>
+      </c>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="179" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="47">
-        <f>SUM(E4:E9)</f>
-        <v>21059000</v>
-      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
       <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6">
@@ -7894,7 +7925,6 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12"/>
@@ -7921,43 +7951,44 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="61"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
       <c r="K19" s="61"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20"/>
@@ -7971,6 +8002,7 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
+      <c r="F21" s="8"/>
       <c r="K21" s="61"/>
     </row>
     <row r="22" spans="2:22">
@@ -7978,7 +8010,6 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="8"/>
       <c r="K22" s="61"/>
     </row>
     <row r="23" spans="2:22">
@@ -7986,13 +8017,17 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25"/>
@@ -8006,10 +8041,6 @@
       <c r="S25" s="61"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
@@ -8037,18 +8068,11 @@
       <c r="R29" s="61"/>
       <c r="S29" s="61"/>
     </row>
-    <row r="30" spans="2:22">
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8065,7 +8089,7 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8081,22 +8105,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
     </row>
     <row r="6" spans="2:8">
       <c r="C6"/>
@@ -8122,14 +8146,14 @@
       </c>
       <c r="D8" s="42">
         <f>'khám bệnh'!D36+'khám bệnh'!F36+'khám bệnh'!H36</f>
-        <v>62200000</v>
+        <v>77300000</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="46">
         <f>SUM(D8,D9)</f>
-        <v>86540000</v>
+        <v>107400000</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -8141,7 +8165,7 @@
       </c>
       <c r="D9" s="42">
         <f>'khám bệnh'!AC36</f>
-        <v>24340000</v>
+        <v>30100000</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="23" t="s">
@@ -8149,7 +8173,7 @@
       </c>
       <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E35)</f>
-        <v>-14616000</v>
+        <v>-2644623</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -8161,14 +8185,14 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>94584000</v>
+        <v>111065377</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="46">
-        <f>nợ!E7+nhập!F83</f>
-        <v>6010000</v>
+        <f>nợ!E9+nhập!F85</f>
+        <v>26384000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -8180,7 +8204,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>181124000</v>
+        <v>218465377</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="46"/>
@@ -8190,12 +8214,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
     </row>
     <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
     <row r="16" spans="2:8">
@@ -8216,7 +8240,7 @@
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="188" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -8230,7 +8254,7 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="187"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -8242,7 +8266,7 @@
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="187"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="34" t="s">
         <v>73</v>
       </c>
@@ -8254,7 +8278,7 @@
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -8274,8 +8298,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="48">
-        <f>nhập!E83</f>
-        <v>108840000</v>
+        <f>nhập!E85</f>
+        <v>113350000</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="18.75" customHeight="1">
@@ -8297,31 +8321,31 @@
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="188" t="s">
+      <c r="C23" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="189"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>109200000</v>
+        <v>113710000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
     </row>
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="184">
+      <c r="B27" s="185">
         <f>SUM(D11,-E23)</f>
-        <v>71924000</v>
-      </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
+        <v>104755377</v>
+      </c>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15">
@@ -8369,10 +8393,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8385,19 +8409,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="183"/>
+      <c r="B2" s="184"/>
       <c r="D2" t="s">
         <v>58</v>
       </c>
@@ -8412,14 +8436,14 @@
       </c>
       <c r="B4" s="46">
         <f>E4</f>
-        <v>94584000</v>
+        <v>111065377</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="46">
         <f>thuốc!D34</f>
-        <v>94584000</v>
+        <v>111065377</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8427,15 +8451,15 @@
         <v>56</v>
       </c>
       <c r="B5" s="46">
-        <f>chi!E35+nhập!E83</f>
-        <v>109200000</v>
+        <f>chi!E35+nhập!E85</f>
+        <v>113710000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="46">
         <f>thuốc!C34</f>
-        <v>62844083</v>
+        <v>83543123</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8444,40 +8468,41 @@
       </c>
       <c r="B6" s="46">
         <f>B4-B5</f>
-        <v>-14616000</v>
+        <v>-2644623</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="46">
         <f>E4-E5</f>
-        <v>31739917</v>
+        <v>27522254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="192"/>
+      <c r="C9" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="191"/>
+      <c r="D9" s="192"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="46">
-        <v>22423000</v>
+        <f>B6</f>
+        <v>-2644623</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>67</v>
@@ -8490,14 +8515,15 @@
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="95">
-        <v>94952702</v>
+      <c r="B11" s="206">
+        <v>111314441</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="46">
-        <v>30687006</v>
+        <f>E6</f>
+        <v>27522254</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8506,7 +8532,9 @@
       <c r="C12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="206">
+        <v>94952702</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
@@ -8514,27 +8542,42 @@
       </c>
       <c r="B13" s="46">
         <f>B10+B11</f>
-        <v>117375702</v>
+        <v>108669818</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="46">
-        <f>D12+D11</f>
-        <v>30687006</v>
+        <f>SUM(D11:D12)</f>
+        <v>122474956</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="8"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="D20" s="8"/>
+      <c r="D20" s="205"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8559,418 +8602,418 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.140625" style="127" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="126" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="34" width="3.85546875" customWidth="1"/>
     <col min="35" max="35" width="7.140625" customWidth="1"/>
-    <col min="36" max="37" width="7.140625" style="119" customWidth="1"/>
+    <col min="36" max="37" width="7.140625" style="118" customWidth="1"/>
     <col min="38" max="38" width="7.140625" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" style="119" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" style="118" customWidth="1"/>
     <col min="40" max="40" width="7.140625" customWidth="1"/>
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="119" customFormat="1">
-      <c r="B1" s="127"/>
+    <row r="1" spans="2:43" s="118" customFormat="1">
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="2:43">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="128">
+      <c r="C2" s="127">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="119" customFormat="1">
-      <c r="B3" s="127"/>
+    <row r="3" spans="2:43" s="118" customFormat="1">
+      <c r="B3" s="126"/>
     </row>
     <row r="4" spans="2:43" ht="46.5">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="199"/>
-      <c r="W4" s="199"/>
-      <c r="X4" s="199"/>
-    </row>
-    <row r="5" spans="2:43" s="119" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="138"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+    </row>
+    <row r="5" spans="2:43" s="118" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="138"/>
+      <c r="C5" s="137"/>
     </row>
     <row r="6" spans="2:43" ht="18.75">
-      <c r="B6" s="129"/>
-      <c r="C6" s="140">
+      <c r="B6" s="128"/>
+      <c r="C6" s="139">
         <f>DATE($C$2,9,1)</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="119" customFormat="1">
-      <c r="B7" s="129"/>
-      <c r="C7" s="130"/>
-    </row>
-    <row r="8" spans="2:43" s="119" customFormat="1">
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+    <row r="7" spans="2:43" s="118" customFormat="1">
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+    </row>
+    <row r="8" spans="2:43" s="118" customFormat="1">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
     </row>
     <row r="10" spans="2:43">
-      <c r="B10" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="200" t="s">
+      <c r="B10" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="201"/>
-      <c r="Z10" s="201"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="201"/>
-      <c r="AH10" s="201"/>
-      <c r="AI10" s="201" t="s">
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="202"/>
+      <c r="U10" s="202"/>
+      <c r="V10" s="202"/>
+      <c r="W10" s="202"/>
+      <c r="X10" s="202"/>
+      <c r="Y10" s="202"/>
+      <c r="Z10" s="202"/>
+      <c r="AA10" s="202"/>
+      <c r="AB10" s="202"/>
+      <c r="AC10" s="202"/>
+      <c r="AD10" s="202"/>
+      <c r="AE10" s="202"/>
+      <c r="AF10" s="202"/>
+      <c r="AG10" s="202"/>
+      <c r="AH10" s="202"/>
+      <c r="AI10" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="AJ10" s="201"/>
-      <c r="AK10" s="201"/>
-      <c r="AL10" s="201"/>
-      <c r="AM10" s="201"/>
-      <c r="AN10" s="201"/>
-      <c r="AO10" s="126" t="s">
+      <c r="AJ10" s="202"/>
+      <c r="AK10" s="202"/>
+      <c r="AL10" s="202"/>
+      <c r="AM10" s="202"/>
+      <c r="AN10" s="202"/>
+      <c r="AO10" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="125"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
     </row>
     <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="131">
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="130">
         <f>C6</f>
         <v>44075</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="130">
         <f>D11+1</f>
         <v>44076</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="130">
         <f t="shared" ref="F11:AE11" si="0">E11+1</f>
         <v>44077</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="130">
         <f t="shared" si="0"/>
         <v>44078</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="130">
         <f t="shared" si="0"/>
         <v>44079</v>
       </c>
-      <c r="I11" s="131">
+      <c r="I11" s="130">
         <f t="shared" si="0"/>
         <v>44080</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="130">
         <f t="shared" si="0"/>
         <v>44081</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="130">
         <f t="shared" si="0"/>
         <v>44082</v>
       </c>
-      <c r="L11" s="131">
+      <c r="L11" s="130">
         <f t="shared" si="0"/>
         <v>44083</v>
       </c>
-      <c r="M11" s="131">
+      <c r="M11" s="130">
         <f t="shared" si="0"/>
         <v>44084</v>
       </c>
-      <c r="N11" s="131">
+      <c r="N11" s="130">
         <f t="shared" si="0"/>
         <v>44085</v>
       </c>
-      <c r="O11" s="131">
+      <c r="O11" s="130">
         <f t="shared" si="0"/>
         <v>44086</v>
       </c>
-      <c r="P11" s="131">
+      <c r="P11" s="130">
         <f t="shared" si="0"/>
         <v>44087</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="130">
         <f t="shared" si="0"/>
         <v>44088</v>
       </c>
-      <c r="R11" s="131">
+      <c r="R11" s="130">
         <f t="shared" si="0"/>
         <v>44089</v>
       </c>
-      <c r="S11" s="131">
+      <c r="S11" s="130">
         <f t="shared" si="0"/>
         <v>44090</v>
       </c>
-      <c r="T11" s="131">
+      <c r="T11" s="130">
         <f t="shared" si="0"/>
         <v>44091</v>
       </c>
-      <c r="U11" s="131">
+      <c r="U11" s="130">
         <f t="shared" si="0"/>
         <v>44092</v>
       </c>
-      <c r="V11" s="131">
+      <c r="V11" s="130">
         <f t="shared" si="0"/>
         <v>44093</v>
       </c>
-      <c r="W11" s="131">
+      <c r="W11" s="130">
         <f t="shared" si="0"/>
         <v>44094</v>
       </c>
-      <c r="X11" s="131">
+      <c r="X11" s="130">
         <f t="shared" si="0"/>
         <v>44095</v>
       </c>
-      <c r="Y11" s="131">
+      <c r="Y11" s="130">
         <f t="shared" si="0"/>
         <v>44096</v>
       </c>
-      <c r="Z11" s="131">
+      <c r="Z11" s="130">
         <f t="shared" si="0"/>
         <v>44097</v>
       </c>
-      <c r="AA11" s="131">
+      <c r="AA11" s="130">
         <f t="shared" si="0"/>
         <v>44098</v>
       </c>
-      <c r="AB11" s="131">
+      <c r="AB11" s="130">
         <f t="shared" si="0"/>
         <v>44099</v>
       </c>
-      <c r="AC11" s="131">
+      <c r="AC11" s="130">
         <f t="shared" si="0"/>
         <v>44100</v>
       </c>
-      <c r="AD11" s="131">
+      <c r="AD11" s="130">
         <f t="shared" si="0"/>
         <v>44101</v>
       </c>
-      <c r="AE11" s="131">
+      <c r="AE11" s="130">
         <f t="shared" si="0"/>
         <v>44102</v>
       </c>
-      <c r="AF11" s="131">
+      <c r="AF11" s="130">
         <f>IF(DAY(AE11+1)=DAY(D11),””,AE11+1)</f>
         <v>44103</v>
       </c>
-      <c r="AG11" s="131">
+      <c r="AG11" s="130">
         <f>IF(AF11="","",IF(DAY(AF11+1)=DAY(D11),"",AF11+1))</f>
         <v>44104</v>
       </c>
-      <c r="AH11" s="131">
+      <c r="AH11" s="130">
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44105</v>
       </c>
-      <c r="AI11" s="193" t="s">
+      <c r="AI11" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AJ11" s="195" t="s">
+      <c r="AJ11" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="202" t="s">
+      <c r="AK11" s="203" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="202" t="s">
+      <c r="AL11" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" s="193" t="s">
+      <c r="AM11" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="AN11" s="195" t="s">
+      <c r="AN11" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="197"/>
-    </row>
-    <row r="12" spans="2:43" s="132" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="133" t="str">
+      <c r="AO11" s="198"/>
+    </row>
+    <row r="12" spans="2:43" s="131" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="132" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
       </c>
-      <c r="E12" s="133" t="str">
+      <c r="E12" s="132" t="str">
         <f t="shared" ref="E12:AE12" si="1">CHOOSE(WEEKDAY(E11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. tư</v>
       </c>
-      <c r="F12" s="133" t="str">
+      <c r="F12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="G12" s="133" t="str">
+      <c r="G12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="H12" s="133" t="str">
+      <c r="H12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="I12" s="133" t="str">
+      <c r="I12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="J12" s="133" t="str">
+      <c r="J12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="K12" s="133" t="str">
+      <c r="K12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="L12" s="133" t="str">
+      <c r="L12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="M12" s="133" t="str">
+      <c r="M12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="N12" s="133" t="str">
+      <c r="N12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="O12" s="133" t="str">
+      <c r="O12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="P12" s="133" t="str">
+      <c r="P12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="Q12" s="133" t="str">
+      <c r="Q12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="R12" s="133" t="str">
+      <c r="R12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="S12" s="133" t="str">
+      <c r="S12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="T12" s="133" t="str">
+      <c r="T12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="U12" s="133" t="str">
+      <c r="U12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="V12" s="133" t="str">
+      <c r="V12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="W12" s="133" t="str">
+      <c r="W12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="X12" s="133" t="str">
+      <c r="X12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="Y12" s="133" t="str">
+      <c r="Y12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. ba</v>
       </c>
-      <c r="Z12" s="133" t="str">
+      <c r="Z12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. tư</v>
       </c>
-      <c r="AA12" s="133" t="str">
+      <c r="AA12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. năm</v>
       </c>
-      <c r="AB12" s="133" t="str">
+      <c r="AB12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. sáu</v>
       </c>
-      <c r="AC12" s="133" t="str">
+      <c r="AC12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. bảy</v>
       </c>
-      <c r="AD12" s="133" t="str">
+      <c r="AD12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="AE12" s="133" t="str">
+      <c r="AE12" s="132" t="str">
         <f t="shared" si="1"/>
         <v>T. hai</v>
       </c>
-      <c r="AF12" s="133" t="str">
+      <c r="AF12" s="132" t="str">
         <f t="shared" ref="AF12" si="2">CHOOSE(WEEKDAY(AF11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
       </c>
-      <c r="AG12" s="133" t="str">
+      <c r="AG12" s="132" t="str">
         <f t="shared" ref="AG12" si="3">CHOOSE(WEEKDAY(AG11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. tư</v>
       </c>
-      <c r="AH12" s="133" t="str">
+      <c r="AH12" s="132" t="str">
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. năm</v>
       </c>
-      <c r="AI12" s="194"/>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="203"/>
-      <c r="AM12" s="194"/>
-      <c r="AN12" s="196"/>
-      <c r="AO12" s="198"/>
+      <c r="AI12" s="195"/>
+      <c r="AJ12" s="197"/>
+      <c r="AK12" s="204"/>
+      <c r="AL12" s="204"/>
+      <c r="AM12" s="195"/>
+      <c r="AN12" s="197"/>
+      <c r="AO12" s="199"/>
     </row>
     <row r="13" spans="2:43">
-      <c r="B13" s="120">
+      <c r="B13" s="119">
         <v>1</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="119" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="34"/>
@@ -9006,37 +9049,37 @@
       <c r="AF13" s="34"/>
       <c r="AG13" s="34"/>
       <c r="AH13" s="34"/>
-      <c r="AI13" s="136">
+      <c r="AI13" s="135">
         <f>COUNTIF(D13:AH13,D20)</f>
         <v>1</v>
       </c>
-      <c r="AJ13" s="136">
+      <c r="AJ13" s="135">
         <f>COUNTIF(D13:AH13,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="136">
+      <c r="AK13" s="135">
         <f>COUNTIF(D13:AH13,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="136">
+      <c r="AL13" s="135">
         <f>COUNTIF(D13:AH13,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="136">
+      <c r="AM13" s="135">
         <f>COUNTIF(D13:AH13,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="137">
+      <c r="AN13" s="136">
         <f>AI13+AJ13*0.5+AK13+AL13+AM13</f>
         <v>1</v>
       </c>
       <c r="AO13" s="23"/>
     </row>
     <row r="14" spans="2:43">
-      <c r="B14" s="120">
+      <c r="B14" s="119">
         <v>2</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="119" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="34"/>
@@ -9070,37 +9113,37 @@
       <c r="AF14" s="34"/>
       <c r="AG14" s="34"/>
       <c r="AH14" s="34"/>
-      <c r="AI14" s="136">
+      <c r="AI14" s="135">
         <f>COUNTIF(D14:AH14,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="136">
+      <c r="AJ14" s="135">
         <f>COUNTIF(D14:AH14,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="136">
+      <c r="AK14" s="135">
         <f>COUNTIF(D14:AH14,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="136">
+      <c r="AL14" s="135">
         <f>COUNTIF(D14:AH14,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="136">
+      <c r="AM14" s="135">
         <f>COUNTIF(D14:AH14,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="137">
+      <c r="AN14" s="136">
         <f>AI14+AJ14*0.5+AK14+AL14+AM14</f>
         <v>0</v>
       </c>
       <c r="AO14" s="23"/>
     </row>
     <row r="15" spans="2:43">
-      <c r="B15" s="120">
+      <c r="B15" s="119">
         <v>3</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="119" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="34"/>
@@ -9134,37 +9177,37 @@
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="136">
+      <c r="AI15" s="135">
         <f>COUNTIF(D15:AH15,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="136">
+      <c r="AJ15" s="135">
         <f>COUNTIF(D15:AH15,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="136">
+      <c r="AK15" s="135">
         <f>COUNTIF(D15:AH15,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="136">
+      <c r="AL15" s="135">
         <f>COUNTIF(D15:AH15,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="136">
+      <c r="AM15" s="135">
         <f>COUNTIF(D15:AH15,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="137">
+      <c r="AN15" s="136">
         <f t="shared" ref="AN15:AN16" si="5">AI15+AJ15*0.5+AK15+AL15+AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="119" customFormat="1">
-      <c r="B16" s="120">
+    <row r="16" spans="2:43" s="118" customFormat="1">
+      <c r="B16" s="119">
         <v>4</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="119" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="34"/>
@@ -9198,34 +9241,34 @@
       <c r="AF16" s="34"/>
       <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="136">
+      <c r="AI16" s="135">
         <f>COUNTIF(D16:AH16,D20)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="136">
+      <c r="AJ16" s="135">
         <f>COUNTIF(D16:AH16,D21)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="136">
+      <c r="AK16" s="135">
         <f>COUNTIF(D16:AH16,D22)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="136">
+      <c r="AL16" s="135">
         <f>COUNTIF(D16:AH16,D23)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="136">
+      <c r="AM16" s="135">
         <f>COUNTIF(D16:AH16,D24)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="137">
+      <c r="AN16" s="136">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO16" s="23"/>
     </row>
     <row r="17" spans="2:41">
-      <c r="B17" s="120"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
@@ -9260,51 +9303,51 @@
       <c r="AF17" s="34"/>
       <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="120"/>
-      <c r="AM17" s="120"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
     <row r="20" spans="2:41">
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="133" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:41">
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="133" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:41">
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="133" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:41">
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="133" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:41">
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="133" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C487E4-2A1D-4F3E-83F1-91B666DBBA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -556,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -566,7 +557,7 @@
     <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1264,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,9 +1292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,9 +1303,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,18 +1312,18 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1329,15 +1331,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,8 +1415,6 @@
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,6 +1539,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1583,6 +1591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1772,7 +1797,7 @@
       <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1812,112 +1837,112 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36">
-      <c r="B2" s="156" t="s">
+    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="169" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="167" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="158" t="s">
+      <c r="F4" s="159"/>
+      <c r="G4" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="163" t="s">
+      <c r="H4" s="156"/>
+      <c r="I4" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="158" t="s">
+      <c r="J4" s="157"/>
+      <c r="K4" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="163" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="163"/>
-      <c r="O4" s="159" t="s">
+      <c r="N4" s="157"/>
+      <c r="O4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="158" t="s">
+      <c r="P4" s="165"/>
+      <c r="Q4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158" t="s">
+      <c r="R4" s="156"/>
+      <c r="S4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158" t="s">
+      <c r="T4" s="156"/>
+      <c r="U4" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158" t="s">
+      <c r="V4" s="156"/>
+      <c r="W4" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="160" t="s">
+      <c r="X4" s="156"/>
+      <c r="Y4" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="165" t="s">
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="161" t="s">
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="157" t="s">
+      <c r="AD4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="158" t="s">
+      <c r="AE4" s="156" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1">
-      <c r="A5" s="158"/>
-      <c r="B5" s="169"/>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="156"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1996,9 +2021,9 @@
       <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="158"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="156"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -2015,7 +2040,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2123,7 +2148,7 @@
       </c>
       <c r="AE6" s="63"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2231,7 +2256,7 @@
       </c>
       <c r="AE7" s="76"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2352,7 +2377,7 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1">
+    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2460,7 +2485,7 @@
       </c>
       <c r="AE9" s="76"/>
     </row>
-    <row r="10" spans="1:46" customFormat="1">
+    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2568,7 +2593,7 @@
       </c>
       <c r="AE10" s="76"/>
     </row>
-    <row r="11" spans="1:46" customFormat="1">
+    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2676,7 +2701,7 @@
       </c>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:46" customFormat="1">
+    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2784,7 +2809,7 @@
       </c>
       <c r="AE12" s="76"/>
     </row>
-    <row r="13" spans="1:46" customFormat="1">
+    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2892,7 +2917,7 @@
       </c>
       <c r="AE13" s="76"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -3004,7 +3029,7 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="56">
         <v>44084</v>
@@ -3114,7 +3139,7 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="56">
         <v>44085</v>
@@ -3224,7 +3249,7 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="56">
         <v>44086</v>
@@ -3334,7 +3359,7 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="56">
         <v>44087</v>
@@ -3444,7 +3469,7 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="56">
         <v>44088</v>
@@ -3554,7 +3579,7 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="56">
         <v>44089</v>
@@ -3664,7 +3689,7 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="80"/>
       <c r="B21" s="56">
         <v>44090</v>
@@ -3774,7 +3799,7 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="56">
         <v>44091</v>
@@ -3884,7 +3909,7 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="56">
         <v>44092</v>
@@ -3994,7 +4019,7 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="56">
         <v>44093</v>
@@ -4104,7 +4129,7 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="56">
         <v>44094</v>
@@ -4214,7 +4239,7 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="56">
         <v>44095</v>
@@ -4324,7 +4349,7 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="56">
         <v>44096</v>
@@ -4434,7 +4459,7 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="56">
         <v>44097</v>
@@ -4544,7 +4569,7 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="56">
         <v>44098</v>
@@ -4654,7 +4679,7 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="56">
         <v>44099</v>
@@ -4764,7 +4789,7 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="56">
         <v>44100</v>
@@ -4874,7 +4899,7 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="80"/>
       <c r="B32" s="56">
         <v>44101</v>
@@ -4984,7 +5009,7 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="56">
         <v>44102</v>
@@ -5094,7 +5119,7 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="56">
         <v>44103</v>
@@ -5204,7 +5229,7 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
       <c r="B35" s="56">
         <v>44104</v>
@@ -5314,7 +5339,7 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="56" t="s">
         <v>8</v>
@@ -5433,83 +5458,83 @@
       </c>
       <c r="AE36" s="63"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="164">
-        <v>0</v>
-      </c>
-      <c r="D37" s="164"/>
+      <c r="C37" s="169">
+        <v>0</v>
+      </c>
+      <c r="D37" s="169"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="154"/>
-      <c r="Q37" s="154"/>
-      <c r="R37" s="154"/>
-      <c r="S37" s="154"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="154"/>
-      <c r="V37" s="154"/>
-      <c r="W37" s="154"/>
-      <c r="X37" s="154"/>
-      <c r="Y37" s="154"/>
-      <c r="Z37" s="154"/>
-      <c r="AA37" s="154"/>
-      <c r="AB37" s="154"/>
-      <c r="AC37" s="154"/>
-      <c r="AD37" s="154"/>
-      <c r="AE37" s="154"/>
-    </row>
-    <row r="38" spans="1:35" s="11" customFormat="1">
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="161"/>
+      <c r="S37" s="161"/>
+      <c r="T37" s="161"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AB37" s="161"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="161"/>
+      <c r="AE37" s="161"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="155">
-        <v>0</v>
-      </c>
-      <c r="D38" s="155"/>
+      <c r="C38" s="162">
+        <v>0</v>
+      </c>
+      <c r="D38" s="162"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="154"/>
-      <c r="S38" s="154"/>
-      <c r="T38" s="154"/>
-      <c r="U38" s="154"/>
-      <c r="V38" s="154"/>
-      <c r="W38" s="154"/>
-      <c r="X38" s="154"/>
-      <c r="Y38" s="154"/>
-      <c r="Z38" s="154"/>
-      <c r="AA38" s="154"/>
-      <c r="AB38" s="154"/>
-      <c r="AC38" s="154"/>
-      <c r="AD38" s="154"/>
-      <c r="AE38" s="154"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="161"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="51"/>
@@ -5517,19 +5542,12 @@
       <c r="M39" s="2"/>
       <c r="N39" s="51"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AE41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AE4:AE38"/>
+  <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5546,6 +5564,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5557,34 +5582,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -5623,7 +5648,7 @@
       </c>
       <c r="F4" s="102"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -5642,7 +5667,7 @@
       </c>
       <c r="F5" s="102"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -5661,7 +5686,7 @@
       </c>
       <c r="F6" s="102"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -5680,7 +5705,7 @@
       </c>
       <c r="F7" s="102"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -5699,7 +5724,7 @@
       </c>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>7</v>
       </c>
@@ -5718,7 +5743,7 @@
       </c>
       <c r="F9" s="60"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5737,7 +5762,7 @@
       </c>
       <c r="F10" s="60"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5756,7 +5781,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5775,7 +5800,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5794,7 +5819,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5813,7 +5838,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5832,7 +5857,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5851,7 +5876,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5870,7 +5895,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5889,7 +5914,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
@@ -5908,7 +5933,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5927,7 +5952,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5946,7 +5971,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5965,7 +5990,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -5984,7 +6009,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -6003,7 +6028,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -6022,7 +6047,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -6041,7 +6066,7 @@
       </c>
       <c r="F26" s="101"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -6060,7 +6085,7 @@
       </c>
       <c r="F27" s="101"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -6079,7 +6104,7 @@
       </c>
       <c r="F28" s="101"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>27</v>
       </c>
@@ -6087,18 +6112,18 @@
         <v>44100</v>
       </c>
       <c r="C29" s="103">
+        <v>3134628</v>
+      </c>
+      <c r="D29" s="103">
         <v>5155000</v>
       </c>
-      <c r="D29" s="103">
-        <v>3134628</v>
-      </c>
       <c r="E29" s="100">
-        <f t="shared" si="0"/>
+        <f>SUM(C29,-D29)</f>
         <v>-2020372</v>
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -6106,18 +6131,18 @@
         <v>44101</v>
       </c>
       <c r="C30" s="103">
+        <v>3980852</v>
+      </c>
+      <c r="D30" s="103">
         <v>5860000</v>
       </c>
-      <c r="D30" s="103">
-        <v>3980852</v>
-      </c>
       <c r="E30" s="100">
-        <f t="shared" si="0"/>
+        <f>SUM(C30,-D30)</f>
         <v>-1879148</v>
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -6125,18 +6150,18 @@
         <v>44102</v>
       </c>
       <c r="C31" s="103">
+        <v>2071049</v>
+      </c>
+      <c r="D31" s="103">
         <v>3260000</v>
       </c>
-      <c r="D31" s="103">
-        <v>2071049</v>
-      </c>
       <c r="E31" s="100">
-        <f t="shared" si="0"/>
+        <f>SUM(C31,-D31)</f>
         <v>-1188951</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="83" customFormat="1">
+    <row r="32" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -6144,18 +6169,18 @@
         <v>44103</v>
       </c>
       <c r="C32" s="103">
+        <v>2254848</v>
+      </c>
+      <c r="D32" s="103">
         <v>2938000</v>
       </c>
-      <c r="D32" s="103">
-        <v>2254848</v>
-      </c>
       <c r="E32" s="100">
-        <f t="shared" si="0"/>
+        <f>SUM(C32,-D32)</f>
         <v>-683152</v>
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="83" customFormat="1">
+    <row r="33" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -6163,18 +6188,18 @@
         <v>44104</v>
       </c>
       <c r="C33" s="103">
+        <v>5040000</v>
+      </c>
+      <c r="D33" s="103">
         <v>3486040</v>
       </c>
-      <c r="D33" s="103">
-        <v>5040000</v>
-      </c>
       <c r="E33" s="100">
-        <f t="shared" si="0"/>
+        <f>SUM(C33,-D33)</f>
         <v>1553960</v>
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -6183,11 +6208,11 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>83543123</v>
+        <v>79325460</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>111065377</v>
+        <v>115283040</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
@@ -6206,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6216,7 +6241,7 @@
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
@@ -6230,22 +6255,22 @@
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5">
-      <c r="A2" s="173" t="s">
+    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
       <c r="C3" s="150"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
@@ -6266,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="65" customFormat="1">
+    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116"/>
       <c r="B5" s="115">
         <v>44075</v>
@@ -6277,7 +6302,7 @@
       <c r="F5" s="104"/>
       <c r="G5" s="116"/>
     </row>
-    <row r="6" spans="1:7" s="95" customFormat="1">
+    <row r="6" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="115">
         <v>44076</v>
@@ -6288,9 +6313,9 @@
       <c r="F6" s="104"/>
       <c r="G6" s="116"/>
     </row>
-    <row r="7" spans="1:7" s="95" customFormat="1">
+    <row r="7" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116"/>
-      <c r="B7" s="174">
+      <c r="B7" s="173">
         <v>44077</v>
       </c>
       <c r="C7" s="147"/>
@@ -6303,9 +6328,9 @@
       <c r="F7" s="104"/>
       <c r="G7" s="116"/>
     </row>
-    <row r="8" spans="1:7" s="144" customFormat="1">
+    <row r="8" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
-      <c r="B8" s="175"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="147"/>
       <c r="D8" s="116" t="s">
         <v>116</v>
@@ -6316,9 +6341,9 @@
       <c r="F8" s="104"/>
       <c r="G8" s="116"/>
     </row>
-    <row r="9" spans="1:7" s="144" customFormat="1">
+    <row r="9" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
-      <c r="B9" s="176"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="147"/>
       <c r="D9" s="116" t="s">
         <v>117</v>
@@ -6329,9 +6354,9 @@
       <c r="F9" s="104"/>
       <c r="G9" s="116"/>
     </row>
-    <row r="10" spans="1:7" s="114" customFormat="1">
+    <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116"/>
-      <c r="B10" s="174">
+      <c r="B10" s="173">
         <v>44078</v>
       </c>
       <c r="C10" s="147">
@@ -6346,9 +6371,9 @@
       <c r="F10" s="104"/>
       <c r="G10" s="116"/>
     </row>
-    <row r="11" spans="1:7" s="144" customFormat="1">
+    <row r="11" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
-      <c r="B11" s="175"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="147">
         <v>2</v>
       </c>
@@ -6361,9 +6386,9 @@
       <c r="F11" s="104"/>
       <c r="G11" s="116"/>
     </row>
-    <row r="12" spans="1:7" s="144" customFormat="1">
+    <row r="12" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
-      <c r="B12" s="175"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="147">
         <v>3</v>
       </c>
@@ -6376,9 +6401,9 @@
       <c r="F12" s="104"/>
       <c r="G12" s="116"/>
     </row>
-    <row r="13" spans="1:7" s="144" customFormat="1">
+    <row r="13" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
-      <c r="B13" s="175"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="147">
         <v>4</v>
       </c>
@@ -6391,9 +6416,9 @@
       <c r="F13" s="104"/>
       <c r="G13" s="116"/>
     </row>
-    <row r="14" spans="1:7" s="144" customFormat="1">
+    <row r="14" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116"/>
-      <c r="B14" s="175"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="147">
         <v>5</v>
       </c>
@@ -6406,9 +6431,9 @@
       <c r="F14" s="104"/>
       <c r="G14" s="116"/>
     </row>
-    <row r="15" spans="1:7" s="144" customFormat="1">
+    <row r="15" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116"/>
-      <c r="B15" s="175"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="147">
         <v>6</v>
       </c>
@@ -6421,9 +6446,9 @@
       <c r="F15" s="104"/>
       <c r="G15" s="116"/>
     </row>
-    <row r="16" spans="1:7" s="144" customFormat="1">
+    <row r="16" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116"/>
-      <c r="B16" s="175"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="147">
         <v>7</v>
       </c>
@@ -6436,9 +6461,9 @@
       <c r="F16" s="104"/>
       <c r="G16" s="116"/>
     </row>
-    <row r="17" spans="1:7" s="144" customFormat="1">
+    <row r="17" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116"/>
-      <c r="B17" s="175"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="147">
         <v>8</v>
       </c>
@@ -6451,9 +6476,9 @@
       <c r="F17" s="104"/>
       <c r="G17" s="116"/>
     </row>
-    <row r="18" spans="1:7" s="144" customFormat="1">
+    <row r="18" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
-      <c r="B18" s="175"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="147">
         <v>9</v>
       </c>
@@ -6466,9 +6491,9 @@
       <c r="F18" s="104"/>
       <c r="G18" s="116"/>
     </row>
-    <row r="19" spans="1:7" s="144" customFormat="1">
+    <row r="19" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116"/>
-      <c r="B19" s="175"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="147"/>
       <c r="D19" s="116" t="s">
         <v>127</v>
@@ -6479,9 +6504,9 @@
       <c r="F19" s="104"/>
       <c r="G19" s="116"/>
     </row>
-    <row r="20" spans="1:7" s="144" customFormat="1">
+    <row r="20" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
-      <c r="B20" s="175"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="147"/>
       <c r="D20" s="116" t="s">
         <v>101</v>
@@ -6494,9 +6519,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="144" customFormat="1">
+    <row r="21" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116"/>
-      <c r="B21" s="175"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="147"/>
       <c r="D21" s="116" t="s">
         <v>101</v>
@@ -6506,9 +6531,9 @@
       </c>
       <c r="F21" s="104"/>
     </row>
-    <row r="22" spans="1:7" s="144" customFormat="1">
+    <row r="22" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116"/>
-      <c r="B22" s="175"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="147"/>
       <c r="D22" s="116" t="s">
         <v>128</v>
@@ -6521,9 +6546,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="144" customFormat="1">
+    <row r="23" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
-      <c r="B23" s="175"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="147"/>
       <c r="D23" s="116" t="s">
         <v>104</v>
@@ -6536,9 +6561,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="144" customFormat="1">
+    <row r="24" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="116"/>
-      <c r="B24" s="176"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="147"/>
       <c r="D24" s="116" t="s">
         <v>104</v>
@@ -6551,7 +6576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="114" customFormat="1">
+    <row r="25" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="116"/>
       <c r="B25" s="115">
         <v>44079</v>
@@ -6562,7 +6587,7 @@
       <c r="F25" s="104"/>
       <c r="G25" s="116"/>
     </row>
-    <row r="26" spans="1:7" s="114" customFormat="1">
+    <row r="26" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="115">
         <v>44080</v>
@@ -6573,7 +6598,7 @@
       <c r="F26" s="104"/>
       <c r="G26" s="116"/>
     </row>
-    <row r="27" spans="1:7" s="114" customFormat="1">
+    <row r="27" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="115">
         <v>44081</v>
@@ -6586,9 +6611,9 @@
       <c r="F27" s="104"/>
       <c r="G27" s="116"/>
     </row>
-    <row r="28" spans="1:7" s="95" customFormat="1">
+    <row r="28" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
-      <c r="B28" s="174">
+      <c r="B28" s="173">
         <v>44082</v>
       </c>
       <c r="C28" s="147">
@@ -6602,37 +6627,37 @@
       </c>
       <c r="G28" s="116"/>
     </row>
-    <row r="29" spans="1:7" s="144" customFormat="1">
+    <row r="29" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
-      <c r="B29" s="175"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="147">
         <v>2</v>
       </c>
       <c r="D29" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="171">
+      <c r="E29" s="176">
         <v>1512000</v>
       </c>
       <c r="F29" s="104"/>
       <c r="G29" s="116"/>
     </row>
-    <row r="30" spans="1:7" s="144" customFormat="1">
+    <row r="30" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
-      <c r="B30" s="175"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="147">
         <v>3</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="172"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="104"/>
       <c r="G30" s="116"/>
     </row>
-    <row r="31" spans="1:7" s="144" customFormat="1">
+    <row r="31" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
-      <c r="B31" s="175"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="147">
         <v>4</v>
       </c>
@@ -6645,9 +6670,9 @@
       <c r="F31" s="104"/>
       <c r="G31" s="116"/>
     </row>
-    <row r="32" spans="1:7" s="144" customFormat="1">
+    <row r="32" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
-      <c r="B32" s="175"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="147">
         <v>5</v>
       </c>
@@ -6660,9 +6685,9 @@
       <c r="F32" s="104"/>
       <c r="G32" s="116"/>
     </row>
-    <row r="33" spans="1:7" s="144" customFormat="1">
+    <row r="33" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
-      <c r="B33" s="175"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="147">
         <v>6</v>
       </c>
@@ -6675,9 +6700,9 @@
       <c r="F33" s="104"/>
       <c r="G33" s="116"/>
     </row>
-    <row r="34" spans="1:7" s="152" customFormat="1">
+    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="116"/>
-      <c r="B34" s="175"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="153"/>
       <c r="D34" s="116" t="s">
         <v>169</v>
@@ -6690,9 +6715,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="144" customFormat="1">
+    <row r="35" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116"/>
-      <c r="B35" s="176"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="147">
         <v>7</v>
       </c>
@@ -6705,7 +6730,7 @@
       <c r="F35" s="104"/>
       <c r="G35" s="116"/>
     </row>
-    <row r="36" spans="1:7" s="95" customFormat="1">
+    <row r="36" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="116"/>
       <c r="B36" s="115">
         <v>44083</v>
@@ -6716,7 +6741,7 @@
       <c r="F36" s="104"/>
       <c r="G36" s="116"/>
     </row>
-    <row r="37" spans="1:7" s="95" customFormat="1">
+    <row r="37" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="116"/>
       <c r="B37" s="115">
         <v>44084</v>
@@ -6731,7 +6756,7 @@
       </c>
       <c r="G37" s="116"/>
     </row>
-    <row r="38" spans="1:7" s="118" customFormat="1">
+    <row r="38" spans="1:7" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="116"/>
       <c r="B38" s="115">
         <v>44085</v>
@@ -6742,9 +6767,9 @@
       <c r="F38" s="104"/>
       <c r="G38" s="116"/>
     </row>
-    <row r="39" spans="1:7" s="65" customFormat="1">
+    <row r="39" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
-      <c r="B39" s="174">
+      <c r="B39" s="173">
         <v>44086</v>
       </c>
       <c r="C39" s="147"/>
@@ -6757,9 +6782,9 @@
       <c r="F39" s="104"/>
       <c r="G39" s="116"/>
     </row>
-    <row r="40" spans="1:7" s="148" customFormat="1">
+    <row r="40" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="116"/>
-      <c r="B40" s="175"/>
+      <c r="B40" s="174"/>
       <c r="C40" s="149"/>
       <c r="D40" s="116" t="s">
         <v>144</v>
@@ -6770,9 +6795,9 @@
       <c r="F40" s="104"/>
       <c r="G40" s="116"/>
     </row>
-    <row r="41" spans="1:7" s="148" customFormat="1">
+    <row r="41" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
-      <c r="B41" s="175"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="149"/>
       <c r="D41" s="116" t="s">
         <v>145</v>
@@ -6783,9 +6808,9 @@
       <c r="F41" s="104"/>
       <c r="G41" s="116"/>
     </row>
-    <row r="42" spans="1:7" s="148" customFormat="1">
+    <row r="42" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="116"/>
-      <c r="B42" s="175"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="149"/>
       <c r="D42" s="116" t="s">
         <v>146</v>
@@ -6796,9 +6821,9 @@
       <c r="F42" s="104"/>
       <c r="G42" s="116"/>
     </row>
-    <row r="43" spans="1:7" s="148" customFormat="1">
+    <row r="43" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="116"/>
-      <c r="B43" s="175"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="149"/>
       <c r="D43" s="116" t="s">
         <v>147</v>
@@ -6809,9 +6834,9 @@
       <c r="F43" s="104"/>
       <c r="G43" s="116"/>
     </row>
-    <row r="44" spans="1:7" s="148" customFormat="1">
+    <row r="44" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="116"/>
-      <c r="B44" s="175"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="149"/>
       <c r="D44" s="116" t="s">
         <v>126</v>
@@ -6822,9 +6847,9 @@
       <c r="F44" s="104"/>
       <c r="G44" s="116"/>
     </row>
-    <row r="45" spans="1:7" s="148" customFormat="1">
+    <row r="45" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="116"/>
-      <c r="B45" s="175"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="149"/>
       <c r="D45" s="116" t="s">
         <v>148</v>
@@ -6835,9 +6860,9 @@
       <c r="F45" s="104"/>
       <c r="G45" s="116"/>
     </row>
-    <row r="46" spans="1:7" s="148" customFormat="1">
+    <row r="46" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
-      <c r="B46" s="175"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="149"/>
       <c r="D46" s="116" t="s">
         <v>149</v>
@@ -6848,9 +6873,9 @@
       <c r="F46" s="104"/>
       <c r="G46" s="116"/>
     </row>
-    <row r="47" spans="1:7" s="148" customFormat="1">
+    <row r="47" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
-      <c r="B47" s="176"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="149"/>
       <c r="D47" s="116" t="s">
         <v>150</v>
@@ -6861,7 +6886,7 @@
       <c r="F47" s="104"/>
       <c r="G47" s="116"/>
     </row>
-    <row r="48" spans="1:7" s="87" customFormat="1">
+    <row r="48" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="116"/>
       <c r="B48" s="115">
         <v>44087</v>
@@ -6872,7 +6897,7 @@
       <c r="F48" s="104"/>
       <c r="G48" s="116"/>
     </row>
-    <row r="49" spans="1:7" s="68" customFormat="1">
+    <row r="49" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="116"/>
       <c r="B49" s="115">
         <v>44088</v>
@@ -6887,7 +6912,7 @@
       <c r="F49" s="104"/>
       <c r="G49" s="116"/>
     </row>
-    <row r="50" spans="1:7" s="95" customFormat="1">
+    <row r="50" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="116"/>
       <c r="B50" s="115">
         <v>44089</v>
@@ -6898,7 +6923,7 @@
       <c r="F50" s="104"/>
       <c r="G50" s="116"/>
     </row>
-    <row r="51" spans="1:7" s="95" customFormat="1">
+    <row r="51" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="116"/>
       <c r="B51" s="115">
         <v>44090</v>
@@ -6909,7 +6934,7 @@
       <c r="F51" s="104"/>
       <c r="G51" s="116"/>
     </row>
-    <row r="52" spans="1:7" s="98" customFormat="1">
+    <row r="52" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="115">
         <v>44091</v>
@@ -6924,7 +6949,7 @@
       <c r="F52" s="104"/>
       <c r="G52" s="116"/>
     </row>
-    <row r="53" spans="1:7" s="95" customFormat="1">
+    <row r="53" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="116"/>
       <c r="B53" s="115">
         <v>44092</v>
@@ -6935,9 +6960,9 @@
       <c r="F53" s="104"/>
       <c r="G53" s="116"/>
     </row>
-    <row r="54" spans="1:7" s="85" customFormat="1">
+    <row r="54" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="116"/>
-      <c r="B54" s="174">
+      <c r="B54" s="173">
         <v>44093</v>
       </c>
       <c r="C54" s="147"/>
@@ -6950,9 +6975,9 @@
       <c r="F54" s="104"/>
       <c r="G54" s="116"/>
     </row>
-    <row r="55" spans="1:7" s="148" customFormat="1">
+    <row r="55" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="116"/>
-      <c r="B55" s="176"/>
+      <c r="B55" s="175"/>
       <c r="C55" s="149"/>
       <c r="D55" s="116" t="s">
         <v>154</v>
@@ -6963,7 +6988,7 @@
       <c r="F55" s="104"/>
       <c r="G55" s="116"/>
     </row>
-    <row r="56" spans="1:7" s="98" customFormat="1">
+    <row r="56" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="116"/>
       <c r="B56" s="115">
         <v>44094</v>
@@ -6974,7 +6999,7 @@
       <c r="F56" s="104"/>
       <c r="G56" s="116"/>
     </row>
-    <row r="57" spans="1:7" s="98" customFormat="1">
+    <row r="57" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="116"/>
       <c r="B57" s="115">
         <v>44095</v>
@@ -6988,9 +7013,9 @@
       </c>
       <c r="G57" s="116"/>
     </row>
-    <row r="58" spans="1:7" s="98" customFormat="1">
+    <row r="58" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="116"/>
-      <c r="B58" s="174">
+      <c r="B58" s="173">
         <v>44096</v>
       </c>
       <c r="C58" s="147"/>
@@ -7003,9 +7028,9 @@
       <c r="F58" s="104"/>
       <c r="G58" s="116"/>
     </row>
-    <row r="59" spans="1:7" s="148" customFormat="1">
+    <row r="59" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="116"/>
-      <c r="B59" s="175"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="149"/>
       <c r="D59" s="116" t="s">
         <v>156</v>
@@ -7016,9 +7041,9 @@
       <c r="F59" s="104"/>
       <c r="G59" s="116"/>
     </row>
-    <row r="60" spans="1:7" s="148" customFormat="1">
+    <row r="60" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="116"/>
-      <c r="B60" s="175"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="149"/>
       <c r="D60" s="116" t="s">
         <v>157</v>
@@ -7029,9 +7054,9 @@
       <c r="F60" s="104"/>
       <c r="G60" s="116"/>
     </row>
-    <row r="61" spans="1:7" s="148" customFormat="1">
+    <row r="61" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="116"/>
-      <c r="B61" s="175"/>
+      <c r="B61" s="174"/>
       <c r="C61" s="149"/>
       <c r="D61" s="116" t="s">
         <v>158</v>
@@ -7042,9 +7067,9 @@
       <c r="F61" s="104"/>
       <c r="G61" s="116"/>
     </row>
-    <row r="62" spans="1:7" s="148" customFormat="1">
+    <row r="62" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
-      <c r="B62" s="175"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="149"/>
       <c r="D62" s="116" t="s">
         <v>159</v>
@@ -7055,9 +7080,9 @@
       <c r="F62" s="104"/>
       <c r="G62" s="116"/>
     </row>
-    <row r="63" spans="1:7" s="148" customFormat="1">
+    <row r="63" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
-      <c r="B63" s="175"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="149"/>
       <c r="D63" s="116" t="s">
         <v>160</v>
@@ -7068,18 +7093,18 @@
       <c r="F63" s="104"/>
       <c r="G63" s="116"/>
     </row>
-    <row r="64" spans="1:7" s="148" customFormat="1">
+    <row r="64" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
-      <c r="B64" s="176"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="149"/>
       <c r="D64" s="116"/>
       <c r="E64" s="104"/>
       <c r="F64" s="104"/>
       <c r="G64" s="116"/>
     </row>
-    <row r="65" spans="1:7" s="118" customFormat="1">
+    <row r="65" spans="1:7" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
-      <c r="B65" s="174">
+      <c r="B65" s="173">
         <v>44097</v>
       </c>
       <c r="C65" s="147"/>
@@ -7092,9 +7117,9 @@
       <c r="F65" s="104"/>
       <c r="G65" s="116"/>
     </row>
-    <row r="66" spans="1:7" s="148" customFormat="1">
+    <row r="66" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="116"/>
-      <c r="B66" s="176"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="149"/>
       <c r="D66" s="116" t="s">
         <v>163</v>
@@ -7105,9 +7130,9 @@
       <c r="F66" s="104"/>
       <c r="G66" s="116"/>
     </row>
-    <row r="67" spans="1:7" s="98" customFormat="1">
+    <row r="67" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="116"/>
-      <c r="B67" s="174">
+      <c r="B67" s="173">
         <v>44098</v>
       </c>
       <c r="C67" s="147"/>
@@ -7120,9 +7145,9 @@
       <c r="F67" s="104"/>
       <c r="G67" s="116"/>
     </row>
-    <row r="68" spans="1:7" s="148" customFormat="1">
+    <row r="68" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="116"/>
-      <c r="B68" s="176"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="149"/>
       <c r="D68" s="116" t="s">
         <v>165</v>
@@ -7133,9 +7158,9 @@
       <c r="F68" s="104"/>
       <c r="G68" s="116"/>
     </row>
-    <row r="69" spans="1:7" s="98" customFormat="1">
+    <row r="69" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116"/>
-      <c r="B69" s="174">
+      <c r="B69" s="173">
         <v>44099</v>
       </c>
       <c r="C69" s="147"/>
@@ -7148,9 +7173,9 @@
       <c r="F69" s="104"/>
       <c r="G69" s="116"/>
     </row>
-    <row r="70" spans="1:7" s="148" customFormat="1">
+    <row r="70" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="116"/>
-      <c r="B70" s="175"/>
+      <c r="B70" s="174"/>
       <c r="C70" s="149"/>
       <c r="D70" s="116" t="s">
         <v>167</v>
@@ -7161,9 +7186,9 @@
       <c r="F70" s="104"/>
       <c r="G70" s="116"/>
     </row>
-    <row r="71" spans="1:7" s="152" customFormat="1">
+    <row r="71" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="116"/>
-      <c r="B71" s="175"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="153"/>
       <c r="D71" s="116" t="s">
         <v>116</v>
@@ -7174,9 +7199,9 @@
       </c>
       <c r="G71" s="116"/>
     </row>
-    <row r="72" spans="1:7" s="148" customFormat="1">
+    <row r="72" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116"/>
-      <c r="B72" s="176"/>
+      <c r="B72" s="175"/>
       <c r="C72" s="149"/>
       <c r="D72" s="116" t="s">
         <v>168</v>
@@ -7187,7 +7212,7 @@
       <c r="F72" s="104"/>
       <c r="G72" s="116"/>
     </row>
-    <row r="73" spans="1:7" s="98" customFormat="1">
+    <row r="73" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="116"/>
       <c r="B73" s="115">
         <v>44100</v>
@@ -7198,7 +7223,7 @@
       <c r="F73" s="104"/>
       <c r="G73" s="116"/>
     </row>
-    <row r="74" spans="1:7" s="72" customFormat="1">
+    <row r="74" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="116"/>
       <c r="B74" s="115">
         <v>44101</v>
@@ -7209,7 +7234,7 @@
       <c r="F74" s="104"/>
       <c r="G74" s="116"/>
     </row>
-    <row r="75" spans="1:7" s="98" customFormat="1">
+    <row r="75" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116"/>
       <c r="B75" s="115">
         <v>44102</v>
@@ -7220,7 +7245,7 @@
       <c r="F75" s="104"/>
       <c r="G75" s="116"/>
     </row>
-    <row r="76" spans="1:7" s="98" customFormat="1">
+    <row r="76" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="116"/>
       <c r="B76" s="115">
         <v>44103</v>
@@ -7231,7 +7256,7 @@
       <c r="F76" s="104"/>
       <c r="G76" s="116"/>
     </row>
-    <row r="77" spans="1:7" s="98" customFormat="1">
+    <row r="77" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="116"/>
       <c r="B77" s="115">
         <v>44104</v>
@@ -7242,7 +7267,7 @@
       <c r="F77" s="104"/>
       <c r="G77" s="116"/>
     </row>
-    <row r="78" spans="1:7" s="72" customFormat="1">
+    <row r="78" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116"/>
       <c r="B78" s="115">
         <v>44105</v>
@@ -7253,7 +7278,7 @@
       <c r="F78" s="104"/>
       <c r="G78" s="116"/>
     </row>
-    <row r="79" spans="1:7" s="98" customFormat="1">
+    <row r="79" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="116"/>
       <c r="B79" s="115"/>
       <c r="C79" s="147"/>
@@ -7262,7 +7287,7 @@
       <c r="F79" s="104"/>
       <c r="G79" s="116"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="116"/>
       <c r="B80" s="115"/>
       <c r="C80" s="147"/>
@@ -7271,7 +7296,7 @@
       <c r="F80" s="104"/>
       <c r="G80" s="116"/>
     </row>
-    <row r="81" spans="1:7" s="98" customFormat="1">
+    <row r="81" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="116"/>
       <c r="B81" s="115"/>
       <c r="C81" s="147"/>
@@ -7280,7 +7305,7 @@
       <c r="F81" s="104"/>
       <c r="G81" s="116"/>
     </row>
-    <row r="82" spans="1:7" s="98" customFormat="1">
+    <row r="82" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="116"/>
       <c r="B82" s="115"/>
       <c r="C82" s="147"/>
@@ -7289,7 +7314,7 @@
       <c r="F82" s="104"/>
       <c r="G82" s="116"/>
     </row>
-    <row r="83" spans="1:7" s="98" customFormat="1">
+    <row r="83" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="116"/>
       <c r="B83" s="115"/>
       <c r="C83" s="147"/>
@@ -7298,7 +7323,7 @@
       <c r="F83" s="104"/>
       <c r="G83" s="116"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="116"/>
       <c r="B84" s="115"/>
       <c r="C84" s="116"/>
@@ -7307,7 +7332,7 @@
       <c r="F84" s="104"/>
       <c r="G84" s="116"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <v>35</v>
       </c>
@@ -7326,7 +7351,7 @@
       </c>
       <c r="G85" s="70"/>
     </row>
-    <row r="86" spans="1:7" s="81" customFormat="1">
+    <row r="86" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="75"/>
       <c r="B86" s="20"/>
       <c r="C86" s="151"/>
@@ -7337,26 +7362,26 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B10:B24"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B39:B47"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B10:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7366,7 +7391,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="94"/>
@@ -7376,17 +7401,17 @@
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5">
-      <c r="A2" s="177" t="s">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -7406,7 +7431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -7418,7 +7443,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>8</v>
       </c>
@@ -7430,7 +7455,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>9</v>
       </c>
@@ -7442,7 +7467,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="74" customFormat="1">
+    <row r="8" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>10</v>
       </c>
@@ -7458,7 +7483,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>11</v>
       </c>
@@ -7474,7 +7499,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>12</v>
       </c>
@@ -7486,7 +7511,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>13</v>
       </c>
@@ -7498,7 +7523,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>14</v>
       </c>
@@ -7510,7 +7535,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>15</v>
       </c>
@@ -7522,7 +7547,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="66" customFormat="1">
+    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>17</v>
       </c>
@@ -7534,7 +7559,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>17</v>
       </c>
@@ -7546,7 +7571,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>18</v>
       </c>
@@ -7558,7 +7583,7 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>19</v>
       </c>
@@ -7570,7 +7595,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>20</v>
       </c>
@@ -7582,7 +7607,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>21</v>
       </c>
@@ -7594,7 +7619,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>22</v>
       </c>
@@ -7606,7 +7631,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>23</v>
       </c>
@@ -7622,7 +7647,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>24</v>
       </c>
@@ -7634,7 +7659,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="81" customFormat="1">
+    <row r="23" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>25</v>
       </c>
@@ -7646,7 +7671,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="81" customFormat="1">
+    <row r="24" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>27</v>
       </c>
@@ -7658,7 +7683,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>27</v>
       </c>
@@ -7670,7 +7695,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="64" customFormat="1">
+    <row r="26" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>28</v>
       </c>
@@ -7682,7 +7707,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="64" customFormat="1">
+    <row r="27" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>29</v>
       </c>
@@ -7694,7 +7719,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="110" customFormat="1">
+    <row r="28" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="93">
         <v>44098</v>
@@ -7704,7 +7729,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="110" customFormat="1">
+    <row r="29" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="93">
         <v>44099</v>
@@ -7714,7 +7739,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="110" customFormat="1">
+    <row r="30" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="93">
         <v>44100</v>
@@ -7724,7 +7749,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="110" customFormat="1">
+    <row r="31" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="93">
         <v>44101</v>
@@ -7734,7 +7759,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="110" customFormat="1">
+    <row r="32" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="93">
         <v>44102</v>
@@ -7744,7 +7769,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="110" customFormat="1">
+    <row r="33" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="93">
         <v>44103</v>
@@ -7754,7 +7779,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="110" customFormat="1">
+    <row r="34" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="93">
         <v>44104</v>
@@ -7764,7 +7789,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>32</v>
       </c>
@@ -7790,7 +7815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7800,7 +7825,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7810,15 +7835,15 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="B2" s="178" t="s">
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7835,7 +7860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="140" customFormat="1">
+    <row r="4" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="92" t="s">
         <v>74</v>
@@ -7850,7 +7875,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="140" customFormat="1">
+    <row r="5" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="92">
         <v>43897</v>
@@ -7863,7 +7888,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="140" customFormat="1">
+    <row r="6" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="92" t="s">
         <v>102</v>
@@ -7876,9 +7901,9 @@
         <v>774000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="183" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="97" t="s">
@@ -7889,9 +7914,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="182"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="97" t="s">
         <v>133</v>
       </c>
@@ -7900,70 +7925,70 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
       <c r="E9" s="47">
         <f>SUM(E4:E8)</f>
         <v>20429000</v>
       </c>
       <c r="F9" s="61"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" s="61"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -7983,21 +8008,21 @@
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -8005,20 +8030,20 @@
       <c r="F21" s="8"/>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="61"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -8029,7 +8054,7 @@
       <c r="R24" s="61"/>
       <c r="S24" s="61"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -8040,28 +8065,28 @@
       <c r="R25" s="61"/>
       <c r="S25" s="61"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="S27" s="61"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
       <c r="S28" s="61"/>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="61"/>
@@ -8082,7 +8107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8092,7 +8117,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -8104,29 +8129,29 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="183" t="s">
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -8137,7 +8162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -8156,7 +8181,7 @@
         <v>107400000</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -8173,10 +8198,10 @@
       </c>
       <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E35)</f>
-        <v>-2644623</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>1573040</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -8185,7 +8210,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>111065377</v>
+        <v>115283040</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -8195,7 +8220,7 @@
         <v>26384000</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -8204,25 +8229,25 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>218465377</v>
+        <v>222683040</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="184" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
-    <row r="16" spans="2:8">
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -8236,11 +8261,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="190" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -8250,11 +8275,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="190"/>
       <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
@@ -8262,11 +8287,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="34" t="s">
         <v>73</v>
       </c>
@@ -8274,11 +8299,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="190"/>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
@@ -8287,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -8302,7 +8327,7 @@
         <v>113350000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -8317,62 +8342,62 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>8</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="190"/>
+      <c r="D23" s="192"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
         <v>113710000</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B26" s="183" t="s">
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-    </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B27" s="185">
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+    </row>
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="187">
         <f>SUM(D11,-E23)</f>
-        <v>104755377</v>
-      </c>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="187"/>
+        <v>108973040</v>
+      </c>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -8392,14 +8417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -8408,45 +8433,45 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="184" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="186"/>
       <c r="D2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="90" customFormat="1">
+    <row r="3" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="46">
         <f>E4</f>
-        <v>111065377</v>
+        <v>115283040</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="46">
         <f>thuốc!D34</f>
-        <v>111065377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>115283040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
@@ -8459,50 +8484,50 @@
       </c>
       <c r="E5" s="46">
         <f>thuốc!C34</f>
-        <v>83543123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>79325460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="46">
         <f>B4-B5</f>
-        <v>-2644623</v>
+        <v>1573040</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="46">
         <f>E4-E5</f>
-        <v>27522254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="184" t="s">
+        <v>35957580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="191" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="191" t="s">
+      <c r="B9" s="194"/>
+      <c r="C9" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="192"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="194"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="46">
         <f>B6</f>
-        <v>-2644623</v>
+        <v>1573040</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>67</v>
@@ -8511,11 +8536,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="206">
+      <c r="B11" s="155">
         <v>111314441</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -8523,60 +8548,60 @@
       </c>
       <c r="D11" s="46">
         <f>E6</f>
-        <v>27522254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>35957580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="46"/>
       <c r="C12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="206">
+      <c r="D12" s="155">
         <v>94952702</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="46">
         <f>B10+B11</f>
-        <v>108669818</v>
+        <v>112887481</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="46">
         <f>SUM(D11:D12)</f>
-        <v>122474956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>130910282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="205"/>
-    </row>
-    <row r="21" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="154"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
     </row>
   </sheetData>
@@ -8593,14 +8618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.140625" style="126" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -8613,10 +8638,10 @@
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="118" customFormat="1">
+    <row r="1" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="126"/>
     </row>
-    <row r="2" spans="2:43">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" s="126" t="s">
         <v>80</v>
       </c>
@@ -8624,112 +8649,112 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="118" customFormat="1">
+    <row r="3" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="126"/>
     </row>
-    <row r="4" spans="2:43" ht="46.5">
-      <c r="B4" s="200" t="s">
+    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-    </row>
-    <row r="5" spans="2:43" s="118" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+    </row>
+    <row r="5" spans="2:43" s="118" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="138"/>
       <c r="C5" s="137"/>
     </row>
-    <row r="6" spans="2:43" ht="18.75">
+    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="128"/>
       <c r="C6" s="139">
         <f>DATE($C$2,9,1)</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="118" customFormat="1">
+    <row r="7" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="128"/>
       <c r="C7" s="129"/>
     </row>
-    <row r="8" spans="2:43" s="118" customFormat="1">
+    <row r="8" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
     </row>
-    <row r="10" spans="2:43">
-      <c r="B10" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="201" t="s">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B10" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="202"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="202"/>
-      <c r="X10" s="202"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="202"/>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="202"/>
-      <c r="AD10" s="202"/>
-      <c r="AE10" s="202"/>
-      <c r="AF10" s="202"/>
-      <c r="AG10" s="202"/>
-      <c r="AH10" s="202"/>
-      <c r="AI10" s="202" t="s">
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="204"/>
+      <c r="AI10" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="AJ10" s="202"/>
-      <c r="AK10" s="202"/>
-      <c r="AL10" s="202"/>
-      <c r="AM10" s="202"/>
-      <c r="AN10" s="202"/>
+      <c r="AJ10" s="204"/>
+      <c r="AK10" s="204"/>
+      <c r="AL10" s="204"/>
+      <c r="AM10" s="204"/>
+      <c r="AN10" s="204"/>
       <c r="AO10" s="125" t="s">
         <v>38</v>
       </c>
       <c r="AP10" s="124"/>
       <c r="AQ10" s="124"/>
     </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
       <c r="D11" s="130">
         <f>C6</f>
         <v>44075</v>
@@ -8854,29 +8879,29 @@
         <f>IF(AG11="","",IF(DAY(AG11+1)=DAY(E11),"",AG11+1))</f>
         <v>44105</v>
       </c>
-      <c r="AI11" s="194" t="s">
+      <c r="AI11" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="AJ11" s="196" t="s">
+      <c r="AJ11" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="203" t="s">
+      <c r="AK11" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="AL11" s="203" t="s">
+      <c r="AL11" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" s="194" t="s">
+      <c r="AM11" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="AN11" s="196" t="s">
+      <c r="AN11" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="AO11" s="198"/>
-    </row>
-    <row r="12" spans="2:43" s="131" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
+      <c r="AO11" s="200"/>
+    </row>
+    <row r="12" spans="2:43" s="131" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
       <c r="D12" s="132" t="str">
         <f>CHOOSE(WEEKDAY(D11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. ba</v>
@@ -9001,15 +9026,15 @@
         <f t="shared" ref="AH12" si="4">CHOOSE(WEEKDAY(AH11),"Chủ nhật","T. hai","T. ba","T. tư","T. năm","T. sáu","T. bảy")</f>
         <v>T. năm</v>
       </c>
-      <c r="AI12" s="195"/>
-      <c r="AJ12" s="197"/>
-      <c r="AK12" s="204"/>
-      <c r="AL12" s="204"/>
-      <c r="AM12" s="195"/>
-      <c r="AN12" s="197"/>
-      <c r="AO12" s="199"/>
-    </row>
-    <row r="13" spans="2:43">
+      <c r="AI12" s="197"/>
+      <c r="AJ12" s="199"/>
+      <c r="AK12" s="206"/>
+      <c r="AL12" s="206"/>
+      <c r="AM12" s="197"/>
+      <c r="AN12" s="199"/>
+      <c r="AO12" s="201"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="119">
         <v>1</v>
       </c>
@@ -9075,7 +9100,7 @@
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="119">
         <v>2</v>
       </c>
@@ -9139,7 +9164,7 @@
       </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="119">
         <v>3</v>
       </c>
@@ -9203,7 +9228,7 @@
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="118" customFormat="1">
+    <row r="16" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="119">
         <v>4</v>
       </c>
@@ -9267,7 +9292,7 @@
       </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" s="119"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
@@ -9311,7 +9336,7 @@
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C20" s="134" t="s">
         <v>89</v>
       </c>
@@ -9319,7 +9344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:41">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C21" s="134" t="s">
         <v>88</v>
       </c>
@@ -9327,7 +9352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:41">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C22" s="134" t="s">
         <v>90</v>
       </c>
@@ -9335,7 +9360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:41">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C23" s="134" t="s">
         <v>87</v>
       </c>
@@ -9343,7 +9368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:41">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C24" s="134" t="s">
         <v>86</v>
       </c>

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C487E4-2A1D-4F3E-83F1-91B666DBBA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090FC26-FBBE-46F1-A2EF-354AA577BA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -1266,21 +1266,6 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,6 +1277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,6 +1291,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,9 +1303,25 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,13 +1331,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1838,111 +1838,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="160" t="s">
+      <c r="A4" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="158" t="s">
+      <c r="D4" s="160"/>
+      <c r="E4" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="156" t="s">
+      <c r="F4" s="170"/>
+      <c r="G4" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157" t="s">
+      <c r="H4" s="160"/>
+      <c r="I4" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="156" t="s">
+      <c r="J4" s="165"/>
+      <c r="K4" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="156"/>
-      <c r="M4" s="157" t="s">
+      <c r="L4" s="160"/>
+      <c r="M4" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="157"/>
-      <c r="O4" s="165" t="s">
+      <c r="N4" s="165"/>
+      <c r="O4" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="156" t="s">
+      <c r="P4" s="161"/>
+      <c r="Q4" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156" t="s">
+      <c r="R4" s="160"/>
+      <c r="S4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156" t="s">
+      <c r="T4" s="160"/>
+      <c r="U4" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156" t="s">
+      <c r="V4" s="160"/>
+      <c r="W4" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="166" t="s">
+      <c r="X4" s="160"/>
+      <c r="Y4" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="170" t="s">
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="167" t="s">
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="164" t="s">
+      <c r="AD4" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="156" t="s">
+      <c r="AE4" s="160" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -2021,9 +2021,9 @@
       <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="156"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="160"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -5463,73 +5463,73 @@
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="169">
-        <v>0</v>
-      </c>
-      <c r="D37" s="169"/>
+      <c r="C37" s="166">
+        <v>0</v>
+      </c>
+      <c r="D37" s="166"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="161"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="161"/>
-      <c r="W37" s="161"/>
-      <c r="X37" s="161"/>
-      <c r="Y37" s="161"/>
-      <c r="Z37" s="161"/>
-      <c r="AA37" s="161"/>
-      <c r="AB37" s="161"/>
-      <c r="AC37" s="161"/>
-      <c r="AD37" s="161"/>
-      <c r="AE37" s="161"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
+      <c r="U37" s="156"/>
+      <c r="V37" s="156"/>
+      <c r="W37" s="156"/>
+      <c r="X37" s="156"/>
+      <c r="Y37" s="156"/>
+      <c r="Z37" s="156"/>
+      <c r="AA37" s="156"/>
+      <c r="AB37" s="156"/>
+      <c r="AC37" s="156"/>
+      <c r="AD37" s="156"/>
+      <c r="AE37" s="156"/>
     </row>
     <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="162">
-        <v>0</v>
-      </c>
-      <c r="D38" s="162"/>
+      <c r="C38" s="157">
+        <v>0</v>
+      </c>
+      <c r="D38" s="157"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="161"/>
-      <c r="V38" s="161"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="161"/>
-      <c r="Y38" s="161"/>
-      <c r="Z38" s="161"/>
-      <c r="AA38" s="161"/>
-      <c r="AB38" s="161"/>
-      <c r="AC38" s="161"/>
-      <c r="AD38" s="161"/>
-      <c r="AE38" s="161"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
+      <c r="AC38" s="156"/>
+      <c r="AD38" s="156"/>
+      <c r="AE38" s="156"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
@@ -5548,6 +5548,13 @@
   </sheetData>
   <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5564,13 +5571,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5588,8 +5588,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="21">
         <v>44080</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="21">
         <v>44090</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="21">
         <v>44100</v>
@@ -6118,8 +6118,8 @@
         <v>5155000</v>
       </c>
       <c r="E29" s="100">
-        <f>SUM(C29,-D29)</f>
-        <v>-2020372</v>
+        <f t="shared" si="0"/>
+        <v>2020372</v>
       </c>
       <c r="F29" s="22"/>
     </row>
@@ -6137,8 +6137,8 @@
         <v>5860000</v>
       </c>
       <c r="E30" s="100">
-        <f>SUM(C30,-D30)</f>
-        <v>-1879148</v>
+        <f t="shared" si="0"/>
+        <v>1879148</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -6156,8 +6156,8 @@
         <v>3260000</v>
       </c>
       <c r="E31" s="100">
-        <f>SUM(C31,-D31)</f>
-        <v>-1188951</v>
+        <f t="shared" si="0"/>
+        <v>1188951</v>
       </c>
       <c r="F31" s="22"/>
     </row>
@@ -6175,8 +6175,8 @@
         <v>2938000</v>
       </c>
       <c r="E32" s="100">
-        <f>SUM(C32,-D32)</f>
-        <v>-683152</v>
+        <f t="shared" si="0"/>
+        <v>683152</v>
       </c>
       <c r="F32" s="34"/>
     </row>
@@ -6188,13 +6188,13 @@
         <v>44104</v>
       </c>
       <c r="C33" s="103">
+        <v>3486040</v>
+      </c>
+      <c r="D33" s="103">
         <v>5040000</v>
       </c>
-      <c r="D33" s="103">
-        <v>3486040</v>
-      </c>
       <c r="E33" s="100">
-        <f>SUM(C33,-D33)</f>
+        <f t="shared" si="0"/>
         <v>1553960</v>
       </c>
       <c r="F33" s="34"/>
@@ -6208,15 +6208,15 @@
       </c>
       <c r="C34" s="43">
         <f>SUM(C4:C33)</f>
-        <v>79325460</v>
+        <v>77771500</v>
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>115283040</v>
+        <v>116837000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>27522254</v>
+        <v>39065500</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -6256,15 +6256,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B3" s="25"/>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="7" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116"/>
-      <c r="B7" s="173">
+      <c r="B7" s="176">
         <v>44077</v>
       </c>
       <c r="C7" s="147"/>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="8" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
-      <c r="B8" s="174"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="147"/>
       <c r="D8" s="116" t="s">
         <v>116</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="9" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
-      <c r="B9" s="175"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="147"/>
       <c r="D9" s="116" t="s">
         <v>117</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116"/>
-      <c r="B10" s="173">
+      <c r="B10" s="176">
         <v>44078</v>
       </c>
       <c r="C10" s="147">
@@ -6373,7 +6373,7 @@
     </row>
     <row r="11" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
-      <c r="B11" s="174"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="147">
         <v>2</v>
       </c>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="12" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
-      <c r="B12" s="174"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="147">
         <v>3</v>
       </c>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="13" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
-      <c r="B13" s="174"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="147">
         <v>4</v>
       </c>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="14" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116"/>
-      <c r="B14" s="174"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="147">
         <v>5</v>
       </c>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="15" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116"/>
-      <c r="B15" s="174"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="147">
         <v>6</v>
       </c>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="16" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116"/>
-      <c r="B16" s="174"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="147">
         <v>7</v>
       </c>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="17" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116"/>
-      <c r="B17" s="174"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="147">
         <v>8</v>
       </c>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="18" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
-      <c r="B18" s="174"/>
+      <c r="B18" s="177"/>
       <c r="C18" s="147">
         <v>9</v>
       </c>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="19" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116"/>
-      <c r="B19" s="174"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="147"/>
       <c r="D19" s="116" t="s">
         <v>127</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="20" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
-      <c r="B20" s="174"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="147"/>
       <c r="D20" s="116" t="s">
         <v>101</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="21" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116"/>
-      <c r="B21" s="174"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="147"/>
       <c r="D21" s="116" t="s">
         <v>101</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="22" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116"/>
-      <c r="B22" s="174"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="147"/>
       <c r="D22" s="116" t="s">
         <v>128</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="23" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
-      <c r="B23" s="174"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="147"/>
       <c r="D23" s="116" t="s">
         <v>104</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="24" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="116"/>
-      <c r="B24" s="175"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="147"/>
       <c r="D24" s="116" t="s">
         <v>104</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="28" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
-      <c r="B28" s="173">
+      <c r="B28" s="176">
         <v>44082</v>
       </c>
       <c r="C28" s="147">
@@ -6629,14 +6629,14 @@
     </row>
     <row r="29" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
-      <c r="B29" s="174"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="147">
         <v>2</v>
       </c>
       <c r="D29" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="176">
+      <c r="E29" s="173">
         <v>1512000</v>
       </c>
       <c r="F29" s="104"/>
@@ -6644,20 +6644,20 @@
     </row>
     <row r="30" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
-      <c r="B30" s="174"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="147">
         <v>3</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="177"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="104"/>
       <c r="G30" s="116"/>
     </row>
     <row r="31" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
-      <c r="B31" s="174"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="147">
         <v>4</v>
       </c>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="32" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
-      <c r="B32" s="174"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="147">
         <v>5</v>
       </c>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="33" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
-      <c r="B33" s="174"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="147">
         <v>6</v>
       </c>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="116"/>
-      <c r="B34" s="174"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="153"/>
       <c r="D34" s="116" t="s">
         <v>169</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="35" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116"/>
-      <c r="B35" s="175"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="147">
         <v>7</v>
       </c>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="39" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
-      <c r="B39" s="173">
+      <c r="B39" s="176">
         <v>44086</v>
       </c>
       <c r="C39" s="147"/>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="40" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="116"/>
-      <c r="B40" s="174"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="149"/>
       <c r="D40" s="116" t="s">
         <v>144</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="41" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
-      <c r="B41" s="174"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="149"/>
       <c r="D41" s="116" t="s">
         <v>145</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="42" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="116"/>
-      <c r="B42" s="174"/>
+      <c r="B42" s="177"/>
       <c r="C42" s="149"/>
       <c r="D42" s="116" t="s">
         <v>146</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="43" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="116"/>
-      <c r="B43" s="174"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="149"/>
       <c r="D43" s="116" t="s">
         <v>147</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="44" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="116"/>
-      <c r="B44" s="174"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="149"/>
       <c r="D44" s="116" t="s">
         <v>126</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="45" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="116"/>
-      <c r="B45" s="174"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="149"/>
       <c r="D45" s="116" t="s">
         <v>148</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="46" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
-      <c r="B46" s="174"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="149"/>
       <c r="D46" s="116" t="s">
         <v>149</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="47" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
-      <c r="B47" s="175"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="149"/>
       <c r="D47" s="116" t="s">
         <v>150</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="54" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="116"/>
-      <c r="B54" s="173">
+      <c r="B54" s="176">
         <v>44093</v>
       </c>
       <c r="C54" s="147"/>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="55" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="116"/>
-      <c r="B55" s="175"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="149"/>
       <c r="D55" s="116" t="s">
         <v>154</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="58" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="116"/>
-      <c r="B58" s="173">
+      <c r="B58" s="176">
         <v>44096</v>
       </c>
       <c r="C58" s="147"/>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="59" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="116"/>
-      <c r="B59" s="174"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="149"/>
       <c r="D59" s="116" t="s">
         <v>156</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="60" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="116"/>
-      <c r="B60" s="174"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="149"/>
       <c r="D60" s="116" t="s">
         <v>157</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="61" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="116"/>
-      <c r="B61" s="174"/>
+      <c r="B61" s="177"/>
       <c r="C61" s="149"/>
       <c r="D61" s="116" t="s">
         <v>158</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="62" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
-      <c r="B62" s="174"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="149"/>
       <c r="D62" s="116" t="s">
         <v>159</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="63" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
-      <c r="B63" s="174"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="149"/>
       <c r="D63" s="116" t="s">
         <v>160</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="64" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
-      <c r="B64" s="175"/>
+      <c r="B64" s="178"/>
       <c r="C64" s="149"/>
       <c r="D64" s="116"/>
       <c r="E64" s="104"/>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="65" spans="1:7" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
-      <c r="B65" s="173">
+      <c r="B65" s="176">
         <v>44097</v>
       </c>
       <c r="C65" s="147"/>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="66" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="116"/>
-      <c r="B66" s="175"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="149"/>
       <c r="D66" s="116" t="s">
         <v>163</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="67" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="116"/>
-      <c r="B67" s="173">
+      <c r="B67" s="176">
         <v>44098</v>
       </c>
       <c r="C67" s="147"/>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="68" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="116"/>
-      <c r="B68" s="175"/>
+      <c r="B68" s="178"/>
       <c r="C68" s="149"/>
       <c r="D68" s="116" t="s">
         <v>165</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="69" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116"/>
-      <c r="B69" s="173">
+      <c r="B69" s="176">
         <v>44099</v>
       </c>
       <c r="C69" s="147"/>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="70" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="116"/>
-      <c r="B70" s="174"/>
+      <c r="B70" s="177"/>
       <c r="C70" s="149"/>
       <c r="D70" s="116" t="s">
         <v>167</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="71" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="116"/>
-      <c r="B71" s="174"/>
+      <c r="B71" s="177"/>
       <c r="C71" s="153"/>
       <c r="D71" s="116" t="s">
         <v>116</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="72" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116"/>
-      <c r="B72" s="175"/>
+      <c r="B72" s="178"/>
       <c r="C72" s="149"/>
       <c r="D72" s="116" t="s">
         <v>168</v>
@@ -7362,17 +7362,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B10:B24"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B39:B47"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B10:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E35)</f>
-        <v>1573040</v>
+        <v>3127000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>115283040</v>
+        <v>116837000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>222683040</v>
+        <v>224237000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="46"/>
@@ -8366,7 +8366,7 @@
     <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="187">
         <f>SUM(D11,-E23)</f>
-        <v>108973040</v>
+        <v>110527000</v>
       </c>
       <c r="C27" s="188"/>
       <c r="D27" s="188"/>
@@ -8420,7 +8420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -8461,14 +8461,14 @@
       </c>
       <c r="B4" s="46">
         <f>E4</f>
-        <v>115283040</v>
+        <v>116837000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="46">
         <f>thuốc!D34</f>
-        <v>115283040</v>
+        <v>116837000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E5" s="46">
         <f>thuốc!C34</f>
-        <v>79325460</v>
+        <v>77771500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="B6" s="46">
         <f>B4-B5</f>
-        <v>1573040</v>
+        <v>3127000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="46">
         <f>E4-E5</f>
-        <v>35957580</v>
+        <v>39065500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="B10" s="46">
         <f>B6</f>
-        <v>1573040</v>
+        <v>3127000</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>67</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D11" s="46">
         <f>E6</f>
-        <v>35957580</v>
+        <v>39065500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8567,14 +8567,14 @@
       </c>
       <c r="B13" s="46">
         <f>B10+B11</f>
-        <v>112887481</v>
+        <v>114441441</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="46">
         <f>SUM(D11:D12)</f>
-        <v>130910282</v>
+        <v>134018202</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
+++ b/Báo cáo/tháng 9 - 2020/báo cáo bán hàng tháng 9-2020.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090FC26-FBBE-46F1-A2EF-354AA577BA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="khám bệnh" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'khám bệnh'!$AE$4:$AE$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nợ!$B$3:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -547,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -557,7 +556,7 @@
     <numFmt numFmtId="169" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="170" formatCode="dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1265,21 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1277,9 +1291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,9 +1302,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,18 +1311,18 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1322,15 +1330,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,23 +1538,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1591,23 +1573,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1783,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1797,7 +1762,7 @@
       <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="15" customWidth="1"/>
@@ -1837,112 +1802,112 @@
     <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="158" t="s">
+    <row r="2" spans="1:46" ht="36">
+      <c r="B2" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="171" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="169" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="160" t="s">
+      <c r="F4" s="159"/>
+      <c r="G4" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="156"/>
+      <c r="I4" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="160" t="s">
+      <c r="J4" s="157"/>
+      <c r="K4" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="165" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="165"/>
-      <c r="O4" s="161" t="s">
+      <c r="N4" s="157"/>
+      <c r="O4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="160" t="s">
+      <c r="P4" s="165"/>
+      <c r="Q4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160" t="s">
+      <c r="R4" s="156"/>
+      <c r="S4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160" t="s">
+      <c r="T4" s="156"/>
+      <c r="U4" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160" t="s">
+      <c r="V4" s="156"/>
+      <c r="W4" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="162" t="s">
+      <c r="X4" s="156"/>
+      <c r="Y4" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="167" t="s">
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="163" t="s">
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="159" t="s">
+      <c r="AD4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="160" t="s">
+      <c r="AE4" s="156" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="171"/>
+    <row r="5" spans="1:46" ht="15" customHeight="1">
+      <c r="A5" s="156"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -2021,9 +1986,9 @@
       <c r="AB5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="160"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="156"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
@@ -2040,7 +2005,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2148,7 +2113,7 @@
       </c>
       <c r="AE6" s="63"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2256,7 +2221,7 @@
       </c>
       <c r="AE7" s="76"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2377,7 +2342,7 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
     </row>
-    <row r="9" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" customFormat="1">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2485,7 +2450,7 @@
       </c>
       <c r="AE9" s="76"/>
     </row>
-    <row r="10" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" customFormat="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2593,7 +2558,7 @@
       </c>
       <c r="AE10" s="76"/>
     </row>
-    <row r="11" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" customFormat="1">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2701,7 +2666,7 @@
       </c>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" customFormat="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2809,7 +2774,7 @@
       </c>
       <c r="AE12" s="76"/>
     </row>
-    <row r="13" spans="1:46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" customFormat="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2917,7 +2882,7 @@
       </c>
       <c r="AE13" s="76"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -3029,7 +2994,7 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46">
       <c r="A15" s="80"/>
       <c r="B15" s="56">
         <v>44084</v>
@@ -3139,7 +3104,7 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46">
       <c r="A16" s="80"/>
       <c r="B16" s="56">
         <v>44085</v>
@@ -3249,7 +3214,7 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="80"/>
       <c r="B17" s="56">
         <v>44086</v>
@@ -3359,7 +3324,7 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="80"/>
       <c r="B18" s="56">
         <v>44087</v>
@@ -3469,7 +3434,7 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="80"/>
       <c r="B19" s="56">
         <v>44088</v>
@@ -3579,7 +3544,7 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="80"/>
       <c r="B20" s="56">
         <v>44089</v>
@@ -3689,7 +3654,7 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="80"/>
       <c r="B21" s="56">
         <v>44090</v>
@@ -3799,7 +3764,7 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="80"/>
       <c r="B22" s="56">
         <v>44091</v>
@@ -3909,7 +3874,7 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="80"/>
       <c r="B23" s="56">
         <v>44092</v>
@@ -4019,7 +3984,7 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="80"/>
       <c r="B24" s="56">
         <v>44093</v>
@@ -4129,7 +4094,7 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="80"/>
       <c r="B25" s="56">
         <v>44094</v>
@@ -4239,7 +4204,7 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="80"/>
       <c r="B26" s="56">
         <v>44095</v>
@@ -4349,7 +4314,7 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="80"/>
       <c r="B27" s="56">
         <v>44096</v>
@@ -4459,7 +4424,7 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="80"/>
       <c r="B28" s="56">
         <v>44097</v>
@@ -4569,7 +4534,7 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="80"/>
       <c r="B29" s="56">
         <v>44098</v>
@@ -4679,7 +4644,7 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="80"/>
       <c r="B30" s="56">
         <v>44099</v>
@@ -4789,7 +4754,7 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="80"/>
       <c r="B31" s="56">
         <v>44100</v>
@@ -4899,7 +4864,7 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="80"/>
       <c r="B32" s="56">
         <v>44101</v>
@@ -5009,7 +4974,7 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="80"/>
       <c r="B33" s="56">
         <v>44102</v>
@@ -5119,7 +5084,7 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="82"/>
       <c r="B34" s="56">
         <v>44103</v>
@@ -5229,7 +5194,7 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="82"/>
       <c r="B35" s="56">
         <v>44104</v>
@@ -5339,7 +5304,7 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="4"/>
       <c r="B36" s="56" t="s">
         <v>8</v>
@@ -5458,83 +5423,83 @@
       </c>
       <c r="AE36" s="63"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="52"/>
       <c r="B37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="166">
-        <v>0</v>
-      </c>
-      <c r="D37" s="166"/>
+      <c r="C37" s="169">
+        <v>0</v>
+      </c>
+      <c r="D37" s="169"/>
       <c r="E37" s="88"/>
       <c r="F37" s="88"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="156"/>
-      <c r="U37" s="156"/>
-      <c r="V37" s="156"/>
-      <c r="W37" s="156"/>
-      <c r="X37" s="156"/>
-      <c r="Y37" s="156"/>
-      <c r="Z37" s="156"/>
-      <c r="AA37" s="156"/>
-      <c r="AB37" s="156"/>
-      <c r="AC37" s="156"/>
-      <c r="AD37" s="156"/>
-      <c r="AE37" s="156"/>
-    </row>
-    <row r="38" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="161"/>
+      <c r="S37" s="161"/>
+      <c r="T37" s="161"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="161"/>
+      <c r="AA37" s="161"/>
+      <c r="AB37" s="161"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="161"/>
+      <c r="AE37" s="161"/>
+    </row>
+    <row r="38" spans="1:35" s="11" customFormat="1">
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="157">
-        <v>0</v>
-      </c>
-      <c r="D38" s="157"/>
+      <c r="C38" s="162">
+        <v>0</v>
+      </c>
+      <c r="D38" s="162"/>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="156"/>
-      <c r="T38" s="156"/>
-      <c r="U38" s="156"/>
-      <c r="V38" s="156"/>
-      <c r="W38" s="156"/>
-      <c r="X38" s="156"/>
-      <c r="Y38" s="156"/>
-      <c r="Z38" s="156"/>
-      <c r="AA38" s="156"/>
-      <c r="AB38" s="156"/>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="156"/>
-      <c r="AE38" s="156"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="161"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
       <c r="AH38" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="51"/>
@@ -5542,19 +5507,12 @@
       <c r="M39" s="2"/>
       <c r="N39" s="51"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="AE41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="AE4:AE38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="AE4:AE38"/>
   <mergeCells count="23">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G38:AE38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B2:AE2"/>
@@ -5571,6 +5529,13 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5582,24 +5547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="172" t="s">
         <v>106</v>
       </c>
@@ -5609,7 +5574,7 @@
       <c r="E1" s="172"/>
       <c r="F1" s="172"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -5629,7 +5594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -5648,7 +5613,7 @@
       </c>
       <c r="F4" s="102"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -5667,7 +5632,7 @@
       </c>
       <c r="F5" s="102"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -5686,7 +5651,7 @@
       </c>
       <c r="F6" s="102"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -5705,7 +5670,7 @@
       </c>
       <c r="F7" s="102"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -5724,7 +5689,7 @@
       </c>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -5743,7 +5708,7 @@
       </c>
       <c r="F9" s="60"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -5762,7 +5727,7 @@
       </c>
       <c r="F10" s="60"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -5781,7 +5746,7 @@
       </c>
       <c r="F11" s="60"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -5800,7 +5765,7 @@
       </c>
       <c r="F12" s="60"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -5819,7 +5784,7 @@
       </c>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -5838,7 +5803,7 @@
       </c>
       <c r="F14" s="60"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -5857,7 +5822,7 @@
       </c>
       <c r="F15" s="60"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -5876,7 +5841,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -5895,7 +5860,7 @@
       </c>
       <c r="F17" s="60"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -5914,7 +5879,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>16</v>
       </c>
@@ -5933,7 +5898,7 @@
       </c>
       <c r="F19" s="60"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>17</v>
       </c>
@@ -5952,7 +5917,7 @@
       </c>
       <c r="F20" s="60"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>18</v>
       </c>
@@ -5971,7 +5936,7 @@
       </c>
       <c r="F21" s="60"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>19</v>
       </c>
@@ -5990,7 +5955,7 @@
       </c>
       <c r="F22" s="60"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="34">
         <v>20</v>
       </c>
@@ -6009,7 +5974,7 @@
       </c>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>21</v>
       </c>
@@ -6028,7 +5993,7 @@
       </c>
       <c r="F24" s="60"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>22</v>
       </c>
@@ -6047,7 +6012,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="34">
         <v>23</v>
       </c>
@@ -6066,7 +6031,7 @@
       </c>
       <c r="F26" s="101"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="34">
         <v>24</v>
       </c>
@@ -6077,15 +6042,15 @@
         <v>3334021</v>
       </c>
       <c r="D27" s="103">
-        <v>5430000</v>
+        <v>5130000</v>
       </c>
       <c r="E27" s="100">
         <f t="shared" si="0"/>
-        <v>2095979</v>
+        <v>1795979</v>
       </c>
       <c r="F27" s="101"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="34">
         <v>25</v>
       </c>
@@ -6104,7 +6069,7 @@
       </c>
       <c r="F28" s="101"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="34">
         <v>26</v>
       </c>
@@ -6123,7 +6088,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="34">
         <v>27</v>
       </c>
@@ -6142,7 +6107,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="34">
         <v>28</v>
       </c>
@@ -6161,7 +6126,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="83" customFormat="1">
       <c r="A32" s="34">
         <v>29</v>
       </c>
@@ -6180,7 +6145,7 @@
       </c>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="83" customFormat="1">
       <c r="A33" s="34">
         <v>30</v>
       </c>
@@ -6199,7 +6164,7 @@
       </c>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="34">
         <v>32</v>
       </c>
@@ -6212,11 +6177,11 @@
       </c>
       <c r="D34" s="43">
         <f>SUM(D4:D33)</f>
-        <v>116837000</v>
+        <v>116537000</v>
       </c>
       <c r="E34" s="43">
         <f>SUM(E4:E33)</f>
-        <v>39065500</v>
+        <v>38765500</v>
       </c>
       <c r="F34" s="23"/>
     </row>
@@ -6231,17 +6196,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
@@ -6255,22 +6220,22 @@
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:7" s="79" customFormat="1" ht="31.5">
+      <c r="A2" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
       <c r="B3" s="25"/>
       <c r="C3" s="150"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
@@ -6291,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="65" customFormat="1">
       <c r="A5" s="116"/>
       <c r="B5" s="115">
         <v>44075</v>
@@ -6302,7 +6267,7 @@
       <c r="F5" s="104"/>
       <c r="G5" s="116"/>
     </row>
-    <row r="6" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="95" customFormat="1">
       <c r="A6" s="116"/>
       <c r="B6" s="115">
         <v>44076</v>
@@ -6313,9 +6278,9 @@
       <c r="F6" s="104"/>
       <c r="G6" s="116"/>
     </row>
-    <row r="7" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="95" customFormat="1">
       <c r="A7" s="116"/>
-      <c r="B7" s="176">
+      <c r="B7" s="173">
         <v>44077</v>
       </c>
       <c r="C7" s="147"/>
@@ -6328,9 +6293,9 @@
       <c r="F7" s="104"/>
       <c r="G7" s="116"/>
     </row>
-    <row r="8" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="144" customFormat="1">
       <c r="A8" s="116"/>
-      <c r="B8" s="177"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="147"/>
       <c r="D8" s="116" t="s">
         <v>116</v>
@@ -6341,9 +6306,9 @@
       <c r="F8" s="104"/>
       <c r="G8" s="116"/>
     </row>
-    <row r="9" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="144" customFormat="1">
       <c r="A9" s="116"/>
-      <c r="B9" s="178"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="147"/>
       <c r="D9" s="116" t="s">
         <v>117</v>
@@ -6354,9 +6319,9 @@
       <c r="F9" s="104"/>
       <c r="G9" s="116"/>
     </row>
-    <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="114" customFormat="1">
       <c r="A10" s="116"/>
-      <c r="B10" s="176">
+      <c r="B10" s="173">
         <v>44078</v>
       </c>
       <c r="C10" s="147">
@@ -6371,9 +6336,9 @@
       <c r="F10" s="104"/>
       <c r="G10" s="116"/>
     </row>
-    <row r="11" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="144" customFormat="1">
       <c r="A11" s="116"/>
-      <c r="B11" s="177"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="147">
         <v>2</v>
       </c>
@@ -6386,9 +6351,9 @@
       <c r="F11" s="104"/>
       <c r="G11" s="116"/>
     </row>
-    <row r="12" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="144" customFormat="1">
       <c r="A12" s="116"/>
-      <c r="B12" s="177"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="147">
         <v>3</v>
       </c>
@@ -6401,9 +6366,9 @@
       <c r="F12" s="104"/>
       <c r="G12" s="116"/>
     </row>
-    <row r="13" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="144" customFormat="1">
       <c r="A13" s="116"/>
-      <c r="B13" s="177"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="147">
         <v>4</v>
       </c>
@@ -6416,9 +6381,9 @@
       <c r="F13" s="104"/>
       <c r="G13" s="116"/>
     </row>
-    <row r="14" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="144" customFormat="1">
       <c r="A14" s="116"/>
-      <c r="B14" s="177"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="147">
         <v>5</v>
       </c>
@@ -6431,9 +6396,9 @@
       <c r="F14" s="104"/>
       <c r="G14" s="116"/>
     </row>
-    <row r="15" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="144" customFormat="1">
       <c r="A15" s="116"/>
-      <c r="B15" s="177"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="147">
         <v>6</v>
       </c>
@@ -6446,9 +6411,9 @@
       <c r="F15" s="104"/>
       <c r="G15" s="116"/>
     </row>
-    <row r="16" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="144" customFormat="1">
       <c r="A16" s="116"/>
-      <c r="B16" s="177"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="147">
         <v>7</v>
       </c>
@@ -6461,9 +6426,9 @@
       <c r="F16" s="104"/>
       <c r="G16" s="116"/>
     </row>
-    <row r="17" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="144" customFormat="1">
       <c r="A17" s="116"/>
-      <c r="B17" s="177"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="147">
         <v>8</v>
       </c>
@@ -6476,9 +6441,9 @@
       <c r="F17" s="104"/>
       <c r="G17" s="116"/>
     </row>
-    <row r="18" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="144" customFormat="1">
       <c r="A18" s="116"/>
-      <c r="B18" s="177"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="147">
         <v>9</v>
       </c>
@@ -6491,9 +6456,9 @@
       <c r="F18" s="104"/>
       <c r="G18" s="116"/>
     </row>
-    <row r="19" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="144" customFormat="1">
       <c r="A19" s="116"/>
-      <c r="B19" s="177"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="147"/>
       <c r="D19" s="116" t="s">
         <v>127</v>
@@ -6504,9 +6469,9 @@
       <c r="F19" s="104"/>
       <c r="G19" s="116"/>
     </row>
-    <row r="20" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="144" customFormat="1">
       <c r="A20" s="116"/>
-      <c r="B20" s="177"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="147"/>
       <c r="D20" s="116" t="s">
         <v>101</v>
@@ -6519,9 +6484,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="144" customFormat="1">
       <c r="A21" s="116"/>
-      <c r="B21" s="177"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="147"/>
       <c r="D21" s="116" t="s">
         <v>101</v>
@@ -6531,9 +6496,9 @@
       </c>
       <c r="F21" s="104"/>
     </row>
-    <row r="22" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="144" customFormat="1">
       <c r="A22" s="116"/>
-      <c r="B22" s="177"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="147"/>
       <c r="D22" s="116" t="s">
         <v>128</v>
@@ -6546,9 +6511,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="144" customFormat="1">
       <c r="A23" s="116"/>
-      <c r="B23" s="177"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="147"/>
       <c r="D23" s="116" t="s">
         <v>104</v>
@@ -6561,9 +6526,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="144" customFormat="1">
       <c r="A24" s="116"/>
-      <c r="B24" s="178"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="147"/>
       <c r="D24" s="116" t="s">
         <v>104</v>
@@ -6576,7 +6541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="114" customFormat="1">
       <c r="A25" s="116"/>
       <c r="B25" s="115">
         <v>44079</v>
@@ -6587,7 +6552,7 @@
       <c r="F25" s="104"/>
       <c r="G25" s="116"/>
     </row>
-    <row r="26" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="114" customFormat="1">
       <c r="A26" s="116"/>
       <c r="B26" s="115">
         <v>44080</v>
@@ -6598,7 +6563,7 @@
       <c r="F26" s="104"/>
       <c r="G26" s="116"/>
     </row>
-    <row r="27" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="114" customFormat="1">
       <c r="A27" s="116"/>
       <c r="B27" s="115">
         <v>44081</v>
@@ -6607,13 +6572,15 @@
       <c r="D27" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="104"/>
+      <c r="E27" s="104">
+        <v>1680000</v>
+      </c>
       <c r="F27" s="104"/>
       <c r="G27" s="116"/>
     </row>
-    <row r="28" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="95" customFormat="1">
       <c r="A28" s="116"/>
-      <c r="B28" s="176">
+      <c r="B28" s="173">
         <v>44082</v>
       </c>
       <c r="C28" s="147">
@@ -6627,37 +6594,37 @@
       </c>
       <c r="G28" s="116"/>
     </row>
-    <row r="29" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="144" customFormat="1">
       <c r="A29" s="116"/>
-      <c r="B29" s="177"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="147">
         <v>2</v>
       </c>
       <c r="D29" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="173">
+      <c r="E29" s="176">
         <v>1512000</v>
       </c>
       <c r="F29" s="104"/>
       <c r="G29" s="116"/>
     </row>
-    <row r="30" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="144" customFormat="1">
       <c r="A30" s="116"/>
-      <c r="B30" s="177"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="147">
         <v>3</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="174"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="104"/>
       <c r="G30" s="116"/>
     </row>
-    <row r="31" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="144" customFormat="1">
       <c r="A31" s="116"/>
-      <c r="B31" s="177"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="147">
         <v>4</v>
       </c>
@@ -6670,9 +6637,9 @@
       <c r="F31" s="104"/>
       <c r="G31" s="116"/>
     </row>
-    <row r="32" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="144" customFormat="1">
       <c r="A32" s="116"/>
-      <c r="B32" s="177"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="147">
         <v>5</v>
       </c>
@@ -6685,9 +6652,9 @@
       <c r="F32" s="104"/>
       <c r="G32" s="116"/>
     </row>
-    <row r="33" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="144" customFormat="1">
       <c r="A33" s="116"/>
-      <c r="B33" s="177"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="147">
         <v>6</v>
       </c>
@@ -6700,9 +6667,9 @@
       <c r="F33" s="104"/>
       <c r="G33" s="116"/>
     </row>
-    <row r="34" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="152" customFormat="1">
       <c r="A34" s="116"/>
-      <c r="B34" s="177"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="153"/>
       <c r="D34" s="116" t="s">
         <v>169</v>
@@ -6715,9 +6682,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="144" customFormat="1">
       <c r="A35" s="116"/>
-      <c r="B35" s="178"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="147">
         <v>7</v>
       </c>
@@ -6730,7 +6697,7 @@
       <c r="F35" s="104"/>
       <c r="G35" s="116"/>
     </row>
-    <row r="36" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="95" customFormat="1">
       <c r="A36" s="116"/>
       <c r="B36" s="115">
         <v>44083</v>
@@ -6741,7 +6708,7 @@
       <c r="F36" s="104"/>
       <c r="G36" s="116"/>
     </row>
-    <row r="37" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="95" customFormat="1">
       <c r="A37" s="116"/>
       <c r="B37" s="115">
         <v>44084</v>
@@ -6756,7 +6723,7 @@
       </c>
       <c r="G37" s="116"/>
     </row>
-    <row r="38" spans="1:7" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="118" customFormat="1">
       <c r="A38" s="116"/>
       <c r="B38" s="115">
         <v>44085</v>
@@ -6767,9 +6734,9 @@
       <c r="F38" s="104"/>
       <c r="G38" s="116"/>
     </row>
-    <row r="39" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="65" customFormat="1">
       <c r="A39" s="116"/>
-      <c r="B39" s="176">
+      <c r="B39" s="173">
         <v>44086</v>
       </c>
       <c r="C39" s="147"/>
@@ -6782,9 +6749,9 @@
       <c r="F39" s="104"/>
       <c r="G39" s="116"/>
     </row>
-    <row r="40" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="148" customFormat="1">
       <c r="A40" s="116"/>
-      <c r="B40" s="177"/>
+      <c r="B40" s="174"/>
       <c r="C40" s="149"/>
       <c r="D40" s="116" t="s">
         <v>144</v>
@@ -6795,9 +6762,9 @@
       <c r="F40" s="104"/>
       <c r="G40" s="116"/>
     </row>
-    <row r="41" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="148" customFormat="1">
       <c r="A41" s="116"/>
-      <c r="B41" s="177"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="149"/>
       <c r="D41" s="116" t="s">
         <v>145</v>
@@ -6808,9 +6775,9 @@
       <c r="F41" s="104"/>
       <c r="G41" s="116"/>
     </row>
-    <row r="42" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="148" customFormat="1">
       <c r="A42" s="116"/>
-      <c r="B42" s="177"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="149"/>
       <c r="D42" s="116" t="s">
         <v>146</v>
@@ -6821,9 +6788,9 @@
       <c r="F42" s="104"/>
       <c r="G42" s="116"/>
     </row>
-    <row r="43" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="148" customFormat="1">
       <c r="A43" s="116"/>
-      <c r="B43" s="177"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="149"/>
       <c r="D43" s="116" t="s">
         <v>147</v>
@@ -6834,9 +6801,9 @@
       <c r="F43" s="104"/>
       <c r="G43" s="116"/>
     </row>
-    <row r="44" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="148" customFormat="1">
       <c r="A44" s="116"/>
-      <c r="B44" s="177"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="149"/>
       <c r="D44" s="116" t="s">
         <v>126</v>
@@ -6847,9 +6814,9 @@
       <c r="F44" s="104"/>
       <c r="G44" s="116"/>
     </row>
-    <row r="45" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="148" customFormat="1">
       <c r="A45" s="116"/>
-      <c r="B45" s="177"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="149"/>
       <c r="D45" s="116" t="s">
         <v>148</v>
@@ -6860,9 +6827,9 @@
       <c r="F45" s="104"/>
       <c r="G45" s="116"/>
     </row>
-    <row r="46" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="148" customFormat="1">
       <c r="A46" s="116"/>
-      <c r="B46" s="177"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="149"/>
       <c r="D46" s="116" t="s">
         <v>149</v>
@@ -6873,9 +6840,9 @@
       <c r="F46" s="104"/>
       <c r="G46" s="116"/>
     </row>
-    <row r="47" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="148" customFormat="1">
       <c r="A47" s="116"/>
-      <c r="B47" s="178"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="149"/>
       <c r="D47" s="116" t="s">
         <v>150</v>
@@ -6886,7 +6853,7 @@
       <c r="F47" s="104"/>
       <c r="G47" s="116"/>
     </row>
-    <row r="48" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="87" customFormat="1">
       <c r="A48" s="116"/>
       <c r="B48" s="115">
         <v>44087</v>
@@ -6897,7 +6864,7 @@
       <c r="F48" s="104"/>
       <c r="G48" s="116"/>
     </row>
-    <row r="49" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="68" customFormat="1">
       <c r="A49" s="116"/>
       <c r="B49" s="115">
         <v>44088</v>
@@ -6912,7 +6879,7 @@
       <c r="F49" s="104"/>
       <c r="G49" s="116"/>
     </row>
-    <row r="50" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="95" customFormat="1">
       <c r="A50" s="116"/>
       <c r="B50" s="115">
         <v>44089</v>
@@ -6923,7 +6890,7 @@
       <c r="F50" s="104"/>
       <c r="G50" s="116"/>
     </row>
-    <row r="51" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="95" customFormat="1">
       <c r="A51" s="116"/>
       <c r="B51" s="115">
         <v>44090</v>
@@ -6934,7 +6901,7 @@
       <c r="F51" s="104"/>
       <c r="G51" s="116"/>
     </row>
-    <row r="52" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="98" customFormat="1">
       <c r="A52" s="116"/>
       <c r="B52" s="115">
         <v>44091</v>
@@ -6949,7 +6916,7 @@
       <c r="F52" s="104"/>
       <c r="G52" s="116"/>
     </row>
-    <row r="53" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="95" customFormat="1">
       <c r="A53" s="116"/>
       <c r="B53" s="115">
         <v>44092</v>
@@ -6960,9 +6927,9 @@
       <c r="F53" s="104"/>
       <c r="G53" s="116"/>
     </row>
-    <row r="54" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="85" customFormat="1">
       <c r="A54" s="116"/>
-      <c r="B54" s="176">
+      <c r="B54" s="173">
         <v>44093</v>
       </c>
       <c r="C54" s="147"/>
@@ -6975,9 +6942,9 @@
       <c r="F54" s="104"/>
       <c r="G54" s="116"/>
     </row>
-    <row r="55" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="148" customFormat="1">
       <c r="A55" s="116"/>
-      <c r="B55" s="178"/>
+      <c r="B55" s="175"/>
       <c r="C55" s="149"/>
       <c r="D55" s="116" t="s">
         <v>154</v>
@@ -6988,7 +6955,7 @@
       <c r="F55" s="104"/>
       <c r="G55" s="116"/>
     </row>
-    <row r="56" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="98" customFormat="1">
       <c r="A56" s="116"/>
       <c r="B56" s="115">
         <v>44094</v>
@@ -6999,7 +6966,7 @@
       <c r="F56" s="104"/>
       <c r="G56" s="116"/>
     </row>
-    <row r="57" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="98" customFormat="1">
       <c r="A57" s="116"/>
       <c r="B57" s="115">
         <v>44095</v>
@@ -7013,9 +6980,9 @@
       </c>
       <c r="G57" s="116"/>
     </row>
-    <row r="58" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="98" customFormat="1">
       <c r="A58" s="116"/>
-      <c r="B58" s="176">
+      <c r="B58" s="173">
         <v>44096</v>
       </c>
       <c r="C58" s="147"/>
@@ -7028,9 +6995,9 @@
       <c r="F58" s="104"/>
       <c r="G58" s="116"/>
     </row>
-    <row r="59" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="148" customFormat="1">
       <c r="A59" s="116"/>
-      <c r="B59" s="177"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="149"/>
       <c r="D59" s="116" t="s">
         <v>156</v>
@@ -7041,9 +7008,9 @@
       <c r="F59" s="104"/>
       <c r="G59" s="116"/>
     </row>
-    <row r="60" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="148" customFormat="1">
       <c r="A60" s="116"/>
-      <c r="B60" s="177"/>
+      <c r="B60" s="174"/>
       <c r="C60" s="149"/>
       <c r="D60" s="116" t="s">
         <v>157</v>
@@ -7054,9 +7021,9 @@
       <c r="F60" s="104"/>
       <c r="G60" s="116"/>
     </row>
-    <row r="61" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="148" customFormat="1">
       <c r="A61" s="116"/>
-      <c r="B61" s="177"/>
+      <c r="B61" s="174"/>
       <c r="C61" s="149"/>
       <c r="D61" s="116" t="s">
         <v>158</v>
@@ -7067,9 +7034,9 @@
       <c r="F61" s="104"/>
       <c r="G61" s="116"/>
     </row>
-    <row r="62" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="148" customFormat="1">
       <c r="A62" s="116"/>
-      <c r="B62" s="177"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="149"/>
       <c r="D62" s="116" t="s">
         <v>159</v>
@@ -7080,9 +7047,9 @@
       <c r="F62" s="104"/>
       <c r="G62" s="116"/>
     </row>
-    <row r="63" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="148" customFormat="1">
       <c r="A63" s="116"/>
-      <c r="B63" s="177"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="149"/>
       <c r="D63" s="116" t="s">
         <v>160</v>
@@ -7093,18 +7060,18 @@
       <c r="F63" s="104"/>
       <c r="G63" s="116"/>
     </row>
-    <row r="64" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="148" customFormat="1">
       <c r="A64" s="116"/>
-      <c r="B64" s="178"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="149"/>
       <c r="D64" s="116"/>
       <c r="E64" s="104"/>
       <c r="F64" s="104"/>
       <c r="G64" s="116"/>
     </row>
-    <row r="65" spans="1:7" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="118" customFormat="1">
       <c r="A65" s="116"/>
-      <c r="B65" s="176">
+      <c r="B65" s="173">
         <v>44097</v>
       </c>
       <c r="C65" s="147"/>
@@ -7117,9 +7084,9 @@
       <c r="F65" s="104"/>
       <c r="G65" s="116"/>
     </row>
-    <row r="66" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="148" customFormat="1">
       <c r="A66" s="116"/>
-      <c r="B66" s="178"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="149"/>
       <c r="D66" s="116" t="s">
         <v>163</v>
@@ -7130,9 +7097,9 @@
       <c r="F66" s="104"/>
       <c r="G66" s="116"/>
     </row>
-    <row r="67" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="98" customFormat="1">
       <c r="A67" s="116"/>
-      <c r="B67" s="176">
+      <c r="B67" s="173">
         <v>44098</v>
       </c>
       <c r="C67" s="147"/>
@@ -7145,9 +7112,9 @@
       <c r="F67" s="104"/>
       <c r="G67" s="116"/>
     </row>
-    <row r="68" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="148" customFormat="1">
       <c r="A68" s="116"/>
-      <c r="B68" s="178"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="149"/>
       <c r="D68" s="116" t="s">
         <v>165</v>
@@ -7158,9 +7125,9 @@
       <c r="F68" s="104"/>
       <c r="G68" s="116"/>
     </row>
-    <row r="69" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="98" customFormat="1">
       <c r="A69" s="116"/>
-      <c r="B69" s="176">
+      <c r="B69" s="173">
         <v>44099</v>
       </c>
       <c r="C69" s="147"/>
@@ -7173,9 +7140,9 @@
       <c r="F69" s="104"/>
       <c r="G69" s="116"/>
     </row>
-    <row r="70" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="148" customFormat="1">
       <c r="A70" s="116"/>
-      <c r="B70" s="177"/>
+      <c r="B70" s="174"/>
       <c r="C70" s="149"/>
       <c r="D70" s="116" t="s">
         <v>167</v>
@@ -7186,9 +7153,9 @@
       <c r="F70" s="104"/>
       <c r="G70" s="116"/>
     </row>
-    <row r="71" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="152" customFormat="1">
       <c r="A71" s="116"/>
-      <c r="B71" s="177"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="153"/>
       <c r="D71" s="116" t="s">
         <v>116</v>
@@ -7199,9 +7166,9 @@
       </c>
       <c r="G71" s="116"/>
     </row>
-    <row r="72" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="148" customFormat="1">
       <c r="A72" s="116"/>
-      <c r="B72" s="178"/>
+      <c r="B72" s="175"/>
       <c r="C72" s="149"/>
       <c r="D72" s="116" t="s">
         <v>168</v>
@@ -7212,7 +7179,7 @@
       <c r="F72" s="104"/>
       <c r="G72" s="116"/>
     </row>
-    <row r="73" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="98" customFormat="1">
       <c r="A73" s="116"/>
       <c r="B73" s="115">
         <v>44100</v>
@@ -7223,7 +7190,7 @@
       <c r="F73" s="104"/>
       <c r="G73" s="116"/>
     </row>
-    <row r="74" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="72" customFormat="1">
       <c r="A74" s="116"/>
       <c r="B74" s="115">
         <v>44101</v>
@@ -7234,7 +7201,7 @@
       <c r="F74" s="104"/>
       <c r="G74" s="116"/>
     </row>
-    <row r="75" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="98" customFormat="1">
       <c r="A75" s="116"/>
       <c r="B75" s="115">
         <v>44102</v>
@@ -7245,7 +7212,7 @@
       <c r="F75" s="104"/>
       <c r="G75" s="116"/>
     </row>
-    <row r="76" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="98" customFormat="1">
       <c r="A76" s="116"/>
       <c r="B76" s="115">
         <v>44103</v>
@@ -7256,7 +7223,7 @@
       <c r="F76" s="104"/>
       <c r="G76" s="116"/>
     </row>
-    <row r="77" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="98" customFormat="1">
       <c r="A77" s="116"/>
       <c r="B77" s="115">
         <v>44104</v>
@@ -7267,7 +7234,7 @@
       <c r="F77" s="104"/>
       <c r="G77" s="116"/>
     </row>
-    <row r="78" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="72" customFormat="1">
       <c r="A78" s="116"/>
       <c r="B78" s="115">
         <v>44105</v>
@@ -7278,7 +7245,7 @@
       <c r="F78" s="104"/>
       <c r="G78" s="116"/>
     </row>
-    <row r="79" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="98" customFormat="1">
       <c r="A79" s="116"/>
       <c r="B79" s="115"/>
       <c r="C79" s="147"/>
@@ -7287,7 +7254,7 @@
       <c r="F79" s="104"/>
       <c r="G79" s="116"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="116"/>
       <c r="B80" s="115"/>
       <c r="C80" s="147"/>
@@ -7296,7 +7263,7 @@
       <c r="F80" s="104"/>
       <c r="G80" s="116"/>
     </row>
-    <row r="81" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="98" customFormat="1">
       <c r="A81" s="116"/>
       <c r="B81" s="115"/>
       <c r="C81" s="147"/>
@@ -7305,7 +7272,7 @@
       <c r="F81" s="104"/>
       <c r="G81" s="116"/>
     </row>
-    <row r="82" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="98" customFormat="1">
       <c r="A82" s="116"/>
       <c r="B82" s="115"/>
       <c r="C82" s="147"/>
@@ -7314,7 +7281,7 @@
       <c r="F82" s="104"/>
       <c r="G82" s="116"/>
     </row>
-    <row r="83" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="98" customFormat="1">
       <c r="A83" s="116"/>
       <c r="B83" s="115"/>
       <c r="C83" s="147"/>
@@ -7323,7 +7290,7 @@
       <c r="F83" s="104"/>
       <c r="G83" s="116"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="116"/>
       <c r="B84" s="115"/>
       <c r="C84" s="116"/>
@@ -7332,7 +7299,7 @@
       <c r="F84" s="104"/>
       <c r="G84" s="116"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="34">
         <v>35</v>
       </c>
@@ -7343,7 +7310,7 @@
       <c r="D85" s="117"/>
       <c r="E85" s="84">
         <f>SUM(E5:E84)</f>
-        <v>113350000</v>
+        <v>115030000</v>
       </c>
       <c r="F85" s="84">
         <f>SUM(F5:F84)</f>
@@ -7351,7 +7318,7 @@
       </c>
       <c r="G85" s="70"/>
     </row>
-    <row r="86" spans="1:7" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="81" customFormat="1">
       <c r="A86" s="75"/>
       <c r="B86" s="20"/>
       <c r="C86" s="151"/>
@@ -7362,26 +7329,26 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B10:B24"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B39:B47"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B10:B24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7391,7 +7358,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="94"/>
@@ -7401,7 +7368,7 @@
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="179" t="s">
         <v>108</v>
       </c>
@@ -7411,7 +7378,7 @@
       <c r="E2" s="179"/>
       <c r="F2" s="179"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -7431,7 +7398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -7443,7 +7410,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34">
         <v>8</v>
       </c>
@@ -7455,7 +7422,7 @@
       <c r="E6" s="42"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="34">
         <v>9</v>
       </c>
@@ -7467,7 +7434,7 @@
       <c r="E7" s="42"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="74" customFormat="1">
       <c r="A8" s="34">
         <v>10</v>
       </c>
@@ -7483,7 +7450,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="34">
         <v>11</v>
       </c>
@@ -7499,7 +7466,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="34">
         <v>12</v>
       </c>
@@ -7511,7 +7478,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="34">
         <v>13</v>
       </c>
@@ -7523,7 +7490,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="34">
         <v>14</v>
       </c>
@@ -7535,7 +7502,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="34">
         <v>15</v>
       </c>
@@ -7547,7 +7514,7 @@
       <c r="E13" s="42"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="66" customFormat="1">
       <c r="A14" s="34">
         <v>17</v>
       </c>
@@ -7559,7 +7526,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="34">
         <v>17</v>
       </c>
@@ -7571,7 +7538,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="34">
         <v>18</v>
       </c>
@@ -7583,7 +7550,7 @@
       <c r="E16" s="42"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="34">
         <v>19</v>
       </c>
@@ -7595,7 +7562,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="34">
         <v>20</v>
       </c>
@@ -7607,7 +7574,7 @@
       <c r="E18" s="42"/>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="34">
         <v>21</v>
       </c>
@@ -7619,7 +7586,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="34">
         <v>22</v>
       </c>
@@ -7631,7 +7598,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="34">
         <v>23</v>
       </c>
@@ -7647,7 +7614,7 @@
       </c>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="34">
         <v>24</v>
       </c>
@@ -7659,7 +7626,7 @@
       <c r="E22" s="42"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="81" customFormat="1">
       <c r="A23" s="34">
         <v>25</v>
       </c>
@@ -7671,7 +7638,7 @@
       <c r="E23" s="42"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="81" customFormat="1">
       <c r="A24" s="34">
         <v>27</v>
       </c>
@@ -7683,7 +7650,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>27</v>
       </c>
@@ -7695,7 +7662,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="64" customFormat="1">
       <c r="A26" s="34">
         <v>28</v>
       </c>
@@ -7707,7 +7674,7 @@
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="64" customFormat="1">
       <c r="A27" s="34">
         <v>29</v>
       </c>
@@ -7719,7 +7686,7 @@
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="110" customFormat="1">
       <c r="A28" s="34"/>
       <c r="B28" s="93">
         <v>44098</v>
@@ -7729,7 +7696,7 @@
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="110" customFormat="1">
       <c r="A29" s="34"/>
       <c r="B29" s="93">
         <v>44099</v>
@@ -7739,7 +7706,7 @@
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="110" customFormat="1">
       <c r="A30" s="34"/>
       <c r="B30" s="93">
         <v>44100</v>
@@ -7749,7 +7716,7 @@
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="110" customFormat="1">
       <c r="A31" s="34"/>
       <c r="B31" s="93">
         <v>44101</v>
@@ -7759,7 +7726,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="110" customFormat="1">
       <c r="A32" s="34"/>
       <c r="B32" s="93">
         <v>44102</v>
@@ -7769,7 +7736,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="110" customFormat="1">
       <c r="A33" s="34"/>
       <c r="B33" s="93">
         <v>44103</v>
@@ -7779,7 +7746,7 @@
       <c r="E33" s="42"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="110" customFormat="1">
       <c r="A34" s="34"/>
       <c r="B34" s="93">
         <v>44104</v>
@@ -7789,7 +7756,7 @@
       <c r="E34" s="42"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="26">
         <v>32</v>
       </c>
@@ -7815,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7825,7 +7792,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="45" customWidth="1"/>
@@ -7835,7 +7802,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20.25">
       <c r="B2" s="180" t="s">
         <v>109</v>
       </c>
@@ -7843,7 +7810,7 @@
       <c r="D2" s="181"/>
       <c r="E2" s="181"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -7860,7 +7827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="140" customFormat="1">
       <c r="A4" s="23"/>
       <c r="B4" s="92" t="s">
         <v>74</v>
@@ -7875,7 +7842,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="140" customFormat="1">
       <c r="A5" s="23"/>
       <c r="B5" s="92">
         <v>43897</v>
@@ -7888,7 +7855,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="140" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="92" t="s">
         <v>102</v>
@@ -7901,7 +7868,7 @@
         <v>774000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" s="183" t="s">
         <v>135</v>
@@ -7914,7 +7881,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="23"/>
       <c r="B8" s="184"/>
       <c r="C8" s="97" t="s">
@@ -7925,7 +7892,7 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="23"/>
       <c r="B9" s="182" t="s">
         <v>34</v>
@@ -7938,57 +7905,57 @@
       </c>
       <c r="F9" s="61"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" s="61"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -8008,21 +7975,21 @@
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -8030,20 +7997,20 @@
       <c r="F21" s="8"/>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="K22" s="61"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -8054,7 +8021,7 @@
       <c r="R24" s="61"/>
       <c r="S24" s="61"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -8065,28 +8032,28 @@
       <c r="R25" s="61"/>
       <c r="S25" s="61"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22">
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="S27" s="61"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="O28" s="61"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
       <c r="S28" s="61"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22">
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="61"/>
@@ -8107,17 +8074,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -8129,7 +8096,7 @@
     <col min="8" max="8" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="28.5">
       <c r="B2" s="179" t="s">
         <v>105</v>
       </c>
@@ -8140,18 +8107,18 @@
       <c r="G2" s="179"/>
       <c r="H2" s="179"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="185" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="185"/>
       <c r="D5" s="185"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="C6"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
@@ -8162,7 +8129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="31">
         <v>1</v>
       </c>
@@ -8181,7 +8148,7 @@
         <v>107400000</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="31">
         <v>2</v>
       </c>
@@ -8198,10 +8165,10 @@
       </c>
       <c r="H9" s="46">
         <f>SUM(D10,-E21,-chi!E35)</f>
-        <v>3127000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1147000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="31">
         <v>3</v>
       </c>
@@ -8210,7 +8177,7 @@
       </c>
       <c r="D10" s="42">
         <f>thuốc!D34</f>
-        <v>116837000</v>
+        <v>116537000</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>49</v>
@@ -8220,7 +8187,7 @@
         <v>26384000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="31">
         <v>4</v>
       </c>
@@ -8229,16 +8196,16 @@
       </c>
       <c r="D11" s="43">
         <f>SUM(D8:D10)</f>
-        <v>224237000</v>
+        <v>223937000</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="C12"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="186" t="s">
         <v>28</v>
       </c>
@@ -8246,8 +8213,8 @@
       <c r="D13" s="186"/>
       <c r="E13" s="186"/>
     </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30.75" customHeight="1"/>
+    <row r="16" spans="2:8">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -8261,7 +8228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="38">
         <v>1</v>
       </c>
@@ -8275,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="38">
         <v>2</v>
       </c>
@@ -8287,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="38">
         <v>4</v>
       </c>
@@ -8299,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="38">
         <v>5</v>
       </c>
@@ -8312,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="19.5" customHeight="1">
       <c r="B21" s="36">
         <v>7</v>
       </c>
@@ -8324,10 +8291,10 @@
       </c>
       <c r="E21" s="48">
         <f>nhập!E85</f>
-        <v>113350000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115030000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="18.75" customHeight="1">
       <c r="B22" s="30">
         <v>7</v>
       </c>
@@ -8342,7 +8309,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1">
       <c r="B23" s="29">
         <v>8</v>
       </c>
@@ -8352,10 +8319,10 @@
       <c r="D23" s="192"/>
       <c r="E23" s="44">
         <f>SUM(E20:E22)</f>
-        <v>113710000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115390000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
       <c r="B26" s="185" t="s">
         <v>42</v>
       </c>
@@ -8363,41 +8330,41 @@
       <c r="D26" s="185"/>
       <c r="E26" s="185"/>
     </row>
-    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="34.5" customHeight="1" thickBot="1">
       <c r="B27" s="187">
         <f>SUM(D11,-E23)</f>
-        <v>110527000</v>
+        <v>108547000</v>
       </c>
       <c r="C27" s="188"/>
       <c r="D27" s="188"/>
       <c r="E27" s="189"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15">
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15">
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15">
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15">
       <c r="O36" s="8"/>
     </row>
   </sheetData>
@@ -8417,14 +8384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -8433,7 +8400,7 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="195" t="s">
         <v>110</v>
       </c>
@@ -8442,7 +8409,7 @@
       <c r="D1" s="195"/>
       <c r="E1" s="195"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="186" t="s">
         <v>54</v>
       </c>
@@ -8451,33 +8418,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="90" customFormat="1">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="46">
         <f>E4</f>
-        <v>116837000</v>
+        <v>116537000</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="46">
         <f>thuốc!D34</f>
-        <v>116837000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116537000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="46">
         <f>chi!E35+nhập!E85</f>
-        <v>113710000</v>
+        <v>115390000</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>60</v>
@@ -8487,23 +8454,23 @@
         <v>77771500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="46">
         <f>B4-B5</f>
-        <v>3127000</v>
+        <v>1147000</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="46">
         <f>E4-E5</f>
-        <v>39065500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38765500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="186" t="s">
         <v>62</v>
       </c>
@@ -8511,7 +8478,7 @@
       <c r="C8" s="186"/>
       <c r="D8" s="186"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="193" t="s">
         <v>63</v>
       </c>
@@ -8521,13 +8488,13 @@
       </c>
       <c r="D9" s="194"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="46">
         <f>B6</f>
-        <v>3127000</v>
+        <v>1147000</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>67</v>
@@ -8536,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
@@ -8548,10 +8515,10 @@
       </c>
       <c r="D11" s="46">
         <f>E6</f>
-        <v>39065500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38765500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="46"/>
       <c r="C12" s="23" t="s">
@@ -8561,47 +8528,47 @@
         <v>94952702</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="46">
         <f>B10+B11</f>
-        <v>114441441</v>
+        <v>112461441</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="46">
         <f>SUM(D11:D12)</f>
-        <v>134018202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133718202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="D14" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="D20" s="154"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="C24" s="8"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="D26" s="8"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" s="8"/>
     </row>
   </sheetData>
@@ -8618,14 +8585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.140625" style="126" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -8638,10 +8605,10 @@
     <col min="41" max="41" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:43" s="118" customFormat="1">
       <c r="B1" s="126"/>
     </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:43">
       <c r="B2" s="126" t="s">
         <v>80</v>
       </c>
@@ -8649,10 +8616,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:43" s="118" customFormat="1">
       <c r="B3" s="126"/>
     </row>
-    <row r="4" spans="2:43" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:43" ht="46.5">
       <c r="B4" s="202" t="s">
         <v>96</v>
       </c>
@@ -8679,26 +8646,26 @@
       <c r="W4" s="202"/>
       <c r="X4" s="202"/>
     </row>
-    <row r="5" spans="2:43" s="118" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:43" s="118" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="138"/>
       <c r="C5" s="137"/>
     </row>
-    <row r="6" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:43" ht="18.75">
       <c r="B6" s="128"/>
       <c r="C6" s="139">
         <f>DATE($C$2,9,1)</f>
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:43" s="118" customFormat="1">
       <c r="B7" s="128"/>
       <c r="C7" s="129"/>
     </row>
-    <row r="8" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:43" s="118" customFormat="1">
       <c r="B8" s="128"/>
       <c r="C8" s="129"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:43">
       <c r="B10" s="203" t="s">
         <v>0</v>
       </c>
@@ -8752,7 +8719,7 @@
       <c r="AP10" s="124"/>
       <c r="AQ10" s="124"/>
     </row>
-    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:43" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="203"/>
       <c r="C11" s="203"/>
       <c r="D11" s="130">
@@ -8899,7 +8866,7 @@
       </c>
       <c r="AO11" s="200"/>
     </row>
-    <row r="12" spans="2:43" s="131" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:43" s="131" customFormat="1" ht="50.25" customHeight="1">
       <c r="B12" s="203"/>
       <c r="C12" s="203"/>
       <c r="D12" s="132" t="str">
@@ -9034,7 +9001,7 @@
       <c r="AN12" s="199"/>
       <c r="AO12" s="201"/>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:43">
       <c r="B13" s="119">
         <v>1</v>
       </c>
@@ -9100,7 +9067,7 @@
       </c>
       <c r="AO13" s="23"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:43">
       <c r="B14" s="119">
         <v>2</v>
       </c>
@@ -9164,7 +9131,7 @@
       </c>
       <c r="AO14" s="23"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:43">
       <c r="B15" s="119">
         <v>3</v>
       </c>
@@ -9228,7 +9195,7 @@
       </c>
       <c r="AO15" s="23"/>
     </row>
-    <row r="16" spans="2:43" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:43" s="118" customFormat="1">
       <c r="B16" s="119">
         <v>4</v>
       </c>
@@ -9292,7 +9259,7 @@
       </c>
       <c r="AO16" s="23"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41">
       <c r="B17" s="119"/>
       <c r="C17" s="34" t="s">
         <v>34</v>
@@ -9336,7 +9303,7 @@
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41">
       <c r="C20" s="134" t="s">
         <v>89</v>
       </c>
@@ -9344,7 +9311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41">
       <c r="C21" s="134" t="s">
         <v>88</v>
       </c>
@@ -9352,7 +9319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41">
       <c r="C22" s="134" t="s">
         <v>90</v>
       </c>
@@ -9360,7 +9327,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41">
       <c r="C23" s="134" t="s">
         <v>87</v>
       </c>
@@ -9368,7 +9335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:41">
       <c r="C24" s="134" t="s">
         <v>86</v>
       </c>
